--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4505312B-9317-40B4-8591-820D340292B3}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{965BA304-47E0-4BCA-83F7-0599D113EC0E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$83</definedName>
     <definedName name="_xlnm.Database">HOSPITALES!$A$1:$U$83</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="249">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -32,763 +42,745 @@
     <t>Pais_cod3</t>
   </si>
   <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Nivel_Admin</t>
+  </si>
+  <si>
     <t>Admin1_id</t>
   </si>
   <si>
+    <t>CodigoNiv1</t>
+  </si>
+  <si>
+    <t>Admin1nombre</t>
+  </si>
+  <si>
     <t>Adm1tipo</t>
   </si>
   <si>
     <t>Admin2_id</t>
   </si>
   <si>
+    <t>CodigoNiv2</t>
+  </si>
+  <si>
+    <t>Admin2nombre</t>
+  </si>
+  <si>
     <t>Adm2tipo</t>
   </si>
   <si>
     <t>Admin3_id</t>
   </si>
   <si>
+    <t>CodigoNiv3</t>
+  </si>
+  <si>
     <t>Admin3name</t>
   </si>
   <si>
     <t>Adm3tipo</t>
   </si>
   <si>
-    <t>CodigoNiv1</t>
-  </si>
-  <si>
-    <t>CodigoNiv2</t>
-  </si>
-  <si>
-    <t>CodigoNiv3</t>
-  </si>
-  <si>
     <t>IDRegMunic</t>
   </si>
   <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Subcategoría</t>
+  </si>
+  <si>
+    <t>Subsubcategoria</t>
+  </si>
+  <si>
     <t>Nombre</t>
   </si>
   <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Atlántida</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>La Ceiba</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>010103</t>
+  </si>
+  <si>
+    <t>Bonitillo</t>
+  </si>
+  <si>
+    <t>Aldea</t>
+  </si>
+  <si>
+    <t>HND-0101</t>
+  </si>
+  <si>
     <t>Salud</t>
   </si>
   <si>
+    <t>clínica</t>
+  </si>
+  <si>
+    <t>Clínica Metodista</t>
+  </si>
+  <si>
+    <t>010114</t>
+  </si>
+  <si>
+    <t>Piedra Pintada o La Colorada</t>
+  </si>
+  <si>
+    <t>CESAMO Corozal</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>La Masica</t>
+  </si>
+  <si>
+    <t>010514</t>
+  </si>
+  <si>
+    <t>San Juan Pueblo</t>
+  </si>
+  <si>
+    <t>HND-0105</t>
+  </si>
+  <si>
+    <t>Clínica De Especialdades</t>
+  </si>
+  <si>
+    <t>Emergencias Medicas</t>
+  </si>
+  <si>
+    <t>Clínica médica Edgar Padilla</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Copán</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>Cabañas</t>
+  </si>
+  <si>
+    <t>040201</t>
+  </si>
+  <si>
+    <t>HND-0402</t>
+  </si>
+  <si>
+    <t>M.Y.V</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Cortés</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>San Pedro Sula</t>
+  </si>
+  <si>
+    <t>050101</t>
+  </si>
+  <si>
+    <t>HND-0501</t>
+  </si>
+  <si>
+    <t>Centro de Salud</t>
+  </si>
+  <si>
+    <t>Clínica Ferraro</t>
+  </si>
+  <si>
+    <t>Clínica Dentales Unidas</t>
+  </si>
+  <si>
+    <t>0506</t>
+  </si>
+  <si>
+    <t>Puerto Cortés</t>
+  </si>
+  <si>
+    <t>050601</t>
+  </si>
+  <si>
+    <t>HND-0506</t>
+  </si>
+  <si>
+    <t>Cruz Roja Hondureña, Puerto Cortés</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Choluteca</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>060101</t>
+  </si>
+  <si>
+    <t>HND-0601</t>
+  </si>
+  <si>
+    <t>San Francisco de Asís</t>
+  </si>
+  <si>
+    <t>Ashonplafa</t>
+  </si>
+  <si>
+    <t>Clínica Santa María</t>
+  </si>
+  <si>
+    <t>0606</t>
+  </si>
+  <si>
+    <t>El Triunfo</t>
+  </si>
+  <si>
+    <t>060603</t>
+  </si>
+  <si>
+    <t>El Cedrito</t>
+  </si>
+  <si>
+    <t>HND-0606</t>
+  </si>
+  <si>
+    <t>Clínica Médica Gosén</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Francisco Morazán</t>
+  </si>
+  <si>
+    <t>0801</t>
+  </si>
+  <si>
+    <t>Distrito Central</t>
+  </si>
+  <si>
+    <t>080101</t>
+  </si>
+  <si>
+    <t>HND-0801</t>
+  </si>
+  <si>
+    <t>Laboratorio y Droguería Francelia</t>
+  </si>
+  <si>
+    <t>Clíper Hato de Enmedio</t>
+  </si>
+  <si>
+    <t>Asociación Pediatrica Hondureña</t>
+  </si>
+  <si>
+    <t>Centro Integral de Atención al Diabetico - CIAD</t>
+  </si>
+  <si>
+    <t>Clínicas Médicas</t>
+  </si>
+  <si>
+    <t>Dental Line</t>
+  </si>
+  <si>
+    <t>Óptica Robles</t>
+  </si>
+  <si>
+    <t>Laboratorio Palmira</t>
+  </si>
+  <si>
+    <t>Prolab</t>
+  </si>
+  <si>
+    <t>Clínica Rivera</t>
+  </si>
+  <si>
+    <t>Clínicas Viera</t>
+  </si>
+  <si>
+    <t>Viera</t>
+  </si>
+  <si>
+    <t>Clínica Salesiano</t>
+  </si>
+  <si>
+    <t>080111</t>
+  </si>
+  <si>
+    <t>El Piliguan</t>
+  </si>
+  <si>
+    <t>CLIPER</t>
+  </si>
+  <si>
+    <t>0806</t>
+  </si>
+  <si>
+    <t>Guaimaca</t>
+  </si>
+  <si>
+    <t>080601</t>
+  </si>
+  <si>
+    <t>HND-0806</t>
+  </si>
+  <si>
+    <t>Clínica ENGA-DI</t>
+  </si>
+  <si>
+    <t>Clínica Criolla</t>
+  </si>
+  <si>
+    <t>Clínica de Emergencias Médicas</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Intibucá</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>Jesús de Otoro</t>
+  </si>
+  <si>
+    <t>100701</t>
+  </si>
+  <si>
+    <t>HND-1007</t>
+  </si>
+  <si>
+    <t>Cruz roja Hondureña</t>
+  </si>
+  <si>
+    <t>Centro de Salud Camilo Giron Rivera</t>
+  </si>
+  <si>
+    <t>Clínica Santa Fe</t>
+  </si>
+  <si>
+    <t>Materno Infantil</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Lempira</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>Gracias</t>
+  </si>
+  <si>
+    <t>130101</t>
+  </si>
+  <si>
+    <t>HND-1301</t>
+  </si>
+  <si>
+    <t>San Lucas</t>
+  </si>
+  <si>
+    <t>1311</t>
+  </si>
+  <si>
+    <t>La Unión</t>
+  </si>
+  <si>
+    <t>131101</t>
+  </si>
+  <si>
+    <t>HND-1311</t>
+  </si>
+  <si>
+    <t>CLINICA MEDICA VIDA ABUNDANTE</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Olancho</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>Dulce Nombre de Culmí</t>
+  </si>
+  <si>
+    <t>150501</t>
+  </si>
+  <si>
+    <t>HND-1505</t>
+  </si>
+  <si>
+    <t>CLÍNICA SINAÍ</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Yoro</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>El Progreso</t>
+  </si>
+  <si>
+    <t>180401</t>
+  </si>
+  <si>
+    <t>HND-1804</t>
+  </si>
+  <si>
+    <t>clínica del ojo</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>Morazán</t>
+  </si>
+  <si>
+    <t>180601</t>
+  </si>
+  <si>
+    <t>HND-1806</t>
+  </si>
+  <si>
+    <t>Pliclinica San Jorge</t>
+  </si>
+  <si>
+    <t>Atlantida</t>
+  </si>
+  <si>
+    <t>010101</t>
+  </si>
+  <si>
     <t>hospital</t>
   </si>
   <si>
-    <t>Centro de Salud</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>0601</t>
-  </si>
-  <si>
-    <t>060101</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>0402</t>
+    <t>Hospital Oftálmico Ponce</t>
+  </si>
+  <si>
+    <t>Centro de Salud Isolina Ruíz</t>
   </si>
   <si>
     <t>02</t>
   </si>
   <si>
-    <t>040201</t>
+    <t>Colón</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>Sonaguera</t>
+  </si>
+  <si>
+    <t>020801</t>
+  </si>
+  <si>
+    <t>HND-0208</t>
+  </si>
+  <si>
+    <t>Community Health Center</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Comayagua</t>
+  </si>
+  <si>
+    <t>0318</t>
+  </si>
+  <si>
+    <t>Siguatepeque</t>
+  </si>
+  <si>
+    <t>031801</t>
+  </si>
+  <si>
+    <t>HND-0318</t>
+  </si>
+  <si>
+    <t>Hospital Evangelico</t>
+  </si>
+  <si>
+    <t>0404</t>
+  </si>
+  <si>
+    <t>Copán Ruinas</t>
+  </si>
+  <si>
+    <t>040401</t>
+  </si>
+  <si>
+    <t>HND-0404</t>
+  </si>
+  <si>
+    <t>Cruz Roja</t>
+  </si>
+  <si>
+    <t>Hospital Leonardo Martinez</t>
+  </si>
+  <si>
+    <t>Hospital Bendaña</t>
+  </si>
+  <si>
+    <t>Centro de la Mujer Monte de Sion</t>
+  </si>
+  <si>
+    <t>Centro de Diagnóstico Clínico</t>
+  </si>
+  <si>
+    <t>Clínica San Jorge</t>
+  </si>
+  <si>
+    <t>Hospital del Niño</t>
+  </si>
+  <si>
+    <t>Centro Medico</t>
+  </si>
+  <si>
+    <t>DIME</t>
+  </si>
+  <si>
+    <t>Clínica Santa Lucia</t>
+  </si>
+  <si>
+    <t>Laboratorios Clinicos express</t>
+  </si>
+  <si>
+    <t>Cruz Roja Hondureña</t>
+  </si>
+  <si>
+    <t>La Policlínica</t>
+  </si>
+  <si>
+    <t>El Carmen</t>
+  </si>
+  <si>
+    <t>Instituto Nacional Cardiopulmonar</t>
+  </si>
+  <si>
+    <t>Centro de Salud el Manchen</t>
+  </si>
+  <si>
+    <t>Centro Salud Sagrada Familia</t>
+  </si>
+  <si>
+    <t>IHSS Bario Abajo</t>
+  </si>
+  <si>
+    <t>Clínica Fudena</t>
+  </si>
+  <si>
+    <t>Centor de Salud El Chile</t>
+  </si>
+  <si>
+    <t>Centro de Salud El Bosque</t>
+  </si>
+  <si>
+    <t>0826</t>
+  </si>
+  <si>
+    <t>Valle de Ángeles</t>
+  </si>
+  <si>
+    <t>082601</t>
+  </si>
+  <si>
+    <t>HND-0826</t>
+  </si>
+  <si>
+    <t>Hospital Adventista</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>100601</t>
+  </si>
+  <si>
+    <t>HND-1006</t>
+  </si>
+  <si>
+    <t>Hospital Henrique Aguilar Cerrato</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>San Marcos de Sierra</t>
+  </si>
+  <si>
+    <t>101304</t>
+  </si>
+  <si>
+    <t>San Luis</t>
+  </si>
+  <si>
+    <t>HND-1013</t>
+  </si>
+  <si>
+    <t>Pinares Health Clinic</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Islas de La Bahía</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>Roatán</t>
+  </si>
+  <si>
+    <t>110107</t>
+  </si>
+  <si>
+    <t>Sandy Bay</t>
+  </si>
+  <si>
+    <t>HND-1101</t>
+  </si>
+  <si>
+    <t>Clínica Esperanza</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>Útila</t>
+  </si>
+  <si>
+    <t>110401</t>
+  </si>
+  <si>
+    <t>HND-1104</t>
+  </si>
+  <si>
+    <t>Centro De Salud - Clinic</t>
+  </si>
+  <si>
+    <t>Utila Community Clinic</t>
+  </si>
+  <si>
+    <t>Health Care Center</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>0404</t>
-  </si>
-  <si>
-    <t>Cruz Roja</t>
-  </si>
-  <si>
-    <t>040401</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>0606</t>
-  </si>
-  <si>
-    <t>0101</t>
-  </si>
-  <si>
-    <t>010101</t>
-  </si>
-  <si>
-    <t>060603</t>
-  </si>
-  <si>
-    <t>0105</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>San Luis</t>
-  </si>
-  <si>
-    <t>La Union</t>
-  </si>
-  <si>
-    <t>La Ceiba</t>
-  </si>
-  <si>
-    <t>Emergencias Medicas</t>
-  </si>
-  <si>
     <t>La Paz</t>
   </si>
   <si>
-    <t>010103</t>
-  </si>
-  <si>
-    <t>El Carmen</t>
-  </si>
-  <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <t>020801</t>
-  </si>
-  <si>
-    <t>0506</t>
-  </si>
-  <si>
-    <t>050601</t>
-  </si>
-  <si>
-    <t>0501</t>
-  </si>
-  <si>
-    <t>050101</t>
+    <t>1216</t>
   </si>
   <si>
     <t>Santa Elena</t>
   </si>
   <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Municipio</t>
-  </si>
-  <si>
-    <t>Colon</t>
-  </si>
-  <si>
-    <t>El Triunfo</t>
+    <t>121608</t>
+  </si>
+  <si>
+    <t>Nahuaterique</t>
+  </si>
+  <si>
+    <t>HND-1216</t>
+  </si>
+  <si>
+    <t>Centro de salud Nahuaterique</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Santa Bárbara</t>
+  </si>
+  <si>
+    <t>1617</t>
+  </si>
+  <si>
+    <t>Quimistán</t>
+  </si>
+  <si>
+    <t>161723</t>
+  </si>
+  <si>
+    <t>Ocotal Tupido</t>
+  </si>
+  <si>
+    <t>HND-1617</t>
+  </si>
+  <si>
+    <t>Hopital El Progreso</t>
+  </si>
+  <si>
+    <t>Clínica Barrientos Maradiaga</t>
+  </si>
+  <si>
+    <t>farmacia</t>
+  </si>
+  <si>
+    <t>Farmacia Simán</t>
   </si>
   <si>
     <t>Farmacia Kielsa</t>
   </si>
   <si>
-    <t>San Lucas</t>
-  </si>
-  <si>
-    <t>Francisco Morazan</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>HND</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Choluteca</t>
-  </si>
-  <si>
-    <t>Aldea</t>
-  </si>
-  <si>
-    <t>HND-0606</t>
-  </si>
-  <si>
-    <t>El Cedrito</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>HND-0601</t>
-  </si>
-  <si>
-    <t>Ashonplafa</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>110107</t>
-  </si>
-  <si>
-    <t>0801</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1301</t>
-  </si>
-  <si>
-    <t>130101</t>
-  </si>
-  <si>
-    <t>1311</t>
-  </si>
-  <si>
-    <t>131101</t>
-  </si>
-  <si>
-    <t>Distrito Central</t>
-  </si>
-  <si>
-    <t>HND-0801</t>
-  </si>
-  <si>
-    <t>080101</t>
-  </si>
-  <si>
-    <t>Nahuaterique</t>
-  </si>
-  <si>
-    <t>1216</t>
-  </si>
-  <si>
-    <t>121608</t>
-  </si>
-  <si>
-    <t>HND-1216</t>
-  </si>
-  <si>
-    <t>Centro de salud Nahuaterique</t>
-  </si>
-  <si>
-    <t>Lempira</t>
-  </si>
-  <si>
-    <t>Atlantida</t>
-  </si>
-  <si>
-    <t>Centro Medico</t>
-  </si>
-  <si>
-    <t>DIME</t>
-  </si>
-  <si>
-    <t>Laboratorios Clinicos express</t>
-  </si>
-  <si>
-    <t>Dental Line</t>
-  </si>
-  <si>
-    <t>Laboratorio Palmira</t>
-  </si>
-  <si>
-    <t>Prolab</t>
-  </si>
-  <si>
-    <t>Instituto Nacional Cardiopulmonar</t>
-  </si>
-  <si>
-    <t>Viera</t>
-  </si>
-  <si>
-    <t>Centro de Salud el Manchen</t>
-  </si>
-  <si>
-    <t>Centro Salud Sagrada Familia</t>
-  </si>
-  <si>
-    <t>IHSS Bario Abajo</t>
-  </si>
-  <si>
-    <t>El Piliguan</t>
-  </si>
-  <si>
-    <t>080111</t>
-  </si>
-  <si>
-    <t>CLIPER</t>
-  </si>
-  <si>
-    <t>Centor de Salud El Chile</t>
-  </si>
-  <si>
-    <t>Centro de Salud El Bosque</t>
-  </si>
-  <si>
-    <t>Intibuca</t>
-  </si>
-  <si>
-    <t>San Marcos de Sierra</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>HND-1013</t>
-  </si>
-  <si>
-    <t>101304</t>
-  </si>
-  <si>
-    <t>Pinares Health Clinic</t>
-  </si>
-  <si>
-    <t>Valle de Angeles</t>
-  </si>
-  <si>
-    <t>0826</t>
-  </si>
-  <si>
-    <t>082601</t>
-  </si>
-  <si>
-    <t>HND-0826</t>
-  </si>
-  <si>
-    <t>Hospital Adventista</t>
-  </si>
-  <si>
-    <t>Comayagua</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>Intibucs</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>100601</t>
-  </si>
-  <si>
-    <t>HND-1006</t>
-  </si>
-  <si>
-    <t>Hospital Henrique Aguilar Cerrato</t>
-  </si>
-  <si>
-    <t>El Progreso</t>
-  </si>
-  <si>
-    <t>Olancho</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Jesus de Otoro</t>
-  </si>
-  <si>
-    <t>Jes7s de Otoro</t>
-  </si>
-  <si>
-    <t>100701</t>
-  </si>
-  <si>
-    <t>HND-1007</t>
-  </si>
-  <si>
-    <t>Centro de Salud Camilo Giron Rivera</t>
-  </si>
-  <si>
-    <t>Materno Infantil</t>
-  </si>
-  <si>
-    <t>Guaimaca</t>
-  </si>
-  <si>
-    <t>0806</t>
-  </si>
-  <si>
-    <t>080601</t>
-  </si>
-  <si>
-    <t>HND-0806</t>
-  </si>
-  <si>
-    <t>Gracias</t>
-  </si>
-  <si>
-    <t>HND-1301</t>
-  </si>
-  <si>
-    <t>Siguatepeque</t>
-  </si>
-  <si>
-    <t>0318</t>
-  </si>
-  <si>
-    <t>HND-0318</t>
-  </si>
-  <si>
-    <t>031801</t>
-  </si>
-  <si>
-    <t>Hospital Evangelico</t>
-  </si>
-  <si>
-    <t>Copan</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Cortes</t>
-  </si>
-  <si>
-    <t>La Uni</t>
-  </si>
-  <si>
-    <t>HND-1311</t>
-  </si>
-  <si>
-    <t>CLINICA MEDICA VIDA ABUNDANTE</t>
-  </si>
-  <si>
-    <t>Cabana</t>
-  </si>
-  <si>
-    <t>HND-0402</t>
-  </si>
-  <si>
-    <t>Caba0as</t>
-  </si>
-  <si>
-    <t>M.Y.V</t>
-  </si>
-  <si>
-    <t>Copan Ruinas</t>
-  </si>
-  <si>
-    <t>Cop4n Ruinas</t>
-  </si>
-  <si>
-    <t>HND-0404</t>
-  </si>
-  <si>
-    <t>1505</t>
-  </si>
-  <si>
-    <t>Yoro</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Dulce Nombre de Culmi</t>
-  </si>
-  <si>
-    <t>Dulce Nombre de Culmd</t>
-  </si>
-  <si>
-    <t>150501</t>
-  </si>
-  <si>
-    <t>HND-1505</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>HND-1804</t>
-  </si>
-  <si>
-    <t>Morazan</t>
-  </si>
-  <si>
-    <t>Moraz1n</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>180601</t>
-  </si>
-  <si>
-    <t>HND-1806</t>
-  </si>
-  <si>
-    <t>Quimistan</t>
-  </si>
-  <si>
-    <t>Ocotal Tupido</t>
-  </si>
-  <si>
-    <t>1617</t>
-  </si>
-  <si>
-    <t>161723</t>
-  </si>
-  <si>
-    <t>HND-1617</t>
-  </si>
-  <si>
     <t>Farmacia Bethania</t>
-  </si>
-  <si>
-    <t>Pliclinica San Jorge</t>
-  </si>
-  <si>
-    <t>180401</t>
-  </si>
-  <si>
-    <t>Hopital El Progreso</t>
-  </si>
-  <si>
-    <t>San Pedro Sula</t>
-  </si>
-  <si>
-    <t>HND-0501</t>
-  </si>
-  <si>
-    <t>Hospital Leonardo Martinez</t>
-  </si>
-  <si>
-    <t>Centro de la Mujer Monte de Sion</t>
-  </si>
-  <si>
-    <t>La Masica</t>
-  </si>
-  <si>
-    <t>San Juan Pueblo</t>
-  </si>
-  <si>
-    <t>010514</t>
-  </si>
-  <si>
-    <t>HND-0105</t>
-  </si>
-  <si>
-    <t>Sonaguera</t>
-  </si>
-  <si>
-    <t>HND-0208</t>
-  </si>
-  <si>
-    <t>Community Health Center</t>
-  </si>
-  <si>
-    <t>HND-0101</t>
-  </si>
-  <si>
-    <t>Bonitillo</t>
-  </si>
-  <si>
-    <t>Piedra Pintada o La Colorada</t>
-  </si>
-  <si>
-    <t>010114</t>
-  </si>
-  <si>
-    <t>CESAMO Corozal</t>
-  </si>
-  <si>
-    <t>Puerto Cortes</t>
-  </si>
-  <si>
-    <t>HND-0506</t>
-  </si>
-  <si>
-    <t>Puerto Cortis</t>
-  </si>
-  <si>
-    <t>Islas de La Bahia</t>
-  </si>
-  <si>
-    <t>Utila</t>
-  </si>
-  <si>
-    <t>110401</t>
-  </si>
-  <si>
-    <t>HND-1104</t>
-  </si>
-  <si>
-    <t>Centro De Salud - Clinic</t>
-  </si>
-  <si>
-    <t>Utila Community Clinic</t>
-  </si>
-  <si>
-    <t>Health Care Center</t>
-  </si>
-  <si>
-    <t>Roatan</t>
-  </si>
-  <si>
-    <t>HND-1101</t>
-  </si>
-  <si>
-    <t>Sandy Bay</t>
-  </si>
-  <si>
-    <t>Farmacia Simán</t>
-  </si>
-  <si>
-    <t>Hospital Oftálmico Ponce</t>
-  </si>
-  <si>
-    <t>Nivel_Admin</t>
-  </si>
-  <si>
-    <t>País</t>
-  </si>
-  <si>
-    <t>Admin1nombre</t>
-  </si>
-  <si>
-    <t>Admin2nombre</t>
-  </si>
-  <si>
-    <t>Latitud</t>
-  </si>
-  <si>
-    <t>Categoría</t>
-  </si>
-  <si>
-    <t>Subcategoría</t>
-  </si>
-  <si>
-    <t>Longitud</t>
-  </si>
-  <si>
-    <t>clínica</t>
-  </si>
-  <si>
-    <t>Clínica Santa Fe</t>
-  </si>
-  <si>
-    <t>San Francisco de Asís</t>
-  </si>
-  <si>
-    <t>Clínica Santa María</t>
-  </si>
-  <si>
-    <t>Laboratorio y Droguería Francelia</t>
-  </si>
-  <si>
-    <t>Clínica San Jorge</t>
-  </si>
-  <si>
-    <t>Clíper Hato de Enmedio</t>
-  </si>
-  <si>
-    <t>Clínica Santa Lucia</t>
-  </si>
-  <si>
-    <t>La Policlínica</t>
-  </si>
-  <si>
-    <t>Clínica Rivera</t>
-  </si>
-  <si>
-    <t>Clínicas Viera</t>
-  </si>
-  <si>
-    <t>Clínica Salesiano</t>
-  </si>
-  <si>
-    <t>Clínica Fudena</t>
-  </si>
-  <si>
-    <t>Clínica ENGA-DI</t>
-  </si>
-  <si>
-    <t>Clínica Criolla</t>
-  </si>
-  <si>
-    <t>clínica del ojo</t>
-  </si>
-  <si>
-    <t>Clínica Barrientos Maradiaga</t>
-  </si>
-  <si>
-    <t>Clínica Ferraro</t>
-  </si>
-  <si>
-    <t>Clínica Dentales Unidas</t>
-  </si>
-  <si>
-    <t>Centro de Salud Isolina Ruíz</t>
-  </si>
-  <si>
-    <t>Clínica De Especialdades</t>
-  </si>
-  <si>
-    <t>Clínica Metodista</t>
-  </si>
-  <si>
-    <t>Clínica Esperanza</t>
-  </si>
-  <si>
-    <t>Centro Integral de Atención al Diabetico - CIAD</t>
-  </si>
-  <si>
-    <t>Centro de Diagnóstico Clínico</t>
-  </si>
-  <si>
-    <t>Clínica Médica Gosén</t>
-  </si>
-  <si>
-    <t>Clínicas Médicas</t>
-  </si>
-  <si>
-    <t>Clínica de Emergencias Médicas</t>
-  </si>
-  <si>
-    <t>Clínica médica Edgar Padilla</t>
-  </si>
-  <si>
-    <t>Hospital del Niño</t>
-  </si>
-  <si>
-    <t>Asociación Pediatrica Hondureña</t>
-  </si>
-  <si>
-    <t>Cruz Roja Hondureña</t>
-  </si>
-  <si>
-    <t>Cruz roja Hondureña</t>
-  </si>
-  <si>
-    <t>Hospital Bendaña</t>
-  </si>
-  <si>
-    <t>Cruz Roja Hondureña, Puerto Cortés</t>
-  </si>
-  <si>
-    <t>Óptica Robles</t>
-  </si>
-  <si>
-    <t>Santa Bárbaraarbara</t>
-  </si>
-  <si>
-    <t>CLÍNICA SINAÍ</t>
-  </si>
-  <si>
-    <t>Subsubcategoria</t>
   </si>
 </sst>
 </file>
@@ -798,7 +790,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1330,25 +1322,6 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.000000"/>
     </dxf>
     <dxf>
@@ -1417,6 +1390,25 @@
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1431,39 +1423,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W83" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W83" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A1:W83" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{C1D5F024-DC17-4227-B074-8AF38768A073}" name="OBJECTID_1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{A169B1E4-B733-4740-ABAD-FEDF002BAB8B}" name="Pais_cod3" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{096C2951-C4D2-4DCA-8235-C56141557427}" name="País" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{9AF02641-0A9A-46B4-A3DC-0AB40D1F9CAA}" name="Nivel_Admin" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{E5CF31EE-92B5-4D96-B2C2-AC9139119B6A}" name="Admin1_id" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{287EA482-C69F-4DD0-9867-2E0D00D208B0}" name="CodigoNiv1" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{8A757CAA-F17B-4627-BD04-EFB063EF9B3C}" name="Admin1nombre" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{F9030991-0383-4133-A68B-AFBDCA19FCC3}" name="Adm1tipo" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{EB2E734A-559B-46B7-866D-39C57385DFB7}" name="Admin2_id" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{4201694A-D649-472D-8857-A7BAFAC46F4C}" name="CodigoNiv2" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{1DFFBC27-C7F9-4787-935B-66585C606B58}" name="Admin2nombre" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{8454083C-FF01-4261-8A50-636D3A23DDAA}" name="Adm2tipo" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{89F1AC32-FE3C-4BBB-8D5B-98B5B11A7612}" name="Admin3_id" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{5F31987D-4BE0-4365-B109-01B9A04351EC}" name="CodigoNiv3" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{A062D47A-A150-4D16-B6A2-CDCF05A96298}" name="Admin3name" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{B3E6F4FB-D904-448E-B6E3-06941DADBFBC}" name="Adm3tipo" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{DFA9FA57-E9FC-4234-B8A8-387CC468F1AF}" name="IDRegMunic" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{AF8CE4E1-5E39-4E73-BECA-0AFA13DEF713}" name="Categoría" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{95DA9F6A-9AD9-4A1B-B923-BE11DD9A07C0}" name="Subcategoría" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{7EFD5BB2-FC91-4A17-A98E-D6956AD1EEC7}" name="Subsubcategoria" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{4D2CA9E5-0579-4C8A-A19A-2F42B1B8B4DA}" name="Nombre" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{3A3BAE0C-C966-45B6-8D7A-1A8020151E83}" name="Latitud" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{84FCE607-B27D-4C88-AAF5-6E00D62C98B5}" name="Longitud" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C1D5F024-DC17-4227-B074-8AF38768A073}" name="OBJECTID_1" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{A169B1E4-B733-4740-ABAD-FEDF002BAB8B}" name="Pais_cod3" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{096C2951-C4D2-4DCA-8235-C56141557427}" name="País" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{9AF02641-0A9A-46B4-A3DC-0AB40D1F9CAA}" name="Nivel_Admin" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{E5CF31EE-92B5-4D96-B2C2-AC9139119B6A}" name="Admin1_id" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{287EA482-C69F-4DD0-9867-2E0D00D208B0}" name="CodigoNiv1" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{8A757CAA-F17B-4627-BD04-EFB063EF9B3C}" name="Admin1nombre" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{F9030991-0383-4133-A68B-AFBDCA19FCC3}" name="Adm1tipo" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{EB2E734A-559B-46B7-866D-39C57385DFB7}" name="Admin2_id" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{4201694A-D649-472D-8857-A7BAFAC46F4C}" name="CodigoNiv2" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{1DFFBC27-C7F9-4787-935B-66585C606B58}" name="Admin2nombre" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{8454083C-FF01-4261-8A50-636D3A23DDAA}" name="Adm2tipo" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{89F1AC32-FE3C-4BBB-8D5B-98B5B11A7612}" name="Admin3_id" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{5F31987D-4BE0-4365-B109-01B9A04351EC}" name="CodigoNiv3" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{A062D47A-A150-4D16-B6A2-CDCF05A96298}" name="Admin3name" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{B3E6F4FB-D904-448E-B6E3-06941DADBFBC}" name="Adm3tipo" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{DFA9FA57-E9FC-4234-B8A8-387CC468F1AF}" name="IDRegMunic" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{AF8CE4E1-5E39-4E73-BECA-0AFA13DEF713}" name="Categoría" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{95DA9F6A-9AD9-4A1B-B923-BE11DD9A07C0}" name="Subcategoría" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{7EFD5BB2-FC91-4A17-A98E-D6956AD1EEC7}" name="Subsubcategoria" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{4D2CA9E5-0579-4C8A-A19A-2F42B1B8B4DA}" name="Nombre" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{3A3BAE0C-C966-45B6-8D7A-1A8020151E83}" name="Latitud" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{84FCE607-B27D-4C88-AAF5-6E00D62C98B5}" name="Longitud" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1762,37 +1754,37 @@
   <dimension ref="A1:W83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="P2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="15" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.109375" style="1" customWidth="1"/>
-    <col min="19" max="20" width="18.44140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="21.88671875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="18.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="5" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1800,78 +1792,78 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>209</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>35011</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
@@ -1880,49 +1872,49 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1">
         <v>3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="V2" s="2">
         <v>14.157299999999999</v>
@@ -1931,15 +1923,15 @@
         <v>-88.036500000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>35210</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -1948,49 +1940,49 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1">
         <v>14</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="V3" s="2">
         <v>14.159800000000001</v>
@@ -1999,15 +1991,15 @@
         <v>-88.034199999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>34680</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2016,49 +2008,49 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1">
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1">
         <v>14</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="V4" s="2">
         <v>14.068899999999999</v>
@@ -2067,15 +2059,15 @@
         <v>-87.979200000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>34681</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -2084,49 +2076,49 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1">
         <v>14</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="V5" s="2">
         <v>14.0501</v>
@@ -2135,15 +2127,15 @@
         <v>-88.147499999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>34687</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -2152,49 +2144,49 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1">
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M6" s="1">
         <v>14</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="V6" s="2">
         <v>14.3118</v>
@@ -2203,15 +2195,15 @@
         <v>-87.963700000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>32193</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -2220,49 +2212,49 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="V7" s="2">
         <v>14.3165</v>
@@ -2271,15 +2263,15 @@
         <v>-87.954700000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>33739</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -2288,49 +2280,49 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="R8" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="V8" s="2">
         <v>14.2385</v>
@@ -2339,15 +2331,15 @@
         <v>-87.930099999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>33746</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -2356,49 +2348,49 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="R9" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="V9" s="2">
         <v>14.239100000000001</v>
@@ -2407,15 +2399,15 @@
         <v>-87.900800000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>33874</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -2424,49 +2416,49 @@
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="P10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="R10" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="V10" s="2">
         <v>14.244999999999999</v>
@@ -2475,15 +2467,15 @@
         <v>-87.898399999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>34032</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
@@ -2492,49 +2484,49 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="P11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="R11" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="V11" s="2">
         <v>14.245100000000001</v>
@@ -2543,15 +2535,15 @@
         <v>-87.898399999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>34381</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -2560,49 +2552,49 @@
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="P12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="R12" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="V12" s="2">
         <v>14.246</v>
@@ -2611,15 +2603,15 @@
         <v>-87.8994</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>35483</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -2628,49 +2620,49 @@
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1">
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="V13" s="2">
         <v>14.579700000000001</v>
@@ -2679,15 +2671,15 @@
         <v>-88.589600000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>18015</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -2696,49 +2688,49 @@
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="V14" s="2">
         <v>14.5837</v>
@@ -2747,15 +2739,15 @@
         <v>-88.583399999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>18018</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -2764,49 +2756,49 @@
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="V15" s="2">
         <v>14.5839</v>
@@ -2815,15 +2807,15 @@
         <v>-88.584599999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>18021</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -2832,49 +2824,49 @@
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="V16" s="2">
         <v>14.5844</v>
@@ -2883,15 +2875,15 @@
         <v>-88.583200000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>17843</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -2900,49 +2892,49 @@
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I17" s="1">
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M17" s="1">
         <v>3</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="V17" s="2">
         <v>14.5852</v>
@@ -2951,15 +2943,15 @@
         <v>-88.586399999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>24748</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
@@ -2968,49 +2960,49 @@
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="V18" s="2">
         <v>14.5854</v>
@@ -3019,15 +3011,15 @@
         <v>-88.586399999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>24777</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -3036,49 +3028,49 @@
         <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="V19" s="2">
         <v>14.5855</v>
@@ -3087,15 +3079,15 @@
         <v>-88.582800000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>25068</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -3104,49 +3096,49 @@
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>246</v>
+        <v>92</v>
       </c>
       <c r="V20" s="2">
         <v>14.585699999999999</v>
@@ -3155,15 +3147,15 @@
         <v>-88.583699999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>25109</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -3172,49 +3164,49 @@
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>239</v>
+        <v>93</v>
       </c>
       <c r="V21" s="2">
         <v>14.585699999999999</v>
@@ -3223,15 +3215,15 @@
         <v>-88.583200000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>25231</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -3240,49 +3232,49 @@
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="V22" s="2">
         <v>14.585800000000001</v>
@@ -3291,15 +3283,15 @@
         <v>-88.581100000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>25345</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -3308,49 +3300,49 @@
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="V23" s="2">
         <v>14.585900000000001</v>
@@ -3359,15 +3351,15 @@
         <v>-88.586399999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>25348</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -3376,49 +3368,49 @@
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M24" s="1">
         <v>1</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="V24" s="2">
         <v>14.585900000000001</v>
@@ -3427,15 +3419,15 @@
         <v>-88.583200000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>25383</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
@@ -3444,49 +3436,49 @@
         <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>251</v>
+        <v>96</v>
       </c>
       <c r="V25" s="2">
         <v>14.5862</v>
@@ -3495,15 +3487,15 @@
         <v>-88.585899999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>25482</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -3512,49 +3504,49 @@
         <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="V26" s="2">
         <v>14.5869</v>
@@ -3563,15 +3555,15 @@
         <v>-88.582099999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>25513</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -3580,49 +3572,49 @@
         <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="V27" s="2">
         <v>14.587300000000001</v>
@@ -3631,15 +3623,15 @@
         <v>-88.583100000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>25514</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -3648,49 +3640,49 @@
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="V28" s="2">
         <v>14.5875</v>
@@ -3699,15 +3691,15 @@
         <v>-88.582999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>25579</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -3716,49 +3708,49 @@
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="V29" s="2">
         <v>14.5877</v>
@@ -3767,15 +3759,15 @@
         <v>-88.581800000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>25580</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
@@ -3784,49 +3776,49 @@
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="V30" s="2">
         <v>14.5878</v>
@@ -3835,15 +3827,15 @@
         <v>-88.583799999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>25639</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
@@ -3852,49 +3844,49 @@
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="V31" s="2">
         <v>14.587899999999999</v>
@@ -3903,15 +3895,15 @@
         <v>-88.582999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23">
       <c r="A32" s="1">
         <v>25696</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -3920,49 +3912,49 @@
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M32" s="1">
         <v>11</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="V32" s="2">
         <v>14.587999999999999</v>
@@ -3971,15 +3963,15 @@
         <v>-88.5822</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23">
       <c r="A33" s="1">
         <v>27118</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -3988,49 +3980,49 @@
         <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I33" s="1">
         <v>6</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="V33" s="2">
         <v>14.588200000000001</v>
@@ -4039,15 +4031,15 @@
         <v>-88.582700000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23">
       <c r="A34" s="1">
         <v>27123</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
@@ -4056,49 +4048,49 @@
         <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I34" s="1">
         <v>6</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>230</v>
+        <v>111</v>
       </c>
       <c r="V34" s="2">
         <v>14.588200000000001</v>
@@ -4107,15 +4099,15 @@
         <v>-88.582800000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23">
       <c r="A35" s="1">
         <v>27149</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
@@ -4124,49 +4116,49 @@
         <v>8</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I35" s="1">
         <v>6</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="V35" s="2">
         <v>14.5883</v>
@@ -4175,15 +4167,15 @@
         <v>-88.582800000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23">
       <c r="A36" s="1">
         <v>26364</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
@@ -4192,13 +4184,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I36" s="1">
         <v>7</v>
@@ -4207,34 +4199,34 @@
         <v>115</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="V36" s="2">
         <v>14.5885</v>
@@ -4243,15 +4235,15 @@
         <v>-88.582599999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23">
       <c r="A37" s="1">
         <v>26406</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
@@ -4260,13 +4252,13 @@
         <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I37" s="1">
         <v>7</v>
@@ -4275,34 +4267,34 @@
         <v>115</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="V37" s="2">
         <v>14.5886</v>
@@ -4311,15 +4303,15 @@
         <v>-88.581699999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23">
       <c r="A38" s="1">
         <v>26411</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
@@ -4328,13 +4320,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>7</v>
@@ -4343,34 +4335,34 @@
         <v>115</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="V38" s="2">
         <v>14.5886</v>
@@ -4379,15 +4371,15 @@
         <v>-88.581900000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23">
       <c r="A39" s="1">
         <v>26435</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -4396,13 +4388,13 @@
         <v>10</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I39" s="1">
         <v>7</v>
@@ -4411,34 +4403,34 @@
         <v>115</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M39" s="1">
         <v>1</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="V39" s="2">
         <v>14.588699999999999</v>
@@ -4447,15 +4439,15 @@
         <v>-88.582400000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23">
       <c r="A40" s="1">
         <v>27945</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -4464,49 +4456,49 @@
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I40" s="1">
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M40" s="1">
         <v>1</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="V40" s="2">
         <v>14.588699999999999</v>
@@ -4515,15 +4507,15 @@
         <v>-88.582499999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23">
       <c r="A41" s="1">
         <v>32105</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -4532,49 +4524,49 @@
         <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I41" s="1">
         <v>11</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M41" s="1">
         <v>1</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="V41" s="2">
         <v>14.588800000000001</v>
@@ -4583,15 +4575,15 @@
         <v>-88.581699999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23">
       <c r="A42" s="1">
         <v>33166</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -4600,49 +4592,49 @@
         <v>15</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I42" s="1">
         <v>5</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M42" s="1">
         <v>1</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="V42" s="2">
         <v>14.588800000000001</v>
@@ -4651,15 +4643,15 @@
         <v>-88.582700000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23">
       <c r="A43" s="1">
         <v>33558</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -4668,49 +4660,49 @@
         <v>18</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I43" s="1">
         <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M43" s="1">
         <v>1</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="V43" s="2">
         <v>14.588900000000001</v>
@@ -4719,15 +4711,15 @@
         <v>-88.580500000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23">
       <c r="A44" s="1">
         <v>33473</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -4736,49 +4728,49 @@
         <v>18</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I44" s="1">
         <v>6</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M44" s="1">
         <v>1</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="V44" s="2">
         <v>14.588900000000001</v>
@@ -4787,15 +4779,15 @@
         <v>-88.581000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23">
       <c r="A45" s="1">
         <v>35157</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -4804,49 +4796,49 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" s="1">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K45" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M45" s="1">
         <v>1</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="V45" s="2">
         <v>15.399699999999999</v>
@@ -4855,15 +4847,15 @@
         <v>-87.810199999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23">
       <c r="A46" s="1">
         <v>34679</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -4872,49 +4864,49 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I46" s="1">
         <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M46" s="1">
         <v>14</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="V46" s="2">
         <v>15.399800000000001</v>
@@ -4923,15 +4915,15 @@
         <v>-87.809799999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23">
       <c r="A47" s="1">
         <v>34736</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
@@ -4940,49 +4932,49 @@
         <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I47" s="1">
         <v>8</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M47" s="1">
         <v>1</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="V47" s="2">
         <v>15.399900000000001</v>
@@ -4991,15 +4983,15 @@
         <v>-87.809799999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23">
       <c r="A48" s="1">
         <v>28814</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
@@ -5008,49 +5000,49 @@
         <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I48" s="1">
         <v>18</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M48" s="1">
         <v>1</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="V48" s="2">
         <v>15.400499999999999</v>
@@ -5059,15 +5051,15 @@
         <v>-87.809700000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23">
       <c r="A49" s="1">
         <v>32493</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -5076,49 +5068,49 @@
         <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I49" s="1">
         <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M49" s="1">
         <v>1</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="V49" s="2">
         <v>15.400600000000001</v>
@@ -5127,15 +5119,15 @@
         <v>-87.809399999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23">
       <c r="A50" s="1">
         <v>34137</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -5144,49 +5136,49 @@
         <v>5</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M50" s="1">
         <v>1</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="P50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="R50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U50" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="V50" s="2">
         <v>15.400700000000001</v>
@@ -5195,15 +5187,15 @@
         <v>-87.809200000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23">
       <c r="A51" s="1">
         <v>34143</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
@@ -5212,49 +5204,49 @@
         <v>5</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M51" s="1">
         <v>1</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="P51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q51" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="R51" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="V51" s="2">
         <v>15.4009</v>
@@ -5263,15 +5255,15 @@
         <v>-87.811199999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23">
       <c r="A52" s="1">
         <v>34337</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
@@ -5280,46 +5272,46 @@
         <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M52" s="1">
         <v>1</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="P52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q52" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="R52" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>180</v>
@@ -5331,15 +5323,15 @@
         <v>-87.8108</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23">
       <c r="A53" s="1">
         <v>34340</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -5348,49 +5340,49 @@
         <v>5</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M53" s="1">
         <v>1</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="P53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q53" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="R53" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="V53" s="2">
         <v>15.4009</v>
@@ -5399,15 +5391,15 @@
         <v>-87.808999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23">
       <c r="A54" s="1">
         <v>24768</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -5416,49 +5408,49 @@
         <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I54" s="1">
         <v>1</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M54" s="1">
         <v>1</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="V54" s="2">
         <v>15.401</v>
@@ -5467,15 +5459,15 @@
         <v>-87.808099999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23">
       <c r="A55" s="1">
         <v>24913</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D55" s="1">
         <v>3</v>
@@ -5484,49 +5476,49 @@
         <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M55" s="1">
         <v>1</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="V55" s="2">
         <v>15.401</v>
@@ -5535,15 +5527,15 @@
         <v>-87.808099999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23">
       <c r="A56" s="1">
         <v>24917</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D56" s="1">
         <v>3</v>
@@ -5552,49 +5544,49 @@
         <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I56" s="1">
         <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M56" s="1">
         <v>1</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="V56" s="2">
         <v>15.4011</v>
@@ -5603,15 +5595,15 @@
         <v>-87.809899999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23">
       <c r="A57" s="1">
         <v>24926</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D57" s="1">
         <v>3</v>
@@ -5620,49 +5612,49 @@
         <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I57" s="1">
         <v>1</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M57" s="1">
         <v>1</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="V57" s="2">
         <v>15.4011</v>
@@ -5671,15 +5663,15 @@
         <v>-87.809700000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23">
       <c r="A58" s="1">
         <v>24954</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
@@ -5688,49 +5680,49 @@
         <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M58" s="1">
         <v>1</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="V58" s="2">
         <v>15.4011</v>
@@ -5739,15 +5731,15 @@
         <v>-87.809600000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23">
       <c r="A59" s="1">
         <v>25195</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D59" s="1">
         <v>3</v>
@@ -5756,49 +5748,49 @@
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I59" s="1">
         <v>1</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M59" s="1">
         <v>1</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="V59" s="2">
         <v>15.4011</v>
@@ -5807,15 +5799,15 @@
         <v>-87.809600000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23">
       <c r="A60" s="1">
         <v>25216</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D60" s="1">
         <v>3</v>
@@ -5824,49 +5816,49 @@
         <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M60" s="1">
         <v>1</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="V60" s="2">
         <v>15.401199999999999</v>
@@ -5875,15 +5867,15 @@
         <v>-87.794499999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23">
       <c r="A61" s="1">
         <v>25218</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D61" s="1">
         <v>3</v>
@@ -5892,49 +5884,49 @@
         <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I61" s="1">
         <v>1</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M61" s="1">
         <v>1</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="V61" s="2">
         <v>15.401300000000001</v>
@@ -5943,15 +5935,15 @@
         <v>-87.806200000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23">
       <c r="A62" s="1">
         <v>25546</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D62" s="1">
         <v>3</v>
@@ -5960,49 +5952,49 @@
         <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I62" s="1">
         <v>1</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M62" s="1">
         <v>1</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="V62" s="2">
         <v>15.401300000000001</v>
@@ -6011,15 +6003,15 @@
         <v>-87.806299999999993</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23">
       <c r="A63" s="1">
         <v>25554</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D63" s="1">
         <v>3</v>
@@ -6028,49 +6020,49 @@
         <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I63" s="1">
         <v>1</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M63" s="1">
         <v>1</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="V63" s="2">
         <v>15.401400000000001</v>
@@ -6079,15 +6071,15 @@
         <v>-87.806600000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23">
       <c r="A64" s="1">
         <v>25635</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -6096,49 +6088,49 @@
         <v>8</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I64" s="1">
         <v>1</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M64" s="1">
         <v>1</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="V64" s="2">
         <v>15.401400000000001</v>
@@ -6147,15 +6139,15 @@
         <v>-87.806600000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23">
       <c r="A65" s="1">
         <v>25667</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D65" s="1">
         <v>3</v>
@@ -6164,49 +6156,49 @@
         <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I65" s="1">
         <v>1</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M65" s="1">
         <v>1</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="V65" s="2">
         <v>15.401400000000001</v>
@@ -6215,15 +6207,15 @@
         <v>-87.8065</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23">
       <c r="A66" s="1">
         <v>25669</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
@@ -6232,49 +6224,49 @@
         <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I66" s="1">
         <v>1</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M66" s="1">
         <v>1</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="V66" s="2">
         <v>15.4015</v>
@@ -6283,15 +6275,15 @@
         <v>-87.808899999999994</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23">
       <c r="A67" s="1">
         <v>25674</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
@@ -6300,49 +6292,49 @@
         <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I67" s="1">
         <v>1</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M67" s="1">
         <v>1</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="V67" s="2">
         <v>15.4015</v>
@@ -6351,15 +6343,15 @@
         <v>-87.808899999999994</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23">
       <c r="A68" s="1">
         <v>25700</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
@@ -6368,49 +6360,49 @@
         <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I68" s="1">
         <v>1</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M68" s="1">
         <v>1</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="V68" s="2">
         <v>15.4016</v>
@@ -6419,15 +6411,15 @@
         <v>-87.810900000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23">
       <c r="A69" s="1">
         <v>25718</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -6436,49 +6428,49 @@
         <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I69" s="1">
         <v>1</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M69" s="1">
         <v>1</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="V69" s="2">
         <v>15.4016</v>
@@ -6487,15 +6479,15 @@
         <v>-87.8108</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23">
       <c r="A70" s="1">
         <v>25779</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D70" s="1">
         <v>3</v>
@@ -6504,49 +6496,49 @@
         <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I70" s="1">
         <v>26</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M70" s="1">
         <v>1</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="V70" s="2">
         <v>15.4016</v>
@@ -6555,15 +6547,15 @@
         <v>-87.8108</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23">
       <c r="A71" s="1">
         <v>25983</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D71" s="1">
         <v>3</v>
@@ -6572,49 +6564,49 @@
         <v>10</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I71" s="1">
         <v>6</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M71" s="1">
         <v>1</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="V71" s="2">
         <v>15.4016</v>
@@ -6623,15 +6615,15 @@
         <v>-87.808700000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23">
       <c r="A72" s="1">
         <v>25764</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -6640,49 +6632,49 @@
         <v>10</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I72" s="1">
         <v>13</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M72" s="1">
         <v>4</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="V72" s="2">
         <v>15.4016</v>
@@ -6691,15 +6683,15 @@
         <v>-87.808599999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23">
       <c r="A73" s="1">
         <v>35825</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D73" s="1">
         <v>3</v>
@@ -6708,49 +6700,49 @@
         <v>11</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I73" s="1">
         <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M73" s="1">
         <v>7</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="V73" s="2">
         <v>15.4016</v>
@@ -6759,15 +6751,15 @@
         <v>-87.807500000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23">
       <c r="A74" s="1">
         <v>35579</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D74" s="1">
         <v>3</v>
@@ -6776,49 +6768,49 @@
         <v>11</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I74" s="1">
         <v>4</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M74" s="1">
         <v>1</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="V74" s="2">
         <v>15.4016</v>
@@ -6827,15 +6819,15 @@
         <v>-87.810299999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23">
       <c r="A75" s="1">
         <v>35627</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D75" s="1">
         <v>3</v>
@@ -6844,49 +6836,49 @@
         <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I75" s="1">
         <v>4</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M75" s="1">
         <v>1</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="V75" s="2">
         <v>15.4017</v>
@@ -6895,15 +6887,15 @@
         <v>-87.805899999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23">
       <c r="A76" s="1">
         <v>35663</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D76" s="1">
         <v>3</v>
@@ -6912,49 +6904,49 @@
         <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I76" s="1">
         <v>4</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M76" s="1">
         <v>1</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="V76" s="2">
         <v>15.4018</v>
@@ -6963,15 +6955,15 @@
         <v>-87.810100000000006</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23">
       <c r="A77" s="1">
         <v>24585</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D77" s="1">
         <v>3</v>
@@ -6980,49 +6972,49 @@
         <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I77" s="1">
         <v>16</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M77" s="1">
         <v>8</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="V77" s="2">
         <v>15.4018</v>
@@ -7031,15 +7023,15 @@
         <v>-87.810100000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23">
       <c r="A78" s="1">
         <v>33339</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D78" s="1">
         <v>3</v>
@@ -7048,49 +7040,49 @@
         <v>16</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I78" s="1">
         <v>17</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M78" s="1">
         <v>23</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="V78" s="2">
         <v>15.4018</v>
@@ -7099,15 +7091,15 @@
         <v>-87.807699999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23">
       <c r="A79" s="1">
         <v>33556</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D79" s="1">
         <v>3</v>
@@ -7116,49 +7108,49 @@
         <v>18</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I79" s="1">
         <v>4</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M79" s="1">
         <v>1</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="V79" s="2">
         <v>15.401899999999999</v>
@@ -7167,15 +7159,15 @@
         <v>-87.810400000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23">
       <c r="A80" s="1">
         <v>33567</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D80" s="1">
         <v>3</v>
@@ -7184,49 +7176,49 @@
         <v>18</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I80" s="1">
         <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M80" s="1">
         <v>1</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="V80" s="2">
         <v>15.401899999999999</v>
@@ -7235,15 +7227,15 @@
         <v>-87.809299999999993</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23">
       <c r="A81" s="1">
         <v>33430</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D81" s="1">
         <v>3</v>
@@ -7252,49 +7244,49 @@
         <v>18</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I81" s="1">
         <v>6</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M81" s="1">
         <v>1</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="V81" s="2">
         <v>15.401999999999999</v>
@@ -7303,15 +7295,15 @@
         <v>-87.810199999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23">
       <c r="A82" s="1">
         <v>33432</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D82" s="1">
         <v>3</v>
@@ -7320,49 +7312,49 @@
         <v>18</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I82" s="1">
         <v>6</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M82" s="1">
         <v>1</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="V82" s="2">
         <v>15.402100000000001</v>
@@ -7371,15 +7363,15 @@
         <v>-87.806700000000006</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23">
       <c r="A83" s="1">
         <v>33434</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D83" s="1">
         <v>3</v>
@@ -7388,49 +7380,49 @@
         <v>18</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I83" s="1">
         <v>6</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M83" s="1">
         <v>1</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="V83" s="2">
         <v>15.402100000000001</v>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{965BA304-47E0-4BCA-83F7-0599D113EC0E}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5969E97-5243-4910-BAF5-D019EC74BF8D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="246">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -156,6 +156,9 @@
     <t>Piedra Pintada o La Colorada</t>
   </si>
   <si>
+    <t>centro de salud</t>
+  </si>
+  <si>
     <t>CESAMO Corozal</t>
   </si>
   <si>
@@ -177,10 +180,10 @@
     <t>Clínica De Especialdades</t>
   </si>
   <si>
-    <t>Emergencias Medicas</t>
-  </si>
-  <si>
-    <t>Clínica médica Edgar Padilla</t>
+    <t>Emergencias Médicas</t>
+  </si>
+  <si>
+    <t>Clínica Médica Edgar Padilla</t>
   </si>
   <si>
     <t>04</t>
@@ -243,7 +246,7 @@
     <t>HND-0506</t>
   </si>
   <si>
-    <t>Cruz Roja Hondureña, Puerto Cortés</t>
+    <t>Cruz Roja Hondureña</t>
   </si>
   <si>
     <t>06</t>
@@ -261,7 +264,7 @@
     <t>HND-0601</t>
   </si>
   <si>
-    <t>San Francisco de Asís</t>
+    <t>Clínica San Francisco de Asís</t>
   </si>
   <si>
     <t>Ashonplafa</t>
@@ -309,7 +312,7 @@
     <t>Laboratorio y Droguería Francelia</t>
   </si>
   <si>
-    <t>Clíper Hato de Enmedio</t>
+    <t>Clínica Clíper Hato de Enmedio</t>
   </si>
   <si>
     <t>Asociación Pediatrica Hondureña</t>
@@ -336,10 +339,7 @@
     <t>Clínica Rivera</t>
   </si>
   <si>
-    <t>Clínicas Viera</t>
-  </si>
-  <si>
-    <t>Viera</t>
+    <t>Hospital y Clínicas Viera</t>
   </si>
   <si>
     <t>Clínica Salesiano</t>
@@ -393,9 +393,6 @@
     <t>HND-1007</t>
   </si>
   <si>
-    <t>Cruz roja Hondureña</t>
-  </si>
-  <si>
     <t>Centro de Salud Camilo Giron Rivera</t>
   </si>
   <si>
@@ -438,7 +435,7 @@
     <t>HND-1311</t>
   </si>
   <si>
-    <t>CLINICA MEDICA VIDA ABUNDANTE</t>
+    <t>Clínica Médica Vida Abundante</t>
   </si>
   <si>
     <t>15</t>
@@ -459,7 +456,7 @@
     <t>HND-1505</t>
   </si>
   <si>
-    <t>CLÍNICA SINAÍ</t>
+    <t>Clínica Sinaí</t>
   </si>
   <si>
     <t>18</t>
@@ -480,7 +477,7 @@
     <t>HND-1804</t>
   </si>
   <si>
-    <t>clínica del ojo</t>
+    <t>Clínica del Ojo</t>
   </si>
   <si>
     <t>1806</t>
@@ -495,7 +492,7 @@
     <t>HND-1806</t>
   </si>
   <si>
-    <t>Pliclinica San Jorge</t>
+    <t>Policlínica San Jorge</t>
   </si>
   <si>
     <t>Atlantida</t>
@@ -567,10 +564,7 @@
     <t>HND-0404</t>
   </si>
   <si>
-    <t>Cruz Roja</t>
-  </si>
-  <si>
-    <t>Hospital Leonardo Martinez</t>
+    <t>Hospital Leonardo Martínez</t>
   </si>
   <si>
     <t>Hospital Bendaña</t>
@@ -582,13 +576,13 @@
     <t>Centro de Diagnóstico Clínico</t>
   </si>
   <si>
-    <t>Clínica San Jorge</t>
+    <t>Hospital San Jorge</t>
   </si>
   <si>
     <t>Hospital del Niño</t>
   </si>
   <si>
-    <t>Centro Medico</t>
+    <t>Centro Médico</t>
   </si>
   <si>
     <t>DIME</t>
@@ -597,10 +591,7 @@
     <t>Clínica Santa Lucia</t>
   </si>
   <si>
-    <t>Laboratorios Clinicos express</t>
-  </si>
-  <si>
-    <t>Cruz Roja Hondureña</t>
+    <t>Laboratorios Clínicos Express</t>
   </si>
   <si>
     <t>La Policlínica</t>
@@ -612,7 +603,7 @@
     <t>Instituto Nacional Cardiopulmonar</t>
   </si>
   <si>
-    <t>Centro de Salud el Manchen</t>
+    <t>Centro de Salud El Manchen</t>
   </si>
   <si>
     <t>Centro Salud Sagrada Familia</t>
@@ -624,7 +615,7 @@
     <t>Clínica Fudena</t>
   </si>
   <si>
-    <t>Centor de Salud El Chile</t>
+    <t>Centro de Salud El Chile</t>
   </si>
   <si>
     <t>Centro de Salud El Bosque</t>
@@ -1754,8 +1745,8 @@
   <dimension ref="A1:W83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="P2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -1770,7 +1761,7 @@
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" style="1" customWidth="1"/>
@@ -1979,10 +1970,10 @@
         <v>35</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V3" s="2">
         <v>14.159800000000001</v>
@@ -2020,10 +2011,10 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>30</v>
@@ -2032,16 +2023,16 @@
         <v>14</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>35</v>
@@ -2050,7 +2041,7 @@
         <v>36</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V4" s="2">
         <v>14.068899999999999</v>
@@ -2088,10 +2079,10 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>30</v>
@@ -2100,16 +2091,16 @@
         <v>14</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>35</v>
@@ -2118,7 +2109,7 @@
         <v>36</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V5" s="2">
         <v>14.0501</v>
@@ -2156,10 +2147,10 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>30</v>
@@ -2168,16 +2159,16 @@
         <v>14</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>35</v>
@@ -2186,7 +2177,7 @@
         <v>36</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V6" s="2">
         <v>14.3118</v>
@@ -2212,10 +2203,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>27</v>
@@ -2224,10 +2215,10 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>30</v>
@@ -2236,16 +2227,16 @@
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="P7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>35</v>
@@ -2254,7 +2245,7 @@
         <v>36</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V7" s="2">
         <v>14.3165</v>
@@ -2280,10 +2271,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>27</v>
@@ -2292,10 +2283,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>30</v>
@@ -2304,16 +2295,16 @@
         <v>1</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>35</v>
@@ -2322,7 +2313,7 @@
         <v>36</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V8" s="2">
         <v>14.2385</v>
@@ -2348,10 +2339,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>27</v>
@@ -2360,10 +2351,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>30</v>
@@ -2372,16 +2363,16 @@
         <v>1</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>35</v>
@@ -2390,7 +2381,7 @@
         <v>36</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V9" s="2">
         <v>14.239100000000001</v>
@@ -2416,10 +2407,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>27</v>
@@ -2428,10 +2419,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>30</v>
@@ -2440,16 +2431,16 @@
         <v>1</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>35</v>
@@ -2458,7 +2449,7 @@
         <v>36</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V10" s="2">
         <v>14.244999999999999</v>
@@ -2484,10 +2475,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>27</v>
@@ -2496,10 +2487,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>30</v>
@@ -2508,16 +2499,16 @@
         <v>1</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>35</v>
@@ -2526,7 +2517,7 @@
         <v>36</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V11" s="2">
         <v>14.245100000000001</v>
@@ -2552,10 +2543,10 @@
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>27</v>
@@ -2564,10 +2555,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>30</v>
@@ -2576,16 +2567,16 @@
         <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>35</v>
@@ -2594,7 +2585,7 @@
         <v>36</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V12" s="2">
         <v>14.246</v>
@@ -2620,10 +2611,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>27</v>
@@ -2632,10 +2623,10 @@
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>30</v>
@@ -2644,16 +2635,16 @@
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="P13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>35</v>
@@ -2662,7 +2653,7 @@
         <v>36</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V13" s="2">
         <v>14.579700000000001</v>
@@ -2688,10 +2679,10 @@
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>27</v>
@@ -2700,11 +2691,11 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="L14" s="1" t="s">
         <v>30</v>
       </c>
@@ -2712,16 +2703,16 @@
         <v>1</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>35</v>
@@ -2730,7 +2721,7 @@
         <v>36</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V14" s="2">
         <v>14.5837</v>
@@ -2756,10 +2747,10 @@
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>27</v>
@@ -2768,11 +2759,11 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="L15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2780,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>35</v>
@@ -2798,7 +2789,7 @@
         <v>36</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" s="2">
         <v>14.5839</v>
@@ -2824,10 +2815,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>27</v>
@@ -2836,11 +2827,11 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="L16" s="1" t="s">
         <v>30</v>
       </c>
@@ -2848,16 +2839,16 @@
         <v>1</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>35</v>
@@ -2866,7 +2857,7 @@
         <v>36</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" s="2">
         <v>14.5844</v>
@@ -2892,10 +2883,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>27</v>
@@ -2904,10 +2895,10 @@
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>30</v>
@@ -2916,16 +2907,16 @@
         <v>3</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>35</v>
@@ -2934,7 +2925,7 @@
         <v>36</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V17" s="2">
         <v>14.5852</v>
@@ -2960,10 +2951,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>27</v>
@@ -2972,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>30</v>
@@ -2984,16 +2975,16 @@
         <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>35</v>
@@ -3002,7 +2993,7 @@
         <v>36</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V18" s="2">
         <v>14.5854</v>
@@ -3028,10 +3019,10 @@
         <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>27</v>
@@ -3040,10 +3031,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>30</v>
@@ -3052,16 +3043,16 @@
         <v>1</v>
       </c>
       <c r="N19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>35</v>
@@ -3070,7 +3061,7 @@
         <v>36</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V19" s="2">
         <v>14.5855</v>
@@ -3096,10 +3087,10 @@
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>27</v>
@@ -3108,10 +3099,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>30</v>
@@ -3120,16 +3111,16 @@
         <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>35</v>
@@ -3138,7 +3129,7 @@
         <v>36</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V20" s="2">
         <v>14.585699999999999</v>
@@ -3164,10 +3155,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>27</v>
@@ -3176,10 +3167,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>30</v>
@@ -3188,16 +3179,16 @@
         <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>35</v>
@@ -3206,7 +3197,7 @@
         <v>36</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V21" s="2">
         <v>14.585699999999999</v>
@@ -3232,10 +3223,10 @@
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>27</v>
@@ -3244,10 +3235,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>30</v>
@@ -3256,25 +3247,25 @@
         <v>1</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V22" s="2">
         <v>14.585800000000001</v>
@@ -3300,10 +3291,10 @@
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>27</v>
@@ -3312,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>30</v>
@@ -3324,16 +3315,16 @@
         <v>1</v>
       </c>
       <c r="N23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>35</v>
@@ -3342,7 +3333,7 @@
         <v>36</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="V23" s="2">
         <v>14.585900000000001</v>
@@ -3368,10 +3359,10 @@
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>27</v>
@@ -3380,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>30</v>
@@ -3392,16 +3383,16 @@
         <v>1</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>35</v>
@@ -3410,7 +3401,7 @@
         <v>36</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V24" s="2">
         <v>14.585900000000001</v>
@@ -3436,10 +3427,10 @@
         <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>27</v>
@@ -3448,10 +3439,10 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>30</v>
@@ -3460,16 +3451,16 @@
         <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>35</v>
@@ -3478,7 +3469,7 @@
         <v>36</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="V25" s="2">
         <v>14.5862</v>
@@ -3504,10 +3495,10 @@
         <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>27</v>
@@ -3516,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>30</v>
@@ -3528,16 +3519,16 @@
         <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>35</v>
@@ -3546,7 +3537,7 @@
         <v>36</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V26" s="2">
         <v>14.5869</v>
@@ -3572,10 +3563,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>27</v>
@@ -3584,10 +3575,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>30</v>
@@ -3596,16 +3587,16 @@
         <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>35</v>
@@ -3614,7 +3605,7 @@
         <v>36</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V27" s="2">
         <v>14.587300000000001</v>
@@ -3640,10 +3631,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>27</v>
@@ -3652,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>30</v>
@@ -3664,16 +3655,16 @@
         <v>1</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>35</v>
@@ -3682,7 +3673,7 @@
         <v>36</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V28" s="2">
         <v>14.5875</v>
@@ -3708,10 +3699,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>27</v>
@@ -3720,10 +3711,10 @@
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>30</v>
@@ -3732,16 +3723,16 @@
         <v>1</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>35</v>
@@ -3750,7 +3741,7 @@
         <v>36</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V29" s="2">
         <v>14.5877</v>
@@ -3776,10 +3767,10 @@
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>27</v>
@@ -3788,10 +3779,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>30</v>
@@ -3800,16 +3791,16 @@
         <v>1</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O30" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>35</v>
@@ -3844,10 +3835,10 @@
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>27</v>
@@ -3856,10 +3847,10 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>30</v>
@@ -3868,16 +3859,16 @@
         <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>35</v>
@@ -3912,10 +3903,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>27</v>
@@ -3924,10 +3915,10 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>30</v>
@@ -3945,7 +3936,7 @@
         <v>33</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>35</v>
@@ -3980,10 +3971,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>27</v>
@@ -4048,10 +4039,10 @@
         <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>27</v>
@@ -4116,10 +4107,10 @@
         <v>8</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>27</v>
@@ -4226,7 +4217,7 @@
         <v>36</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="V36" s="2">
         <v>14.5885</v>
@@ -4294,7 +4285,7 @@
         <v>36</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V37" s="2">
         <v>14.5886</v>
@@ -4362,7 +4353,7 @@
         <v>36</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V38" s="2">
         <v>14.5886</v>
@@ -4430,7 +4421,7 @@
         <v>36</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V39" s="2">
         <v>14.588699999999999</v>
@@ -4456,40 +4447,40 @@
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" s="1">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M40" s="1">
-        <v>1</v>
-      </c>
-      <c r="N40" s="1" t="s">
+      <c r="O40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>35</v>
@@ -4498,7 +4489,7 @@
         <v>36</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V40" s="2">
         <v>14.588699999999999</v>
@@ -4524,10 +4515,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>27</v>
@@ -4536,28 +4527,28 @@
         <v>11</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M41" s="1">
-        <v>1</v>
-      </c>
-      <c r="N41" s="1" t="s">
+      <c r="O41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>35</v>
@@ -4566,7 +4557,7 @@
         <v>36</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V41" s="2">
         <v>14.588800000000001</v>
@@ -4592,10 +4583,10 @@
         <v>15</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>27</v>
@@ -4604,28 +4595,28 @@
         <v>5</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M42" s="1">
-        <v>1</v>
-      </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>35</v>
@@ -4634,7 +4625,7 @@
         <v>36</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V42" s="2">
         <v>14.588800000000001</v>
@@ -4660,10 +4651,10 @@
         <v>18</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>27</v>
@@ -4672,28 +4663,28 @@
         <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M43" s="1">
-        <v>1</v>
-      </c>
-      <c r="N43" s="1" t="s">
+      <c r="O43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>35</v>
@@ -4702,7 +4693,7 @@
         <v>36</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V43" s="2">
         <v>14.588900000000001</v>
@@ -4728,10 +4719,10 @@
         <v>18</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>27</v>
@@ -4740,28 +4731,28 @@
         <v>6</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" s="1">
-        <v>1</v>
-      </c>
-      <c r="N44" s="1" t="s">
+      <c r="O44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>35</v>
@@ -4770,7 +4761,7 @@
         <v>36</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V44" s="2">
         <v>14.588900000000001</v>
@@ -4799,7 +4790,7 @@
         <v>25</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>27</v>
@@ -4820,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>29</v>
@@ -4835,10 +4826,10 @@
         <v>35</v>
       </c>
       <c r="S45" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U45" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="V45" s="2">
         <v>15.399699999999999</v>
@@ -4867,7 +4858,7 @@
         <v>25</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>27</v>
@@ -4876,10 +4867,10 @@
         <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>30</v>
@@ -4888,25 +4879,25 @@
         <v>14</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V46" s="2">
         <v>15.399800000000001</v>
@@ -4932,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>27</v>
@@ -4944,37 +4935,37 @@
         <v>8</v>
       </c>
       <c r="J47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M47" s="1">
-        <v>1</v>
-      </c>
-      <c r="N47" s="1" t="s">
+      <c r="O47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O47" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q47" s="1" t="s">
+      <c r="R47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U47" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="V47" s="2">
         <v>15.399900000000001</v>
@@ -5000,10 +4991,10 @@
         <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>27</v>
@@ -5012,37 +5003,37 @@
         <v>18</v>
       </c>
       <c r="J48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M48" s="1">
-        <v>1</v>
-      </c>
-      <c r="N48" s="1" t="s">
+      <c r="O48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q48" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="O48" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q48" s="1" t="s">
+      <c r="R48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U48" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="V48" s="2">
         <v>15.400499999999999</v>
@@ -5068,10 +5059,10 @@
         <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>27</v>
@@ -5080,37 +5071,37 @@
         <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M49" s="1">
-        <v>1</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q49" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="O49" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="R49" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="V49" s="2">
         <v>15.400600000000001</v>
@@ -5136,10 +5127,10 @@
         <v>5</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>27</v>
@@ -5148,10 +5139,10 @@
         <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>30</v>
@@ -5160,25 +5151,25 @@
         <v>1</v>
       </c>
       <c r="N50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O50" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P50" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="V50" s="2">
         <v>15.400700000000001</v>
@@ -5204,10 +5195,10 @@
         <v>5</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>27</v>
@@ -5216,10 +5207,10 @@
         <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>30</v>
@@ -5228,25 +5219,25 @@
         <v>1</v>
       </c>
       <c r="N51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O51" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P51" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="V51" s="2">
         <v>15.4009</v>
@@ -5272,10 +5263,10 @@
         <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>27</v>
@@ -5284,10 +5275,10 @@
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>30</v>
@@ -5296,25 +5287,25 @@
         <v>1</v>
       </c>
       <c r="N52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O52" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P52" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="V52" s="2">
         <v>15.4009</v>
@@ -5340,10 +5331,10 @@
         <v>5</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>27</v>
@@ -5352,10 +5343,10 @@
         <v>1</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>30</v>
@@ -5364,25 +5355,25 @@
         <v>1</v>
       </c>
       <c r="N53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O53" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P53" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V53" s="2">
         <v>15.4009</v>
@@ -5408,10 +5399,10 @@
         <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>27</v>
@@ -5420,10 +5411,10 @@
         <v>1</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>30</v>
@@ -5432,25 +5423,25 @@
         <v>1</v>
       </c>
       <c r="N54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O54" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P54" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="V54" s="2">
         <v>15.401</v>
@@ -5476,10 +5467,10 @@
         <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>27</v>
@@ -5488,10 +5479,10 @@
         <v>1</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>30</v>
@@ -5500,25 +5491,25 @@
         <v>1</v>
       </c>
       <c r="N55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O55" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V55" s="2">
         <v>15.401</v>
@@ -5544,10 +5535,10 @@
         <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>27</v>
@@ -5556,10 +5547,10 @@
         <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>30</v>
@@ -5568,25 +5559,25 @@
         <v>1</v>
       </c>
       <c r="N56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O56" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O56" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P56" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V56" s="2">
         <v>15.4011</v>
@@ -5612,10 +5603,10 @@
         <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>27</v>
@@ -5624,10 +5615,10 @@
         <v>1</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>30</v>
@@ -5636,25 +5627,25 @@
         <v>1</v>
       </c>
       <c r="N57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O57" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P57" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="V57" s="2">
         <v>15.4011</v>
@@ -5680,10 +5671,10 @@
         <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>27</v>
@@ -5692,10 +5683,10 @@
         <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>30</v>
@@ -5704,25 +5695,25 @@
         <v>1</v>
       </c>
       <c r="N58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O58" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P58" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="V58" s="2">
         <v>15.4011</v>
@@ -5748,10 +5739,10 @@
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>27</v>
@@ -5760,10 +5751,10 @@
         <v>1</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>30</v>
@@ -5772,25 +5763,25 @@
         <v>1</v>
       </c>
       <c r="N59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O59" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P59" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V59" s="2">
         <v>15.4011</v>
@@ -5816,10 +5807,10 @@
         <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>27</v>
@@ -5828,10 +5819,10 @@
         <v>1</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>30</v>
@@ -5840,25 +5831,25 @@
         <v>1</v>
       </c>
       <c r="N60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O60" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P60" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="V60" s="2">
         <v>15.401199999999999</v>
@@ -5884,10 +5875,10 @@
         <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>27</v>
@@ -5896,10 +5887,10 @@
         <v>1</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>30</v>
@@ -5908,25 +5899,25 @@
         <v>1</v>
       </c>
       <c r="N61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O61" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P61" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R61" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="V61" s="2">
         <v>15.401300000000001</v>
@@ -5952,10 +5943,10 @@
         <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>27</v>
@@ -5964,10 +5955,10 @@
         <v>1</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>30</v>
@@ -5976,25 +5967,25 @@
         <v>1</v>
       </c>
       <c r="N62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O62" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P62" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="V62" s="2">
         <v>15.401300000000001</v>
@@ -6020,10 +6011,10 @@
         <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>27</v>
@@ -6032,10 +6023,10 @@
         <v>1</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>30</v>
@@ -6044,25 +6035,25 @@
         <v>1</v>
       </c>
       <c r="N63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O63" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P63" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="V63" s="2">
         <v>15.401400000000001</v>
@@ -6088,10 +6079,10 @@
         <v>8</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>27</v>
@@ -6100,10 +6091,10 @@
         <v>1</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>30</v>
@@ -6112,25 +6103,25 @@
         <v>1</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O64" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P64" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R64" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="V64" s="2">
         <v>15.401400000000001</v>
@@ -6156,10 +6147,10 @@
         <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>27</v>
@@ -6168,10 +6159,10 @@
         <v>1</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>30</v>
@@ -6180,25 +6171,25 @@
         <v>1</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O65" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O65" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P65" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R65" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="V65" s="2">
         <v>15.401400000000001</v>
@@ -6224,10 +6215,10 @@
         <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>27</v>
@@ -6236,10 +6227,10 @@
         <v>1</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>30</v>
@@ -6248,25 +6239,25 @@
         <v>1</v>
       </c>
       <c r="N66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O66" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O66" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P66" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R66" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="V66" s="2">
         <v>15.4015</v>
@@ -6292,10 +6283,10 @@
         <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>27</v>
@@ -6304,10 +6295,10 @@
         <v>1</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>30</v>
@@ -6316,25 +6307,25 @@
         <v>1</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O67" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O67" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P67" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R67" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="V67" s="2">
         <v>15.4015</v>
@@ -6360,10 +6351,10 @@
         <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>27</v>
@@ -6372,10 +6363,10 @@
         <v>1</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>30</v>
@@ -6384,25 +6375,25 @@
         <v>1</v>
       </c>
       <c r="N68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O68" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O68" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P68" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="V68" s="2">
         <v>15.4016</v>
@@ -6428,10 +6419,10 @@
         <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>27</v>
@@ -6440,10 +6431,10 @@
         <v>1</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>30</v>
@@ -6452,25 +6443,25 @@
         <v>1</v>
       </c>
       <c r="N69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O69" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O69" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P69" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R69" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="V69" s="2">
         <v>15.4016</v>
@@ -6496,10 +6487,10 @@
         <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>27</v>
@@ -6508,37 +6499,37 @@
         <v>26</v>
       </c>
       <c r="J70" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M70" s="1">
+        <v>1</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q70" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="R70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U70" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M70" s="1">
-        <v>1</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="V70" s="2">
         <v>15.4016</v>
@@ -6576,7 +6567,7 @@
         <v>6</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>114</v>
@@ -6588,7 +6579,7 @@
         <v>1</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>114</v>
@@ -6597,16 +6588,16 @@
         <v>33</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R71" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="V71" s="2">
         <v>15.4016</v>
@@ -6644,10 +6635,10 @@
         <v>13</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>30</v>
@@ -6656,25 +6647,25 @@
         <v>4</v>
       </c>
       <c r="N72" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U72" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="V72" s="2">
         <v>15.4016</v>
@@ -6700,22 +6691,22 @@
         <v>11</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I73" s="1">
-        <v>1</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>30</v>
@@ -6724,25 +6715,25 @@
         <v>7</v>
       </c>
       <c r="N73" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U73" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="V73" s="2">
         <v>15.4016</v>
@@ -6768,10 +6759,10 @@
         <v>11</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>27</v>
@@ -6780,37 +6771,37 @@
         <v>4</v>
       </c>
       <c r="J74" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M74" s="1">
+        <v>1</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="R74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U74" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M74" s="1">
-        <v>1</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U74" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="V74" s="2">
         <v>15.4016</v>
@@ -6836,10 +6827,10 @@
         <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>27</v>
@@ -6848,37 +6839,37 @@
         <v>4</v>
       </c>
       <c r="J75" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M75" s="1">
+        <v>1</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q75" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M75" s="1">
-        <v>1</v>
-      </c>
-      <c r="N75" s="1" t="s">
+      <c r="R75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U75" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="V75" s="2">
         <v>15.4017</v>
@@ -6904,10 +6895,10 @@
         <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>27</v>
@@ -6916,37 +6907,37 @@
         <v>4</v>
       </c>
       <c r="J76" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" s="1">
+        <v>1</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q76" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M76" s="1">
-        <v>1</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q76" s="1" t="s">
+      <c r="R76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U76" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S76" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="V76" s="2">
         <v>15.4018</v>
@@ -6972,10 +6963,10 @@
         <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>27</v>
@@ -6984,10 +6975,10 @@
         <v>16</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>30</v>
@@ -6996,25 +6987,25 @@
         <v>8</v>
       </c>
       <c r="N77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U77" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q77" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="R77" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U77" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="V77" s="2">
         <v>15.4018</v>
@@ -7040,10 +7031,10 @@
         <v>16</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>27</v>
@@ -7052,37 +7043,37 @@
         <v>17</v>
       </c>
       <c r="J78" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M78" s="1">
+        <v>23</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O78" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="P78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q78" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L78" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M78" s="1">
-        <v>23</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="R78" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V78" s="2">
         <v>15.4018</v>
@@ -7108,10 +7099,10 @@
         <v>18</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>27</v>
@@ -7120,37 +7111,37 @@
         <v>4</v>
       </c>
       <c r="J79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="L79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M79" s="1">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M79" s="1">
-        <v>1</v>
-      </c>
-      <c r="N79" s="1" t="s">
+      <c r="O79" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q79" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O79" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="R79" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V79" s="2">
         <v>15.401899999999999</v>
@@ -7176,10 +7167,10 @@
         <v>18</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>27</v>
@@ -7188,37 +7179,37 @@
         <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="L80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M80" s="1">
+        <v>1</v>
+      </c>
+      <c r="N80" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L80" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M80" s="1">
-        <v>1</v>
-      </c>
-      <c r="N80" s="1" t="s">
+      <c r="O80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q80" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O80" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="R80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="V80" s="2">
         <v>15.401899999999999</v>
@@ -7244,10 +7235,10 @@
         <v>18</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>27</v>
@@ -7256,37 +7247,37 @@
         <v>6</v>
       </c>
       <c r="J81" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="L81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M81" s="1">
+        <v>1</v>
+      </c>
+      <c r="N81" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L81" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M81" s="1">
-        <v>1</v>
-      </c>
-      <c r="N81" s="1" t="s">
+      <c r="O81" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q81" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O81" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="R81" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="V81" s="2">
         <v>15.401999999999999</v>
@@ -7312,10 +7303,10 @@
         <v>18</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>27</v>
@@ -7324,37 +7315,37 @@
         <v>6</v>
       </c>
       <c r="J82" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="L82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" s="1">
+        <v>1</v>
+      </c>
+      <c r="N82" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L82" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" s="1">
-        <v>1</v>
-      </c>
-      <c r="N82" s="1" t="s">
+      <c r="O82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q82" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O82" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="R82" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V82" s="2">
         <v>15.402100000000001</v>
@@ -7380,10 +7371,10 @@
         <v>18</v>
       </c>
       <c r="F83" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>27</v>
@@ -7392,37 +7383,37 @@
         <v>6</v>
       </c>
       <c r="J83" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K83" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="L83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M83" s="1">
+        <v>1</v>
+      </c>
+      <c r="N83" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L83" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M83" s="1">
-        <v>1</v>
-      </c>
-      <c r="N83" s="1" t="s">
+      <c r="O83" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q83" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O83" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q83" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="R83" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S83" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="U83" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="U83" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="V83" s="2">
         <v>15.402100000000001</v>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5969E97-5243-4910-BAF5-D019EC74BF8D}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C33E569A-84F1-4469-A434-6BFB5A9DDECC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="HOSPITALES" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$91</definedName>
     <definedName name="_xlnm.Database">HOSPITALES!$A$1:$U$83</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="255">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -129,54 +129,138 @@
     <t>Municipio</t>
   </si>
   <si>
+    <t>010114</t>
+  </si>
+  <si>
+    <t>Piedra Pintada o La Colorada</t>
+  </si>
+  <si>
+    <t>Aldea</t>
+  </si>
+  <si>
+    <t>HND-0101</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>centro de salud</t>
+  </si>
+  <si>
+    <t>CESAMO Corozal</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Francisco Morazán</t>
+  </si>
+  <si>
+    <t>0801</t>
+  </si>
+  <si>
+    <t>Distrito Central</t>
+  </si>
+  <si>
+    <t>080101</t>
+  </si>
+  <si>
+    <t>HND-0801</t>
+  </si>
+  <si>
+    <t>Centro de Salud</t>
+  </si>
+  <si>
+    <t>Atlantida</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>La Masica</t>
+  </si>
+  <si>
+    <t>010514</t>
+  </si>
+  <si>
+    <t>San Juan Pueblo</t>
+  </si>
+  <si>
+    <t>HND-0105</t>
+  </si>
+  <si>
+    <t>Centro de Salud Isolina Ruíz</t>
+  </si>
+  <si>
+    <t>Centro de Salud El Manchen</t>
+  </si>
+  <si>
+    <t>Centro Salud Sagrada Familia</t>
+  </si>
+  <si>
+    <t>Centro de Salud El Chile</t>
+  </si>
+  <si>
+    <t>Centro de Salud El Bosque</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Islas de La Bahía</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>Útila</t>
+  </si>
+  <si>
+    <t>110401</t>
+  </si>
+  <si>
+    <t>HND-1104</t>
+  </si>
+  <si>
+    <t>Centro De Salud - Clinic</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>La Paz</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>Santa Elena</t>
+  </si>
+  <si>
+    <t>121608</t>
+  </si>
+  <si>
+    <t>Nahuaterique</t>
+  </si>
+  <si>
+    <t>HND-1216</t>
+  </si>
+  <si>
+    <t>Centro de salud Nahuaterique</t>
+  </si>
+  <si>
     <t>010103</t>
   </si>
   <si>
     <t>Bonitillo</t>
   </si>
   <si>
-    <t>Aldea</t>
-  </si>
-  <si>
-    <t>HND-0101</t>
-  </si>
-  <si>
-    <t>Salud</t>
-  </si>
-  <si>
     <t>clínica</t>
   </si>
   <si>
     <t>Clínica Metodista</t>
   </si>
   <si>
-    <t>010114</t>
-  </si>
-  <si>
-    <t>Piedra Pintada o La Colorada</t>
-  </si>
-  <si>
-    <t>centro de salud</t>
-  </si>
-  <si>
-    <t>CESAMO Corozal</t>
-  </si>
-  <si>
-    <t>0105</t>
-  </si>
-  <si>
-    <t>La Masica</t>
-  </si>
-  <si>
-    <t>010514</t>
-  </si>
-  <si>
-    <t>San Juan Pueblo</t>
-  </si>
-  <si>
-    <t>HND-0105</t>
-  </si>
-  <si>
     <t>Clínica De Especialdades</t>
   </si>
   <si>
@@ -225,9 +309,6 @@
     <t>HND-0501</t>
   </si>
   <si>
-    <t>Centro de Salud</t>
-  </si>
-  <si>
     <t>Clínica Ferraro</t>
   </si>
   <si>
@@ -291,24 +372,6 @@
     <t>Clínica Médica Gosén</t>
   </si>
   <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Francisco Morazán</t>
-  </si>
-  <si>
-    <t>0801</t>
-  </si>
-  <si>
-    <t>Distrito Central</t>
-  </si>
-  <si>
-    <t>080101</t>
-  </si>
-  <si>
-    <t>HND-0801</t>
-  </si>
-  <si>
     <t>Laboratorio y Droguería Francelia</t>
   </si>
   <si>
@@ -495,7 +558,16 @@
     <t>Policlínica San Jorge</t>
   </si>
   <si>
-    <t>Atlantida</t>
+    <t>farmacia</t>
+  </si>
+  <si>
+    <t>Farmacia Simán</t>
+  </si>
+  <si>
+    <t>Farmacia Kielsa</t>
+  </si>
+  <si>
+    <t>Farmacia Bethania</t>
   </si>
   <si>
     <t>010101</t>
@@ -507,9 +579,6 @@
     <t>Hospital Oftálmico Ponce</t>
   </si>
   <si>
-    <t>Centro de Salud Isolina Ruíz</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
@@ -603,24 +672,12 @@
     <t>Instituto Nacional Cardiopulmonar</t>
   </si>
   <si>
-    <t>Centro de Salud El Manchen</t>
-  </si>
-  <si>
-    <t>Centro Salud Sagrada Familia</t>
-  </si>
-  <si>
     <t>IHSS Bario Abajo</t>
   </si>
   <si>
     <t>Clínica Fudena</t>
   </si>
   <si>
-    <t>Centro de Salud El Chile</t>
-  </si>
-  <si>
-    <t>Centro de Salud El Bosque</t>
-  </si>
-  <si>
     <t>0826</t>
   </si>
   <si>
@@ -666,12 +723,6 @@
     <t>Pinares Health Clinic</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Islas de La Bahía</t>
-  </si>
-  <si>
     <t>1101</t>
   </si>
   <si>
@@ -690,51 +741,12 @@
     <t>Clínica Esperanza</t>
   </si>
   <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>Útila</t>
-  </si>
-  <si>
-    <t>110401</t>
-  </si>
-  <si>
-    <t>HND-1104</t>
-  </si>
-  <si>
-    <t>Centro De Salud - Clinic</t>
-  </si>
-  <si>
     <t>Utila Community Clinic</t>
   </si>
   <si>
     <t>Health Care Center</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>La Paz</t>
-  </si>
-  <si>
-    <t>1216</t>
-  </si>
-  <si>
-    <t>Santa Elena</t>
-  </si>
-  <si>
-    <t>121608</t>
-  </si>
-  <si>
-    <t>Nahuaterique</t>
-  </si>
-  <si>
-    <t>HND-1216</t>
-  </si>
-  <si>
-    <t>Centro de salud Nahuaterique</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -762,16 +774,31 @@
     <t>Clínica Barrientos Maradiaga</t>
   </si>
   <si>
-    <t>farmacia</t>
-  </si>
-  <si>
-    <t>Farmacia Simán</t>
-  </si>
-  <si>
-    <t>Farmacia Kielsa</t>
-  </si>
-  <si>
-    <t>Farmacia Bethania</t>
+    <t xml:space="preserve">Tegucigalpa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hospital </t>
+  </si>
+  <si>
+    <t>priorizado</t>
+  </si>
+  <si>
+    <t>Hospital Del Torax</t>
+  </si>
+  <si>
+    <t>Hospital General San Felipe</t>
+  </si>
+  <si>
+    <t>El Paraiso</t>
+  </si>
+  <si>
+    <t>Danlí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gabriela Alvarado </t>
+  </si>
+  <si>
+    <t>Hospital de Roatán</t>
   </si>
 </sst>
 </file>
@@ -1414,8 +1441,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W83" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:W83" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W91" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:W91" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W83">
+    <sortCondition ref="S1:S83"/>
+  </sortState>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{C1D5F024-DC17-4227-B074-8AF38768A073}" name="OBJECTID_1" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{A169B1E4-B733-4740-ABAD-FEDF002BAB8B}" name="Pais_cod3" dataDxfId="21"/>
@@ -1742,11 +1772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W83"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
+      <pane ySplit="1" topLeftCell="N75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R83" sqref="R83:R91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -1771,8 +1801,8 @@
     <col min="18" max="18" width="17.140625" style="1" customWidth="1"/>
     <col min="19" max="20" width="18.42578125" style="1" customWidth="1"/>
     <col min="21" max="21" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="5" customFormat="1">
@@ -1848,7 +1878,7 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1">
-        <v>35011</v>
+        <v>35210</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
@@ -1884,7 +1914,7 @@
         <v>30</v>
       </c>
       <c r="M2" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>31</v>
@@ -1908,15 +1938,15 @@
         <v>37</v>
       </c>
       <c r="V2" s="2">
-        <v>14.157299999999999</v>
+        <v>14.159800000000001</v>
       </c>
       <c r="W2" s="2">
-        <v>-88.036500000000004</v>
+        <v>-88.034199999999998</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1">
-        <v>35210</v>
+        <v>25231</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -1928,13 +1958,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>27</v>
@@ -1943,48 +1973,48 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M3" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V3" s="2">
-        <v>14.159800000000001</v>
+        <v>14.585800000000001</v>
       </c>
       <c r="W3" s="2">
-        <v>-88.034199999999998</v>
+        <v>-88.581100000000006</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1">
-        <v>34680</v>
+        <v>34679</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
@@ -2002,7 +2032,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>27</v>
@@ -2011,10 +2041,10 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>30</v>
@@ -2023,16 +2053,16 @@
         <v>14</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>35</v>
@@ -2041,18 +2071,18 @@
         <v>36</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="V4" s="2">
-        <v>14.068899999999999</v>
+        <v>15.399800000000001</v>
       </c>
       <c r="W4" s="2">
-        <v>-87.979200000000006</v>
+        <v>-87.809799999999996</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="1">
-        <v>34681</v>
+        <v>25635</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -2064,43 +2094,43 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1">
-        <v>14</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>35</v>
@@ -2109,18 +2139,18 @@
         <v>36</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="V5" s="2">
-        <v>14.0501</v>
+        <v>15.401400000000001</v>
       </c>
       <c r="W5" s="2">
-        <v>-88.147499999999994</v>
+        <v>-87.806600000000003</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1">
-        <v>34687</v>
+        <v>25667</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
@@ -2132,43 +2162,43 @@
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="O6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="1">
-        <v>14</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>35</v>
@@ -2177,18 +2207,18 @@
         <v>36</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="V6" s="2">
-        <v>14.3118</v>
+        <v>15.401400000000001</v>
       </c>
       <c r="W6" s="2">
-        <v>-87.963700000000003</v>
+        <v>-87.8065</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="1">
-        <v>32193</v>
+        <v>25700</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -2200,25 +2230,25 @@
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>30</v>
@@ -2227,16 +2257,16 @@
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>35</v>
@@ -2245,18 +2275,18 @@
         <v>36</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V7" s="2">
-        <v>14.3165</v>
+        <v>15.4016</v>
       </c>
       <c r="W7" s="2">
-        <v>-87.954700000000003</v>
+        <v>-87.810900000000004</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1">
-        <v>33739</v>
+        <v>25718</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
@@ -2268,13 +2298,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>27</v>
@@ -2283,10 +2313,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>30</v>
@@ -2295,16 +2325,16 @@
         <v>1</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>35</v>
@@ -2313,18 +2343,18 @@
         <v>36</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="V8" s="2">
-        <v>14.2385</v>
+        <v>15.4016</v>
       </c>
       <c r="W8" s="2">
-        <v>-87.930099999999996</v>
+        <v>-87.8108</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="1">
-        <v>33746</v>
+        <v>35579</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -2336,43 +2366,43 @@
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>35</v>
@@ -2381,18 +2411,18 @@
         <v>36</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V9" s="2">
-        <v>14.239100000000001</v>
+        <v>15.4016</v>
       </c>
       <c r="W9" s="2">
-        <v>-87.900800000000004</v>
+        <v>-87.810299999999998</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="1">
-        <v>33874</v>
+        <v>24585</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -2404,43 +2434,43 @@
         <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>35</v>
@@ -2449,18 +2479,18 @@
         <v>36</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="V10" s="2">
-        <v>14.244999999999999</v>
+        <v>15.4018</v>
       </c>
       <c r="W10" s="2">
-        <v>-87.898399999999995</v>
+        <v>-87.810100000000006</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1">
-        <v>34032</v>
+        <v>35011</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
@@ -2472,13 +2502,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>27</v>
@@ -2487,48 +2517,48 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="V11" s="2">
-        <v>14.245100000000001</v>
+        <v>14.157299999999999</v>
       </c>
       <c r="W11" s="2">
-        <v>-87.898399999999995</v>
+        <v>-88.036500000000004</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1">
-        <v>34381</v>
+        <v>34680</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
@@ -2540,63 +2570,63 @@
         <v>3</v>
       </c>
       <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="V12" s="2">
-        <v>14.246</v>
+        <v>14.068899999999999</v>
       </c>
       <c r="W12" s="2">
-        <v>-87.8994</v>
+        <v>-87.979200000000006</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1">
-        <v>35483</v>
+        <v>34681</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
@@ -2608,63 +2638,63 @@
         <v>3</v>
       </c>
       <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="1">
-        <v>6</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M13" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="V13" s="2">
-        <v>14.579700000000001</v>
+        <v>14.0501</v>
       </c>
       <c r="W13" s="2">
-        <v>-88.589600000000004</v>
+        <v>-88.147499999999994</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="1">
-        <v>18015</v>
+        <v>34687</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
@@ -2676,63 +2706,63 @@
         <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="1">
+        <v>14</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="U14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" s="2">
-        <v>14.5837</v>
+        <v>14.3118</v>
       </c>
       <c r="W14" s="2">
-        <v>-88.583399999999997</v>
+        <v>-87.963700000000003</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="1">
-        <v>18018</v>
+        <v>32193</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -2744,63 +2774,63 @@
         <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="U15" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="V15" s="2">
-        <v>14.5839</v>
+        <v>14.3165</v>
       </c>
       <c r="W15" s="2">
-        <v>-88.584599999999995</v>
+        <v>-87.954700000000003</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1">
-        <v>18021</v>
+        <v>33739</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
@@ -2812,13 +2842,13 @@
         <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>27</v>
@@ -2827,48 +2857,48 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="U16" s="1" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="V16" s="2">
-        <v>14.5844</v>
+        <v>14.2385</v>
       </c>
       <c r="W16" s="2">
-        <v>-88.583200000000005</v>
+        <v>-87.930099999999996</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="1">
-        <v>17843</v>
+        <v>33746</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
@@ -2880,63 +2910,63 @@
         <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="V17" s="2">
-        <v>14.5852</v>
+        <v>14.239100000000001</v>
       </c>
       <c r="W17" s="2">
-        <v>-88.586399999999998</v>
+        <v>-87.900800000000004</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="1">
-        <v>24748</v>
+        <v>33874</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>23</v>
@@ -2948,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>85</v>
@@ -2990,21 +3020,21 @@
         <v>35</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="V18" s="2">
-        <v>14.5854</v>
+        <v>14.244999999999999</v>
       </c>
       <c r="W18" s="2">
-        <v>-88.586399999999998</v>
+        <v>-87.898399999999995</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="1">
-        <v>24777</v>
+        <v>34032</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>23</v>
@@ -3016,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>85</v>
@@ -3058,21 +3088,21 @@
         <v>35</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V19" s="2">
-        <v>14.5855</v>
+        <v>14.245100000000001</v>
       </c>
       <c r="W19" s="2">
-        <v>-88.582800000000006</v>
+        <v>-87.898399999999995</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1">
-        <v>25068</v>
+        <v>34381</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
@@ -3084,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>85</v>
@@ -3126,21 +3156,21 @@
         <v>35</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V20" s="2">
-        <v>14.585699999999999</v>
+        <v>14.246</v>
       </c>
       <c r="W20" s="2">
-        <v>-88.583699999999993</v>
+        <v>-87.8994</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="1">
-        <v>25109</v>
+        <v>35483</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>23</v>
@@ -3152,7 +3182,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>85</v>
@@ -3164,13 +3194,13 @@
         <v>27</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>30</v>
@@ -3179,36 +3209,36 @@
         <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="V21" s="2">
-        <v>14.585699999999999</v>
+        <v>14.579700000000001</v>
       </c>
       <c r="W21" s="2">
-        <v>-88.583200000000005</v>
+        <v>-88.589600000000004</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="1">
-        <v>25231</v>
+        <v>18015</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -3220,13 +3250,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>27</v>
@@ -3235,10 +3265,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>30</v>
@@ -3247,36 +3277,36 @@
         <v>1</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="V22" s="2">
-        <v>14.585800000000001</v>
+        <v>14.5837</v>
       </c>
       <c r="W22" s="2">
-        <v>-88.581100000000006</v>
+        <v>-88.583399999999997</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="1">
-        <v>25345</v>
+        <v>18018</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
@@ -3288,13 +3318,13 @@
         <v>3</v>
       </c>
       <c r="E23" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>27</v>
@@ -3303,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>30</v>
@@ -3315,36 +3345,36 @@
         <v>1</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="V23" s="2">
-        <v>14.585900000000001</v>
+        <v>14.5839</v>
       </c>
       <c r="W23" s="2">
-        <v>-88.586399999999998</v>
+        <v>-88.584599999999995</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="1">
-        <v>25348</v>
+        <v>18021</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -3356,13 +3386,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>27</v>
@@ -3371,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>30</v>
@@ -3383,28 +3413,28 @@
         <v>1</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="V24" s="2">
-        <v>14.585900000000001</v>
+        <v>14.5844</v>
       </c>
       <c r="W24" s="2">
         <v>-88.583200000000005</v>
@@ -3412,7 +3442,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1">
-        <v>25383</v>
+        <v>17843</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
@@ -3424,63 +3454,63 @@
         <v>3</v>
       </c>
       <c r="E25" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="V25" s="2">
-        <v>14.5862</v>
+        <v>14.5852</v>
       </c>
       <c r="W25" s="2">
-        <v>-88.585899999999995</v>
+        <v>-88.586399999999998</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="1">
-        <v>25482</v>
+        <v>24748</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>23</v>
@@ -3495,10 +3525,10 @@
         <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>27</v>
@@ -3507,10 +3537,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>30</v>
@@ -3519,36 +3549,36 @@
         <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="V26" s="2">
-        <v>14.5869</v>
+        <v>14.5854</v>
       </c>
       <c r="W26" s="2">
-        <v>-88.582099999999997</v>
+        <v>-88.586399999999998</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="1">
-        <v>25513</v>
+        <v>24777</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>23</v>
@@ -3563,10 +3593,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>27</v>
@@ -3575,10 +3605,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>30</v>
@@ -3587,36 +3617,36 @@
         <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="V27" s="2">
-        <v>14.587300000000001</v>
+        <v>14.5855</v>
       </c>
       <c r="W27" s="2">
-        <v>-88.583100000000002</v>
+        <v>-88.582800000000006</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="1">
-        <v>25514</v>
+        <v>25068</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
@@ -3631,10 +3661,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>27</v>
@@ -3643,10 +3673,10 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>30</v>
@@ -3655,36 +3685,36 @@
         <v>1</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="V28" s="2">
-        <v>14.5875</v>
+        <v>14.585699999999999</v>
       </c>
       <c r="W28" s="2">
-        <v>-88.582999999999998</v>
+        <v>-88.583699999999993</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="1">
-        <v>25579</v>
+        <v>25109</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>23</v>
@@ -3699,10 +3729,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>27</v>
@@ -3711,10 +3741,10 @@
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>30</v>
@@ -3723,36 +3753,36 @@
         <v>1</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="V29" s="2">
-        <v>14.5877</v>
+        <v>14.585699999999999</v>
       </c>
       <c r="W29" s="2">
-        <v>-88.581800000000001</v>
+        <v>-88.583200000000005</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="1">
-        <v>25580</v>
+        <v>25345</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>23</v>
@@ -3767,10 +3797,10 @@
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>27</v>
@@ -3779,10 +3809,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>30</v>
@@ -3791,36 +3821,36 @@
         <v>1</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="V30" s="2">
-        <v>14.5878</v>
+        <v>14.585900000000001</v>
       </c>
       <c r="W30" s="2">
-        <v>-88.583799999999997</v>
+        <v>-88.586399999999998</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="1">
-        <v>25639</v>
+        <v>25348</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>23</v>
@@ -3835,10 +3865,10 @@
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>27</v>
@@ -3847,10 +3877,10 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>30</v>
@@ -3859,36 +3889,36 @@
         <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="V31" s="2">
-        <v>14.587899999999999</v>
+        <v>14.585900000000001</v>
       </c>
       <c r="W31" s="2">
-        <v>-88.582999999999998</v>
+        <v>-88.583200000000005</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="1">
-        <v>25696</v>
+        <v>25383</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
@@ -3903,10 +3933,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>27</v>
@@ -3915,48 +3945,48 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M32" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="V32" s="2">
-        <v>14.587999999999999</v>
+        <v>14.5862</v>
       </c>
       <c r="W32" s="2">
-        <v>-88.5822</v>
+        <v>-88.585899999999995</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="1">
-        <v>27118</v>
+        <v>25482</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>23</v>
@@ -3971,22 +4001,22 @@
         <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I33" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>30</v>
@@ -3995,36 +4025,36 @@
         <v>1</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="V33" s="2">
-        <v>14.588200000000001</v>
+        <v>14.5869</v>
       </c>
       <c r="W33" s="2">
-        <v>-88.582700000000003</v>
+        <v>-88.582099999999997</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="1">
-        <v>27123</v>
+        <v>25513</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>23</v>
@@ -4039,22 +4069,22 @@
         <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I34" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>30</v>
@@ -4063,36 +4093,36 @@
         <v>1</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="V34" s="2">
-        <v>14.588200000000001</v>
+        <v>14.587300000000001</v>
       </c>
       <c r="W34" s="2">
-        <v>-88.582800000000006</v>
+        <v>-88.583100000000002</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="1">
-        <v>27149</v>
+        <v>25514</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>23</v>
@@ -4107,22 +4137,22 @@
         <v>8</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I35" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>30</v>
@@ -4131,36 +4161,36 @@
         <v>1</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="V35" s="2">
-        <v>14.5883</v>
+        <v>14.5875</v>
       </c>
       <c r="W35" s="2">
-        <v>-88.582800000000006</v>
+        <v>-88.582999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="1">
-        <v>26364</v>
+        <v>25579</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>23</v>
@@ -4172,25 +4202,25 @@
         <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I36" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>30</v>
@@ -4199,36 +4229,36 @@
         <v>1</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="V36" s="2">
-        <v>14.5885</v>
+        <v>14.5877</v>
       </c>
       <c r="W36" s="2">
-        <v>-88.582599999999999</v>
+        <v>-88.581800000000001</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="1">
-        <v>26406</v>
+        <v>25580</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>23</v>
@@ -4240,25 +4270,25 @@
         <v>3</v>
       </c>
       <c r="E37" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I37" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>30</v>
@@ -4267,36 +4297,36 @@
         <v>1</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V37" s="2">
-        <v>14.5886</v>
+        <v>14.5878</v>
       </c>
       <c r="W37" s="2">
-        <v>-88.581699999999998</v>
+        <v>-88.583799999999997</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="1">
-        <v>26411</v>
+        <v>25639</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>23</v>
@@ -4308,25 +4338,25 @@
         <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>30</v>
@@ -4335,36 +4365,36 @@
         <v>1</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="V38" s="2">
-        <v>14.5886</v>
+        <v>14.587899999999999</v>
       </c>
       <c r="W38" s="2">
-        <v>-88.581900000000005</v>
+        <v>-88.582999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="1">
-        <v>26435</v>
+        <v>25696</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>23</v>
@@ -4376,63 +4406,63 @@
         <v>3</v>
       </c>
       <c r="E39" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I39" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M39" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="V39" s="2">
-        <v>14.588699999999999</v>
+        <v>14.587999999999999</v>
       </c>
       <c r="W39" s="2">
-        <v>-88.582400000000007</v>
+        <v>-88.5822</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="1">
-        <v>27945</v>
+        <v>27118</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>23</v>
@@ -4444,25 +4474,25 @@
         <v>3</v>
       </c>
       <c r="E40" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I40" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>30</v>
@@ -4471,36 +4501,36 @@
         <v>1</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V40" s="2">
-        <v>14.588699999999999</v>
+        <v>14.588200000000001</v>
       </c>
       <c r="W40" s="2">
-        <v>-88.582499999999996</v>
+        <v>-88.582700000000003</v>
       </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="1">
-        <v>32105</v>
+        <v>27123</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
@@ -4512,63 +4542,63 @@
         <v>3</v>
       </c>
       <c r="E41" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I41" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="O41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M41" s="1">
-        <v>1</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q41" s="1" t="s">
+      <c r="R41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U41" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="R41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="V41" s="2">
-        <v>14.588800000000001</v>
+        <v>14.588200000000001</v>
       </c>
       <c r="W41" s="2">
-        <v>-88.581699999999998</v>
+        <v>-88.582800000000006</v>
       </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="1">
-        <v>33166</v>
+        <v>27149</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>23</v>
@@ -4580,25 +4610,25 @@
         <v>3</v>
       </c>
       <c r="E42" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I42" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>30</v>
@@ -4607,36 +4637,36 @@
         <v>1</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="V42" s="2">
-        <v>14.588800000000001</v>
+        <v>14.5883</v>
       </c>
       <c r="W42" s="2">
-        <v>-88.582700000000003</v>
+        <v>-88.582800000000006</v>
       </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="1">
-        <v>33558</v>
+        <v>26364</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>23</v>
@@ -4648,25 +4678,25 @@
         <v>3</v>
       </c>
       <c r="E43" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I43" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>30</v>
@@ -4675,36 +4705,36 @@
         <v>1</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="V43" s="2">
-        <v>14.588900000000001</v>
+        <v>14.5885</v>
       </c>
       <c r="W43" s="2">
-        <v>-88.580500000000001</v>
+        <v>-88.582599999999999</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="1">
-        <v>33473</v>
+        <v>26406</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>23</v>
@@ -4716,25 +4746,25 @@
         <v>3</v>
       </c>
       <c r="E44" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I44" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>30</v>
@@ -4743,36 +4773,36 @@
         <v>1</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="V44" s="2">
-        <v>14.588900000000001</v>
+        <v>14.5886</v>
       </c>
       <c r="W44" s="2">
-        <v>-88.581000000000003</v>
+        <v>-88.581699999999998</v>
       </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="1">
-        <v>35157</v>
+        <v>26411</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>23</v>
@@ -4784,25 +4814,25 @@
         <v>3</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I45" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>30</v>
@@ -4811,36 +4841,36 @@
         <v>1</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="V45" s="2">
-        <v>15.399699999999999</v>
+        <v>14.5886</v>
       </c>
       <c r="W45" s="2">
-        <v>-87.810199999999995</v>
+        <v>-88.581900000000005</v>
       </c>
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="1">
-        <v>34679</v>
+        <v>26435</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>23</v>
@@ -4852,63 +4882,63 @@
         <v>3</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I46" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M46" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="V46" s="2">
-        <v>15.399800000000001</v>
+        <v>14.588699999999999</v>
       </c>
       <c r="W46" s="2">
-        <v>-87.809799999999996</v>
+        <v>-88.582400000000007</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="1">
-        <v>34736</v>
+        <v>27945</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>23</v>
@@ -4920,25 +4950,25 @@
         <v>3</v>
       </c>
       <c r="E47" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I47" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>30</v>
@@ -4947,36 +4977,36 @@
         <v>1</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="V47" s="2">
-        <v>15.399900000000001</v>
+        <v>14.588699999999999</v>
       </c>
       <c r="W47" s="2">
-        <v>-87.809799999999996</v>
+        <v>-88.582499999999996</v>
       </c>
     </row>
     <row r="48" spans="1:23">
       <c r="A48" s="1">
-        <v>28814</v>
+        <v>32105</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>23</v>
@@ -4988,25 +5018,25 @@
         <v>3</v>
       </c>
       <c r="E48" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I48" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>30</v>
@@ -5015,36 +5045,36 @@
         <v>1</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="V48" s="2">
-        <v>15.400499999999999</v>
+        <v>14.588800000000001</v>
       </c>
       <c r="W48" s="2">
-        <v>-87.809700000000007</v>
+        <v>-88.581699999999998</v>
       </c>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" s="1">
-        <v>32493</v>
+        <v>33166</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>23</v>
@@ -5056,25 +5086,25 @@
         <v>3</v>
       </c>
       <c r="E49" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>30</v>
@@ -5083,36 +5113,36 @@
         <v>1</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="V49" s="2">
-        <v>15.400600000000001</v>
+        <v>14.588800000000001</v>
       </c>
       <c r="W49" s="2">
-        <v>-87.809399999999997</v>
+        <v>-88.582700000000003</v>
       </c>
     </row>
     <row r="50" spans="1:23">
       <c r="A50" s="1">
-        <v>34137</v>
+        <v>33558</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>23</v>
@@ -5124,25 +5154,25 @@
         <v>3</v>
       </c>
       <c r="E50" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I50" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>30</v>
@@ -5151,36 +5181,36 @@
         <v>1</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="V50" s="2">
-        <v>15.400700000000001</v>
+        <v>14.588900000000001</v>
       </c>
       <c r="W50" s="2">
-        <v>-87.809200000000004</v>
+        <v>-88.580500000000001</v>
       </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" s="1">
-        <v>34143</v>
+        <v>33473</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>23</v>
@@ -5192,25 +5222,25 @@
         <v>3</v>
       </c>
       <c r="E51" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I51" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>30</v>
@@ -5219,36 +5249,36 @@
         <v>1</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="V51" s="2">
-        <v>15.4009</v>
+        <v>14.588900000000001</v>
       </c>
       <c r="W51" s="2">
-        <v>-87.811199999999999</v>
+        <v>-88.581000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:23">
       <c r="A52" s="1">
-        <v>34337</v>
+        <v>33430</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>23</v>
@@ -5260,25 +5290,25 @@
         <v>3</v>
       </c>
       <c r="E52" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I52" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>30</v>
@@ -5287,36 +5317,36 @@
         <v>1</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="V52" s="2">
-        <v>15.4009</v>
+        <v>15.401999999999999</v>
       </c>
       <c r="W52" s="2">
-        <v>-87.8108</v>
+        <v>-87.810199999999995</v>
       </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53" s="1">
-        <v>34340</v>
+        <v>33432</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>23</v>
@@ -5328,25 +5358,25 @@
         <v>3</v>
       </c>
       <c r="E53" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I53" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>30</v>
@@ -5355,36 +5385,36 @@
         <v>1</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V53" s="2">
-        <v>15.4009</v>
+        <v>15.402100000000001</v>
       </c>
       <c r="W53" s="2">
-        <v>-87.808999999999997</v>
+        <v>-87.806700000000006</v>
       </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" s="1">
-        <v>24768</v>
+        <v>33434</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>23</v>
@@ -5396,25 +5426,25 @@
         <v>3</v>
       </c>
       <c r="E54" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I54" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>30</v>
@@ -5423,36 +5453,36 @@
         <v>1</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="V54" s="2">
-        <v>15.401</v>
+        <v>15.402100000000001</v>
       </c>
       <c r="W54" s="2">
-        <v>-87.808099999999996</v>
+        <v>-87.806700000000006</v>
       </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="1">
-        <v>24913</v>
+        <v>35157</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>23</v>
@@ -5464,13 +5494,13 @@
         <v>3</v>
       </c>
       <c r="E55" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>27</v>
@@ -5479,10 +5509,10 @@
         <v>1</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>30</v>
@@ -5491,36 +5521,36 @@
         <v>1</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V55" s="2">
-        <v>15.401</v>
+        <v>15.399699999999999</v>
       </c>
       <c r="W55" s="2">
-        <v>-87.808099999999996</v>
+        <v>-87.810199999999995</v>
       </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56" s="1">
-        <v>24917</v>
+        <v>34736</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>23</v>
@@ -5532,25 +5562,25 @@
         <v>3</v>
       </c>
       <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="1">
         <v>8</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="1">
-        <v>1</v>
-      </c>
       <c r="J56" s="1" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>30</v>
@@ -5559,36 +5589,36 @@
         <v>1</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="V56" s="2">
-        <v>15.4011</v>
+        <v>15.399900000000001</v>
       </c>
       <c r="W56" s="2">
-        <v>-87.809899999999999</v>
+        <v>-87.809799999999996</v>
       </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57" s="1">
-        <v>24926</v>
+        <v>28814</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>23</v>
@@ -5600,25 +5630,25 @@
         <v>3</v>
       </c>
       <c r="E57" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I57" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>30</v>
@@ -5627,28 +5657,28 @@
         <v>1</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="V57" s="2">
-        <v>15.4011</v>
+        <v>15.400499999999999</v>
       </c>
       <c r="W57" s="2">
         <v>-87.809700000000007</v>
@@ -5656,7 +5686,7 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" s="1">
-        <v>24954</v>
+        <v>32493</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>23</v>
@@ -5668,25 +5698,25 @@
         <v>3</v>
       </c>
       <c r="E58" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I58" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>30</v>
@@ -5695,36 +5725,36 @@
         <v>1</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="V58" s="2">
-        <v>15.4011</v>
+        <v>15.400600000000001</v>
       </c>
       <c r="W58" s="2">
-        <v>-87.809600000000003</v>
+        <v>-87.809399999999997</v>
       </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59" s="1">
-        <v>25195</v>
+        <v>34137</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>23</v>
@@ -5736,7 +5766,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>85</v>
@@ -5778,21 +5808,21 @@
         <v>35</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="V59" s="2">
-        <v>15.4011</v>
+        <v>15.400700000000001</v>
       </c>
       <c r="W59" s="2">
-        <v>-87.809600000000003</v>
+        <v>-87.809200000000004</v>
       </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60" s="1">
-        <v>25216</v>
+        <v>34143</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>23</v>
@@ -5804,7 +5834,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>85</v>
@@ -5846,21 +5876,21 @@
         <v>35</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="V60" s="2">
-        <v>15.401199999999999</v>
+        <v>15.4009</v>
       </c>
       <c r="W60" s="2">
-        <v>-87.794499999999999</v>
+        <v>-87.811199999999999</v>
       </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61" s="1">
-        <v>25218</v>
+        <v>34337</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>23</v>
@@ -5872,7 +5902,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>85</v>
@@ -5914,21 +5944,21 @@
         <v>35</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="V61" s="2">
-        <v>15.401300000000001</v>
+        <v>15.4009</v>
       </c>
       <c r="W61" s="2">
-        <v>-87.806200000000004</v>
+        <v>-87.8108</v>
       </c>
     </row>
     <row r="62" spans="1:23">
       <c r="A62" s="1">
-        <v>25546</v>
+        <v>34340</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>23</v>
@@ -5940,7 +5970,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>85</v>
@@ -5982,21 +6012,21 @@
         <v>35</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="V62" s="2">
-        <v>15.401300000000001</v>
+        <v>15.4009</v>
       </c>
       <c r="W62" s="2">
-        <v>-87.806299999999993</v>
+        <v>-87.808999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:23">
       <c r="A63" s="1">
-        <v>25554</v>
+        <v>24768</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>23</v>
@@ -6011,10 +6041,10 @@
         <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>27</v>
@@ -6023,10 +6053,10 @@
         <v>1</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>30</v>
@@ -6035,36 +6065,36 @@
         <v>1</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="V63" s="2">
-        <v>15.401400000000001</v>
+        <v>15.401</v>
       </c>
       <c r="W63" s="2">
-        <v>-87.806600000000003</v>
+        <v>-87.808099999999996</v>
       </c>
     </row>
     <row r="64" spans="1:23">
       <c r="A64" s="1">
-        <v>25635</v>
+        <v>24913</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>23</v>
@@ -6079,10 +6109,10 @@
         <v>8</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>27</v>
@@ -6091,10 +6121,10 @@
         <v>1</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>30</v>
@@ -6103,36 +6133,36 @@
         <v>1</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="R64" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="V64" s="2">
-        <v>15.401400000000001</v>
+        <v>15.401</v>
       </c>
       <c r="W64" s="2">
-        <v>-87.806600000000003</v>
+        <v>-87.808099999999996</v>
       </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="1">
-        <v>25667</v>
+        <v>24917</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>23</v>
@@ -6147,10 +6177,10 @@
         <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>27</v>
@@ -6159,10 +6189,10 @@
         <v>1</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>30</v>
@@ -6171,36 +6201,36 @@
         <v>1</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="R65" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="V65" s="2">
-        <v>15.401400000000001</v>
+        <v>15.4011</v>
       </c>
       <c r="W65" s="2">
-        <v>-87.8065</v>
+        <v>-87.809899999999999</v>
       </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="1">
-        <v>25669</v>
+        <v>24926</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>23</v>
@@ -6215,10 +6245,10 @@
         <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>27</v>
@@ -6227,10 +6257,10 @@
         <v>1</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>30</v>
@@ -6239,36 +6269,36 @@
         <v>1</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="R66" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="V66" s="2">
-        <v>15.4015</v>
+        <v>15.4011</v>
       </c>
       <c r="W66" s="2">
-        <v>-87.808899999999994</v>
+        <v>-87.809700000000007</v>
       </c>
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="1">
-        <v>25674</v>
+        <v>24954</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>23</v>
@@ -6283,10 +6313,10 @@
         <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>27</v>
@@ -6295,10 +6325,10 @@
         <v>1</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>30</v>
@@ -6307,36 +6337,36 @@
         <v>1</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="R67" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="V67" s="2">
-        <v>15.4015</v>
+        <v>15.4011</v>
       </c>
       <c r="W67" s="2">
-        <v>-87.808899999999994</v>
+        <v>-87.809600000000003</v>
       </c>
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="1">
-        <v>25700</v>
+        <v>25195</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>23</v>
@@ -6351,10 +6381,10 @@
         <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>27</v>
@@ -6363,10 +6393,10 @@
         <v>1</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>30</v>
@@ -6375,36 +6405,36 @@
         <v>1</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="V68" s="2">
-        <v>15.4016</v>
+        <v>15.4011</v>
       </c>
       <c r="W68" s="2">
-        <v>-87.810900000000004</v>
+        <v>-87.809600000000003</v>
       </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="1">
-        <v>25718</v>
+        <v>25216</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>23</v>
@@ -6419,10 +6449,10 @@
         <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>27</v>
@@ -6431,10 +6461,10 @@
         <v>1</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>30</v>
@@ -6443,36 +6473,36 @@
         <v>1</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="R69" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="V69" s="2">
-        <v>15.4016</v>
+        <v>15.401199999999999</v>
       </c>
       <c r="W69" s="2">
-        <v>-87.8108</v>
+        <v>-87.794499999999999</v>
       </c>
     </row>
     <row r="70" spans="1:23">
       <c r="A70" s="1">
-        <v>25779</v>
+        <v>25218</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>23</v>
@@ -6487,22 +6517,22 @@
         <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I70" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>30</v>
@@ -6511,36 +6541,36 @@
         <v>1</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="V70" s="2">
-        <v>15.4016</v>
+        <v>15.401300000000001</v>
       </c>
       <c r="W70" s="2">
-        <v>-87.8108</v>
+        <v>-87.806200000000004</v>
       </c>
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="1">
-        <v>25983</v>
+        <v>25546</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>23</v>
@@ -6552,25 +6582,25 @@
         <v>3</v>
       </c>
       <c r="E71" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I71" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>30</v>
@@ -6579,36 +6609,36 @@
         <v>1</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="R71" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="V71" s="2">
-        <v>15.4016</v>
+        <v>15.401300000000001</v>
       </c>
       <c r="W71" s="2">
-        <v>-87.808700000000002</v>
+        <v>-87.806299999999993</v>
       </c>
     </row>
     <row r="72" spans="1:23">
       <c r="A72" s="1">
-        <v>25764</v>
+        <v>25554</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>23</v>
@@ -6620,63 +6650,63 @@
         <v>3</v>
       </c>
       <c r="E72" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I72" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M72" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="R72" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="V72" s="2">
-        <v>15.4016</v>
+        <v>15.401400000000001</v>
       </c>
       <c r="W72" s="2">
-        <v>-87.808599999999998</v>
+        <v>-87.806600000000003</v>
       </c>
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="1">
-        <v>35825</v>
+        <v>25669</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>23</v>
@@ -6688,13 +6718,13 @@
         <v>3</v>
       </c>
       <c r="E73" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>27</v>
@@ -6703,48 +6733,48 @@
         <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M73" s="1">
+        <v>1</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U73" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M73" s="1">
-        <v>7</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="V73" s="2">
-        <v>15.4016</v>
+        <v>15.4015</v>
       </c>
       <c r="W73" s="2">
-        <v>-87.807500000000005</v>
+        <v>-87.808899999999994</v>
       </c>
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="1">
-        <v>35579</v>
+        <v>25674</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>23</v>
@@ -6756,25 +6786,25 @@
         <v>3</v>
       </c>
       <c r="E74" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I74" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>30</v>
@@ -6783,36 +6813,36 @@
         <v>1</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="V74" s="2">
-        <v>15.4016</v>
+        <v>15.4015</v>
       </c>
       <c r="W74" s="2">
-        <v>-87.810299999999998</v>
+        <v>-87.808899999999994</v>
       </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75" s="1">
-        <v>35627</v>
+        <v>25779</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>23</v>
@@ -6824,63 +6854,63 @@
         <v>3</v>
       </c>
       <c r="E75" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I75" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J75" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M75" s="1">
+        <v>1</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U75" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M75" s="1">
-        <v>1</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="V75" s="2">
-        <v>15.4017</v>
+        <v>15.4016</v>
       </c>
       <c r="W75" s="2">
-        <v>-87.805899999999994</v>
+        <v>-87.8108</v>
       </c>
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="1">
-        <v>35663</v>
+        <v>25983</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>23</v>
@@ -6892,25 +6922,25 @@
         <v>3</v>
       </c>
       <c r="E76" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I76" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>30</v>
@@ -6922,7 +6952,7 @@
         <v>220</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>33</v>
@@ -6934,21 +6964,21 @@
         <v>35</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="V76" s="2">
-        <v>15.4018</v>
+        <v>15.4016</v>
       </c>
       <c r="W76" s="2">
-        <v>-87.810100000000006</v>
+        <v>-87.808700000000002</v>
       </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="1">
-        <v>24585</v>
+        <v>25764</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>23</v>
@@ -6960,63 +6990,63 @@
         <v>3</v>
       </c>
       <c r="E77" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" s="1">
+        <v>13</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" s="1">
+        <v>4</v>
+      </c>
+      <c r="N77" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="O77" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I77" s="1">
-        <v>16</v>
-      </c>
-      <c r="J77" s="1" t="s">
+      <c r="P77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q77" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="R77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U77" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L77" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M77" s="1">
-        <v>8</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q77" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="R77" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U77" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="V77" s="2">
-        <v>15.4018</v>
+        <v>15.4016</v>
       </c>
       <c r="W77" s="2">
-        <v>-87.810100000000006</v>
+        <v>-87.808599999999998</v>
       </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="1">
-        <v>33339</v>
+        <v>35825</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>23</v>
@@ -7028,63 +7058,63 @@
         <v>3</v>
       </c>
       <c r="E78" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M78" s="1">
+        <v>7</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q78" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="R78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U78" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I78" s="1">
-        <v>17</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M78" s="1">
-        <v>23</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="R78" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U78" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="V78" s="2">
-        <v>15.4018</v>
+        <v>15.4016</v>
       </c>
       <c r="W78" s="2">
-        <v>-87.807699999999997</v>
+        <v>-87.807500000000005</v>
       </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="1">
-        <v>33556</v>
+        <v>35627</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>23</v>
@@ -7096,13 +7126,13 @@
         <v>3</v>
       </c>
       <c r="E79" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>27</v>
@@ -7111,10 +7141,10 @@
         <v>4</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>30</v>
@@ -7123,36 +7153,36 @@
         <v>1</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="R79" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="V79" s="2">
-        <v>15.401899999999999</v>
+        <v>15.4017</v>
       </c>
       <c r="W79" s="2">
-        <v>-87.810400000000001</v>
+        <v>-87.805899999999994</v>
       </c>
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="1">
-        <v>33567</v>
+        <v>35663</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>23</v>
@@ -7164,13 +7194,13 @@
         <v>3</v>
       </c>
       <c r="E80" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>27</v>
@@ -7179,10 +7209,10 @@
         <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>30</v>
@@ -7191,36 +7221,36 @@
         <v>1</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="P80" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="R80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="V80" s="2">
-        <v>15.401899999999999</v>
+        <v>15.4018</v>
       </c>
       <c r="W80" s="2">
-        <v>-87.809299999999993</v>
+        <v>-87.810100000000006</v>
       </c>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" s="1">
-        <v>33430</v>
+        <v>33339</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>23</v>
@@ -7232,63 +7262,63 @@
         <v>3</v>
       </c>
       <c r="E81" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I81" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M81" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="P81" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="R81" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="V81" s="2">
-        <v>15.401999999999999</v>
+        <v>15.4018</v>
       </c>
       <c r="W81" s="2">
-        <v>-87.810199999999995</v>
+        <v>-87.807699999999997</v>
       </c>
     </row>
     <row r="82" spans="1:23">
       <c r="A82" s="1">
-        <v>33432</v>
+        <v>33556</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>23</v>
@@ -7303,22 +7333,22 @@
         <v>18</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I82" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>30</v>
@@ -7327,36 +7357,36 @@
         <v>1</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="R82" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="U82" s="1" t="s">
         <v>244</v>
       </c>
       <c r="V82" s="2">
-        <v>15.402100000000001</v>
+        <v>15.401899999999999</v>
       </c>
       <c r="W82" s="2">
-        <v>-87.806700000000006</v>
+        <v>-87.810400000000001</v>
       </c>
     </row>
     <row r="83" spans="1:23">
       <c r="A83" s="1">
-        <v>33434</v>
+        <v>33567</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>23</v>
@@ -7371,22 +7401,22 @@
         <v>18</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I83" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>30</v>
@@ -7395,31 +7425,179 @@
         <v>1</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="R83" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="U83" s="1" t="s">
         <v>245</v>
       </c>
       <c r="V83" s="2">
-        <v>15.402100000000001</v>
+        <v>15.401899999999999</v>
       </c>
       <c r="W83" s="2">
-        <v>-87.806700000000006</v>
+        <v>-87.809299999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="G84" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="V84" s="2">
+        <v>14.105252200000001</v>
+      </c>
+      <c r="W84" s="2">
+        <v>-87.184888599999994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="G85" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V85" s="2">
+        <v>14.103733999999999</v>
+      </c>
+      <c r="W85" s="2">
+        <v>-87.186564300000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="G86" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="V86" s="2">
+        <v>13.991437899999999</v>
+      </c>
+      <c r="W86" s="2">
+        <v>-86.5703362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="G87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="V87" s="2">
+        <v>16.358969900000002</v>
+      </c>
+      <c r="W87" s="2">
+        <v>-86.5382848</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="R88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="R89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="R90" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="R91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C33E569A-84F1-4469-A434-6BFB5A9DDECC}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86AFD8AE-2489-454A-8701-DF969CBB1754}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="HOSPITALES" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$93</definedName>
     <definedName name="_xlnm.Database">HOSPITALES!$A$1:$U$83</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="257">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -799,6 +799,12 @@
   </si>
   <si>
     <t>Hospital de Roatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Catarino Rivas </t>
+  </si>
+  <si>
+    <t>Leonardo Martínez</t>
   </si>
 </sst>
 </file>
@@ -1441,8 +1447,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W91" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:W91" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W93" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:W93" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W83">
     <sortCondition ref="S1:S83"/>
   </sortState>
@@ -1775,8 +1781,8 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="N75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R83" sqref="R83:R91"/>
+      <pane ySplit="1" topLeftCell="R81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V91" sqref="V91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -7453,12 +7459,27 @@
       </c>
     </row>
     <row r="84" spans="1:23">
+      <c r="B84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="1">
+        <v>3</v>
+      </c>
       <c r="G84" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="H84" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K84" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="L84" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R84" s="1" t="s">
         <v>35</v>
       </c>
@@ -7479,12 +7500,27 @@
       </c>
     </row>
     <row r="85" spans="1:23">
+      <c r="B85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="1">
+        <v>3</v>
+      </c>
       <c r="G85" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="H85" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K85" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="L85" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R85" s="1" t="s">
         <v>35</v>
       </c>
@@ -7505,12 +7541,27 @@
       </c>
     </row>
     <row r="86" spans="1:23">
+      <c r="B86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3</v>
+      </c>
       <c r="G86" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="H86" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K86" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="L86" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R86" s="1" t="s">
         <v>35</v>
       </c>
@@ -7531,12 +7582,27 @@
       </c>
     </row>
     <row r="87" spans="1:23">
+      <c r="B87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3</v>
+      </c>
       <c r="G87" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="H87" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K87" s="1" t="s">
         <v>230</v>
       </c>
+      <c r="L87" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R87" s="1" t="s">
         <v>35</v>
       </c>
@@ -7557,6 +7623,27 @@
       </c>
     </row>
     <row r="88" spans="1:23">
+      <c r="B88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R88" s="1" t="s">
         <v>35</v>
       </c>
@@ -7566,8 +7653,38 @@
       <c r="T88" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="U88" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="V88" s="2">
+        <v>15.5245187</v>
+      </c>
+      <c r="W88" s="2">
+        <v>-88.043693599999997</v>
+      </c>
     </row>
     <row r="89" spans="1:23">
+      <c r="B89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="1">
+        <v>3</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R89" s="1" t="s">
         <v>35</v>
       </c>
@@ -7577,8 +7694,32 @@
       <c r="T89" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="U89" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="V89" s="2">
+        <v>15.500535899999999</v>
+      </c>
+      <c r="W89" s="2">
+        <v>-88.0310652</v>
+      </c>
     </row>
     <row r="90" spans="1:23">
+      <c r="B90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R90" s="1" t="s">
         <v>35</v>
       </c>
@@ -7588,8 +7729,29 @@
       <c r="T90" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="V90" s="2">
+        <v>13.3077843</v>
+      </c>
+      <c r="W90" s="2">
+        <v>-87.207522900000001</v>
+      </c>
     </row>
     <row r="91" spans="1:23">
+      <c r="B91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="1">
+        <v>3</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R91" s="1" t="s">
         <v>35</v>
       </c>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -1781,8 +1781,8 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="R81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V91" sqref="V91"/>
+      <pane ySplit="1" topLeftCell="P81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W84" sqref="W84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86AFD8AE-2489-454A-8701-DF969CBB1754}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C432C62-00D2-49AC-B510-6A8330D12FE6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="259">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -801,10 +801,16 @@
     <t>Hospital de Roatán</t>
   </si>
   <si>
-    <t xml:space="preserve">Mario Catarino Rivas </t>
-  </si>
-  <si>
-    <t>Leonardo Martínez</t>
+    <t xml:space="preserve">Hospital Nacional Nor-Occidental Mario Catarino Rivas </t>
+  </si>
+  <si>
+    <t>Hospital Leonardo Martínez Valenzuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerto Cortés </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Puerto Cortés </t>
   </si>
 </sst>
 </file>
@@ -1781,8 +1787,8 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="P81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W84" sqref="W84"/>
+      <pane ySplit="1" topLeftCell="C80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G98:G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -7493,10 +7499,10 @@
         <v>249</v>
       </c>
       <c r="V84" s="2">
-        <v>14.105252200000001</v>
+        <v>14.104480000000001</v>
       </c>
       <c r="W84" s="2">
-        <v>-87.184888599999994</v>
+        <v>-87.182319000000007</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7534,10 +7540,10 @@
         <v>250</v>
       </c>
       <c r="V85" s="2">
-        <v>14.103733999999999</v>
+        <v>14.103702999999999</v>
       </c>
       <c r="W85" s="2">
-        <v>-87.186564300000001</v>
+        <v>-87.185029999999998</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7575,10 +7581,10 @@
         <v>253</v>
       </c>
       <c r="V86" s="2">
-        <v>13.991437899999999</v>
+        <v>13.991413</v>
       </c>
       <c r="W86" s="2">
-        <v>-86.5703362</v>
+        <v>-86.568146999999996</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7616,10 +7622,10 @@
         <v>254</v>
       </c>
       <c r="V87" s="2">
-        <v>16.358969900000002</v>
+        <v>16.317903000000001</v>
       </c>
       <c r="W87" s="2">
-        <v>-86.5382848</v>
+        <v>-86.539259000000001</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7657,10 +7663,10 @@
         <v>255</v>
       </c>
       <c r="V88" s="2">
-        <v>15.5245187</v>
+        <v>15.524452999999999</v>
       </c>
       <c r="W88" s="2">
-        <v>-88.043693599999997</v>
+        <v>-88.041515000000004</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7698,10 +7704,10 @@
         <v>256</v>
       </c>
       <c r="V89" s="2">
-        <v>15.500535899999999</v>
+        <v>15.500176</v>
       </c>
       <c r="W89" s="2">
-        <v>-88.0310652</v>
+        <v>-88.030754999999999</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7714,8 +7720,14 @@
       <c r="D90" s="1">
         <v>3</v>
       </c>
+      <c r="G90" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="H90" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>30</v>
@@ -7729,11 +7741,14 @@
       <c r="T90" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="U90" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="V90" s="2">
-        <v>13.3077843</v>
+        <v>15.814730000000001</v>
       </c>
       <c r="W90" s="2">
-        <v>-87.207522900000001</v>
+        <v>-87.936245</v>
       </c>
     </row>
     <row r="91" spans="1:23">

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C432C62-00D2-49AC-B510-6A8330D12FE6}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{521ABC66-966A-4C87-B8EC-72C98C115409}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="HOSPITALES" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$96</definedName>
     <definedName name="_xlnm.Database">HOSPITALES!$A$1:$U$83</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="271">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -171,405 +171,405 @@
     <t>Centro de Salud</t>
   </si>
   <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>La Masica</t>
+  </si>
+  <si>
+    <t>010514</t>
+  </si>
+  <si>
+    <t>San Juan Pueblo</t>
+  </si>
+  <si>
+    <t>HND-0105</t>
+  </si>
+  <si>
+    <t>Centro de Salud Isolina Ruíz</t>
+  </si>
+  <si>
+    <t>Centro de Salud El Manchen</t>
+  </si>
+  <si>
+    <t>Centro Salud Sagrada Familia</t>
+  </si>
+  <si>
+    <t>Centro de Salud El Chile</t>
+  </si>
+  <si>
+    <t>Centro de Salud El Bosque</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Islas de La Bahía</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>Útila</t>
+  </si>
+  <si>
+    <t>110401</t>
+  </si>
+  <si>
+    <t>HND-1104</t>
+  </si>
+  <si>
+    <t>Centro De Salud - Clinic</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>La Paz</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>Santa Elena</t>
+  </si>
+  <si>
+    <t>121608</t>
+  </si>
+  <si>
+    <t>Nahuaterique</t>
+  </si>
+  <si>
+    <t>HND-1216</t>
+  </si>
+  <si>
+    <t>Centro de salud Nahuaterique</t>
+  </si>
+  <si>
+    <t>010103</t>
+  </si>
+  <si>
+    <t>Bonitillo</t>
+  </si>
+  <si>
+    <t>clínica</t>
+  </si>
+  <si>
+    <t>Clínica Metodista</t>
+  </si>
+  <si>
+    <t>Clínica De Especialdades</t>
+  </si>
+  <si>
+    <t>Emergencias Médicas</t>
+  </si>
+  <si>
+    <t>Clínica Médica Edgar Padilla</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Copán</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>Cabañas</t>
+  </si>
+  <si>
+    <t>040201</t>
+  </si>
+  <si>
+    <t>HND-0402</t>
+  </si>
+  <si>
+    <t>M.Y.V</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Cortés</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>San Pedro Sula</t>
+  </si>
+  <si>
+    <t>050101</t>
+  </si>
+  <si>
+    <t>HND-0501</t>
+  </si>
+  <si>
+    <t>Clínica Ferraro</t>
+  </si>
+  <si>
+    <t>Clínica Dentales Unidas</t>
+  </si>
+  <si>
+    <t>0506</t>
+  </si>
+  <si>
+    <t>Puerto Cortés</t>
+  </si>
+  <si>
+    <t>050601</t>
+  </si>
+  <si>
+    <t>HND-0506</t>
+  </si>
+  <si>
+    <t>Cruz Roja Hondureña</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Choluteca</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>060101</t>
+  </si>
+  <si>
+    <t>HND-0601</t>
+  </si>
+  <si>
+    <t>Clínica San Francisco de Asís</t>
+  </si>
+  <si>
+    <t>Ashonplafa</t>
+  </si>
+  <si>
+    <t>Clínica Santa María</t>
+  </si>
+  <si>
+    <t>0606</t>
+  </si>
+  <si>
+    <t>El Triunfo</t>
+  </si>
+  <si>
+    <t>060603</t>
+  </si>
+  <si>
+    <t>El Cedrito</t>
+  </si>
+  <si>
+    <t>HND-0606</t>
+  </si>
+  <si>
+    <t>Clínica Médica Gosén</t>
+  </si>
+  <si>
+    <t>Laboratorio y Droguería Francelia</t>
+  </si>
+  <si>
+    <t>Clínica Clíper Hato de Enmedio</t>
+  </si>
+  <si>
+    <t>Asociación Pediatrica Hondureña</t>
+  </si>
+  <si>
+    <t>Centro Integral de Atención al Diabetico - CIAD</t>
+  </si>
+  <si>
+    <t>Clínicas Médicas</t>
+  </si>
+  <si>
+    <t>Dental Line</t>
+  </si>
+  <si>
+    <t>Óptica Robles</t>
+  </si>
+  <si>
+    <t>Laboratorio Palmira</t>
+  </si>
+  <si>
+    <t>Prolab</t>
+  </si>
+  <si>
+    <t>Clínica Rivera</t>
+  </si>
+  <si>
+    <t>Hospital y Clínicas Viera</t>
+  </si>
+  <si>
+    <t>Clínica Salesiano</t>
+  </si>
+  <si>
+    <t>080111</t>
+  </si>
+  <si>
+    <t>El Piliguan</t>
+  </si>
+  <si>
+    <t>CLIPER</t>
+  </si>
+  <si>
+    <t>0806</t>
+  </si>
+  <si>
+    <t>Guaimaca</t>
+  </si>
+  <si>
+    <t>080601</t>
+  </si>
+  <si>
+    <t>HND-0806</t>
+  </si>
+  <si>
+    <t>Clínica ENGA-DI</t>
+  </si>
+  <si>
+    <t>Clínica Criolla</t>
+  </si>
+  <si>
+    <t>Clínica de Emergencias Médicas</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Intibucá</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>Jesús de Otoro</t>
+  </si>
+  <si>
+    <t>100701</t>
+  </si>
+  <si>
+    <t>HND-1007</t>
+  </si>
+  <si>
+    <t>Centro de Salud Camilo Giron Rivera</t>
+  </si>
+  <si>
+    <t>Clínica Santa Fe</t>
+  </si>
+  <si>
+    <t>Materno Infantil</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Lempira</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>Gracias</t>
+  </si>
+  <si>
+    <t>130101</t>
+  </si>
+  <si>
+    <t>HND-1301</t>
+  </si>
+  <si>
+    <t>San Lucas</t>
+  </si>
+  <si>
+    <t>1311</t>
+  </si>
+  <si>
+    <t>La Unión</t>
+  </si>
+  <si>
+    <t>131101</t>
+  </si>
+  <si>
+    <t>HND-1311</t>
+  </si>
+  <si>
+    <t>Clínica Médica Vida Abundante</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Olancho</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>Dulce Nombre de Culmí</t>
+  </si>
+  <si>
+    <t>150501</t>
+  </si>
+  <si>
+    <t>HND-1505</t>
+  </si>
+  <si>
+    <t>Clínica Sinaí</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Yoro</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>El Progreso</t>
+  </si>
+  <si>
+    <t>180401</t>
+  </si>
+  <si>
+    <t>HND-1804</t>
+  </si>
+  <si>
+    <t>Clínica del Ojo</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>Morazán</t>
+  </si>
+  <si>
+    <t>180601</t>
+  </si>
+  <si>
+    <t>HND-1806</t>
+  </si>
+  <si>
+    <t>Policlínica San Jorge</t>
+  </si>
+  <si>
+    <t>farmacia</t>
+  </si>
+  <si>
+    <t>Farmacia Simán</t>
+  </si>
+  <si>
+    <t>Farmacia Kielsa</t>
+  </si>
+  <si>
+    <t>Farmacia Bethania</t>
+  </si>
+  <si>
     <t>Atlantida</t>
   </si>
   <si>
-    <t>0105</t>
-  </si>
-  <si>
-    <t>La Masica</t>
-  </si>
-  <si>
-    <t>010514</t>
-  </si>
-  <si>
-    <t>San Juan Pueblo</t>
-  </si>
-  <si>
-    <t>HND-0105</t>
-  </si>
-  <si>
-    <t>Centro de Salud Isolina Ruíz</t>
-  </si>
-  <si>
-    <t>Centro de Salud El Manchen</t>
-  </si>
-  <si>
-    <t>Centro Salud Sagrada Familia</t>
-  </si>
-  <si>
-    <t>Centro de Salud El Chile</t>
-  </si>
-  <si>
-    <t>Centro de Salud El Bosque</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Islas de La Bahía</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>Útila</t>
-  </si>
-  <si>
-    <t>110401</t>
-  </si>
-  <si>
-    <t>HND-1104</t>
-  </si>
-  <si>
-    <t>Centro De Salud - Clinic</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>La Paz</t>
-  </si>
-  <si>
-    <t>1216</t>
-  </si>
-  <si>
-    <t>Santa Elena</t>
-  </si>
-  <si>
-    <t>121608</t>
-  </si>
-  <si>
-    <t>Nahuaterique</t>
-  </si>
-  <si>
-    <t>HND-1216</t>
-  </si>
-  <si>
-    <t>Centro de salud Nahuaterique</t>
-  </si>
-  <si>
-    <t>010103</t>
-  </si>
-  <si>
-    <t>Bonitillo</t>
-  </si>
-  <si>
-    <t>clínica</t>
-  </si>
-  <si>
-    <t>Clínica Metodista</t>
-  </si>
-  <si>
-    <t>Clínica De Especialdades</t>
-  </si>
-  <si>
-    <t>Emergencias Médicas</t>
-  </si>
-  <si>
-    <t>Clínica Médica Edgar Padilla</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Copán</t>
-  </si>
-  <si>
-    <t>0402</t>
-  </si>
-  <si>
-    <t>Cabañas</t>
-  </si>
-  <si>
-    <t>040201</t>
-  </si>
-  <si>
-    <t>HND-0402</t>
-  </si>
-  <si>
-    <t>M.Y.V</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Cortés</t>
-  </si>
-  <si>
-    <t>0501</t>
-  </si>
-  <si>
-    <t>San Pedro Sula</t>
-  </si>
-  <si>
-    <t>050101</t>
-  </si>
-  <si>
-    <t>HND-0501</t>
-  </si>
-  <si>
-    <t>Clínica Ferraro</t>
-  </si>
-  <si>
-    <t>Clínica Dentales Unidas</t>
-  </si>
-  <si>
-    <t>0506</t>
-  </si>
-  <si>
-    <t>Puerto Cortés</t>
-  </si>
-  <si>
-    <t>050601</t>
-  </si>
-  <si>
-    <t>HND-0506</t>
-  </si>
-  <si>
-    <t>Cruz Roja Hondureña</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Choluteca</t>
-  </si>
-  <si>
-    <t>0601</t>
-  </si>
-  <si>
-    <t>060101</t>
-  </si>
-  <si>
-    <t>HND-0601</t>
-  </si>
-  <si>
-    <t>Clínica San Francisco de Asís</t>
-  </si>
-  <si>
-    <t>Ashonplafa</t>
-  </si>
-  <si>
-    <t>Clínica Santa María</t>
-  </si>
-  <si>
-    <t>0606</t>
-  </si>
-  <si>
-    <t>El Triunfo</t>
-  </si>
-  <si>
-    <t>060603</t>
-  </si>
-  <si>
-    <t>El Cedrito</t>
-  </si>
-  <si>
-    <t>HND-0606</t>
-  </si>
-  <si>
-    <t>Clínica Médica Gosén</t>
-  </si>
-  <si>
-    <t>Laboratorio y Droguería Francelia</t>
-  </si>
-  <si>
-    <t>Clínica Clíper Hato de Enmedio</t>
-  </si>
-  <si>
-    <t>Asociación Pediatrica Hondureña</t>
-  </si>
-  <si>
-    <t>Centro Integral de Atención al Diabetico - CIAD</t>
-  </si>
-  <si>
-    <t>Clínicas Médicas</t>
-  </si>
-  <si>
-    <t>Dental Line</t>
-  </si>
-  <si>
-    <t>Óptica Robles</t>
-  </si>
-  <si>
-    <t>Laboratorio Palmira</t>
-  </si>
-  <si>
-    <t>Prolab</t>
-  </si>
-  <si>
-    <t>Clínica Rivera</t>
-  </si>
-  <si>
-    <t>Hospital y Clínicas Viera</t>
-  </si>
-  <si>
-    <t>Clínica Salesiano</t>
-  </si>
-  <si>
-    <t>080111</t>
-  </si>
-  <si>
-    <t>El Piliguan</t>
-  </si>
-  <si>
-    <t>CLIPER</t>
-  </si>
-  <si>
-    <t>0806</t>
-  </si>
-  <si>
-    <t>Guaimaca</t>
-  </si>
-  <si>
-    <t>080601</t>
-  </si>
-  <si>
-    <t>HND-0806</t>
-  </si>
-  <si>
-    <t>Clínica ENGA-DI</t>
-  </si>
-  <si>
-    <t>Clínica Criolla</t>
-  </si>
-  <si>
-    <t>Clínica de Emergencias Médicas</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Intibucá</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>Jesús de Otoro</t>
-  </si>
-  <si>
-    <t>100701</t>
-  </si>
-  <si>
-    <t>HND-1007</t>
-  </si>
-  <si>
-    <t>Centro de Salud Camilo Giron Rivera</t>
-  </si>
-  <si>
-    <t>Clínica Santa Fe</t>
-  </si>
-  <si>
-    <t>Materno Infantil</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Lempira</t>
-  </si>
-  <si>
-    <t>1301</t>
-  </si>
-  <si>
-    <t>Gracias</t>
-  </si>
-  <si>
-    <t>130101</t>
-  </si>
-  <si>
-    <t>HND-1301</t>
-  </si>
-  <si>
-    <t>San Lucas</t>
-  </si>
-  <si>
-    <t>1311</t>
-  </si>
-  <si>
-    <t>La Unión</t>
-  </si>
-  <si>
-    <t>131101</t>
-  </si>
-  <si>
-    <t>HND-1311</t>
-  </si>
-  <si>
-    <t>Clínica Médica Vida Abundante</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Olancho</t>
-  </si>
-  <si>
-    <t>1505</t>
-  </si>
-  <si>
-    <t>Dulce Nombre de Culmí</t>
-  </si>
-  <si>
-    <t>150501</t>
-  </si>
-  <si>
-    <t>HND-1505</t>
-  </si>
-  <si>
-    <t>Clínica Sinaí</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Yoro</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>El Progreso</t>
-  </si>
-  <si>
-    <t>180401</t>
-  </si>
-  <si>
-    <t>HND-1804</t>
-  </si>
-  <si>
-    <t>Clínica del Ojo</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>Morazán</t>
-  </si>
-  <si>
-    <t>180601</t>
-  </si>
-  <si>
-    <t>HND-1806</t>
-  </si>
-  <si>
-    <t>Policlínica San Jorge</t>
-  </si>
-  <si>
-    <t>farmacia</t>
-  </si>
-  <si>
-    <t>Farmacia Simán</t>
-  </si>
-  <si>
-    <t>Farmacia Kielsa</t>
-  </si>
-  <si>
-    <t>Farmacia Bethania</t>
-  </si>
-  <si>
     <t>010101</t>
   </si>
   <si>
@@ -811,6 +811,42 @@
   </si>
   <si>
     <t xml:space="preserve">Hospital Puerto Cortés </t>
+  </si>
+  <si>
+    <t>Hospital Regional del Sur</t>
+  </si>
+  <si>
+    <t>Hospital Atlántida</t>
+  </si>
+  <si>
+    <t>Santa Rosa de Copán</t>
+  </si>
+  <si>
+    <t>Hospital de Occidente</t>
+  </si>
+  <si>
+    <t>Trujillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Salvador Paredes </t>
+  </si>
+  <si>
+    <t>Ocotepeque</t>
+  </si>
+  <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
+    <t>Hospital San Marcos de Ocotepeque</t>
+  </si>
+  <si>
+    <t>Valle</t>
+  </si>
+  <si>
+    <t>San Lorenzo</t>
+  </si>
+  <si>
+    <t>Hospital San Lorenzo</t>
   </si>
 </sst>
 </file>
@@ -1453,8 +1489,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W93" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:W93" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W96" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:W96" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W83">
     <sortCondition ref="S1:S83"/>
   </sortState>
@@ -1784,11 +1820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W91"/>
+  <dimension ref="A1:W96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G99" sqref="G98:G99"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -2044,7 +2080,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>27</v>
@@ -2053,10 +2089,10 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>30</v>
@@ -2065,16 +2101,16 @@
         <v>14</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>35</v>
@@ -2083,7 +2119,7 @@
         <v>36</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V4" s="2">
         <v>15.399800000000001</v>
@@ -2151,7 +2187,7 @@
         <v>36</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V5" s="2">
         <v>15.401400000000001</v>
@@ -2219,7 +2255,7 @@
         <v>36</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V6" s="2">
         <v>15.401400000000001</v>
@@ -2287,7 +2323,7 @@
         <v>36</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V7" s="2">
         <v>15.4016</v>
@@ -2355,7 +2391,7 @@
         <v>36</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V8" s="2">
         <v>15.4016</v>
@@ -2381,10 +2417,10 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>27</v>
@@ -2393,28 +2429,28 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>35</v>
@@ -2423,7 +2459,7 @@
         <v>36</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V9" s="2">
         <v>15.4016</v>
@@ -2449,10 +2485,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>27</v>
@@ -2461,10 +2497,10 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>30</v>
@@ -2473,16 +2509,16 @@
         <v>8</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>35</v>
@@ -2491,7 +2527,7 @@
         <v>36</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V10" s="2">
         <v>15.4018</v>
@@ -2541,10 +2577,10 @@
         <v>3</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>33</v>
@@ -2556,10 +2592,10 @@
         <v>35</v>
       </c>
       <c r="S11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="V11" s="2">
         <v>14.157299999999999</v>
@@ -2597,10 +2633,10 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>30</v>
@@ -2609,25 +2645,25 @@
         <v>14</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="R12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V12" s="2">
         <v>14.068899999999999</v>
@@ -2665,10 +2701,10 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>30</v>
@@ -2677,25 +2713,25 @@
         <v>14</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="R13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V13" s="2">
         <v>14.0501</v>
@@ -2733,10 +2769,10 @@
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>30</v>
@@ -2745,25 +2781,25 @@
         <v>14</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="R14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V14" s="2">
         <v>14.3118</v>
@@ -2789,10 +2825,10 @@
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>27</v>
@@ -2801,37 +2837,37 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="V15" s="2">
         <v>14.3165</v>
@@ -2857,46 +2893,46 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="R16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>44</v>
@@ -2925,46 +2961,46 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="R17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>44</v>
@@ -2993,46 +3029,46 @@
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="R18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>44</v>
@@ -3061,49 +3097,49 @@
         <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U19" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="V19" s="2">
         <v>14.245100000000001</v>
@@ -3129,49 +3165,49 @@
         <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="R20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V20" s="2">
         <v>14.246</v>
@@ -3197,10 +3233,10 @@
         <v>5</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>27</v>
@@ -3209,37 +3245,37 @@
         <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="V21" s="2">
         <v>14.579700000000001</v>
@@ -3265,49 +3301,49 @@
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="V22" s="2">
         <v>14.5837</v>
@@ -3333,49 +3369,49 @@
         <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="R23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V23" s="2">
         <v>14.5839</v>
@@ -3401,49 +3437,49 @@
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="R24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V24" s="2">
         <v>14.5844</v>
@@ -3469,10 +3505,10 @@
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>27</v>
@@ -3481,37 +3517,37 @@
         <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" s="1">
-        <v>3</v>
-      </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U25" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="V25" s="2">
         <v>14.5852</v>
@@ -3576,10 +3612,10 @@
         <v>35</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V26" s="2">
         <v>14.5854</v>
@@ -3644,10 +3680,10 @@
         <v>35</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V27" s="2">
         <v>14.5855</v>
@@ -3712,10 +3748,10 @@
         <v>35</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V28" s="2">
         <v>14.585699999999999</v>
@@ -3780,10 +3816,10 @@
         <v>35</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V29" s="2">
         <v>14.585699999999999</v>
@@ -3848,10 +3884,10 @@
         <v>35</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V30" s="2">
         <v>14.585900000000001</v>
@@ -3916,10 +3952,10 @@
         <v>35</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V31" s="2">
         <v>14.585900000000001</v>
@@ -3984,10 +4020,10 @@
         <v>35</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V32" s="2">
         <v>14.5862</v>
@@ -4052,10 +4088,10 @@
         <v>35</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V33" s="2">
         <v>14.5869</v>
@@ -4120,10 +4156,10 @@
         <v>35</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V34" s="2">
         <v>14.587300000000001</v>
@@ -4188,10 +4224,10 @@
         <v>35</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V35" s="2">
         <v>14.5875</v>
@@ -4256,10 +4292,10 @@
         <v>35</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V36" s="2">
         <v>14.5877</v>
@@ -4324,10 +4360,10 @@
         <v>35</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V37" s="2">
         <v>14.5878</v>
@@ -4392,10 +4428,10 @@
         <v>35</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V38" s="2">
         <v>14.587899999999999</v>
@@ -4445,10 +4481,10 @@
         <v>11</v>
       </c>
       <c r="N39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>33</v>
@@ -4460,10 +4496,10 @@
         <v>35</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V39" s="2">
         <v>14.587999999999999</v>
@@ -4501,37 +4537,37 @@
         <v>6</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M40" s="1">
-        <v>1</v>
-      </c>
-      <c r="N40" s="1" t="s">
+      <c r="O40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q40" s="1" t="s">
+      <c r="R40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U40" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="V40" s="2">
         <v>14.588200000000001</v>
@@ -4569,37 +4605,37 @@
         <v>6</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M41" s="1">
-        <v>1</v>
-      </c>
-      <c r="N41" s="1" t="s">
+      <c r="O41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O41" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="R41" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V41" s="2">
         <v>14.588200000000001</v>
@@ -4637,37 +4673,37 @@
         <v>6</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M42" s="1">
-        <v>1</v>
-      </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="R42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V42" s="2">
         <v>14.5883</v>
@@ -4693,10 +4729,10 @@
         <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>27</v>
@@ -4705,37 +4741,37 @@
         <v>7</v>
       </c>
       <c r="J43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M43" s="1">
-        <v>1</v>
-      </c>
-      <c r="N43" s="1" t="s">
+      <c r="O43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O43" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="R43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V43" s="2">
         <v>14.5885</v>
@@ -4761,10 +4797,10 @@
         <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>27</v>
@@ -4773,37 +4809,37 @@
         <v>7</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" s="1">
-        <v>1</v>
-      </c>
-      <c r="N44" s="1" t="s">
+      <c r="O44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O44" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q44" s="1" t="s">
+      <c r="R44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U44" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="V44" s="2">
         <v>14.5886</v>
@@ -4829,10 +4865,10 @@
         <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>27</v>
@@ -4841,37 +4877,37 @@
         <v>7</v>
       </c>
       <c r="J45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M45" s="1">
-        <v>1</v>
-      </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q45" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O45" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="R45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V45" s="2">
         <v>14.5886</v>
@@ -4897,10 +4933,10 @@
         <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>27</v>
@@ -4909,37 +4945,37 @@
         <v>7</v>
       </c>
       <c r="J46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M46" s="1">
-        <v>1</v>
-      </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q46" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="R46" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V46" s="2">
         <v>14.588699999999999</v>
@@ -4965,49 +5001,49 @@
         <v>13</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" s="1">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M47" s="1">
-        <v>1</v>
-      </c>
-      <c r="N47" s="1" t="s">
+      <c r="O47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O47" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q47" s="1" t="s">
+      <c r="R47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U47" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="V47" s="2">
         <v>14.588699999999999</v>
@@ -5033,10 +5069,10 @@
         <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>27</v>
@@ -5045,37 +5081,37 @@
         <v>11</v>
       </c>
       <c r="J48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M48" s="1">
-        <v>1</v>
-      </c>
-      <c r="N48" s="1" t="s">
+      <c r="O48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q48" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="O48" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q48" s="1" t="s">
+      <c r="R48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U48" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="V48" s="2">
         <v>14.588800000000001</v>
@@ -5101,10 +5137,10 @@
         <v>15</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>27</v>
@@ -5113,37 +5149,37 @@
         <v>5</v>
       </c>
       <c r="J49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M49" s="1">
-        <v>1</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q49" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O49" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q49" s="1" t="s">
+      <c r="R49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U49" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="V49" s="2">
         <v>14.588800000000001</v>
@@ -5169,10 +5205,10 @@
         <v>18</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>27</v>
@@ -5181,37 +5217,37 @@
         <v>4</v>
       </c>
       <c r="J50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="L50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M50" s="1">
-        <v>1</v>
-      </c>
-      <c r="N50" s="1" t="s">
+      <c r="O50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q50" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O50" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q50" s="1" t="s">
+      <c r="R50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U50" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="V50" s="2">
         <v>14.588900000000001</v>
@@ -5237,10 +5273,10 @@
         <v>18</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>27</v>
@@ -5249,37 +5285,37 @@
         <v>6</v>
       </c>
       <c r="J51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="L51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M51" s="1">
-        <v>1</v>
-      </c>
-      <c r="N51" s="1" t="s">
+      <c r="O51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O51" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q51" s="1" t="s">
+      <c r="R51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U51" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="V51" s="2">
         <v>14.588900000000001</v>
@@ -5305,10 +5341,10 @@
         <v>18</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>27</v>
@@ -5317,37 +5353,37 @@
         <v>6</v>
       </c>
       <c r="J52" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="L52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M52" s="1">
-        <v>1</v>
-      </c>
-      <c r="N52" s="1" t="s">
+      <c r="O52" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q52" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O52" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="R52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S52" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="U52" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="V52" s="2">
         <v>15.401999999999999</v>
@@ -5373,10 +5409,10 @@
         <v>18</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>27</v>
@@ -5385,37 +5421,37 @@
         <v>6</v>
       </c>
       <c r="J53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="L53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" s="1">
+        <v>1</v>
+      </c>
+      <c r="N53" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M53" s="1">
-        <v>1</v>
-      </c>
-      <c r="N53" s="1" t="s">
+      <c r="O53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O53" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="R53" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V53" s="2">
         <v>15.402100000000001</v>
@@ -5441,10 +5477,10 @@
         <v>18</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>27</v>
@@ -5453,37 +5489,37 @@
         <v>6</v>
       </c>
       <c r="J54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="L54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M54" s="1">
-        <v>1</v>
-      </c>
-      <c r="N54" s="1" t="s">
+      <c r="O54" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q54" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O54" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="R54" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V54" s="2">
         <v>15.402100000000001</v>
@@ -5512,7 +5548,7 @@
         <v>25</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>27</v>
@@ -5713,10 +5749,10 @@
         <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>27</v>
@@ -5755,7 +5791,7 @@
         <v>179</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V58" s="2">
         <v>15.400600000000001</v>
@@ -5781,40 +5817,40 @@
         <v>5</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" s="1">
-        <v>1</v>
-      </c>
-      <c r="J59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="L59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
+      <c r="N59" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M59" s="1">
-        <v>1</v>
-      </c>
-      <c r="N59" s="1" t="s">
+      <c r="O59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q59" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>35</v>
@@ -5849,40 +5885,40 @@
         <v>5</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" s="1">
-        <v>1</v>
-      </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M60" s="1">
-        <v>1</v>
-      </c>
-      <c r="N60" s="1" t="s">
+      <c r="O60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q60" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>35</v>
@@ -5917,40 +5953,40 @@
         <v>5</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I61" s="1">
-        <v>1</v>
-      </c>
-      <c r="J61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="L61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M61" s="1">
-        <v>1</v>
-      </c>
-      <c r="N61" s="1" t="s">
+      <c r="O61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q61" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="R61" s="1" t="s">
         <v>35</v>
@@ -5985,40 +6021,40 @@
         <v>5</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="1">
-        <v>1</v>
-      </c>
-      <c r="J62" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="L62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M62" s="1">
-        <v>1</v>
-      </c>
-      <c r="N62" s="1" t="s">
+      <c r="O62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q62" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>35</v>
@@ -6503,7 +6539,7 @@
         <v>179</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V69" s="2">
         <v>15.401199999999999</v>
@@ -6937,10 +6973,10 @@
         <v>10</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>27</v>
@@ -6952,7 +6988,7 @@
         <v>219</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>30</v>
@@ -6964,7 +7000,7 @@
         <v>220</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>33</v>
@@ -7005,10 +7041,10 @@
         <v>10</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>27</v>
@@ -7073,10 +7109,10 @@
         <v>11</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>27</v>
@@ -7141,10 +7177,10 @@
         <v>11</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>27</v>
@@ -7153,28 +7189,28 @@
         <v>4</v>
       </c>
       <c r="J79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="L79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M79" s="1">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M79" s="1">
-        <v>1</v>
-      </c>
-      <c r="N79" s="1" t="s">
+      <c r="O79" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q79" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="R79" s="1" t="s">
         <v>35</v>
@@ -7209,10 +7245,10 @@
         <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>27</v>
@@ -7221,28 +7257,28 @@
         <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="L80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M80" s="1">
+        <v>1</v>
+      </c>
+      <c r="N80" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L80" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M80" s="1">
-        <v>1</v>
-      </c>
-      <c r="N80" s="1" t="s">
+      <c r="O80" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q80" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="R80" s="1" t="s">
         <v>35</v>
@@ -7345,10 +7381,10 @@
         <v>18</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>27</v>
@@ -7357,28 +7393,28 @@
         <v>4</v>
       </c>
       <c r="J82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="L82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" s="1">
+        <v>1</v>
+      </c>
+      <c r="N82" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L82" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" s="1">
-        <v>1</v>
-      </c>
-      <c r="N82" s="1" t="s">
+      <c r="O82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q82" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="R82" s="1" t="s">
         <v>35</v>
@@ -7413,10 +7449,10 @@
         <v>18</v>
       </c>
       <c r="F83" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>27</v>
@@ -7425,28 +7461,28 @@
         <v>4</v>
       </c>
       <c r="J83" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="L83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M83" s="1">
+        <v>1</v>
+      </c>
+      <c r="N83" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L83" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M83" s="1">
-        <v>1</v>
-      </c>
-      <c r="N83" s="1" t="s">
+      <c r="O83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q83" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q83" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="R83" s="1" t="s">
         <v>35</v>
@@ -7474,6 +7510,12 @@
       <c r="D84" s="1">
         <v>3</v>
       </c>
+      <c r="E84" s="1">
+        <v>8</v>
+      </c>
+      <c r="F84" s="1">
+        <v>8</v>
+      </c>
       <c r="G84" s="1" t="s">
         <v>246</v>
       </c>
@@ -7486,6 +7528,12 @@
       <c r="L84" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="O84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="R84" s="1" t="s">
         <v>35</v>
       </c>
@@ -7515,6 +7563,12 @@
       <c r="D85" s="1">
         <v>3</v>
       </c>
+      <c r="E85" s="1">
+        <v>8</v>
+      </c>
+      <c r="F85" s="1">
+        <v>8</v>
+      </c>
       <c r="G85" s="1" t="s">
         <v>246</v>
       </c>
@@ -7527,6 +7581,12 @@
       <c r="L85" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="O85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="R85" s="1" t="s">
         <v>35</v>
       </c>
@@ -7556,6 +7616,12 @@
       <c r="D86" s="1">
         <v>3</v>
       </c>
+      <c r="E86" s="1">
+        <v>7</v>
+      </c>
+      <c r="F86" s="1">
+        <v>7</v>
+      </c>
       <c r="G86" s="1" t="s">
         <v>251</v>
       </c>
@@ -7568,6 +7634,12 @@
       <c r="L86" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="O86" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="R86" s="1" t="s">
         <v>35</v>
       </c>
@@ -7597,8 +7669,14 @@
       <c r="D87" s="1">
         <v>3</v>
       </c>
+      <c r="E87" s="1">
+        <v>11</v>
+      </c>
+      <c r="F87" s="1">
+        <v>11</v>
+      </c>
       <c r="G87" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>27</v>
@@ -7609,6 +7687,12 @@
       <c r="L87" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="O87" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="R87" s="1" t="s">
         <v>35</v>
       </c>
@@ -7638,17 +7722,29 @@
       <c r="D88" s="1">
         <v>3</v>
       </c>
+      <c r="E88" s="1">
+        <v>5</v>
+      </c>
+      <c r="F88" s="1">
+        <v>5</v>
+      </c>
       <c r="G88" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R88" s="1" t="s">
         <v>35</v>
@@ -7679,17 +7775,29 @@
       <c r="D89" s="1">
         <v>3</v>
       </c>
+      <c r="E89" s="1">
+        <v>5</v>
+      </c>
+      <c r="F89" s="1">
+        <v>5</v>
+      </c>
       <c r="G89" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R89" s="1" t="s">
         <v>35</v>
@@ -7720,8 +7828,14 @@
       <c r="D90" s="1">
         <v>3</v>
       </c>
+      <c r="E90" s="1">
+        <v>5</v>
+      </c>
+      <c r="F90" s="1">
+        <v>5</v>
+      </c>
       <c r="G90" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>27</v>
@@ -7732,6 +7846,12 @@
       <c r="L90" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="O90" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="R90" s="1" t="s">
         <v>35</v>
       </c>
@@ -7761,11 +7881,29 @@
       <c r="D91" s="1">
         <v>3</v>
       </c>
+      <c r="E91" s="1">
+        <v>6</v>
+      </c>
+      <c r="F91" s="1">
+        <v>6</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="H91" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K91" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="L91" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R91" s="1" t="s">
         <v>35</v>
@@ -7775,6 +7913,280 @@
       </c>
       <c r="T91" s="1" t="s">
         <v>248</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V91" s="2">
+        <v>13.303027999999999</v>
+      </c>
+      <c r="W91" s="2">
+        <v>-87.199538000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="B92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="V92" s="2">
+        <v>15.769266</v>
+      </c>
+      <c r="W92" s="2">
+        <v>-86.808992000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="B93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="1">
+        <v>3</v>
+      </c>
+      <c r="E93" s="1">
+        <v>4</v>
+      </c>
+      <c r="F93" s="1">
+        <v>4</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="V93" s="2">
+        <v>14.768719000000001</v>
+      </c>
+      <c r="W93" s="2">
+        <v>-88.784801000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="B94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1">
+        <v>2</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U94" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="V94" s="2">
+        <v>15.920894000000001</v>
+      </c>
+      <c r="W94" s="2">
+        <v>-85.951768999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="B95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1">
+        <v>14</v>
+      </c>
+      <c r="F95" s="1">
+        <v>14</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V95" s="2">
+        <v>14.412167999999999</v>
+      </c>
+      <c r="W95" s="2">
+        <v>-88.956046000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="B96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1">
+        <v>17</v>
+      </c>
+      <c r="F96" s="1">
+        <v>17</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U96" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="V96" s="2">
+        <v>13.435276</v>
+      </c>
+      <c r="W96" s="2">
+        <v>-87.443899000000002</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{521ABC66-966A-4C87-B8EC-72C98C115409}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12574679-8A0F-45EF-AF10-0C691B1E1724}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="270">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -772,9 +772,6 @@
   </si>
   <si>
     <t>Clínica Barrientos Maradiaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tegucigalpa </t>
   </si>
   <si>
     <t xml:space="preserve">hospital </t>
@@ -1823,8 +1820,8 @@
   <dimension ref="A1:W96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G84" sqref="G84:G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -7517,7 +7514,7 @@
         <v>8</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>27</v>
@@ -7538,13 +7535,13 @@
         <v>35</v>
       </c>
       <c r="S84" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T84" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="T84" s="1" t="s">
+      <c r="U84" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="U84" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="V84" s="2">
         <v>14.104480000000001</v>
@@ -7570,7 +7567,7 @@
         <v>8</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>27</v>
@@ -7591,13 +7588,13 @@
         <v>35</v>
       </c>
       <c r="S85" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T85" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="T85" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="U85" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V85" s="2">
         <v>14.103702999999999</v>
@@ -7623,34 +7620,34 @@
         <v>7</v>
       </c>
       <c r="G86" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K86" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K86" s="1" t="s">
+      <c r="L86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="U86" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="T86" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="U86" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="V86" s="2">
         <v>13.991413</v>
@@ -7697,13 +7694,13 @@
         <v>35</v>
       </c>
       <c r="S87" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T87" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="T87" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="U87" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="V87" s="2">
         <v>16.317903000000001</v>
@@ -7750,13 +7747,13 @@
         <v>35</v>
       </c>
       <c r="S88" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T88" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="T88" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="U88" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="V88" s="2">
         <v>15.524452999999999</v>
@@ -7803,13 +7800,13 @@
         <v>35</v>
       </c>
       <c r="S89" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T89" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="T89" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="U89" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V89" s="2">
         <v>15.500176</v>
@@ -7841,28 +7838,28 @@
         <v>27</v>
       </c>
       <c r="K90" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="U90" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S90" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="T90" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="U90" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="V90" s="2">
         <v>15.814730000000001</v>
@@ -7909,13 +7906,13 @@
         <v>35</v>
       </c>
       <c r="S91" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T91" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="T91" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="U91" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V91" s="2">
         <v>13.303027999999999</v>
@@ -7962,13 +7959,13 @@
         <v>35</v>
       </c>
       <c r="S92" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T92" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="T92" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="U92" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V92" s="2">
         <v>15.769266</v>
@@ -8000,28 +7997,28 @@
         <v>27</v>
       </c>
       <c r="K93" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="U93" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S93" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="T93" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="U93" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="V93" s="2">
         <v>14.768719000000001</v>
@@ -8053,28 +8050,28 @@
         <v>27</v>
       </c>
       <c r="K94" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="U94" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R94" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S94" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="T94" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="U94" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="V94" s="2">
         <v>15.920894000000001</v>
@@ -8100,34 +8097,34 @@
         <v>14</v>
       </c>
       <c r="G95" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K95" s="1" t="s">
+      <c r="L95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="U95" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R95" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S95" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="T95" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="U95" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="V95" s="2">
         <v>14.412167999999999</v>
@@ -8153,34 +8150,34 @@
         <v>17</v>
       </c>
       <c r="G96" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K96" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K96" s="1" t="s">
+      <c r="L96" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="U96" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S96" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="T96" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="U96" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="V96" s="2">
         <v>13.435276</v>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12574679-8A0F-45EF-AF10-0C691B1E1724}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C7B8CDC-E5E3-492E-9CFB-9E487F4E5D74}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="272">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -783,10 +783,16 @@
     <t>Hospital Del Torax</t>
   </si>
   <si>
+    <t>0802</t>
+  </si>
+  <si>
     <t>Hospital General San Felipe</t>
   </si>
   <si>
     <t>El Paraiso</t>
+  </si>
+  <si>
+    <t>0703</t>
   </si>
   <si>
     <t>Danlí</t>
@@ -1170,7 +1176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1285,6 +1291,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1330,7 +1345,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1338,6 +1353,7 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1820,8 +1836,8 @@
   <dimension ref="A1:W96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G84" sqref="G84:G85"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I84" sqref="I84:I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -7497,7 +7513,7 @@
         <v>-87.809299999999993</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" ht="15">
       <c r="B84" s="1" t="s">
         <v>23</v>
       </c>
@@ -7519,6 +7535,12 @@
       <c r="H84" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I84" s="7">
+        <v>1</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="K84" s="1" t="s">
         <v>41</v>
       </c>
@@ -7572,6 +7594,12 @@
       <c r="H85" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I85" s="7">
+        <v>1</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="K85" s="1" t="s">
         <v>41</v>
       </c>
@@ -7594,7 +7622,7 @@
         <v>247</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V85" s="2">
         <v>14.103702999999999</v>
@@ -7603,7 +7631,7 @@
         <v>-87.185029999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" ht="15">
       <c r="B86" s="1" t="s">
         <v>23</v>
       </c>
@@ -7620,19 +7648,25 @@
         <v>7</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I86" s="7">
+        <v>3</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="K86" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P86" s="1" t="s">
         <v>33</v>
@@ -7647,7 +7681,7 @@
         <v>247</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="V86" s="2">
         <v>13.991413</v>
@@ -7656,7 +7690,7 @@
         <v>-86.568146999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" ht="15">
       <c r="B87" s="1" t="s">
         <v>23</v>
       </c>
@@ -7678,6 +7712,12 @@
       <c r="H87" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I87" s="7">
+        <v>1</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="K87" s="1" t="s">
         <v>230</v>
       </c>
@@ -7700,7 +7740,7 @@
         <v>247</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="V87" s="2">
         <v>16.317903000000001</v>
@@ -7753,7 +7793,7 @@
         <v>247</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="V88" s="2">
         <v>15.524452999999999</v>
@@ -7806,7 +7846,7 @@
         <v>247</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="V89" s="2">
         <v>15.500176</v>
@@ -7838,13 +7878,13 @@
         <v>27</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>33</v>
@@ -7859,7 +7899,7 @@
         <v>247</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="V90" s="2">
         <v>15.814730000000001</v>
@@ -7912,7 +7952,7 @@
         <v>247</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="V91" s="2">
         <v>13.303027999999999</v>
@@ -7965,7 +8005,7 @@
         <v>247</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="V92" s="2">
         <v>15.769266</v>
@@ -7997,13 +8037,13 @@
         <v>27</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>33</v>
@@ -8018,7 +8058,7 @@
         <v>247</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="V93" s="2">
         <v>14.768719000000001</v>
@@ -8050,13 +8090,13 @@
         <v>27</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>33</v>
@@ -8071,7 +8111,7 @@
         <v>247</v>
       </c>
       <c r="U94" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="V94" s="2">
         <v>15.920894000000001</v>
@@ -8097,19 +8137,19 @@
         <v>14</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>33</v>
@@ -8124,7 +8164,7 @@
         <v>247</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V95" s="2">
         <v>14.412167999999999</v>
@@ -8150,19 +8190,19 @@
         <v>17</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>33</v>
@@ -8177,7 +8217,7 @@
         <v>247</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V96" s="2">
         <v>13.435276</v>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C7B8CDC-E5E3-492E-9CFB-9E487F4E5D74}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B04FDA8-D53E-4C85-AC3D-150CCD1F347F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="280">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -783,9 +783,6 @@
     <t>Hospital Del Torax</t>
   </si>
   <si>
-    <t>0802</t>
-  </si>
-  <si>
     <t>Hospital General San Felipe</t>
   </si>
   <si>
@@ -798,6 +795,9 @@
     <t>Danlí</t>
   </si>
   <si>
+    <t>HND-0703</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hospital Gabriela Alvarado </t>
   </si>
   <si>
@@ -822,31 +822,55 @@
     <t>Hospital Atlántida</t>
   </si>
   <si>
+    <t>0401</t>
+  </si>
+  <si>
     <t>Santa Rosa de Copán</t>
   </si>
   <si>
+    <t>HND-0401</t>
+  </si>
+  <si>
     <t>Hospital de Occidente</t>
   </si>
   <si>
+    <t>0201</t>
+  </si>
+  <si>
     <t>Trujillo</t>
   </si>
   <si>
+    <t>HND-0201</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hospital Salvador Paredes </t>
   </si>
   <si>
     <t>Ocotepeque</t>
   </si>
   <si>
+    <t>1413</t>
+  </si>
+  <si>
     <t>San Marcos</t>
   </si>
   <si>
+    <t>HND-1413</t>
+  </si>
+  <si>
     <t>Hospital San Marcos de Ocotepeque</t>
   </si>
   <si>
     <t>Valle</t>
   </si>
   <si>
+    <t>1709</t>
+  </si>
+  <si>
     <t>San Lorenzo</t>
+  </si>
+  <si>
+    <t>HND-1709</t>
   </si>
   <si>
     <t>Hospital San Lorenzo</t>
@@ -1836,8 +1860,8 @@
   <dimension ref="A1:W96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I84" sqref="I84:I85"/>
+      <pane ySplit="1" topLeftCell="G80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q84" sqref="Q84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -7547,12 +7571,21 @@
       <c r="L84" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="M84" s="1">
+        <v>1</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="O84" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q84" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="R84" s="1" t="s">
         <v>35</v>
       </c>
@@ -7598,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>41</v>
@@ -7606,12 +7639,21 @@
       <c r="L85" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="M85" s="1">
+        <v>1</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="O85" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q85" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="R85" s="1" t="s">
         <v>35</v>
       </c>
@@ -7622,7 +7664,7 @@
         <v>247</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V85" s="2">
         <v>14.103702999999999</v>
@@ -7648,28 +7690,31 @@
         <v>7</v>
       </c>
       <c r="G86" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" s="7">
+        <v>3</v>
+      </c>
+      <c r="J86" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I86" s="7">
-        <v>3</v>
-      </c>
-      <c r="J86" s="7" t="s">
+      <c r="K86" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="L86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q86" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="R86" s="1" t="s">
         <v>35</v>
@@ -7730,6 +7775,9 @@
       <c r="P87" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q87" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="R87" s="1" t="s">
         <v>35</v>
       </c>
@@ -7749,7 +7797,7 @@
         <v>-86.539259000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" ht="15">
       <c r="B88" s="1" t="s">
         <v>23</v>
       </c>
@@ -7771,18 +7819,33 @@
       <c r="H88" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I88" s="7">
+        <v>1</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="K88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="M88" s="1">
+        <v>1</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="O88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P88" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q88" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="R88" s="1" t="s">
         <v>35</v>
       </c>
@@ -7802,7 +7865,7 @@
         <v>-88.041515000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" ht="15">
       <c r="B89" s="1" t="s">
         <v>23</v>
       </c>
@@ -7824,18 +7887,33 @@
       <c r="H89" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I89" s="7">
+        <v>1</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="K89" s="1" t="s">
         <v>87</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="M89" s="1">
+        <v>1</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="O89" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P89" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q89" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="R89" s="1" t="s">
         <v>35</v>
       </c>
@@ -7855,7 +7933,7 @@
         <v>-88.030754999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" ht="15">
       <c r="B90" s="1" t="s">
         <v>23</v>
       </c>
@@ -7877,18 +7955,33 @@
       <c r="H90" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I90" s="7">
+        <v>6</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="K90" s="1" t="s">
         <v>258</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="M90" s="1">
+        <v>1</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="O90" s="1" t="s">
         <v>258</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q90" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="R90" s="1" t="s">
         <v>35</v>
       </c>
@@ -7930,18 +8023,33 @@
       <c r="H91" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I91" s="1">
+        <v>1</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="K91" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="M91" s="1">
+        <v>1</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="O91" s="1" t="s">
         <v>98</v>
       </c>
       <c r="P91" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q91" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="R91" s="1" t="s">
         <v>35</v>
       </c>
@@ -7961,7 +8069,7 @@
         <v>-87.199538000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" ht="15">
       <c r="B92" s="1" t="s">
         <v>23</v>
       </c>
@@ -7983,6 +8091,12 @@
       <c r="H92" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I92" s="7">
+        <v>1</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="K92" s="1" t="s">
         <v>29</v>
       </c>
@@ -7995,6 +8109,9 @@
       <c r="P92" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q92" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="R92" s="1" t="s">
         <v>35</v>
       </c>
@@ -8014,7 +8131,7 @@
         <v>-86.808992000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" ht="15">
       <c r="B93" s="1" t="s">
         <v>23</v>
       </c>
@@ -8036,17 +8153,26 @@
       <c r="H93" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I93" s="7">
+        <v>1</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="K93" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="R93" s="1" t="s">
         <v>35</v>
@@ -8058,7 +8184,7 @@
         <v>247</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="V93" s="2">
         <v>14.768719000000001</v>
@@ -8067,7 +8193,7 @@
         <v>-88.784801000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" ht="15">
       <c r="B94" s="1" t="s">
         <v>23</v>
       </c>
@@ -8089,17 +8215,26 @@
       <c r="H94" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I94" s="7">
+        <v>1</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="K94" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="R94" s="1" t="s">
         <v>35</v>
@@ -8111,7 +8246,7 @@
         <v>247</v>
       </c>
       <c r="U94" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="V94" s="2">
         <v>15.920894000000001</v>
@@ -8120,7 +8255,7 @@
         <v>-85.951768999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" ht="15">
       <c r="B95" s="1" t="s">
         <v>23</v>
       </c>
@@ -8137,22 +8272,31 @@
         <v>14</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I95" s="7">
+        <v>13</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>271</v>
+      </c>
       <c r="K95" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="R95" s="1" t="s">
         <v>35</v>
@@ -8164,7 +8308,7 @@
         <v>247</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="V95" s="2">
         <v>14.412167999999999</v>
@@ -8173,7 +8317,7 @@
         <v>-88.956046000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" ht="15">
       <c r="B96" s="1" t="s">
         <v>23</v>
       </c>
@@ -8190,22 +8334,31 @@
         <v>17</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I96" s="7">
+        <v>9</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="K96" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="R96" s="1" t="s">
         <v>35</v>
@@ -8217,7 +8370,7 @@
         <v>247</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="V96" s="2">
         <v>13.435276</v>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B04FDA8-D53E-4C85-AC3D-150CCD1F347F}"/>
+  <xr:revisionPtr revIDLastSave="418" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{955A1F25-5A4C-4512-B413-A688E2D031E1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="HOSPITALES" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$128</definedName>
     <definedName name="_xlnm.Database">HOSPITALES!$A$1:$U$83</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="298">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -874,6 +874,60 @@
   </si>
   <si>
     <t>Hospital San Lorenzo</t>
+  </si>
+  <si>
+    <t>Gracias a Dios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerto Lempira </t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Juticalpa</t>
+  </si>
+  <si>
+    <t>Hospital San Francisco</t>
+  </si>
+  <si>
+    <t>Hospital Trochez Montalvan</t>
+  </si>
+  <si>
+    <t>Catacamas</t>
+  </si>
+  <si>
+    <t>Hospital y Clínica Campos</t>
+  </si>
+  <si>
+    <t>Clínica Medicentro</t>
+  </si>
+  <si>
+    <t>Clínica San Lucas</t>
+  </si>
+  <si>
+    <t>Guajiquiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centro de salud </t>
+  </si>
+  <si>
+    <t>Centro de Salud El Guajiquiro</t>
+  </si>
+  <si>
+    <t>Marcala</t>
+  </si>
+  <si>
+    <t>Centro de Salud Marcala</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>Hospital Montecillos</t>
+  </si>
+  <si>
+    <t>Hospiital Roberto Suazo Córdova</t>
   </si>
 </sst>
 </file>
@@ -1526,8 +1580,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W96" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:W96" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W128" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:W128" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W83">
     <sortCondition ref="S1:S83"/>
   </sortState>
@@ -1857,11 +1911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W96"/>
+  <dimension ref="A1:W107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="G80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q84" sqref="Q84"/>
+      <pane ySplit="1" topLeftCell="I96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -8379,6 +8433,220 @@
         <v>-87.443899000000002</v>
       </c>
     </row>
+    <row r="97" spans="7:23">
+      <c r="G97" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="U97" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V97" s="2">
+        <v>15.260996</v>
+      </c>
+      <c r="W97" s="2">
+        <v>-83.778705000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="7:23">
+      <c r="G98" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="V98" s="2">
+        <v>14.665319</v>
+      </c>
+      <c r="W98" s="2">
+        <v>-86.225899999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="7:23">
+      <c r="G99" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U99" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="V99" s="2">
+        <v>14.671486</v>
+      </c>
+      <c r="W99" s="2">
+        <v>-86.221147999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="7:23">
+      <c r="G100" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U100" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="V100" s="2">
+        <v>14.853908000000001</v>
+      </c>
+      <c r="W100" s="2">
+        <v>-85.894442999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="7:23">
+      <c r="G101" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U101" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="V101" s="2">
+        <v>14.851229</v>
+      </c>
+      <c r="W101" s="2">
+        <v>-85.895388999999994</v>
+      </c>
+    </row>
+    <row r="102" spans="7:23">
+      <c r="G102" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U102" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="V102" s="2">
+        <v>14.850133</v>
+      </c>
+      <c r="W102" s="2">
+        <v>-85.895661000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="7:23">
+      <c r="G103" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="U103" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="V103" s="2">
+        <v>14.120423000000001</v>
+      </c>
+      <c r="W103" s="2">
+        <v>-87.829441000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="7:23">
+      <c r="G104" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="U104" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="V104" s="2">
+        <v>14.159074</v>
+      </c>
+      <c r="W104" s="2">
+        <v>-88.036270999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="7:23">
+      <c r="G105" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="S105" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="U105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V105" s="2">
+        <v>14.248234</v>
+      </c>
+      <c r="W105" s="2">
+        <v>-87.959114999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="7:23">
+      <c r="G106" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U106" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="V106" s="2">
+        <v>14.319006</v>
+      </c>
+      <c r="W106" s="2">
+        <v>-87.680940000000007</v>
+      </c>
+    </row>
+    <row r="107" spans="7:23">
+      <c r="S107" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="V107" s="2">
+        <v>14.322329999999999</v>
+      </c>
+      <c r="W107" s="2">
+        <v>-87.678188000000006</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U83">
     <sortCondition ref="R2:R83"/>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="418" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{955A1F25-5A4C-4512-B413-A688E2D031E1}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C9F7B22-2B7B-4853-9AC5-D2A2D67D03EA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="305">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -927,7 +927,28 @@
     <t>Hospital Montecillos</t>
   </si>
   <si>
-    <t>Hospiital Roberto Suazo Córdova</t>
+    <t>Hospital Roberto Suazo Córdova</t>
+  </si>
+  <si>
+    <t>Hospital Regional Santa Teresa</t>
+  </si>
+  <si>
+    <t>Hospital del Valle</t>
+  </si>
+  <si>
+    <t>Hospital Privado de Comayagua</t>
+  </si>
+  <si>
+    <t>La Esperanza</t>
+  </si>
+  <si>
+    <t>Hospital Enrique Aguila Cerrato</t>
+  </si>
+  <si>
+    <t>Tela</t>
+  </si>
+  <si>
+    <t>Hospital Tela Integrado</t>
   </si>
 </sst>
 </file>
@@ -1911,11 +1932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W107"/>
+  <dimension ref="A1:W113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="I96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L104" sqref="L104"/>
+      <pane ySplit="1" topLeftCell="O101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W115" sqref="W115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -8634,6 +8655,12 @@
       </c>
     </row>
     <row r="107" spans="7:23">
+      <c r="G107" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="S107" s="1" t="s">
         <v>179</v>
       </c>
@@ -8645,6 +8672,126 @@
       </c>
       <c r="W107" s="2">
         <v>-87.678188000000006</v>
+      </c>
+    </row>
+    <row r="108" spans="7:23">
+      <c r="G108" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U108" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="V108" s="2">
+        <v>14.453317999999999</v>
+      </c>
+      <c r="W108" s="2">
+        <v>-87.642769000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="7:23">
+      <c r="G109" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S109" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U109" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="V109" s="2">
+        <v>14.456941</v>
+      </c>
+      <c r="W109" s="2">
+        <v>-87.635479000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="7:23">
+      <c r="G110" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U110" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="V110" s="2">
+        <v>14.460008999999999</v>
+      </c>
+      <c r="W110" s="2">
+        <v>-87.638285999999994</v>
+      </c>
+    </row>
+    <row r="111" spans="7:23">
+      <c r="G111" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U111" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="V111" s="2">
+        <v>14.601864000000001</v>
+      </c>
+      <c r="W111" s="2">
+        <v>-87.844590999999994</v>
+      </c>
+    </row>
+    <row r="112" spans="7:23">
+      <c r="G112" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U112" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="V112" s="2">
+        <v>14.314704000000001</v>
+      </c>
+      <c r="W112" s="2">
+        <v>-88.160505999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="7:23">
+      <c r="G113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="V113" s="2">
+        <v>15.754151999999999</v>
+      </c>
+      <c r="W113" s="2">
+        <v>-87.489628999999994</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C9F7B22-2B7B-4853-9AC5-D2A2D67D03EA}"/>
+  <xr:revisionPtr revIDLastSave="548" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{651ED0CD-36FC-4866-B335-F8212389BCFD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="318">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -882,7 +882,7 @@
     <t xml:space="preserve">Puerto Lempira </t>
   </si>
   <si>
-    <t>Hospital</t>
+    <t>Hospital Puerto Lempira</t>
   </si>
   <si>
     <t>Juticalpa</t>
@@ -949,6 +949,45 @@
   </si>
   <si>
     <t>Hospital Tela Integrado</t>
+  </si>
+  <si>
+    <t>Cesamo de Ibans</t>
+  </si>
+  <si>
+    <t>Santa Barbará</t>
+  </si>
+  <si>
+    <t>Hospital Santa Barbará Integrado</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>Clínica de Emergencia Trinidad</t>
+  </si>
+  <si>
+    <t>Sula</t>
+  </si>
+  <si>
+    <t>Hospital Sula Socorro de lo Atlto</t>
+  </si>
+  <si>
+    <t>Petoa</t>
+  </si>
+  <si>
+    <t>Hospital Luz de Vida</t>
+  </si>
+  <si>
+    <t>Centro Médico Integral de Occidente</t>
+  </si>
+  <si>
+    <t>El Paraíso</t>
+  </si>
+  <si>
+    <t>Centro Médico San Francisco</t>
+  </si>
+  <si>
+    <t>Hospital Alivio del Sufrimiento</t>
   </si>
 </sst>
 </file>
@@ -1932,11 +1971,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W113"/>
+  <dimension ref="A1:W121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="O101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W115" sqref="W115"/>
+      <pane ySplit="1" topLeftCell="P114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W123" sqref="W123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -8468,10 +8507,10 @@
         <v>282</v>
       </c>
       <c r="V97" s="2">
-        <v>15.260996</v>
+        <v>15.265726000000001</v>
       </c>
       <c r="W97" s="2">
-        <v>-83.778705000000002</v>
+        <v>-83.781515999999996</v>
       </c>
     </row>
     <row r="98" spans="7:23">
@@ -8792,6 +8831,163 @@
       </c>
       <c r="W113" s="2">
         <v>-87.489628999999994</v>
+      </c>
+    </row>
+    <row r="114" spans="7:23">
+      <c r="G114" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="S114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U114" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="V114" s="2">
+        <v>15.908462</v>
+      </c>
+      <c r="W114" s="2">
+        <v>-84.814170000000004</v>
+      </c>
+    </row>
+    <row r="115" spans="7:23">
+      <c r="G115" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="S115" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U115" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="V115" s="2">
+        <v>14.925007000000001</v>
+      </c>
+      <c r="W115" s="2">
+        <v>-88.237927999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="7:23">
+      <c r="G116" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U116" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="V116" s="2">
+        <v>15.143121000000001</v>
+      </c>
+      <c r="W116" s="2">
+        <v>-88.237575000000007</v>
+      </c>
+    </row>
+    <row r="117" spans="7:23">
+      <c r="G117" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="S117" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U117" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="V117" s="2">
+        <v>15.247275</v>
+      </c>
+      <c r="W117" s="2">
+        <v>-88.552238000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="7:23">
+      <c r="G118" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="S118" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U118" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V118" s="2">
+        <v>15.273072000000001</v>
+      </c>
+      <c r="W118" s="2">
+        <v>-88.284302999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="7:23">
+      <c r="G119" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="S119" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U119" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="V119" s="2">
+        <v>15.348732999999999</v>
+      </c>
+      <c r="W119" s="2">
+        <v>-88.403704000000005</v>
+      </c>
+    </row>
+    <row r="120" spans="7:23">
+      <c r="G120" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="S120" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U120" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="V120" s="2">
+        <v>13.861846</v>
+      </c>
+      <c r="W120" s="2">
+        <v>-86.554258000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="7:23">
+      <c r="G121" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="S121" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U121" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="V121" s="2">
+        <v>13.865371</v>
+      </c>
+      <c r="W121" s="2">
+        <v>-86.562415000000001</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="548" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{651ED0CD-36FC-4866-B335-F8212389BCFD}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BFC16E04-0602-4A76-862B-B5B099E759FB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:W121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="P114" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="N114" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W123" sqref="W123"/>
     </sheetView>
   </sheetViews>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="550" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BFC16E04-0602-4A76-862B-B5B099E759FB}"/>
+  <xr:revisionPtr revIDLastSave="616" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E4E6C37E-EB1F-441E-84CC-259D2177D584}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="HOSPITALES" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$131</definedName>
     <definedName name="_xlnm.Database">HOSPITALES!$A$1:$U$83</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="329">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -480,7 +480,7 @@
     <t>HND-1301</t>
   </si>
   <si>
-    <t>San Lucas</t>
+    <t>Clínica San Lucas</t>
   </si>
   <si>
     <t>1311</t>
@@ -903,9 +903,6 @@
     <t>Clínica Medicentro</t>
   </si>
   <si>
-    <t>Clínica San Lucas</t>
-  </si>
-  <si>
     <t>Guajiquiro</t>
   </si>
   <si>
@@ -988,6 +985,42 @@
   </si>
   <si>
     <t>Hospital Alivio del Sufrimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoro </t>
+  </si>
+  <si>
+    <t>Centro de Salud San Antonio Sulaco Yoro</t>
+  </si>
+  <si>
+    <t>Yorito</t>
+  </si>
+  <si>
+    <t>Centro de Salud Yorito</t>
+  </si>
+  <si>
+    <t>Centro de Salud La Sabana</t>
+  </si>
+  <si>
+    <t>Clínica Médica Dra. Chávez</t>
+  </si>
+  <si>
+    <t>Hospital Manuel de Jesus Subirana</t>
+  </si>
+  <si>
+    <t>El Rosario</t>
+  </si>
+  <si>
+    <t>ACTS Clinic</t>
+  </si>
+  <si>
+    <t>Lepaera</t>
+  </si>
+  <si>
+    <t>Centro de Salud Lepaera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesamo de Santa Cruz </t>
   </si>
 </sst>
 </file>
@@ -1640,8 +1673,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W128" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:W128" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W131" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:W131" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W83">
     <sortCondition ref="S1:S83"/>
   </sortState>
@@ -1971,11 +2004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W121"/>
+  <dimension ref="A1:W129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="N114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W123" sqref="W123"/>
+      <pane ySplit="1" topLeftCell="N119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U131" sqref="U131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -8604,7 +8637,7 @@
         <v>72</v>
       </c>
       <c r="U102" s="1" t="s">
-        <v>289</v>
+        <v>148</v>
       </c>
       <c r="V102" s="2">
         <v>14.850133</v>
@@ -8618,13 +8651,13 @@
         <v>63</v>
       </c>
       <c r="K103" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="S103" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="S103" s="1" t="s">
+      <c r="U103" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="U103" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="V103" s="2">
         <v>14.120423000000001</v>
@@ -8638,13 +8671,13 @@
         <v>63</v>
       </c>
       <c r="K104" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="U104" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="S104" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="U104" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="V104" s="2">
         <v>14.159074</v>
@@ -8658,10 +8691,10 @@
         <v>63</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U105" s="1" t="s">
         <v>44</v>
@@ -8684,7 +8717,7 @@
         <v>179</v>
       </c>
       <c r="U106" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="V106" s="2">
         <v>14.319006</v>
@@ -8704,7 +8737,7 @@
         <v>179</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V107" s="2">
         <v>14.322329999999999</v>
@@ -8724,7 +8757,7 @@
         <v>179</v>
       </c>
       <c r="U108" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V108" s="2">
         <v>14.453317999999999</v>
@@ -8744,7 +8777,7 @@
         <v>179</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V109" s="2">
         <v>14.456941</v>
@@ -8764,7 +8797,7 @@
         <v>179</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V110" s="2">
         <v>14.460008999999999</v>
@@ -8798,13 +8831,13 @@
         <v>134</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S112" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V112" s="2">
         <v>14.314704000000001</v>
@@ -8818,13 +8851,13 @@
         <v>26</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S113" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U113" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V113" s="2">
         <v>15.754151999999999</v>
@@ -8841,7 +8874,7 @@
         <v>36</v>
       </c>
       <c r="U114" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V114" s="2">
         <v>15.908462</v>
@@ -8852,16 +8885,16 @@
     </row>
     <row r="115" spans="7:23">
       <c r="G115" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S115" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="V115" s="2">
         <v>14.925007000000001</v>
@@ -8872,16 +8905,16 @@
     </row>
     <row r="116" spans="7:23">
       <c r="G116" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S116" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U116" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V116" s="2">
         <v>15.143121000000001</v>
@@ -8892,16 +8925,16 @@
     </row>
     <row r="117" spans="7:23">
       <c r="G117" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S117" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V117" s="2">
         <v>15.247275</v>
@@ -8912,16 +8945,16 @@
     </row>
     <row r="118" spans="7:23">
       <c r="G118" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S118" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U118" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V118" s="2">
         <v>15.273072000000001</v>
@@ -8932,7 +8965,7 @@
     </row>
     <row r="119" spans="7:23">
       <c r="G119" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>240</v>
@@ -8941,7 +8974,7 @@
         <v>179</v>
       </c>
       <c r="U119" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V119" s="2">
         <v>15.348732999999999</v>
@@ -8952,16 +8985,16 @@
     </row>
     <row r="120" spans="7:23">
       <c r="G120" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S120" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U120" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V120" s="2">
         <v>13.861846</v>
@@ -8972,22 +9005,170 @@
     </row>
     <row r="121" spans="7:23">
       <c r="G121" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S121" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V121" s="2">
         <v>13.865371</v>
       </c>
       <c r="W121" s="2">
         <v>-86.562415000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="7:23">
+      <c r="G122" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U122" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="V122" s="2">
+        <v>14.985823</v>
+      </c>
+      <c r="W122" s="2">
+        <v>-87.294527000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="7:23">
+      <c r="G123" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U123" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="V123" s="2">
+        <v>15.065429</v>
+      </c>
+      <c r="W123" s="2">
+        <v>-87.277242999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="7:23">
+      <c r="G124" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="S124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U124" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="V124" s="2">
+        <v>15.108616</v>
+      </c>
+      <c r="W124" s="2">
+        <v>-87.280530999999996</v>
+      </c>
+    </row>
+    <row r="125" spans="7:23">
+      <c r="G125" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="S125" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U125" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V125" s="2">
+        <v>15.137855999999999</v>
+      </c>
+      <c r="W125" s="2">
+        <v>-87.125667000000007</v>
+      </c>
+    </row>
+    <row r="126" spans="7:23">
+      <c r="G126" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="S126" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U126" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="V126" s="2">
+        <v>15.137337</v>
+      </c>
+      <c r="W126" s="2">
+        <v>-87.133142000000007</v>
+      </c>
+    </row>
+    <row r="127" spans="7:23">
+      <c r="G127" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="S127" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U127" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="V127" s="2">
+        <v>15.276194</v>
+      </c>
+      <c r="W127" s="2">
+        <v>-87.324967999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="7:23">
+      <c r="G128" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="S128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U128" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="V128" s="2">
+        <v>14.780340000000001</v>
+      </c>
+      <c r="W128" s="2">
+        <v>-88.588606999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="19:23">
+      <c r="S129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U129" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="V129" s="2">
+        <v>14.329539</v>
+      </c>
+      <c r="W129" s="2">
+        <v>-88.522634999999994</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="616" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E4E6C37E-EB1F-441E-84CC-259D2177D584}"/>
+  <xr:revisionPtr revIDLastSave="668" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F71B3D90-C4B7-4873-AB29-5C06961016F4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="HOSPITALES" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$139</definedName>
     <definedName name="_xlnm.Database">HOSPITALES!$A$1:$U$83</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="339">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -1020,7 +1020,37 @@
     <t>Centro de Salud Lepaera</t>
   </si>
   <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cesamo de Santa Cruz </t>
+  </si>
+  <si>
+    <t>Gualcinse</t>
+  </si>
+  <si>
+    <t>Hospital del Sur Dr. Lempira</t>
+  </si>
+  <si>
+    <t>Nacaome</t>
+  </si>
+  <si>
+    <t>Policlínica Nacaome</t>
+  </si>
+  <si>
+    <t>Centro Médico Juárez</t>
+  </si>
+  <si>
+    <t>Langue</t>
+  </si>
+  <si>
+    <t>Centro de Salud de Langue</t>
+  </si>
+  <si>
+    <t>Guascorán</t>
+  </si>
+  <si>
+    <t>Medicenter</t>
   </si>
 </sst>
 </file>
@@ -1673,8 +1703,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W131" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:W131" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W139" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:W139" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W83">
     <sortCondition ref="S1:S83"/>
   </sortState>
@@ -2004,11 +2034,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W129"/>
+  <dimension ref="A1:W135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="N119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U131" sqref="U131"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96:D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -8526,7 +8556,16 @@
         <v>-87.443899000000002</v>
       </c>
     </row>
-    <row r="97" spans="7:23">
+    <row r="97" spans="2:23">
+      <c r="B97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
       <c r="G97" s="1" t="s">
         <v>280</v>
       </c>
@@ -8546,7 +8585,16 @@
         <v>-83.781515999999996</v>
       </c>
     </row>
-    <row r="98" spans="7:23">
+    <row r="98" spans="2:23">
+      <c r="B98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3</v>
+      </c>
       <c r="G98" s="1" t="s">
         <v>155</v>
       </c>
@@ -8566,7 +8614,16 @@
         <v>-86.225899999999996</v>
       </c>
     </row>
-    <row r="99" spans="7:23">
+    <row r="99" spans="2:23">
+      <c r="B99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3</v>
+      </c>
       <c r="G99" s="1" t="s">
         <v>155</v>
       </c>
@@ -8586,7 +8643,16 @@
         <v>-86.221147999999999</v>
       </c>
     </row>
-    <row r="100" spans="7:23">
+    <row r="100" spans="2:23">
+      <c r="B100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3</v>
+      </c>
       <c r="G100" s="1" t="s">
         <v>155</v>
       </c>
@@ -8606,7 +8672,16 @@
         <v>-85.894442999999995</v>
       </c>
     </row>
-    <row r="101" spans="7:23">
+    <row r="101" spans="2:23">
+      <c r="B101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
       <c r="G101" s="1" t="s">
         <v>155</v>
       </c>
@@ -8626,7 +8701,16 @@
         <v>-85.895388999999994</v>
       </c>
     </row>
-    <row r="102" spans="7:23">
+    <row r="102" spans="2:23">
+      <c r="B102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3</v>
+      </c>
       <c r="G102" s="1" t="s">
         <v>155</v>
       </c>
@@ -8646,7 +8730,16 @@
         <v>-85.895661000000004</v>
       </c>
     </row>
-    <row r="103" spans="7:23">
+    <row r="103" spans="2:23">
+      <c r="B103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="1">
+        <v>3</v>
+      </c>
       <c r="G103" s="1" t="s">
         <v>63</v>
       </c>
@@ -8666,7 +8759,16 @@
         <v>-87.829441000000003</v>
       </c>
     </row>
-    <row r="104" spans="7:23">
+    <row r="104" spans="2:23">
+      <c r="B104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="1">
+        <v>3</v>
+      </c>
       <c r="G104" s="1" t="s">
         <v>63</v>
       </c>
@@ -8686,7 +8788,16 @@
         <v>-88.036270999999999</v>
       </c>
     </row>
-    <row r="105" spans="7:23">
+    <row r="105" spans="2:23">
+      <c r="B105" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="1">
+        <v>3</v>
+      </c>
       <c r="G105" s="1" t="s">
         <v>63</v>
       </c>
@@ -8706,7 +8817,16 @@
         <v>-87.959114999999997</v>
       </c>
     </row>
-    <row r="106" spans="7:23">
+    <row r="106" spans="2:23">
+      <c r="B106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="1">
+        <v>3</v>
+      </c>
       <c r="G106" s="1" t="s">
         <v>63</v>
       </c>
@@ -8726,7 +8846,16 @@
         <v>-87.680940000000007</v>
       </c>
     </row>
-    <row r="107" spans="7:23">
+    <row r="107" spans="2:23">
+      <c r="B107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="1">
+        <v>3</v>
+      </c>
       <c r="G107" s="1" t="s">
         <v>63</v>
       </c>
@@ -8746,7 +8875,16 @@
         <v>-87.678188000000006</v>
       </c>
     </row>
-    <row r="108" spans="7:23">
+    <row r="108" spans="2:23">
+      <c r="B108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="1">
+        <v>3</v>
+      </c>
       <c r="G108" s="1" t="s">
         <v>189</v>
       </c>
@@ -8766,7 +8904,16 @@
         <v>-87.642769000000001</v>
       </c>
     </row>
-    <row r="109" spans="7:23">
+    <row r="109" spans="2:23">
+      <c r="B109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" s="1">
+        <v>3</v>
+      </c>
       <c r="G109" s="1" t="s">
         <v>189</v>
       </c>
@@ -8786,7 +8933,16 @@
         <v>-87.635479000000004</v>
       </c>
     </row>
-    <row r="110" spans="7:23">
+    <row r="110" spans="2:23">
+      <c r="B110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" s="1">
+        <v>3</v>
+      </c>
       <c r="G110" s="1" t="s">
         <v>189</v>
       </c>
@@ -8806,7 +8962,16 @@
         <v>-87.638285999999994</v>
       </c>
     </row>
-    <row r="111" spans="7:23">
+    <row r="111" spans="2:23">
+      <c r="B111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D111" s="1">
+        <v>3</v>
+      </c>
       <c r="G111" s="1" t="s">
         <v>189</v>
       </c>
@@ -8826,7 +8991,16 @@
         <v>-87.844590999999994</v>
       </c>
     </row>
-    <row r="112" spans="7:23">
+    <row r="112" spans="2:23">
+      <c r="B112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" s="1">
+        <v>3</v>
+      </c>
       <c r="G112" s="1" t="s">
         <v>134</v>
       </c>
@@ -8846,7 +9020,16 @@
         <v>-88.160505999999998</v>
       </c>
     </row>
-    <row r="113" spans="7:23">
+    <row r="113" spans="2:23">
+      <c r="B113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="1">
+        <v>3</v>
+      </c>
       <c r="G113" s="1" t="s">
         <v>26</v>
       </c>
@@ -8866,7 +9049,16 @@
         <v>-87.489628999999994</v>
       </c>
     </row>
-    <row r="114" spans="7:23">
+    <row r="114" spans="2:23">
+      <c r="B114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="1">
+        <v>3</v>
+      </c>
       <c r="G114" s="1" t="s">
         <v>280</v>
       </c>
@@ -8883,7 +9075,16 @@
         <v>-84.814170000000004</v>
       </c>
     </row>
-    <row r="115" spans="7:23">
+    <row r="115" spans="2:23">
+      <c r="B115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" s="1">
+        <v>3</v>
+      </c>
       <c r="G115" s="1" t="s">
         <v>305</v>
       </c>
@@ -8903,7 +9104,16 @@
         <v>-88.237927999999997</v>
       </c>
     </row>
-    <row r="116" spans="7:23">
+    <row r="116" spans="2:23">
+      <c r="B116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="1">
+        <v>3</v>
+      </c>
       <c r="G116" s="1" t="s">
         <v>305</v>
       </c>
@@ -8923,7 +9133,16 @@
         <v>-88.237575000000007</v>
       </c>
     </row>
-    <row r="117" spans="7:23">
+    <row r="117" spans="2:23">
+      <c r="B117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="1">
+        <v>3</v>
+      </c>
       <c r="G117" s="1" t="s">
         <v>305</v>
       </c>
@@ -8943,7 +9162,16 @@
         <v>-88.552238000000003</v>
       </c>
     </row>
-    <row r="118" spans="7:23">
+    <row r="118" spans="2:23">
+      <c r="B118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="1">
+        <v>3</v>
+      </c>
       <c r="G118" s="1" t="s">
         <v>305</v>
       </c>
@@ -8963,7 +9191,16 @@
         <v>-88.284302999999994</v>
       </c>
     </row>
-    <row r="119" spans="7:23">
+    <row r="119" spans="2:23">
+      <c r="B119" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" s="1">
+        <v>3</v>
+      </c>
       <c r="G119" s="1" t="s">
         <v>305</v>
       </c>
@@ -8983,7 +9220,16 @@
         <v>-88.403704000000005</v>
       </c>
     </row>
-    <row r="120" spans="7:23">
+    <row r="120" spans="2:23">
+      <c r="B120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="1">
+        <v>3</v>
+      </c>
       <c r="G120" s="1" t="s">
         <v>314</v>
       </c>
@@ -9003,7 +9249,16 @@
         <v>-86.554258000000004</v>
       </c>
     </row>
-    <row r="121" spans="7:23">
+    <row r="121" spans="2:23">
+      <c r="B121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" s="1">
+        <v>3</v>
+      </c>
       <c r="G121" s="1" t="s">
         <v>314</v>
       </c>
@@ -9023,7 +9278,16 @@
         <v>-86.562415000000001</v>
       </c>
     </row>
-    <row r="122" spans="7:23">
+    <row r="122" spans="2:23">
+      <c r="B122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" s="1">
+        <v>3</v>
+      </c>
       <c r="G122" s="1" t="s">
         <v>317</v>
       </c>
@@ -9040,7 +9304,16 @@
         <v>-87.294527000000002</v>
       </c>
     </row>
-    <row r="123" spans="7:23">
+    <row r="123" spans="2:23">
+      <c r="B123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="1">
+        <v>3</v>
+      </c>
       <c r="G123" s="1" t="s">
         <v>162</v>
       </c>
@@ -9060,7 +9333,16 @@
         <v>-87.277242999999999</v>
       </c>
     </row>
-    <row r="124" spans="7:23">
+    <row r="124" spans="2:23">
+      <c r="B124" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3</v>
+      </c>
       <c r="G124" s="1" t="s">
         <v>162</v>
       </c>
@@ -9077,7 +9359,16 @@
         <v>-87.280530999999996</v>
       </c>
     </row>
-    <row r="125" spans="7:23">
+    <row r="125" spans="2:23">
+      <c r="B125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" s="1">
+        <v>3</v>
+      </c>
       <c r="G125" s="1" t="s">
         <v>162</v>
       </c>
@@ -9097,7 +9388,16 @@
         <v>-87.125667000000007</v>
       </c>
     </row>
-    <row r="126" spans="7:23">
+    <row r="126" spans="2:23">
+      <c r="B126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="1">
+        <v>3</v>
+      </c>
       <c r="G126" s="1" t="s">
         <v>162</v>
       </c>
@@ -9117,7 +9417,16 @@
         <v>-87.133142000000007</v>
       </c>
     </row>
-    <row r="127" spans="7:23">
+    <row r="127" spans="2:23">
+      <c r="B127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127" s="1">
+        <v>3</v>
+      </c>
       <c r="G127" s="1" t="s">
         <v>162</v>
       </c>
@@ -9137,7 +9446,16 @@
         <v>-87.324967999999998</v>
       </c>
     </row>
-    <row r="128" spans="7:23">
+    <row r="128" spans="2:23">
+      <c r="B128" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" s="1">
+        <v>3</v>
+      </c>
       <c r="G128" s="1" t="s">
         <v>143</v>
       </c>
@@ -9157,18 +9475,204 @@
         <v>-88.588606999999996</v>
       </c>
     </row>
-    <row r="129" spans="19:23">
+    <row r="129" spans="2:23">
+      <c r="B129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" s="1">
+        <v>3</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="S129" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V129" s="2">
         <v>14.329539</v>
       </c>
       <c r="W129" s="2">
         <v>-88.522634999999994</v>
+      </c>
+    </row>
+    <row r="130" spans="2:23">
+      <c r="B130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" s="1">
+        <v>3</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="S130" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U130" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V130" s="2">
+        <v>14.126211</v>
+      </c>
+      <c r="W130" s="2">
+        <v>-88.543222999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="2:23">
+      <c r="B131" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" s="1">
+        <v>3</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S131" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U131" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V131" s="2">
+        <v>14.114020999999999</v>
+      </c>
+      <c r="W131" s="2">
+        <v>-88.651722000000007</v>
+      </c>
+    </row>
+    <row r="132" spans="2:23">
+      <c r="B132" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="1">
+        <v>3</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U132" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="V132" s="2">
+        <v>13.530787999999999</v>
+      </c>
+      <c r="W132" s="2">
+        <v>-87.498217999999994</v>
+      </c>
+    </row>
+    <row r="133" spans="2:23">
+      <c r="B133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" s="1">
+        <v>3</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="S133" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U133" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="V133" s="2">
+        <v>13.532709000000001</v>
+      </c>
+      <c r="W133" s="2">
+        <v>-87.492543999999995</v>
+      </c>
+    </row>
+    <row r="134" spans="2:23">
+      <c r="B134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" s="1">
+        <v>3</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="S134" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U134" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="V134" s="2">
+        <v>13.62003</v>
+      </c>
+      <c r="W134" s="2">
+        <v>-87.657388999999995</v>
+      </c>
+    </row>
+    <row r="135" spans="2:23">
+      <c r="B135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="1">
+        <v>3</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="S135" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U135" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="V135" s="2">
+        <v>13.610545</v>
+      </c>
+      <c r="W135" s="2">
+        <v>-87.752651</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="668" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F71B3D90-C4B7-4873-AB29-5C06961016F4}"/>
+  <xr:revisionPtr revIDLastSave="723" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{529982E2-1FFC-4553-902F-04259DCB81D4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="353">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -876,6 +876,9 @@
     <t>Hospital San Lorenzo</t>
   </si>
   <si>
+    <t>09</t>
+  </si>
+  <si>
     <t>Gracias a Dios</t>
   </si>
   <si>
@@ -885,6 +888,9 @@
     <t>Hospital Puerto Lempira</t>
   </si>
   <si>
+    <t>1501</t>
+  </si>
+  <si>
     <t>Juticalpa</t>
   </si>
   <si>
@@ -894,6 +900,9 @@
     <t>Hospital Trochez Montalvan</t>
   </si>
   <si>
+    <t>1503</t>
+  </si>
+  <si>
     <t>Catacamas</t>
   </si>
   <si>
@@ -954,21 +963,27 @@
     <t>Santa Barbará</t>
   </si>
   <si>
+    <t>1601</t>
+  </si>
+  <si>
     <t>Hospital Santa Barbará Integrado</t>
   </si>
   <si>
+    <t>1626</t>
+  </si>
+  <si>
     <t>Trinidad</t>
   </si>
   <si>
     <t>Clínica de Emergencia Trinidad</t>
   </si>
   <si>
-    <t>Sula</t>
-  </si>
-  <si>
     <t>Hospital Sula Socorro de lo Atlto</t>
   </si>
   <si>
+    <t>1615</t>
+  </si>
+  <si>
     <t>Petoa</t>
   </si>
   <si>
@@ -978,6 +993,9 @@
     <t>Centro Médico Integral de Occidente</t>
   </si>
   <si>
+    <t>07</t>
+  </si>
+  <si>
     <t>El Paraíso</t>
   </si>
   <si>
@@ -993,6 +1011,9 @@
     <t>Centro de Salud San Antonio Sulaco Yoro</t>
   </si>
   <si>
+    <t>1811</t>
+  </si>
+  <si>
     <t>Yorito</t>
   </si>
   <si>
@@ -1002,36 +1023,51 @@
     <t>Centro de Salud La Sabana</t>
   </si>
   <si>
+    <t>1801</t>
+  </si>
+  <si>
     <t>Clínica Médica Dra. Chávez</t>
   </si>
   <si>
     <t>Hospital Manuel de Jesus Subirana</t>
   </si>
   <si>
-    <t>El Rosario</t>
-  </si>
-  <si>
     <t>ACTS Clinic</t>
   </si>
   <si>
+    <t>1313</t>
+  </si>
+  <si>
     <t>Lepaera</t>
   </si>
   <si>
     <t>Centro de Salud Lepaera</t>
   </si>
   <si>
+    <t>1322</t>
+  </si>
+  <si>
     <t>Santa Cruz</t>
   </si>
   <si>
     <t xml:space="preserve">Cesamo de Santa Cruz </t>
   </si>
   <si>
+    <t>1306</t>
+  </si>
+  <si>
     <t>Gualcinse</t>
   </si>
   <si>
     <t>Hospital del Sur Dr. Lempira</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
     <t>Nacaome</t>
   </si>
   <si>
@@ -1041,13 +1077,19 @@
     <t>Centro Médico Juárez</t>
   </si>
   <si>
+    <t>1707</t>
+  </si>
+  <si>
     <t>Langue</t>
   </si>
   <si>
     <t>Centro de Salud de Langue</t>
   </si>
   <si>
-    <t>Guascorán</t>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>Goascorán</t>
   </si>
   <si>
     <t>Medicenter</t>
@@ -1377,7 +1419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1501,6 +1543,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1546,7 +1599,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1555,6 +1608,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2037,8 +2091,8 @@
   <dimension ref="A1:W135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96:D135"/>
+      <pane ySplit="1" topLeftCell="F114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -8556,7 +8610,7 @@
         <v>-87.443899000000002</v>
       </c>
     </row>
-    <row r="97" spans="2:23">
+    <row r="97" spans="2:23" ht="15">
       <c r="B97" s="1" t="s">
         <v>23</v>
       </c>
@@ -8566,17 +8620,26 @@
       <c r="D97" s="1">
         <v>3</v>
       </c>
+      <c r="E97" s="7">
+        <v>9</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="G97" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S97" s="1" t="s">
         <v>246</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V97" s="2">
         <v>15.265726000000001</v>
@@ -8585,7 +8648,7 @@
         <v>-83.781515999999996</v>
       </c>
     </row>
-    <row r="98" spans="2:23">
+    <row r="98" spans="2:23" ht="15">
       <c r="B98" s="1" t="s">
         <v>23</v>
       </c>
@@ -8594,18 +8657,33 @@
       </c>
       <c r="D98" s="1">
         <v>3</v>
+      </c>
+      <c r="E98" s="7">
+        <v>15</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="H98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" s="7">
+        <v>1</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>284</v>
+      </c>
       <c r="K98" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S98" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="V98" s="2">
         <v>14.665319</v>
@@ -8614,7 +8692,7 @@
         <v>-86.225899999999996</v>
       </c>
     </row>
-    <row r="99" spans="2:23">
+    <row r="99" spans="2:23" ht="15">
       <c r="B99" s="1" t="s">
         <v>23</v>
       </c>
@@ -8623,18 +8701,33 @@
       </c>
       <c r="D99" s="1">
         <v>3</v>
+      </c>
+      <c r="E99" s="7">
+        <v>15</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="H99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" s="7">
+        <v>1</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>284</v>
+      </c>
       <c r="K99" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S99" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="V99" s="2">
         <v>14.671486</v>
@@ -8643,7 +8736,7 @@
         <v>-86.221147999999999</v>
       </c>
     </row>
-    <row r="100" spans="2:23">
+    <row r="100" spans="2:23" ht="15">
       <c r="B100" s="1" t="s">
         <v>23</v>
       </c>
@@ -8652,18 +8745,33 @@
       </c>
       <c r="D100" s="1">
         <v>3</v>
+      </c>
+      <c r="E100" s="7">
+        <v>15</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="H100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="7">
+        <v>3</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="K100" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="S100" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="V100" s="2">
         <v>14.853908000000001</v>
@@ -8672,7 +8780,7 @@
         <v>-85.894442999999995</v>
       </c>
     </row>
-    <row r="101" spans="2:23">
+    <row r="101" spans="2:23" ht="15">
       <c r="B101" s="1" t="s">
         <v>23</v>
       </c>
@@ -8681,18 +8789,33 @@
       </c>
       <c r="D101" s="1">
         <v>3</v>
+      </c>
+      <c r="E101" s="7">
+        <v>15</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="H101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I101" s="7">
+        <v>3</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="K101" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="S101" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="V101" s="2">
         <v>14.851229</v>
@@ -8701,7 +8824,7 @@
         <v>-85.895388999999994</v>
       </c>
     </row>
-    <row r="102" spans="2:23">
+    <row r="102" spans="2:23" ht="15">
       <c r="B102" s="1" t="s">
         <v>23</v>
       </c>
@@ -8710,12 +8833,27 @@
       </c>
       <c r="D102" s="1">
         <v>3</v>
+      </c>
+      <c r="E102" s="7">
+        <v>15</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="H102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" s="7">
+        <v>3</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="K102" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="S102" s="1" t="s">
         <v>72</v>
@@ -8730,7 +8868,7 @@
         <v>-85.895661000000004</v>
       </c>
     </row>
-    <row r="103" spans="2:23">
+    <row r="103" spans="2:23" ht="15">
       <c r="B103" s="1" t="s">
         <v>23</v>
       </c>
@@ -8739,18 +8877,27 @@
       </c>
       <c r="D103" s="1">
         <v>3</v>
+      </c>
+      <c r="E103" s="7">
+        <v>12</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="H103" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K103" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="V103" s="2">
         <v>14.120423000000001</v>
@@ -8759,7 +8906,7 @@
         <v>-87.829441000000003</v>
       </c>
     </row>
-    <row r="104" spans="2:23">
+    <row r="104" spans="2:23" ht="15">
       <c r="B104" s="1" t="s">
         <v>23</v>
       </c>
@@ -8768,18 +8915,27 @@
       </c>
       <c r="D104" s="1">
         <v>3</v>
+      </c>
+      <c r="E104" s="7">
+        <v>12</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="H104" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K104" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="V104" s="2">
         <v>14.159074</v>
@@ -8798,14 +8954,23 @@
       <c r="D105" s="1">
         <v>3</v>
       </c>
+      <c r="E105" s="7">
+        <v>12</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G105" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="H105" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K105" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="U105" s="1" t="s">
         <v>44</v>
@@ -8827,9 +8992,18 @@
       <c r="D106" s="1">
         <v>3</v>
       </c>
+      <c r="E106" s="7">
+        <v>12</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G106" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="H106" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K106" s="1" t="s">
         <v>63</v>
       </c>
@@ -8837,7 +9011,7 @@
         <v>179</v>
       </c>
       <c r="U106" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="V106" s="2">
         <v>14.319006</v>
@@ -8856,9 +9030,18 @@
       <c r="D107" s="1">
         <v>3</v>
       </c>
+      <c r="E107" s="7">
+        <v>12</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G107" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="H107" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K107" s="1" t="s">
         <v>63</v>
       </c>
@@ -8866,7 +9049,7 @@
         <v>179</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="V107" s="2">
         <v>14.322329999999999</v>
@@ -8875,7 +9058,7 @@
         <v>-87.678188000000006</v>
       </c>
     </row>
-    <row r="108" spans="2:23">
+    <row r="108" spans="2:23" ht="15">
       <c r="B108" s="1" t="s">
         <v>23</v>
       </c>
@@ -8884,10 +9067,19 @@
       </c>
       <c r="D108" s="1">
         <v>3</v>
+      </c>
+      <c r="E108" s="7">
+        <v>3</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="H108" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K108" s="1" t="s">
         <v>189</v>
       </c>
@@ -8895,7 +9087,7 @@
         <v>179</v>
       </c>
       <c r="U108" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="V108" s="2">
         <v>14.453317999999999</v>
@@ -8904,7 +9096,7 @@
         <v>-87.642769000000001</v>
       </c>
     </row>
-    <row r="109" spans="2:23">
+    <row r="109" spans="2:23" ht="15">
       <c r="B109" s="1" t="s">
         <v>23</v>
       </c>
@@ -8913,10 +9105,19 @@
       </c>
       <c r="D109" s="1">
         <v>3</v>
+      </c>
+      <c r="E109" s="7">
+        <v>3</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="H109" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K109" s="1" t="s">
         <v>189</v>
       </c>
@@ -8924,7 +9125,7 @@
         <v>179</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="V109" s="2">
         <v>14.456941</v>
@@ -8943,9 +9144,18 @@
       <c r="D110" s="1">
         <v>3</v>
       </c>
+      <c r="E110" s="7">
+        <v>3</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="G110" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="H110" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K110" s="1" t="s">
         <v>189</v>
       </c>
@@ -8953,7 +9163,7 @@
         <v>179</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="V110" s="2">
         <v>14.460008999999999</v>
@@ -8972,9 +9182,18 @@
       <c r="D111" s="1">
         <v>3</v>
       </c>
+      <c r="E111" s="7">
+        <v>3</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="G111" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="H111" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K111" s="1" t="s">
         <v>191</v>
       </c>
@@ -8991,7 +9210,7 @@
         <v>-87.844590999999994</v>
       </c>
     </row>
-    <row r="112" spans="2:23">
+    <row r="112" spans="2:23" ht="15">
       <c r="B112" s="1" t="s">
         <v>23</v>
       </c>
@@ -9000,18 +9219,27 @@
       </c>
       <c r="D112" s="1">
         <v>3</v>
+      </c>
+      <c r="E112" s="7">
+        <v>10</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="H112" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K112" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="S112" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="V112" s="2">
         <v>14.314704000000001</v>
@@ -9020,7 +9248,7 @@
         <v>-88.160505999999998</v>
       </c>
     </row>
-    <row r="113" spans="2:23">
+    <row r="113" spans="2:23" ht="15">
       <c r="B113" s="1" t="s">
         <v>23</v>
       </c>
@@ -9029,18 +9257,27 @@
       </c>
       <c r="D113" s="1">
         <v>3</v>
+      </c>
+      <c r="E113" s="7">
+        <v>1</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H113" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K113" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="S113" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U113" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="V113" s="2">
         <v>15.754151999999999</v>
@@ -9049,7 +9286,7 @@
         <v>-87.489628999999994</v>
       </c>
     </row>
-    <row r="114" spans="2:23">
+    <row r="114" spans="2:23" ht="15">
       <c r="B114" s="1" t="s">
         <v>23</v>
       </c>
@@ -9059,14 +9296,23 @@
       <c r="D114" s="1">
         <v>3</v>
       </c>
+      <c r="E114" s="7">
+        <v>9</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="G114" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="S114" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U114" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="V114" s="2">
         <v>15.908462</v>
@@ -9075,7 +9321,7 @@
         <v>-84.814170000000004</v>
       </c>
     </row>
-    <row r="115" spans="2:23">
+    <row r="115" spans="2:23" ht="15">
       <c r="B115" s="1" t="s">
         <v>23</v>
       </c>
@@ -9085,17 +9331,32 @@
       <c r="D115" s="1">
         <v>3</v>
       </c>
+      <c r="E115" s="7">
+        <v>16</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="G115" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" s="7">
+        <v>1</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="S115" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="V115" s="2">
         <v>14.925007000000001</v>
@@ -9104,7 +9365,7 @@
         <v>-88.237927999999997</v>
       </c>
     </row>
-    <row r="116" spans="2:23">
+    <row r="116" spans="2:23" ht="15">
       <c r="B116" s="1" t="s">
         <v>23</v>
       </c>
@@ -9114,17 +9375,32 @@
       <c r="D116" s="1">
         <v>3</v>
       </c>
+      <c r="E116" s="7">
+        <v>16</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="G116" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I116" s="7">
+        <v>26</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="S116" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U116" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="V116" s="2">
         <v>15.143121000000001</v>
@@ -9143,17 +9419,23 @@
       <c r="D117" s="1">
         <v>3</v>
       </c>
+      <c r="E117" s="7">
+        <v>16</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="G117" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="S117" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="V117" s="2">
         <v>15.247275</v>
@@ -9162,7 +9444,7 @@
         <v>-88.552238000000003</v>
       </c>
     </row>
-    <row r="118" spans="2:23">
+    <row r="118" spans="2:23" ht="15">
       <c r="B118" s="1" t="s">
         <v>23</v>
       </c>
@@ -9172,17 +9454,32 @@
       <c r="D118" s="1">
         <v>3</v>
       </c>
+      <c r="E118" s="7">
+        <v>16</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="G118" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I118" s="7">
+        <v>15</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="S118" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U118" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="V118" s="2">
         <v>15.273072000000001</v>
@@ -9191,7 +9488,7 @@
         <v>-88.284302999999994</v>
       </c>
     </row>
-    <row r="119" spans="2:23">
+    <row r="119" spans="2:23" ht="15">
       <c r="B119" s="1" t="s">
         <v>23</v>
       </c>
@@ -9201,8 +9498,23 @@
       <c r="D119" s="1">
         <v>3</v>
       </c>
+      <c r="E119" s="7">
+        <v>16</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="G119" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I119" s="7">
+        <v>17</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>240</v>
@@ -9211,7 +9523,7 @@
         <v>179</v>
       </c>
       <c r="U119" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="V119" s="2">
         <v>15.348732999999999</v>
@@ -9220,7 +9532,7 @@
         <v>-88.403704000000005</v>
       </c>
     </row>
-    <row r="120" spans="2:23">
+    <row r="120" spans="2:23" ht="15">
       <c r="B120" s="1" t="s">
         <v>23</v>
       </c>
@@ -9230,17 +9542,26 @@
       <c r="D120" s="1">
         <v>3</v>
       </c>
+      <c r="E120" s="7">
+        <v>7</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="G120" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="S120" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U120" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="V120" s="2">
         <v>13.861846</v>
@@ -9249,7 +9570,7 @@
         <v>-86.554258000000004</v>
       </c>
     </row>
-    <row r="121" spans="2:23">
+    <row r="121" spans="2:23" ht="15">
       <c r="B121" s="1" t="s">
         <v>23</v>
       </c>
@@ -9259,17 +9580,26 @@
       <c r="D121" s="1">
         <v>3</v>
       </c>
+      <c r="E121" s="7">
+        <v>7</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="G121" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="S121" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="V121" s="2">
         <v>13.865371</v>
@@ -9278,7 +9608,7 @@
         <v>-86.562415000000001</v>
       </c>
     </row>
-    <row r="122" spans="2:23">
+    <row r="122" spans="2:23" ht="15">
       <c r="B122" s="1" t="s">
         <v>23</v>
       </c>
@@ -9288,14 +9618,23 @@
       <c r="D122" s="1">
         <v>3</v>
       </c>
+      <c r="E122" s="7">
+        <v>18</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="G122" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="S122" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U122" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="V122" s="2">
         <v>14.985823</v>
@@ -9304,7 +9643,7 @@
         <v>-87.294527000000002</v>
       </c>
     </row>
-    <row r="123" spans="2:23">
+    <row r="123" spans="2:23" ht="15">
       <c r="B123" s="1" t="s">
         <v>23</v>
       </c>
@@ -9313,18 +9652,33 @@
       </c>
       <c r="D123" s="1">
         <v>3</v>
+      </c>
+      <c r="E123" s="7">
+        <v>18</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="H123" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I123" s="8">
+        <v>11</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>325</v>
+      </c>
       <c r="K123" s="1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="S123" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U123" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="V123" s="2">
         <v>15.065429</v>
@@ -9343,14 +9697,23 @@
       <c r="D124" s="1">
         <v>3</v>
       </c>
+      <c r="E124" s="7">
+        <v>18</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="G124" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="H124" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="S124" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U124" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="V124" s="2">
         <v>15.108616</v>
@@ -9359,7 +9722,7 @@
         <v>-87.280530999999996</v>
       </c>
     </row>
-    <row r="125" spans="2:23">
+    <row r="125" spans="2:23" ht="15">
       <c r="B125" s="1" t="s">
         <v>23</v>
       </c>
@@ -9368,10 +9731,25 @@
       </c>
       <c r="D125" s="1">
         <v>3</v>
+      </c>
+      <c r="E125" s="7">
+        <v>18</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="H125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125" s="7">
+        <v>1</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="K125" s="1" t="s">
         <v>162</v>
       </c>
@@ -9379,7 +9757,7 @@
         <v>72</v>
       </c>
       <c r="U125" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="V125" s="2">
         <v>15.137855999999999</v>
@@ -9388,7 +9766,7 @@
         <v>-87.125667000000007</v>
       </c>
     </row>
-    <row r="126" spans="2:23">
+    <row r="126" spans="2:23" ht="15">
       <c r="B126" s="1" t="s">
         <v>23</v>
       </c>
@@ -9397,10 +9775,25 @@
       </c>
       <c r="D126" s="1">
         <v>3</v>
+      </c>
+      <c r="E126" s="7">
+        <v>18</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="H126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" s="7">
+        <v>1</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="K126" s="1" t="s">
         <v>162</v>
       </c>
@@ -9408,7 +9801,7 @@
         <v>179</v>
       </c>
       <c r="U126" s="1" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="V126" s="2">
         <v>15.137337</v>
@@ -9427,17 +9820,23 @@
       <c r="D127" s="1">
         <v>3</v>
       </c>
+      <c r="E127" s="7">
+        <v>18</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="G127" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K127" s="1" t="s">
-        <v>324</v>
+      <c r="H127" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="S127" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U127" s="1" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="V127" s="2">
         <v>15.276194</v>
@@ -9446,7 +9845,7 @@
         <v>-87.324967999999998</v>
       </c>
     </row>
-    <row r="128" spans="2:23">
+    <row r="128" spans="2:23" ht="15">
       <c r="B128" s="1" t="s">
         <v>23</v>
       </c>
@@ -9455,18 +9854,33 @@
       </c>
       <c r="D128" s="1">
         <v>3</v>
+      </c>
+      <c r="E128" s="7">
+        <v>13</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="H128" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I128" s="7">
+        <v>13</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>333</v>
+      </c>
       <c r="K128" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="S128" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U128" s="1" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="V128" s="2">
         <v>14.780340000000001</v>
@@ -9475,7 +9889,7 @@
         <v>-88.588606999999996</v>
       </c>
     </row>
-    <row r="129" spans="2:23">
+    <row r="129" spans="2:23" ht="15">
       <c r="B129" s="1" t="s">
         <v>23</v>
       </c>
@@ -9484,18 +9898,33 @@
       </c>
       <c r="D129" s="1">
         <v>3</v>
+      </c>
+      <c r="E129" s="7">
+        <v>13</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="H129" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I129" s="7">
+        <v>22</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="K129" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="S129" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="V129" s="2">
         <v>14.329539</v>
@@ -9504,7 +9933,7 @@
         <v>-88.522634999999994</v>
       </c>
     </row>
-    <row r="130" spans="2:23">
+    <row r="130" spans="2:23" ht="15">
       <c r="B130" s="1" t="s">
         <v>23</v>
       </c>
@@ -9513,18 +9942,33 @@
       </c>
       <c r="D130" s="1">
         <v>3</v>
+      </c>
+      <c r="E130" s="7">
+        <v>13</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="H130" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I130" s="7">
+        <v>6</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>339</v>
+      </c>
       <c r="K130" s="1" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="S130" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="V130" s="2">
         <v>14.126211</v>
@@ -9543,9 +9987,18 @@
       <c r="D131" s="1">
         <v>3</v>
       </c>
+      <c r="E131" s="7">
+        <v>13</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="G131" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="H131" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="S131" s="1" t="s">
         <v>36</v>
       </c>
@@ -9559,7 +10012,7 @@
         <v>-88.651722000000007</v>
       </c>
     </row>
-    <row r="132" spans="2:23">
+    <row r="132" spans="2:23" ht="15">
       <c r="B132" s="1" t="s">
         <v>23</v>
       </c>
@@ -9568,18 +10021,33 @@
       </c>
       <c r="D132" s="1">
         <v>3</v>
+      </c>
+      <c r="E132" s="7">
+        <v>17</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="H132" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I132" s="7">
+        <v>1</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>343</v>
+      </c>
       <c r="K132" s="1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="S132" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="V132" s="2">
         <v>13.530787999999999</v>
@@ -9588,7 +10056,7 @@
         <v>-87.498217999999994</v>
       </c>
     </row>
-    <row r="133" spans="2:23">
+    <row r="133" spans="2:23" ht="15">
       <c r="B133" s="1" t="s">
         <v>23</v>
       </c>
@@ -9597,18 +10065,33 @@
       </c>
       <c r="D133" s="1">
         <v>3</v>
+      </c>
+      <c r="E133" s="7">
+        <v>17</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="H133" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I133" s="7">
+        <v>1</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>343</v>
+      </c>
       <c r="K133" s="1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="S133" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="V133" s="2">
         <v>13.532709000000001</v>
@@ -9617,7 +10100,7 @@
         <v>-87.492543999999995</v>
       </c>
     </row>
-    <row r="134" spans="2:23">
+    <row r="134" spans="2:23" ht="15">
       <c r="B134" s="1" t="s">
         <v>23</v>
       </c>
@@ -9626,18 +10109,33 @@
       </c>
       <c r="D134" s="1">
         <v>3</v>
+      </c>
+      <c r="E134" s="7">
+        <v>17</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="H134" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I134" s="7">
+        <v>7</v>
+      </c>
+      <c r="J134" s="7" t="s">
+        <v>347</v>
+      </c>
       <c r="K134" s="1" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="S134" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="V134" s="2">
         <v>13.62003</v>
@@ -9646,7 +10144,7 @@
         <v>-87.657388999999995</v>
       </c>
     </row>
-    <row r="135" spans="2:23">
+    <row r="135" spans="2:23" ht="15">
       <c r="B135" s="1" t="s">
         <v>23</v>
       </c>
@@ -9655,18 +10153,33 @@
       </c>
       <c r="D135" s="1">
         <v>3</v>
+      </c>
+      <c r="E135" s="7">
+        <v>17</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="H135" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I135" s="7">
+        <v>6</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="K135" s="1" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="S135" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="V135" s="2">
         <v>13.610545</v>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="723" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{529982E2-1FFC-4553-902F-04259DCB81D4}"/>
+  <xr:revisionPtr revIDLastSave="740" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A97B96DF-7FB2-400F-8A27-7A04074535CF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="362">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -882,6 +882,9 @@
     <t>Gracias a Dios</t>
   </si>
   <si>
+    <t>0901</t>
+  </si>
+  <si>
     <t xml:space="preserve">Puerto Lempira </t>
   </si>
   <si>
@@ -912,6 +915,9 @@
     <t>Clínica Medicentro</t>
   </si>
   <si>
+    <t>1206</t>
+  </si>
+  <si>
     <t>Guajiquiro</t>
   </si>
   <si>
@@ -921,21 +927,33 @@
     <t>Centro de Salud El Guajiquiro</t>
   </si>
   <si>
+    <t>1208</t>
+  </si>
+  <si>
     <t>Marcala</t>
   </si>
   <si>
     <t>Centro de Salud Marcala</t>
   </si>
   <si>
+    <t>1212</t>
+  </si>
+  <si>
     <t>San José</t>
   </si>
   <si>
+    <t>1201</t>
+  </si>
+  <si>
     <t>Hospital Montecillos</t>
   </si>
   <si>
     <t>Hospital Roberto Suazo Córdova</t>
   </si>
   <si>
+    <t>0301</t>
+  </si>
+  <si>
     <t>Hospital Regional Santa Teresa</t>
   </si>
   <si>
@@ -945,12 +963,18 @@
     <t>Hospital Privado de Comayagua</t>
   </si>
   <si>
+    <t>1001</t>
+  </si>
+  <si>
     <t>La Esperanza</t>
   </si>
   <si>
     <t>Hospital Enrique Aguila Cerrato</t>
   </si>
   <si>
+    <t>0107</t>
+  </si>
+  <si>
     <t>Tela</t>
   </si>
   <si>
@@ -997,6 +1021,9 @@
   </si>
   <si>
     <t>El Paraíso</t>
+  </si>
+  <si>
+    <t>0704</t>
   </si>
   <si>
     <t>Centro Médico San Francisco</t>
@@ -2091,8 +2118,8 @@
   <dimension ref="A1:W135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="F114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I120" sqref="I120"/>
+      <pane ySplit="1" topLeftCell="D106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -8632,14 +8659,20 @@
       <c r="H97" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I97" s="7">
+        <v>1</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>282</v>
+      </c>
       <c r="K97" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S97" s="1" t="s">
         <v>246</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="V97" s="2">
         <v>15.265726000000001</v>
@@ -8674,16 +8707,16 @@
         <v>1</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S98" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V98" s="2">
         <v>14.665319</v>
@@ -8718,16 +8751,16 @@
         <v>1</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S99" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V99" s="2">
         <v>14.671486</v>
@@ -8762,16 +8795,16 @@
         <v>3</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S100" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V100" s="2">
         <v>14.853908000000001</v>
@@ -8806,16 +8839,16 @@
         <v>3</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S101" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="V101" s="2">
         <v>14.851229</v>
@@ -8850,10 +8883,10 @@
         <v>3</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S102" s="1" t="s">
         <v>72</v>
@@ -8890,14 +8923,20 @@
       <c r="H103" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I103" s="7">
+        <v>6</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="K103" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="V103" s="2">
         <v>14.120423000000001</v>
@@ -8928,14 +8967,20 @@
       <c r="H104" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I104" s="7">
+        <v>8</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="K104" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="S104" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="S104" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="U104" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="V104" s="2">
         <v>14.159074</v>
@@ -8944,7 +8989,7 @@
         <v>-88.036270999999999</v>
       </c>
     </row>
-    <row r="105" spans="2:23">
+    <row r="105" spans="2:23" ht="15">
       <c r="B105" s="1" t="s">
         <v>23</v>
       </c>
@@ -8966,11 +9011,17 @@
       <c r="H105" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I105" s="7">
+        <v>12</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="K105" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="U105" s="1" t="s">
         <v>44</v>
@@ -8982,7 +9033,7 @@
         <v>-87.959114999999997</v>
       </c>
     </row>
-    <row r="106" spans="2:23">
+    <row r="106" spans="2:23" ht="15">
       <c r="B106" s="1" t="s">
         <v>23</v>
       </c>
@@ -9004,6 +9055,12 @@
       <c r="H106" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I106" s="7">
+        <v>1</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="K106" s="1" t="s">
         <v>63</v>
       </c>
@@ -9011,7 +9068,7 @@
         <v>179</v>
       </c>
       <c r="U106" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="V106" s="2">
         <v>14.319006</v>
@@ -9020,7 +9077,7 @@
         <v>-87.680940000000007</v>
       </c>
     </row>
-    <row r="107" spans="2:23">
+    <row r="107" spans="2:23" ht="15">
       <c r="B107" s="1" t="s">
         <v>23</v>
       </c>
@@ -9042,6 +9099,12 @@
       <c r="H107" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I107" s="7">
+        <v>1</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="K107" s="1" t="s">
         <v>63</v>
       </c>
@@ -9049,7 +9112,7 @@
         <v>179</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="V107" s="2">
         <v>14.322329999999999</v>
@@ -9080,6 +9143,12 @@
       <c r="H108" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I108" s="7">
+        <v>1</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="K108" s="1" t="s">
         <v>189</v>
       </c>
@@ -9087,7 +9156,7 @@
         <v>179</v>
       </c>
       <c r="U108" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="V108" s="2">
         <v>14.453317999999999</v>
@@ -9118,6 +9187,12 @@
       <c r="H109" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I109" s="7">
+        <v>1</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="K109" s="1" t="s">
         <v>189</v>
       </c>
@@ -9125,7 +9200,7 @@
         <v>179</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="V109" s="2">
         <v>14.456941</v>
@@ -9134,7 +9209,7 @@
         <v>-87.635479000000004</v>
       </c>
     </row>
-    <row r="110" spans="2:23">
+    <row r="110" spans="2:23" ht="15">
       <c r="B110" s="1" t="s">
         <v>23</v>
       </c>
@@ -9156,6 +9231,12 @@
       <c r="H110" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I110" s="7">
+        <v>1</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="K110" s="1" t="s">
         <v>189</v>
       </c>
@@ -9163,7 +9244,7 @@
         <v>179</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="V110" s="2">
         <v>14.460008999999999</v>
@@ -9172,7 +9253,7 @@
         <v>-87.638285999999994</v>
       </c>
     </row>
-    <row r="111" spans="2:23">
+    <row r="111" spans="2:23" ht="15">
       <c r="B111" s="1" t="s">
         <v>23</v>
       </c>
@@ -9194,6 +9275,12 @@
       <c r="H111" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I111" s="7">
+        <v>18</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="K111" s="1" t="s">
         <v>191</v>
       </c>
@@ -9232,14 +9319,20 @@
       <c r="H112" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I112" s="7">
+        <v>1</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="K112" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="S112" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="V112" s="2">
         <v>14.314704000000001</v>
@@ -9270,14 +9363,20 @@
       <c r="H113" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I113" s="7">
+        <v>7</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="K113" s="1" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="S113" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U113" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="V113" s="2">
         <v>15.754151999999999</v>
@@ -9312,7 +9411,7 @@
         <v>36</v>
       </c>
       <c r="U114" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="V114" s="2">
         <v>15.908462</v>
@@ -9338,7 +9437,7 @@
         <v>237</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>27</v>
@@ -9347,16 +9446,16 @@
         <v>1</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="S115" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="V115" s="2">
         <v>14.925007000000001</v>
@@ -9382,7 +9481,7 @@
         <v>237</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>27</v>
@@ -9391,16 +9490,16 @@
         <v>26</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="S116" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U116" s="1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="V116" s="2">
         <v>15.143121000000001</v>
@@ -9426,7 +9525,7 @@
         <v>237</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>27</v>
@@ -9435,7 +9534,7 @@
         <v>179</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="V117" s="2">
         <v>15.247275</v>
@@ -9461,7 +9560,7 @@
         <v>237</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>27</v>
@@ -9470,16 +9569,16 @@
         <v>15</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="S118" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U118" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="V118" s="2">
         <v>15.273072000000001</v>
@@ -9505,7 +9604,7 @@
         <v>237</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>27</v>
@@ -9523,7 +9622,7 @@
         <v>179</v>
       </c>
       <c r="U119" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="V119" s="2">
         <v>15.348732999999999</v>
@@ -9546,22 +9645,28 @@
         <v>7</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I120" s="7">
+        <v>4</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="K120" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="S120" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U120" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="V120" s="2">
         <v>13.861846</v>
@@ -9584,22 +9689,28 @@
         <v>7</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I121" s="7">
+        <v>4</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="K121" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="S121" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="V121" s="2">
         <v>13.865371</v>
@@ -9625,7 +9736,7 @@
         <v>161</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>27</v>
@@ -9634,7 +9745,7 @@
         <v>36</v>
       </c>
       <c r="U122" s="1" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="V122" s="2">
         <v>14.985823</v>
@@ -9669,16 +9780,16 @@
         <v>11</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="S123" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U123" s="1" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="V123" s="2">
         <v>15.065429</v>
@@ -9713,7 +9824,7 @@
         <v>36</v>
       </c>
       <c r="U124" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="V124" s="2">
         <v>15.108616</v>
@@ -9748,7 +9859,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>162</v>
@@ -9757,7 +9868,7 @@
         <v>72</v>
       </c>
       <c r="U125" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="V125" s="2">
         <v>15.137855999999999</v>
@@ -9792,7 +9903,7 @@
         <v>1</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>162</v>
@@ -9801,7 +9912,7 @@
         <v>179</v>
       </c>
       <c r="U126" s="1" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="V126" s="2">
         <v>15.137337</v>
@@ -9836,7 +9947,7 @@
         <v>72</v>
       </c>
       <c r="U127" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="V127" s="2">
         <v>15.276194</v>
@@ -9871,16 +9982,16 @@
         <v>13</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="S128" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U128" s="1" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="V128" s="2">
         <v>14.780340000000001</v>
@@ -9915,16 +10026,16 @@
         <v>22</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="S129" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="V129" s="2">
         <v>14.329539</v>
@@ -9959,16 +10070,16 @@
         <v>6</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="S130" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="V130" s="2">
         <v>14.126211</v>
@@ -10026,7 +10137,7 @@
         <v>17</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>275</v>
@@ -10038,16 +10149,16 @@
         <v>1</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="S132" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="V132" s="2">
         <v>13.530787999999999</v>
@@ -10070,7 +10181,7 @@
         <v>17</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>275</v>
@@ -10082,16 +10193,16 @@
         <v>1</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="S133" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="V133" s="2">
         <v>13.532709000000001</v>
@@ -10114,7 +10225,7 @@
         <v>17</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>275</v>
@@ -10126,16 +10237,16 @@
         <v>7</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="S134" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="V134" s="2">
         <v>13.62003</v>
@@ -10158,7 +10269,7 @@
         <v>17</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>275</v>
@@ -10170,16 +10281,16 @@
         <v>6</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="S135" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="V135" s="2">
         <v>13.610545</v>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="740" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A97B96DF-7FB2-400F-8A27-7A04074535CF}"/>
+  <xr:revisionPtr revIDLastSave="756" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79201995-0D06-4727-B7F9-DF366F1F47F5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="362">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -786,6 +786,9 @@
     <t>Hospital General San Felipe</t>
   </si>
   <si>
+    <t>07</t>
+  </si>
+  <si>
     <t>El Paraiso</t>
   </si>
   <si>
@@ -861,6 +864,9 @@
     <t>Hospital San Marcos de Ocotepeque</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>Valle</t>
   </si>
   <si>
@@ -1017,9 +1023,6 @@
     <t>Centro Médico Integral de Occidente</t>
   </si>
   <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>El Paraíso</t>
   </si>
   <si>
@@ -1087,9 +1090,6 @@
   </si>
   <si>
     <t>Hospital del Sur Dr. Lempira</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
   <si>
     <t>1701</t>
@@ -2118,8 +2118,8 @@
   <dimension ref="A1:W135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J114" sqref="J114"/>
+      <pane ySplit="1" topLeftCell="L2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86:F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -2138,7 +2138,7 @@
     <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="20.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="15" style="1" customWidth="1"/>
     <col min="18" max="18" width="17.140625" style="1" customWidth="1"/>
@@ -7808,8 +7808,8 @@
       <c r="E84" s="1">
         <v>8</v>
       </c>
-      <c r="F84" s="1">
-        <v>8</v>
+      <c r="F84" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>39</v>
@@ -7876,8 +7876,8 @@
       <c r="E85" s="1">
         <v>8</v>
       </c>
-      <c r="F85" s="1">
-        <v>8</v>
+      <c r="F85" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>39</v>
@@ -7941,14 +7941,14 @@
       <c r="D86" s="1">
         <v>3</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="7">
         <v>7</v>
       </c>
-      <c r="F86" s="1">
-        <v>7</v>
+      <c r="F86" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>27</v>
@@ -7957,22 +7957,22 @@
         <v>3</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P86" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R86" s="1" t="s">
         <v>35</v>
@@ -7984,7 +7984,7 @@
         <v>247</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V86" s="2">
         <v>13.991413</v>
@@ -8006,8 +8006,8 @@
       <c r="E87" s="1">
         <v>11</v>
       </c>
-      <c r="F87" s="1">
-        <v>11</v>
+      <c r="F87" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>56</v>
@@ -8046,7 +8046,7 @@
         <v>247</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="V87" s="2">
         <v>16.317903000000001</v>
@@ -8068,8 +8068,8 @@
       <c r="E88" s="1">
         <v>5</v>
       </c>
-      <c r="F88" s="1">
-        <v>5</v>
+      <c r="F88" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>85</v>
@@ -8114,7 +8114,7 @@
         <v>247</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V88" s="2">
         <v>15.524452999999999</v>
@@ -8136,8 +8136,8 @@
       <c r="E89" s="1">
         <v>5</v>
       </c>
-      <c r="F89" s="1">
-        <v>5</v>
+      <c r="F89" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>85</v>
@@ -8182,7 +8182,7 @@
         <v>247</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V89" s="2">
         <v>15.500176</v>
@@ -8204,8 +8204,8 @@
       <c r="E90" s="1">
         <v>5</v>
       </c>
-      <c r="F90" s="1">
-        <v>5</v>
+      <c r="F90" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>85</v>
@@ -8220,7 +8220,7 @@
         <v>92</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>30</v>
@@ -8232,7 +8232,7 @@
         <v>94</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>33</v>
@@ -8250,7 +8250,7 @@
         <v>247</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V90" s="2">
         <v>15.814730000000001</v>
@@ -8272,8 +8272,8 @@
       <c r="E91" s="1">
         <v>6</v>
       </c>
-      <c r="F91" s="1">
-        <v>6</v>
+      <c r="F91" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>98</v>
@@ -8318,7 +8318,7 @@
         <v>247</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V91" s="2">
         <v>13.303027999999999</v>
@@ -8340,8 +8340,8 @@
       <c r="E92" s="1">
         <v>1</v>
       </c>
-      <c r="F92" s="1">
-        <v>1</v>
+      <c r="F92" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>26</v>
@@ -8380,7 +8380,7 @@
         <v>247</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="V92" s="2">
         <v>15.769266</v>
@@ -8415,22 +8415,22 @@
         <v>1</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R93" s="1" t="s">
         <v>35</v>
@@ -8442,7 +8442,7 @@
         <v>247</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="V93" s="2">
         <v>14.768719000000001</v>
@@ -8477,22 +8477,22 @@
         <v>1</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R94" s="1" t="s">
         <v>35</v>
@@ -8504,7 +8504,7 @@
         <v>247</v>
       </c>
       <c r="U94" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V94" s="2">
         <v>15.920894000000001</v>
@@ -8530,7 +8530,7 @@
         <v>14</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>27</v>
@@ -8539,22 +8539,22 @@
         <v>13</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R95" s="1" t="s">
         <v>35</v>
@@ -8566,7 +8566,7 @@
         <v>247</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="V95" s="2">
         <v>14.412167999999999</v>
@@ -8585,14 +8585,14 @@
       <c r="D96" s="1">
         <v>3</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="7">
         <v>17</v>
       </c>
-      <c r="F96" s="1">
-        <v>17</v>
+      <c r="F96" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>27</v>
@@ -8601,22 +8601,22 @@
         <v>9</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R96" s="1" t="s">
         <v>35</v>
@@ -8628,7 +8628,7 @@
         <v>247</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="V96" s="2">
         <v>13.435276</v>
@@ -8651,10 +8651,10 @@
         <v>9</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>27</v>
@@ -8663,16 +8663,19 @@
         <v>1</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S97" s="1" t="s">
         <v>246</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="V97" s="2">
         <v>15.265726000000001</v>
@@ -8707,16 +8710,19 @@
         <v>1</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S98" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="V98" s="2">
         <v>14.665319</v>
@@ -8751,16 +8757,19 @@
         <v>1</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S99" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="V99" s="2">
         <v>14.671486</v>
@@ -8795,16 +8804,19 @@
         <v>3</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S100" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="V100" s="2">
         <v>14.853908000000001</v>
@@ -8839,16 +8851,19 @@
         <v>3</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S101" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="V101" s="2">
         <v>14.851229</v>
@@ -8883,10 +8898,13 @@
         <v>3</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S102" s="1" t="s">
         <v>72</v>
@@ -8927,16 +8945,19 @@
         <v>6</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="V103" s="2">
         <v>14.120423000000001</v>
@@ -8971,16 +8992,19 @@
         <v>8</v>
       </c>
       <c r="J104" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S104" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="S104" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="U104" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="V104" s="2">
         <v>14.159074</v>
@@ -9015,13 +9039,16 @@
         <v>12</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="U105" s="1" t="s">
         <v>44</v>
@@ -9059,16 +9086,19 @@
         <v>1</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="L106" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S106" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U106" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="V106" s="2">
         <v>14.319006</v>
@@ -9103,16 +9133,19 @@
         <v>1</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="L107" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S107" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="V107" s="2">
         <v>14.322329999999999</v>
@@ -9147,16 +9180,19 @@
         <v>1</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="L108" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S108" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U108" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="V108" s="2">
         <v>14.453317999999999</v>
@@ -9191,16 +9227,19 @@
         <v>1</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="L109" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S109" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="V109" s="2">
         <v>14.456941</v>
@@ -9235,16 +9274,19 @@
         <v>1</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="L110" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S110" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="V110" s="2">
         <v>14.460008999999999</v>
@@ -9284,6 +9326,9 @@
       <c r="K111" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="L111" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S111" s="1" t="s">
         <v>179</v>
       </c>
@@ -9323,16 +9368,19 @@
         <v>1</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S112" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="V112" s="2">
         <v>14.314704000000001</v>
@@ -9367,16 +9415,19 @@
         <v>7</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S113" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U113" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="V113" s="2">
         <v>15.754151999999999</v>
@@ -9399,19 +9450,22 @@
         <v>9</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S114" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U114" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="V114" s="2">
         <v>15.908462</v>
@@ -9437,7 +9491,7 @@
         <v>237</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>27</v>
@@ -9446,16 +9500,19 @@
         <v>1</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S115" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="V115" s="2">
         <v>14.925007000000001</v>
@@ -9481,7 +9538,7 @@
         <v>237</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>27</v>
@@ -9490,16 +9547,19 @@
         <v>26</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S116" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U116" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="V116" s="2">
         <v>15.143121000000001</v>
@@ -9525,16 +9585,19 @@
         <v>237</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S117" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="V117" s="2">
         <v>15.247275</v>
@@ -9560,7 +9623,7 @@
         <v>237</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>27</v>
@@ -9569,16 +9632,19 @@
         <v>15</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S118" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U118" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V118" s="2">
         <v>15.273072000000001</v>
@@ -9604,7 +9670,7 @@
         <v>237</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>27</v>
@@ -9618,11 +9684,14 @@
       <c r="K119" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="L119" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S119" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U119" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="V119" s="2">
         <v>15.348732999999999</v>
@@ -9645,10 +9714,10 @@
         <v>7</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>27</v>
@@ -9657,16 +9726,19 @@
         <v>4</v>
       </c>
       <c r="J120" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K120" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K120" s="1" t="s">
-        <v>328</v>
+      <c r="L120" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S120" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U120" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="V120" s="2">
         <v>13.861846</v>
@@ -9689,10 +9761,10 @@
         <v>7</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>27</v>
@@ -9701,16 +9773,19 @@
         <v>4</v>
       </c>
       <c r="J121" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K121" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>328</v>
+      <c r="L121" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S121" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="V121" s="2">
         <v>13.865371</v>
@@ -9736,16 +9811,19 @@
         <v>161</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S122" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U122" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V122" s="2">
         <v>14.985823</v>
@@ -9780,16 +9858,19 @@
         <v>11</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S123" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U123" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="V123" s="2">
         <v>15.065429</v>
@@ -9820,11 +9901,14 @@
       <c r="H124" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="L124" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S124" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U124" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="V124" s="2">
         <v>15.108616</v>
@@ -9859,16 +9943,19 @@
         <v>1</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="L125" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S125" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U125" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="V125" s="2">
         <v>15.137855999999999</v>
@@ -9903,16 +9990,19 @@
         <v>1</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="L126" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S126" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U126" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="V126" s="2">
         <v>15.137337</v>
@@ -9943,11 +10033,14 @@
       <c r="H127" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="L127" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S127" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U127" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V127" s="2">
         <v>15.276194</v>
@@ -9982,16 +10075,19 @@
         <v>13</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S128" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U128" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V128" s="2">
         <v>14.780340000000001</v>
@@ -10026,16 +10122,19 @@
         <v>22</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S129" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="V129" s="2">
         <v>14.329539</v>
@@ -10070,16 +10169,19 @@
         <v>6</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S130" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="V130" s="2">
         <v>14.126211</v>
@@ -10110,6 +10212,9 @@
       <c r="H131" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="L131" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S131" s="1" t="s">
         <v>36</v>
       </c>
@@ -10137,10 +10242,10 @@
         <v>17</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>27</v>
@@ -10154,6 +10259,9 @@
       <c r="K132" s="1" t="s">
         <v>353</v>
       </c>
+      <c r="L132" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S132" s="1" t="s">
         <v>72</v>
       </c>
@@ -10181,10 +10289,10 @@
         <v>17</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>27</v>
@@ -10198,6 +10306,9 @@
       <c r="K133" s="1" t="s">
         <v>353</v>
       </c>
+      <c r="L133" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S133" s="1" t="s">
         <v>179</v>
       </c>
@@ -10225,10 +10336,10 @@
         <v>17</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>27</v>
@@ -10242,6 +10353,9 @@
       <c r="K134" s="1" t="s">
         <v>357</v>
       </c>
+      <c r="L134" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S134" s="1" t="s">
         <v>36</v>
       </c>
@@ -10269,10 +10383,10 @@
         <v>17</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>27</v>
@@ -10285,6 +10399,9 @@
       </c>
       <c r="K135" s="1" t="s">
         <v>360</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="S135" s="1" t="s">
         <v>72</v>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="756" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79201995-0D06-4727-B7F9-DF366F1F47F5}"/>
+  <xr:revisionPtr revIDLastSave="1145" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B32BF777-5397-479D-8AE0-25A68BA9AC71}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="HOSPITALES" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$161</definedName>
     <definedName name="_xlnm.Database">HOSPITALES!$A$1:$U$83</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="423">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -1092,9 +1092,6 @@
     <t>Hospital del Sur Dr. Lempira</t>
   </si>
   <si>
-    <t>1701</t>
-  </si>
-  <si>
     <t>Nacaome</t>
   </si>
   <si>
@@ -1104,22 +1101,208 @@
     <t>Centro Médico Juárez</t>
   </si>
   <si>
-    <t>1707</t>
-  </si>
-  <si>
     <t>Langue</t>
   </si>
   <si>
     <t>Centro de Salud de Langue</t>
   </si>
   <si>
-    <t>1706</t>
-  </si>
-  <si>
     <t>Goascorán</t>
   </si>
   <si>
     <t>Medicenter</t>
+  </si>
+  <si>
+    <t>Guanaja</t>
+  </si>
+  <si>
+    <t>HND-1102</t>
+  </si>
+  <si>
+    <t>Cesamo</t>
+  </si>
+  <si>
+    <t>Sabana Bay</t>
+  </si>
+  <si>
+    <t>José Santos Guardiola</t>
+  </si>
+  <si>
+    <t>Oak Ridge</t>
+  </si>
+  <si>
+    <t>HND-1103</t>
+  </si>
+  <si>
+    <t>San Fernando</t>
+  </si>
+  <si>
+    <t>HND-1410</t>
+  </si>
+  <si>
+    <t>La Encarnación</t>
+  </si>
+  <si>
+    <t>HND-1406</t>
+  </si>
+  <si>
+    <t>Sensenti</t>
+  </si>
+  <si>
+    <t>HND-1415</t>
+  </si>
+  <si>
+    <t>La Labor</t>
+  </si>
+  <si>
+    <t>HND-1407</t>
+  </si>
+  <si>
+    <t>Belén Gualcho</t>
+  </si>
+  <si>
+    <t>Belen Gualcho</t>
+  </si>
+  <si>
+    <t>HND-1402</t>
+  </si>
+  <si>
+    <t>Nueva Ocotepeque</t>
+  </si>
+  <si>
+    <t>HND-1401</t>
+  </si>
+  <si>
+    <t>0715</t>
+  </si>
+  <si>
+    <t>Teupasenti</t>
+  </si>
+  <si>
+    <t>071501</t>
+  </si>
+  <si>
+    <t>HND-0715</t>
+  </si>
+  <si>
+    <t>0708</t>
+  </si>
+  <si>
+    <t>Morocelí</t>
+  </si>
+  <si>
+    <t>070801</t>
+  </si>
+  <si>
+    <t>HND-0708</t>
+  </si>
+  <si>
+    <t>0719</t>
+  </si>
+  <si>
+    <t>Trojes</t>
+  </si>
+  <si>
+    <t>071901</t>
+  </si>
+  <si>
+    <t>HND-0719</t>
+  </si>
+  <si>
+    <t>0705</t>
+  </si>
+  <si>
+    <t>Guinope</t>
+  </si>
+  <si>
+    <t>070501</t>
+  </si>
+  <si>
+    <t>HND-0705</t>
+  </si>
+  <si>
+    <t>0716</t>
+  </si>
+  <si>
+    <t>Texiguat</t>
+  </si>
+  <si>
+    <t>071601</t>
+  </si>
+  <si>
+    <t>HND-0716</t>
+  </si>
+  <si>
+    <t>0714</t>
+  </si>
+  <si>
+    <t>Soledad</t>
+  </si>
+  <si>
+    <t>071401</t>
+  </si>
+  <si>
+    <t>HND-0714</t>
+  </si>
+  <si>
+    <t>0707</t>
+  </si>
+  <si>
+    <t>Liure</t>
+  </si>
+  <si>
+    <t>070703</t>
+  </si>
+  <si>
+    <t>HND-0707</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>Omoa</t>
+  </si>
+  <si>
+    <t>050301</t>
+  </si>
+  <si>
+    <t>HND-0503</t>
+  </si>
+  <si>
+    <t>050307</t>
+  </si>
+  <si>
+    <t>Cuyamel</t>
+  </si>
+  <si>
+    <t>0502</t>
+  </si>
+  <si>
+    <t>Choloma</t>
+  </si>
+  <si>
+    <t>050201</t>
+  </si>
+  <si>
+    <t>Col. Lopez Arellano</t>
+  </si>
+  <si>
+    <t>HND-0502</t>
+  </si>
+  <si>
+    <t>0512</t>
+  </si>
+  <si>
+    <t>La Lima</t>
+  </si>
+  <si>
+    <t>051201</t>
+  </si>
+  <si>
+    <t>HND-0512</t>
+  </si>
+  <si>
+    <t>HND-</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1809,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1636,50 +1819,55 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -1722,7 +1910,7 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1734,7 +1922,7 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1784,8 +1972,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W139" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:W139" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W161" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:W161" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W83">
     <sortCondition ref="S1:S83"/>
   </sortState>
@@ -2115,11 +2303,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W135"/>
+  <dimension ref="A1:W161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="L2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86:F86"/>
+      <pane ySplit="1" topLeftCell="U149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W156" sqref="W156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -2235,7 +2423,7 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2247,7 +2435,7 @@
       <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -2259,7 +2447,7 @@
       <c r="M2" s="1">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="11" t="s">
         <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2303,7 +2491,7 @@
       <c r="E3" s="1">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2315,7 +2503,7 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -2327,7 +2515,7 @@
       <c r="M3" s="1">
         <v>1</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2371,7 +2559,7 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2383,7 +2571,7 @@
       <c r="I4" s="1">
         <v>5</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -2395,7 +2583,7 @@
       <c r="M4" s="1">
         <v>14</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="11" t="s">
         <v>47</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -2439,7 +2627,7 @@
       <c r="E5" s="1">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2451,7 +2639,7 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -2463,7 +2651,7 @@
       <c r="M5" s="1">
         <v>1</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -2507,7 +2695,7 @@
       <c r="E6" s="1">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2519,7 +2707,7 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -2531,7 +2719,7 @@
       <c r="M6" s="1">
         <v>1</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -2575,7 +2763,7 @@
       <c r="E7" s="1">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2587,7 +2775,7 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -2599,7 +2787,7 @@
       <c r="M7" s="1">
         <v>1</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -2643,7 +2831,7 @@
       <c r="E8" s="1">
         <v>8</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -2655,7 +2843,7 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -2667,7 +2855,7 @@
       <c r="M8" s="1">
         <v>1</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -2711,7 +2899,7 @@
       <c r="E9" s="1">
         <v>11</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="11" t="s">
         <v>55</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -2723,7 +2911,7 @@
       <c r="I9" s="1">
         <v>4</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="11" t="s">
         <v>57</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -2735,7 +2923,7 @@
       <c r="M9" s="1">
         <v>1</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="11" t="s">
         <v>59</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -2779,7 +2967,7 @@
       <c r="E10" s="1">
         <v>12</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="11" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -2791,7 +2979,7 @@
       <c r="I10" s="1">
         <v>16</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="11" t="s">
         <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -2803,7 +2991,7 @@
       <c r="M10" s="1">
         <v>8</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -2847,7 +3035,7 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -2859,7 +3047,7 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -2871,7 +3059,7 @@
       <c r="M11" s="1">
         <v>3</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="11" t="s">
         <v>70</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -2915,7 +3103,7 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -2927,7 +3115,7 @@
       <c r="I12" s="1">
         <v>5</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -2939,7 +3127,7 @@
       <c r="M12" s="1">
         <v>14</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="11" t="s">
         <v>47</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -2983,7 +3171,7 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2995,7 +3183,7 @@
       <c r="I13" s="1">
         <v>5</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -3007,7 +3195,7 @@
       <c r="M13" s="1">
         <v>14</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="11" t="s">
         <v>47</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -3051,7 +3239,7 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -3063,7 +3251,7 @@
       <c r="I14" s="1">
         <v>5</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -3075,7 +3263,7 @@
       <c r="M14" s="1">
         <v>14</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="11" t="s">
         <v>47</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -3119,7 +3307,7 @@
       <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="11" t="s">
         <v>77</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3131,7 +3319,7 @@
       <c r="I15" s="1">
         <v>2</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="11" t="s">
         <v>79</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -3143,7 +3331,7 @@
       <c r="M15" s="1">
         <v>1</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="11" t="s">
         <v>81</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -3187,7 +3375,7 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3199,7 +3387,7 @@
       <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -3211,7 +3399,7 @@
       <c r="M16" s="1">
         <v>1</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="11" t="s">
         <v>88</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -3255,7 +3443,7 @@
       <c r="E17" s="1">
         <v>5</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -3267,7 +3455,7 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -3279,7 +3467,7 @@
       <c r="M17" s="1">
         <v>1</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="11" t="s">
         <v>88</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -3323,7 +3511,7 @@
       <c r="E18" s="1">
         <v>5</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -3335,7 +3523,7 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -3347,7 +3535,7 @@
       <c r="M18" s="1">
         <v>1</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="11" t="s">
         <v>88</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -3391,7 +3579,7 @@
       <c r="E19" s="1">
         <v>5</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -3403,7 +3591,7 @@
       <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -3415,7 +3603,7 @@
       <c r="M19" s="1">
         <v>1</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="11" t="s">
         <v>88</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -3459,7 +3647,7 @@
       <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -3471,7 +3659,7 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -3483,7 +3671,7 @@
       <c r="M20" s="1">
         <v>1</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="11" t="s">
         <v>88</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -3527,7 +3715,7 @@
       <c r="E21" s="1">
         <v>5</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -3539,7 +3727,7 @@
       <c r="I21" s="1">
         <v>6</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="11" t="s">
         <v>92</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -3551,7 +3739,7 @@
       <c r="M21" s="1">
         <v>1</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="11" t="s">
         <v>94</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -3595,7 +3783,7 @@
       <c r="E22" s="1">
         <v>6</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="11" t="s">
         <v>97</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -3607,7 +3795,7 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="11" t="s">
         <v>99</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -3619,7 +3807,7 @@
       <c r="M22" s="1">
         <v>1</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="11" t="s">
         <v>100</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -3663,7 +3851,7 @@
       <c r="E23" s="1">
         <v>6</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="11" t="s">
         <v>97</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3675,7 +3863,7 @@
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="11" t="s">
         <v>99</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -3687,7 +3875,7 @@
       <c r="M23" s="1">
         <v>1</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="11" t="s">
         <v>100</v>
       </c>
       <c r="O23" s="1" t="s">
@@ -3731,7 +3919,7 @@
       <c r="E24" s="1">
         <v>6</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="11" t="s">
         <v>97</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -3743,7 +3931,7 @@
       <c r="I24" s="1">
         <v>1</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="11" t="s">
         <v>99</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -3755,7 +3943,7 @@
       <c r="M24" s="1">
         <v>1</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="11" t="s">
         <v>100</v>
       </c>
       <c r="O24" s="1" t="s">
@@ -3799,7 +3987,7 @@
       <c r="E25" s="1">
         <v>6</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="11" t="s">
         <v>97</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -3811,7 +3999,7 @@
       <c r="I25" s="1">
         <v>6</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="11" t="s">
         <v>105</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -3823,7 +4011,7 @@
       <c r="M25" s="1">
         <v>3</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="11" t="s">
         <v>107</v>
       </c>
       <c r="O25" s="1" t="s">
@@ -3867,7 +4055,7 @@
       <c r="E26" s="1">
         <v>8</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -3879,7 +4067,7 @@
       <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -3891,7 +4079,7 @@
       <c r="M26" s="1">
         <v>1</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O26" s="1" t="s">
@@ -3935,7 +4123,7 @@
       <c r="E27" s="1">
         <v>8</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -3947,7 +4135,7 @@
       <c r="I27" s="1">
         <v>1</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -3959,7 +4147,7 @@
       <c r="M27" s="1">
         <v>1</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O27" s="1" t="s">
@@ -4003,7 +4191,7 @@
       <c r="E28" s="1">
         <v>8</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -4015,7 +4203,7 @@
       <c r="I28" s="1">
         <v>1</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -4027,7 +4215,7 @@
       <c r="M28" s="1">
         <v>1</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O28" s="1" t="s">
@@ -4071,7 +4259,7 @@
       <c r="E29" s="1">
         <v>8</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -4083,7 +4271,7 @@
       <c r="I29" s="1">
         <v>1</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -4095,7 +4283,7 @@
       <c r="M29" s="1">
         <v>1</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O29" s="1" t="s">
@@ -4139,7 +4327,7 @@
       <c r="E30" s="1">
         <v>8</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -4151,7 +4339,7 @@
       <c r="I30" s="1">
         <v>1</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -4163,7 +4351,7 @@
       <c r="M30" s="1">
         <v>1</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O30" s="1" t="s">
@@ -4207,7 +4395,7 @@
       <c r="E31" s="1">
         <v>8</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -4219,7 +4407,7 @@
       <c r="I31" s="1">
         <v>1</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -4231,7 +4419,7 @@
       <c r="M31" s="1">
         <v>1</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O31" s="1" t="s">
@@ -4275,7 +4463,7 @@
       <c r="E32" s="1">
         <v>8</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -4287,7 +4475,7 @@
       <c r="I32" s="1">
         <v>1</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -4299,7 +4487,7 @@
       <c r="M32" s="1">
         <v>1</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O32" s="1" t="s">
@@ -4343,7 +4531,7 @@
       <c r="E33" s="1">
         <v>8</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -4355,7 +4543,7 @@
       <c r="I33" s="1">
         <v>1</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -4367,7 +4555,7 @@
       <c r="M33" s="1">
         <v>1</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O33" s="1" t="s">
@@ -4411,7 +4599,7 @@
       <c r="E34" s="1">
         <v>8</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -4423,7 +4611,7 @@
       <c r="I34" s="1">
         <v>1</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -4435,7 +4623,7 @@
       <c r="M34" s="1">
         <v>1</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O34" s="1" t="s">
@@ -4479,7 +4667,7 @@
       <c r="E35" s="1">
         <v>8</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -4491,7 +4679,7 @@
       <c r="I35" s="1">
         <v>1</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -4503,7 +4691,7 @@
       <c r="M35" s="1">
         <v>1</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O35" s="1" t="s">
@@ -4547,7 +4735,7 @@
       <c r="E36" s="1">
         <v>8</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -4559,7 +4747,7 @@
       <c r="I36" s="1">
         <v>1</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -4571,7 +4759,7 @@
       <c r="M36" s="1">
         <v>1</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O36" s="1" t="s">
@@ -4615,7 +4803,7 @@
       <c r="E37" s="1">
         <v>8</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -4627,7 +4815,7 @@
       <c r="I37" s="1">
         <v>1</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K37" s="1" t="s">
@@ -4639,7 +4827,7 @@
       <c r="M37" s="1">
         <v>1</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N37" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O37" s="1" t="s">
@@ -4683,7 +4871,7 @@
       <c r="E38" s="1">
         <v>8</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -4695,7 +4883,7 @@
       <c r="I38" s="1">
         <v>1</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -4707,7 +4895,7 @@
       <c r="M38" s="1">
         <v>1</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="N38" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O38" s="1" t="s">
@@ -4751,7 +4939,7 @@
       <c r="E39" s="1">
         <v>8</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -4763,7 +4951,7 @@
       <c r="I39" s="1">
         <v>1</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -4775,7 +4963,7 @@
       <c r="M39" s="1">
         <v>11</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" s="11" t="s">
         <v>123</v>
       </c>
       <c r="O39" s="1" t="s">
@@ -4819,7 +5007,7 @@
       <c r="E40" s="1">
         <v>8</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -4831,7 +5019,7 @@
       <c r="I40" s="1">
         <v>6</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K40" s="1" t="s">
@@ -4843,7 +5031,7 @@
       <c r="M40" s="1">
         <v>1</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" s="11" t="s">
         <v>128</v>
       </c>
       <c r="O40" s="1" t="s">
@@ -4887,7 +5075,7 @@
       <c r="E41" s="1">
         <v>8</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -4899,7 +5087,7 @@
       <c r="I41" s="1">
         <v>6</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K41" s="1" t="s">
@@ -4911,7 +5099,7 @@
       <c r="M41" s="1">
         <v>1</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" s="11" t="s">
         <v>128</v>
       </c>
       <c r="O41" s="1" t="s">
@@ -4955,7 +5143,7 @@
       <c r="E42" s="1">
         <v>8</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -4967,7 +5155,7 @@
       <c r="I42" s="1">
         <v>6</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K42" s="1" t="s">
@@ -4979,7 +5167,7 @@
       <c r="M42" s="1">
         <v>1</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N42" s="11" t="s">
         <v>128</v>
       </c>
       <c r="O42" s="1" t="s">
@@ -5023,7 +5211,7 @@
       <c r="E43" s="1">
         <v>10</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="11" t="s">
         <v>133</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -5035,7 +5223,7 @@
       <c r="I43" s="1">
         <v>7</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="11" t="s">
         <v>135</v>
       </c>
       <c r="K43" s="1" t="s">
@@ -5047,7 +5235,7 @@
       <c r="M43" s="1">
         <v>1</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" s="11" t="s">
         <v>137</v>
       </c>
       <c r="O43" s="1" t="s">
@@ -5091,7 +5279,7 @@
       <c r="E44" s="1">
         <v>10</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="11" t="s">
         <v>133</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -5103,7 +5291,7 @@
       <c r="I44" s="1">
         <v>7</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="11" t="s">
         <v>135</v>
       </c>
       <c r="K44" s="1" t="s">
@@ -5115,7 +5303,7 @@
       <c r="M44" s="1">
         <v>1</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N44" s="11" t="s">
         <v>137</v>
       </c>
       <c r="O44" s="1" t="s">
@@ -5159,7 +5347,7 @@
       <c r="E45" s="1">
         <v>10</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="11" t="s">
         <v>133</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -5171,7 +5359,7 @@
       <c r="I45" s="1">
         <v>7</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="11" t="s">
         <v>135</v>
       </c>
       <c r="K45" s="1" t="s">
@@ -5183,7 +5371,7 @@
       <c r="M45" s="1">
         <v>1</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="N45" s="11" t="s">
         <v>137</v>
       </c>
       <c r="O45" s="1" t="s">
@@ -5227,7 +5415,7 @@
       <c r="E46" s="1">
         <v>10</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="11" t="s">
         <v>133</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -5239,7 +5427,7 @@
       <c r="I46" s="1">
         <v>7</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="11" t="s">
         <v>135</v>
       </c>
       <c r="K46" s="1" t="s">
@@ -5251,7 +5439,7 @@
       <c r="M46" s="1">
         <v>1</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N46" s="11" t="s">
         <v>137</v>
       </c>
       <c r="O46" s="1" t="s">
@@ -5295,7 +5483,7 @@
       <c r="E47" s="1">
         <v>13</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="11" t="s">
         <v>142</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -5307,7 +5495,7 @@
       <c r="I47" s="1">
         <v>1</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="11" t="s">
         <v>144</v>
       </c>
       <c r="K47" s="1" t="s">
@@ -5319,7 +5507,7 @@
       <c r="M47" s="1">
         <v>1</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="N47" s="11" t="s">
         <v>146</v>
       </c>
       <c r="O47" s="1" t="s">
@@ -5363,7 +5551,7 @@
       <c r="E48" s="1">
         <v>13</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="11" t="s">
         <v>142</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -5375,7 +5563,7 @@
       <c r="I48" s="1">
         <v>11</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="11" t="s">
         <v>149</v>
       </c>
       <c r="K48" s="1" t="s">
@@ -5387,7 +5575,7 @@
       <c r="M48" s="1">
         <v>1</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="N48" s="11" t="s">
         <v>151</v>
       </c>
       <c r="O48" s="1" t="s">
@@ -5431,7 +5619,7 @@
       <c r="E49" s="1">
         <v>15</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="11" t="s">
         <v>154</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -5443,7 +5631,7 @@
       <c r="I49" s="1">
         <v>5</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="11" t="s">
         <v>156</v>
       </c>
       <c r="K49" s="1" t="s">
@@ -5455,7 +5643,7 @@
       <c r="M49" s="1">
         <v>1</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="N49" s="11" t="s">
         <v>158</v>
       </c>
       <c r="O49" s="1" t="s">
@@ -5499,7 +5687,7 @@
       <c r="E50" s="1">
         <v>18</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="11" t="s">
         <v>161</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -5511,7 +5699,7 @@
       <c r="I50" s="1">
         <v>4</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="11" t="s">
         <v>163</v>
       </c>
       <c r="K50" s="1" t="s">
@@ -5523,7 +5711,7 @@
       <c r="M50" s="1">
         <v>1</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="N50" s="11" t="s">
         <v>165</v>
       </c>
       <c r="O50" s="1" t="s">
@@ -5567,7 +5755,7 @@
       <c r="E51" s="1">
         <v>18</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="11" t="s">
         <v>161</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -5579,7 +5767,7 @@
       <c r="I51" s="1">
         <v>6</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="11" t="s">
         <v>168</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -5591,7 +5779,7 @@
       <c r="M51" s="1">
         <v>1</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="N51" s="11" t="s">
         <v>170</v>
       </c>
       <c r="O51" s="1" t="s">
@@ -5635,7 +5823,7 @@
       <c r="E52" s="1">
         <v>18</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="11" t="s">
         <v>161</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -5647,7 +5835,7 @@
       <c r="I52" s="1">
         <v>6</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="11" t="s">
         <v>168</v>
       </c>
       <c r="K52" s="1" t="s">
@@ -5659,7 +5847,7 @@
       <c r="M52" s="1">
         <v>1</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="N52" s="11" t="s">
         <v>170</v>
       </c>
       <c r="O52" s="1" t="s">
@@ -5703,7 +5891,7 @@
       <c r="E53" s="1">
         <v>18</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="11" t="s">
         <v>161</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -5715,7 +5903,7 @@
       <c r="I53" s="1">
         <v>6</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="11" t="s">
         <v>168</v>
       </c>
       <c r="K53" s="1" t="s">
@@ -5727,7 +5915,7 @@
       <c r="M53" s="1">
         <v>1</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="N53" s="11" t="s">
         <v>170</v>
       </c>
       <c r="O53" s="1" t="s">
@@ -5771,7 +5959,7 @@
       <c r="E54" s="1">
         <v>18</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="11" t="s">
         <v>161</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -5783,7 +5971,7 @@
       <c r="I54" s="1">
         <v>6</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="11" t="s">
         <v>168</v>
       </c>
       <c r="K54" s="1" t="s">
@@ -5795,7 +5983,7 @@
       <c r="M54" s="1">
         <v>1</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" s="11" t="s">
         <v>170</v>
       </c>
       <c r="O54" s="1" t="s">
@@ -5839,7 +6027,7 @@
       <c r="E55" s="1">
         <v>1</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -5851,7 +6039,7 @@
       <c r="I55" s="1">
         <v>1</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -5863,7 +6051,7 @@
       <c r="M55" s="1">
         <v>1</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="N55" s="11" t="s">
         <v>178</v>
       </c>
       <c r="O55" s="1" t="s">
@@ -5907,7 +6095,7 @@
       <c r="E56" s="1">
         <v>2</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="11" t="s">
         <v>181</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -5919,7 +6107,7 @@
       <c r="I56" s="1">
         <v>8</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="11" t="s">
         <v>183</v>
       </c>
       <c r="K56" s="1" t="s">
@@ -5931,7 +6119,7 @@
       <c r="M56" s="1">
         <v>1</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="N56" s="11" t="s">
         <v>185</v>
       </c>
       <c r="O56" s="1" t="s">
@@ -5975,7 +6163,7 @@
       <c r="E57" s="1">
         <v>3</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="11" t="s">
         <v>188</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -5987,7 +6175,7 @@
       <c r="I57" s="1">
         <v>18</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="11" t="s">
         <v>190</v>
       </c>
       <c r="K57" s="1" t="s">
@@ -5999,7 +6187,7 @@
       <c r="M57" s="1">
         <v>1</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="N57" s="11" t="s">
         <v>192</v>
       </c>
       <c r="O57" s="1" t="s">
@@ -6043,7 +6231,7 @@
       <c r="E58" s="1">
         <v>4</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="11" t="s">
         <v>77</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -6055,7 +6243,7 @@
       <c r="I58" s="1">
         <v>4</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="11" t="s">
         <v>195</v>
       </c>
       <c r="K58" s="1" t="s">
@@ -6067,7 +6255,7 @@
       <c r="M58" s="1">
         <v>1</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="N58" s="11" t="s">
         <v>197</v>
       </c>
       <c r="O58" s="1" t="s">
@@ -6111,7 +6299,7 @@
       <c r="E59" s="1">
         <v>5</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -6123,7 +6311,7 @@
       <c r="I59" s="1">
         <v>1</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K59" s="1" t="s">
@@ -6135,7 +6323,7 @@
       <c r="M59" s="1">
         <v>1</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="N59" s="11" t="s">
         <v>88</v>
       </c>
       <c r="O59" s="1" t="s">
@@ -6179,7 +6367,7 @@
       <c r="E60" s="1">
         <v>5</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -6191,7 +6379,7 @@
       <c r="I60" s="1">
         <v>1</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K60" s="1" t="s">
@@ -6203,7 +6391,7 @@
       <c r="M60" s="1">
         <v>1</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="N60" s="11" t="s">
         <v>88</v>
       </c>
       <c r="O60" s="1" t="s">
@@ -6247,7 +6435,7 @@
       <c r="E61" s="1">
         <v>5</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -6259,7 +6447,7 @@
       <c r="I61" s="1">
         <v>1</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K61" s="1" t="s">
@@ -6271,7 +6459,7 @@
       <c r="M61" s="1">
         <v>1</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="N61" s="11" t="s">
         <v>88</v>
       </c>
       <c r="O61" s="1" t="s">
@@ -6315,7 +6503,7 @@
       <c r="E62" s="1">
         <v>5</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -6327,7 +6515,7 @@
       <c r="I62" s="1">
         <v>1</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K62" s="1" t="s">
@@ -6339,7 +6527,7 @@
       <c r="M62" s="1">
         <v>1</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="N62" s="11" t="s">
         <v>88</v>
       </c>
       <c r="O62" s="1" t="s">
@@ -6383,7 +6571,7 @@
       <c r="E63" s="1">
         <v>8</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -6395,7 +6583,7 @@
       <c r="I63" s="1">
         <v>1</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K63" s="1" t="s">
@@ -6407,7 +6595,7 @@
       <c r="M63" s="1">
         <v>1</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="N63" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O63" s="1" t="s">
@@ -6451,7 +6639,7 @@
       <c r="E64" s="1">
         <v>8</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -6463,7 +6651,7 @@
       <c r="I64" s="1">
         <v>1</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K64" s="1" t="s">
@@ -6475,7 +6663,7 @@
       <c r="M64" s="1">
         <v>1</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="N64" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O64" s="1" t="s">
@@ -6519,7 +6707,7 @@
       <c r="E65" s="1">
         <v>8</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -6531,7 +6719,7 @@
       <c r="I65" s="1">
         <v>1</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K65" s="1" t="s">
@@ -6543,7 +6731,7 @@
       <c r="M65" s="1">
         <v>1</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="N65" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O65" s="1" t="s">
@@ -6587,7 +6775,7 @@
       <c r="E66" s="1">
         <v>8</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -6599,7 +6787,7 @@
       <c r="I66" s="1">
         <v>1</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K66" s="1" t="s">
@@ -6611,7 +6799,7 @@
       <c r="M66" s="1">
         <v>1</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="N66" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O66" s="1" t="s">
@@ -6655,7 +6843,7 @@
       <c r="E67" s="1">
         <v>8</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -6667,7 +6855,7 @@
       <c r="I67" s="1">
         <v>1</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K67" s="1" t="s">
@@ -6679,7 +6867,7 @@
       <c r="M67" s="1">
         <v>1</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="N67" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O67" s="1" t="s">
@@ -6723,7 +6911,7 @@
       <c r="E68" s="1">
         <v>8</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -6735,7 +6923,7 @@
       <c r="I68" s="1">
         <v>1</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K68" s="1" t="s">
@@ -6747,7 +6935,7 @@
       <c r="M68" s="1">
         <v>1</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="N68" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O68" s="1" t="s">
@@ -6791,7 +6979,7 @@
       <c r="E69" s="1">
         <v>8</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -6800,10 +6988,10 @@
       <c r="H69" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I69" s="1">
-        <v>1</v>
-      </c>
-      <c r="J69" s="1" t="s">
+      <c r="I69" s="9">
+        <v>1</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K69" s="1" t="s">
@@ -6815,7 +7003,7 @@
       <c r="M69" s="1">
         <v>1</v>
       </c>
-      <c r="N69" s="1" t="s">
+      <c r="N69" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O69" s="1" t="s">
@@ -6859,7 +7047,7 @@
       <c r="E70" s="1">
         <v>8</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -6871,7 +7059,7 @@
       <c r="I70" s="1">
         <v>1</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K70" s="1" t="s">
@@ -6883,7 +7071,7 @@
       <c r="M70" s="1">
         <v>1</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="N70" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O70" s="1" t="s">
@@ -6927,7 +7115,7 @@
       <c r="E71" s="1">
         <v>8</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -6939,7 +7127,7 @@
       <c r="I71" s="1">
         <v>1</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K71" s="1" t="s">
@@ -6951,7 +7139,7 @@
       <c r="M71" s="1">
         <v>1</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="N71" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O71" s="1" t="s">
@@ -6995,7 +7183,7 @@
       <c r="E72" s="1">
         <v>8</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -7007,7 +7195,7 @@
       <c r="I72" s="1">
         <v>1</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K72" s="1" t="s">
@@ -7019,7 +7207,7 @@
       <c r="M72" s="1">
         <v>1</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="N72" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O72" s="1" t="s">
@@ -7063,7 +7251,7 @@
       <c r="E73" s="1">
         <v>8</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -7075,7 +7263,7 @@
       <c r="I73" s="1">
         <v>1</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K73" s="1" t="s">
@@ -7087,7 +7275,7 @@
       <c r="M73" s="1">
         <v>1</v>
       </c>
-      <c r="N73" s="1" t="s">
+      <c r="N73" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O73" s="1" t="s">
@@ -7131,7 +7319,7 @@
       <c r="E74" s="1">
         <v>8</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -7143,7 +7331,7 @@
       <c r="I74" s="1">
         <v>1</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K74" s="1" t="s">
@@ -7155,7 +7343,7 @@
       <c r="M74" s="1">
         <v>1</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="N74" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O74" s="1" t="s">
@@ -7199,7 +7387,7 @@
       <c r="E75" s="1">
         <v>8</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -7211,7 +7399,7 @@
       <c r="I75" s="1">
         <v>26</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" s="11" t="s">
         <v>214</v>
       </c>
       <c r="K75" s="1" t="s">
@@ -7223,7 +7411,7 @@
       <c r="M75" s="1">
         <v>1</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="N75" s="11" t="s">
         <v>216</v>
       </c>
       <c r="O75" s="1" t="s">
@@ -7267,7 +7455,7 @@
       <c r="E76" s="1">
         <v>10</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="11" t="s">
         <v>133</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -7279,7 +7467,7 @@
       <c r="I76" s="1">
         <v>6</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" s="11" t="s">
         <v>219</v>
       </c>
       <c r="K76" s="1" t="s">
@@ -7291,7 +7479,7 @@
       <c r="M76" s="1">
         <v>1</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="N76" s="11" t="s">
         <v>220</v>
       </c>
       <c r="O76" s="1" t="s">
@@ -7335,7 +7523,7 @@
       <c r="E77" s="1">
         <v>10</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="11" t="s">
         <v>133</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -7347,7 +7535,7 @@
       <c r="I77" s="1">
         <v>13</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" s="11" t="s">
         <v>223</v>
       </c>
       <c r="K77" s="1" t="s">
@@ -7359,7 +7547,7 @@
       <c r="M77" s="1">
         <v>4</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="N77" s="11" t="s">
         <v>225</v>
       </c>
       <c r="O77" s="1" t="s">
@@ -7403,7 +7591,7 @@
       <c r="E78" s="1">
         <v>11</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="11" t="s">
         <v>55</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -7415,7 +7603,7 @@
       <c r="I78" s="1">
         <v>1</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J78" s="11" t="s">
         <v>229</v>
       </c>
       <c r="K78" s="1" t="s">
@@ -7427,7 +7615,7 @@
       <c r="M78" s="1">
         <v>7</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="N78" s="11" t="s">
         <v>231</v>
       </c>
       <c r="O78" s="1" t="s">
@@ -7471,7 +7659,7 @@
       <c r="E79" s="1">
         <v>11</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="11" t="s">
         <v>55</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -7483,7 +7671,7 @@
       <c r="I79" s="1">
         <v>4</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" s="11" t="s">
         <v>57</v>
       </c>
       <c r="K79" s="1" t="s">
@@ -7495,7 +7683,7 @@
       <c r="M79" s="1">
         <v>1</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="N79" s="11" t="s">
         <v>59</v>
       </c>
       <c r="O79" s="1" t="s">
@@ -7539,7 +7727,7 @@
       <c r="E80" s="1">
         <v>11</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="11" t="s">
         <v>55</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -7551,7 +7739,7 @@
       <c r="I80" s="1">
         <v>4</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" s="11" t="s">
         <v>57</v>
       </c>
       <c r="K80" s="1" t="s">
@@ -7563,7 +7751,7 @@
       <c r="M80" s="1">
         <v>1</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="N80" s="11" t="s">
         <v>59</v>
       </c>
       <c r="O80" s="1" t="s">
@@ -7607,7 +7795,7 @@
       <c r="E81" s="1">
         <v>16</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="11" t="s">
         <v>237</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -7619,7 +7807,7 @@
       <c r="I81" s="1">
         <v>17</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" s="11" t="s">
         <v>239</v>
       </c>
       <c r="K81" s="1" t="s">
@@ -7631,7 +7819,7 @@
       <c r="M81" s="1">
         <v>23</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="N81" s="11" t="s">
         <v>241</v>
       </c>
       <c r="O81" s="1" t="s">
@@ -7675,7 +7863,7 @@
       <c r="E82" s="1">
         <v>18</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="11" t="s">
         <v>161</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -7687,7 +7875,7 @@
       <c r="I82" s="1">
         <v>4</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J82" s="11" t="s">
         <v>163</v>
       </c>
       <c r="K82" s="1" t="s">
@@ -7699,7 +7887,7 @@
       <c r="M82" s="1">
         <v>1</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="N82" s="11" t="s">
         <v>165</v>
       </c>
       <c r="O82" s="1" t="s">
@@ -7743,7 +7931,7 @@
       <c r="E83" s="1">
         <v>18</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="11" t="s">
         <v>161</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -7755,7 +7943,7 @@
       <c r="I83" s="1">
         <v>4</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J83" s="11" t="s">
         <v>163</v>
       </c>
       <c r="K83" s="1" t="s">
@@ -7767,7 +7955,7 @@
       <c r="M83" s="1">
         <v>1</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="N83" s="11" t="s">
         <v>165</v>
       </c>
       <c r="O83" s="1" t="s">
@@ -7808,7 +7996,7 @@
       <c r="E84" s="1">
         <v>8</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -7820,7 +8008,7 @@
       <c r="I84" s="7">
         <v>1</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="J84" s="10" t="s">
         <v>40</v>
       </c>
       <c r="K84" s="1" t="s">
@@ -7832,7 +8020,7 @@
       <c r="M84" s="1">
         <v>1</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="N84" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O84" s="1" t="s">
@@ -7876,7 +8064,7 @@
       <c r="E85" s="1">
         <v>8</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -7888,7 +8076,7 @@
       <c r="I85" s="7">
         <v>1</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="10" t="s">
         <v>40</v>
       </c>
       <c r="K85" s="1" t="s">
@@ -7900,7 +8088,7 @@
       <c r="M85" s="1">
         <v>1</v>
       </c>
-      <c r="N85" s="1" t="s">
+      <c r="N85" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O85" s="1" t="s">
@@ -7944,7 +8132,7 @@
       <c r="E86" s="7">
         <v>7</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="10" t="s">
         <v>250</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -7956,7 +8144,7 @@
       <c r="I86" s="7">
         <v>3</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J86" s="10" t="s">
         <v>252</v>
       </c>
       <c r="K86" s="1" t="s">
@@ -7965,6 +8153,7 @@
       <c r="L86" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N86" s="11"/>
       <c r="O86" s="1" t="s">
         <v>253</v>
       </c>
@@ -8006,7 +8195,7 @@
       <c r="E87" s="1">
         <v>11</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="11" t="s">
         <v>55</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -8018,7 +8207,7 @@
       <c r="I87" s="7">
         <v>1</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="J87" s="10" t="s">
         <v>229</v>
       </c>
       <c r="K87" s="1" t="s">
@@ -8027,6 +8216,7 @@
       <c r="L87" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N87" s="11"/>
       <c r="O87" s="1" t="s">
         <v>230</v>
       </c>
@@ -8068,7 +8258,7 @@
       <c r="E88" s="1">
         <v>5</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -8080,7 +8270,7 @@
       <c r="I88" s="7">
         <v>1</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="J88" s="10" t="s">
         <v>86</v>
       </c>
       <c r="K88" s="1" t="s">
@@ -8092,7 +8282,7 @@
       <c r="M88" s="1">
         <v>1</v>
       </c>
-      <c r="N88" s="1" t="s">
+      <c r="N88" s="11" t="s">
         <v>88</v>
       </c>
       <c r="O88" s="1" t="s">
@@ -8136,7 +8326,7 @@
       <c r="E89" s="1">
         <v>5</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -8148,7 +8338,7 @@
       <c r="I89" s="7">
         <v>1</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="J89" s="10" t="s">
         <v>86</v>
       </c>
       <c r="K89" s="1" t="s">
@@ -8160,7 +8350,7 @@
       <c r="M89" s="1">
         <v>1</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="N89" s="11" t="s">
         <v>88</v>
       </c>
       <c r="O89" s="1" t="s">
@@ -8204,7 +8394,7 @@
       <c r="E90" s="1">
         <v>5</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -8216,7 +8406,7 @@
       <c r="I90" s="7">
         <v>6</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="J90" s="10" t="s">
         <v>92</v>
       </c>
       <c r="K90" s="1" t="s">
@@ -8228,7 +8418,7 @@
       <c r="M90" s="1">
         <v>1</v>
       </c>
-      <c r="N90" s="1" t="s">
+      <c r="N90" s="11" t="s">
         <v>94</v>
       </c>
       <c r="O90" s="1" t="s">
@@ -8272,7 +8462,7 @@
       <c r="E91" s="1">
         <v>6</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="11" t="s">
         <v>97</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -8284,7 +8474,7 @@
       <c r="I91" s="1">
         <v>1</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J91" s="11" t="s">
         <v>99</v>
       </c>
       <c r="K91" s="1" t="s">
@@ -8296,7 +8486,7 @@
       <c r="M91" s="1">
         <v>1</v>
       </c>
-      <c r="N91" s="1" t="s">
+      <c r="N91" s="11" t="s">
         <v>100</v>
       </c>
       <c r="O91" s="1" t="s">
@@ -8340,7 +8530,7 @@
       <c r="E92" s="1">
         <v>1</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -8352,7 +8542,7 @@
       <c r="I92" s="7">
         <v>1</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="J92" s="10" t="s">
         <v>28</v>
       </c>
       <c r="K92" s="1" t="s">
@@ -8361,6 +8551,7 @@
       <c r="L92" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N92" s="11"/>
       <c r="O92" s="1" t="s">
         <v>29</v>
       </c>
@@ -8402,7 +8593,7 @@
       <c r="E93" s="1">
         <v>4</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="11">
         <v>4</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -8414,7 +8605,7 @@
       <c r="I93" s="7">
         <v>1</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="J93" s="10" t="s">
         <v>263</v>
       </c>
       <c r="K93" s="1" t="s">
@@ -8423,6 +8614,7 @@
       <c r="L93" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N93" s="11"/>
       <c r="O93" s="1" t="s">
         <v>264</v>
       </c>
@@ -8464,7 +8656,7 @@
       <c r="E94" s="1">
         <v>2</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="11">
         <v>2</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -8476,7 +8668,7 @@
       <c r="I94" s="7">
         <v>1</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="J94" s="10" t="s">
         <v>267</v>
       </c>
       <c r="K94" s="1" t="s">
@@ -8485,6 +8677,7 @@
       <c r="L94" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N94" s="11"/>
       <c r="O94" s="1" t="s">
         <v>268</v>
       </c>
@@ -8526,7 +8719,7 @@
       <c r="E95" s="1">
         <v>14</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" s="11">
         <v>14</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -8538,7 +8731,7 @@
       <c r="I95" s="7">
         <v>13</v>
       </c>
-      <c r="J95" s="7" t="s">
+      <c r="J95" s="10" t="s">
         <v>272</v>
       </c>
       <c r="K95" s="1" t="s">
@@ -8547,6 +8740,7 @@
       <c r="L95" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N95" s="11"/>
       <c r="O95" s="1" t="s">
         <v>273</v>
       </c>
@@ -8588,7 +8782,7 @@
       <c r="E96" s="7">
         <v>17</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="10" t="s">
         <v>276</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -8600,7 +8794,7 @@
       <c r="I96" s="7">
         <v>9</v>
       </c>
-      <c r="J96" s="7" t="s">
+      <c r="J96" s="10" t="s">
         <v>278</v>
       </c>
       <c r="K96" s="1" t="s">
@@ -8609,6 +8803,7 @@
       <c r="L96" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N96" s="11"/>
       <c r="O96" s="1" t="s">
         <v>279</v>
       </c>
@@ -8650,7 +8845,7 @@
       <c r="E97" s="7">
         <v>9</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="10" t="s">
         <v>282</v>
       </c>
       <c r="G97" s="1" t="s">
@@ -8662,7 +8857,7 @@
       <c r="I97" s="7">
         <v>1</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="J97" s="10" t="s">
         <v>284</v>
       </c>
       <c r="K97" s="1" t="s">
@@ -8671,6 +8866,13 @@
       <c r="L97" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N97" s="11"/>
+      <c r="P97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S97" s="1" t="s">
         <v>246</v>
       </c>
@@ -8697,7 +8899,7 @@
       <c r="E98" s="7">
         <v>15</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="10" t="s">
         <v>154</v>
       </c>
       <c r="G98" s="1" t="s">
@@ -8709,7 +8911,7 @@
       <c r="I98" s="7">
         <v>1</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="J98" s="10" t="s">
         <v>287</v>
       </c>
       <c r="K98" s="1" t="s">
@@ -8718,6 +8920,13 @@
       <c r="L98" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N98" s="11"/>
+      <c r="P98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S98" s="1" t="s">
         <v>179</v>
       </c>
@@ -8744,7 +8953,7 @@
       <c r="E99" s="7">
         <v>15</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="10" t="s">
         <v>154</v>
       </c>
       <c r="G99" s="1" t="s">
@@ -8756,7 +8965,7 @@
       <c r="I99" s="7">
         <v>1</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="J99" s="10" t="s">
         <v>287</v>
       </c>
       <c r="K99" s="1" t="s">
@@ -8765,6 +8974,13 @@
       <c r="L99" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N99" s="11"/>
+      <c r="P99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S99" s="1" t="s">
         <v>179</v>
       </c>
@@ -8791,7 +9007,7 @@
       <c r="E100" s="7">
         <v>15</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="10" t="s">
         <v>154</v>
       </c>
       <c r="G100" s="1" t="s">
@@ -8803,7 +9019,7 @@
       <c r="I100" s="7">
         <v>3</v>
       </c>
-      <c r="J100" s="7" t="s">
+      <c r="J100" s="10" t="s">
         <v>291</v>
       </c>
       <c r="K100" s="1" t="s">
@@ -8812,6 +9028,13 @@
       <c r="L100" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N100" s="11"/>
+      <c r="P100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S100" s="1" t="s">
         <v>179</v>
       </c>
@@ -8838,7 +9061,7 @@
       <c r="E101" s="7">
         <v>15</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="10" t="s">
         <v>154</v>
       </c>
       <c r="G101" s="1" t="s">
@@ -8850,7 +9073,7 @@
       <c r="I101" s="7">
         <v>3</v>
       </c>
-      <c r="J101" s="7" t="s">
+      <c r="J101" s="10" t="s">
         <v>291</v>
       </c>
       <c r="K101" s="1" t="s">
@@ -8859,6 +9082,13 @@
       <c r="L101" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N101" s="11"/>
+      <c r="P101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S101" s="1" t="s">
         <v>72</v>
       </c>
@@ -8885,7 +9115,7 @@
       <c r="E102" s="7">
         <v>15</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="10" t="s">
         <v>154</v>
       </c>
       <c r="G102" s="1" t="s">
@@ -8897,7 +9127,7 @@
       <c r="I102" s="7">
         <v>3</v>
       </c>
-      <c r="J102" s="7" t="s">
+      <c r="J102" s="10" t="s">
         <v>291</v>
       </c>
       <c r="K102" s="1" t="s">
@@ -8906,6 +9136,13 @@
       <c r="L102" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N102" s="11"/>
+      <c r="P102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S102" s="1" t="s">
         <v>72</v>
       </c>
@@ -8932,7 +9169,7 @@
       <c r="E103" s="7">
         <v>12</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G103" s="1" t="s">
@@ -8944,7 +9181,7 @@
       <c r="I103" s="7">
         <v>6</v>
       </c>
-      <c r="J103" s="7" t="s">
+      <c r="J103" s="10" t="s">
         <v>295</v>
       </c>
       <c r="K103" s="1" t="s">
@@ -8953,6 +9190,13 @@
       <c r="L103" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N103" s="11"/>
+      <c r="P103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S103" s="1" t="s">
         <v>297</v>
       </c>
@@ -8979,7 +9223,7 @@
       <c r="E104" s="7">
         <v>12</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G104" s="1" t="s">
@@ -8991,7 +9235,7 @@
       <c r="I104" s="7">
         <v>8</v>
       </c>
-      <c r="J104" s="7" t="s">
+      <c r="J104" s="10" t="s">
         <v>299</v>
       </c>
       <c r="K104" s="1" t="s">
@@ -9000,6 +9244,13 @@
       <c r="L104" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N104" s="11"/>
+      <c r="P104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S104" s="1" t="s">
         <v>297</v>
       </c>
@@ -9026,7 +9277,7 @@
       <c r="E105" s="7">
         <v>12</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G105" s="1" t="s">
@@ -9038,7 +9289,7 @@
       <c r="I105" s="7">
         <v>12</v>
       </c>
-      <c r="J105" s="7" t="s">
+      <c r="J105" s="10" t="s">
         <v>302</v>
       </c>
       <c r="K105" s="1" t="s">
@@ -9047,6 +9298,13 @@
       <c r="L105" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N105" s="11"/>
+      <c r="P105" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S105" s="1" t="s">
         <v>297</v>
       </c>
@@ -9073,7 +9331,7 @@
       <c r="E106" s="7">
         <v>12</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G106" s="1" t="s">
@@ -9085,7 +9343,7 @@
       <c r="I106" s="7">
         <v>1</v>
       </c>
-      <c r="J106" s="7" t="s">
+      <c r="J106" s="10" t="s">
         <v>304</v>
       </c>
       <c r="K106" s="1" t="s">
@@ -9094,6 +9352,13 @@
       <c r="L106" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N106" s="11"/>
+      <c r="P106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S106" s="1" t="s">
         <v>179</v>
       </c>
@@ -9120,7 +9385,7 @@
       <c r="E107" s="7">
         <v>12</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G107" s="1" t="s">
@@ -9132,7 +9397,7 @@
       <c r="I107" s="7">
         <v>1</v>
       </c>
-      <c r="J107" s="7" t="s">
+      <c r="J107" s="10" t="s">
         <v>304</v>
       </c>
       <c r="K107" s="1" t="s">
@@ -9141,6 +9406,13 @@
       <c r="L107" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N107" s="11"/>
+      <c r="P107" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S107" s="1" t="s">
         <v>179</v>
       </c>
@@ -9167,7 +9439,7 @@
       <c r="E108" s="7">
         <v>3</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="10" t="s">
         <v>188</v>
       </c>
       <c r="G108" s="1" t="s">
@@ -9179,7 +9451,7 @@
       <c r="I108" s="7">
         <v>1</v>
       </c>
-      <c r="J108" s="7" t="s">
+      <c r="J108" s="10" t="s">
         <v>307</v>
       </c>
       <c r="K108" s="1" t="s">
@@ -9188,6 +9460,13 @@
       <c r="L108" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N108" s="11"/>
+      <c r="P108" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S108" s="1" t="s">
         <v>179</v>
       </c>
@@ -9214,7 +9493,7 @@
       <c r="E109" s="7">
         <v>3</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" s="10" t="s">
         <v>188</v>
       </c>
       <c r="G109" s="1" t="s">
@@ -9226,7 +9505,7 @@
       <c r="I109" s="7">
         <v>1</v>
       </c>
-      <c r="J109" s="7" t="s">
+      <c r="J109" s="10" t="s">
         <v>307</v>
       </c>
       <c r="K109" s="1" t="s">
@@ -9235,6 +9514,13 @@
       <c r="L109" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N109" s="11"/>
+      <c r="P109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S109" s="1" t="s">
         <v>179</v>
       </c>
@@ -9261,7 +9547,7 @@
       <c r="E110" s="7">
         <v>3</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="10" t="s">
         <v>188</v>
       </c>
       <c r="G110" s="1" t="s">
@@ -9273,7 +9559,7 @@
       <c r="I110" s="7">
         <v>1</v>
       </c>
-      <c r="J110" s="7" t="s">
+      <c r="J110" s="10" t="s">
         <v>307</v>
       </c>
       <c r="K110" s="1" t="s">
@@ -9282,6 +9568,13 @@
       <c r="L110" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N110" s="11"/>
+      <c r="P110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S110" s="1" t="s">
         <v>179</v>
       </c>
@@ -9308,7 +9601,7 @@
       <c r="E111" s="7">
         <v>3</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="10" t="s">
         <v>188</v>
       </c>
       <c r="G111" s="1" t="s">
@@ -9320,7 +9613,7 @@
       <c r="I111" s="7">
         <v>18</v>
       </c>
-      <c r="J111" s="7" t="s">
+      <c r="J111" s="10" t="s">
         <v>190</v>
       </c>
       <c r="K111" s="1" t="s">
@@ -9329,6 +9622,13 @@
       <c r="L111" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N111" s="11"/>
+      <c r="P111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S111" s="1" t="s">
         <v>179</v>
       </c>
@@ -9355,7 +9655,7 @@
       <c r="E112" s="7">
         <v>10</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="10" t="s">
         <v>133</v>
       </c>
       <c r="G112" s="1" t="s">
@@ -9367,7 +9667,7 @@
       <c r="I112" s="7">
         <v>1</v>
       </c>
-      <c r="J112" s="7" t="s">
+      <c r="J112" s="10" t="s">
         <v>311</v>
       </c>
       <c r="K112" s="1" t="s">
@@ -9376,6 +9676,13 @@
       <c r="L112" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N112" s="11"/>
+      <c r="P112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S112" s="1" t="s">
         <v>179</v>
       </c>
@@ -9402,7 +9709,7 @@
       <c r="E113" s="7">
         <v>1</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G113" s="1" t="s">
@@ -9414,7 +9721,7 @@
       <c r="I113" s="7">
         <v>7</v>
       </c>
-      <c r="J113" s="7" t="s">
+      <c r="J113" s="10" t="s">
         <v>314</v>
       </c>
       <c r="K113" s="1" t="s">
@@ -9423,6 +9730,13 @@
       <c r="L113" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N113" s="11"/>
+      <c r="P113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S113" s="1" t="s">
         <v>179</v>
       </c>
@@ -9449,7 +9763,7 @@
       <c r="E114" s="7">
         <v>9</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="10" t="s">
         <v>282</v>
       </c>
       <c r="G114" s="1" t="s">
@@ -9458,8 +9772,16 @@
       <c r="H114" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="J114" s="11"/>
       <c r="L114" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="N114" s="11"/>
+      <c r="P114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S114" s="1" t="s">
         <v>36</v>
@@ -9487,7 +9809,7 @@
       <c r="E115" s="7">
         <v>16</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="10" t="s">
         <v>237</v>
       </c>
       <c r="G115" s="1" t="s">
@@ -9499,7 +9821,7 @@
       <c r="I115" s="7">
         <v>1</v>
       </c>
-      <c r="J115" s="7" t="s">
+      <c r="J115" s="10" t="s">
         <v>319</v>
       </c>
       <c r="K115" s="1" t="s">
@@ -9508,6 +9830,13 @@
       <c r="L115" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N115" s="11"/>
+      <c r="P115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S115" s="1" t="s">
         <v>179</v>
       </c>
@@ -9534,7 +9863,7 @@
       <c r="E116" s="7">
         <v>16</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="10" t="s">
         <v>237</v>
       </c>
       <c r="G116" s="1" t="s">
@@ -9546,7 +9875,7 @@
       <c r="I116" s="7">
         <v>26</v>
       </c>
-      <c r="J116" s="7" t="s">
+      <c r="J116" s="10" t="s">
         <v>321</v>
       </c>
       <c r="K116" s="1" t="s">
@@ -9555,6 +9884,13 @@
       <c r="L116" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N116" s="11"/>
+      <c r="P116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S116" s="1" t="s">
         <v>72</v>
       </c>
@@ -9581,7 +9917,7 @@
       <c r="E117" s="7">
         <v>16</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="10" t="s">
         <v>237</v>
       </c>
       <c r="G117" s="1" t="s">
@@ -9590,8 +9926,16 @@
       <c r="H117" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="J117" s="11"/>
       <c r="L117" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="N117" s="11"/>
+      <c r="P117" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S117" s="1" t="s">
         <v>179</v>
@@ -9619,7 +9963,7 @@
       <c r="E118" s="7">
         <v>16</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="10" t="s">
         <v>237</v>
       </c>
       <c r="G118" s="1" t="s">
@@ -9631,7 +9975,7 @@
       <c r="I118" s="7">
         <v>15</v>
       </c>
-      <c r="J118" s="7" t="s">
+      <c r="J118" s="10" t="s">
         <v>325</v>
       </c>
       <c r="K118" s="1" t="s">
@@ -9640,6 +9984,13 @@
       <c r="L118" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N118" s="11"/>
+      <c r="P118" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S118" s="1" t="s">
         <v>179</v>
       </c>
@@ -9666,7 +10017,7 @@
       <c r="E119" s="7">
         <v>16</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="10" t="s">
         <v>237</v>
       </c>
       <c r="G119" s="1" t="s">
@@ -9678,7 +10029,7 @@
       <c r="I119" s="7">
         <v>17</v>
       </c>
-      <c r="J119" s="7" t="s">
+      <c r="J119" s="10" t="s">
         <v>239</v>
       </c>
       <c r="K119" s="1" t="s">
@@ -9687,6 +10038,13 @@
       <c r="L119" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N119" s="11"/>
+      <c r="P119" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S119" s="1" t="s">
         <v>179</v>
       </c>
@@ -9713,7 +10071,7 @@
       <c r="E120" s="7">
         <v>7</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F120" s="10" t="s">
         <v>250</v>
       </c>
       <c r="G120" s="1" t="s">
@@ -9725,7 +10083,7 @@
       <c r="I120" s="7">
         <v>4</v>
       </c>
-      <c r="J120" s="7" t="s">
+      <c r="J120" s="10" t="s">
         <v>330</v>
       </c>
       <c r="K120" s="1" t="s">
@@ -9734,6 +10092,13 @@
       <c r="L120" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N120" s="11"/>
+      <c r="P120" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S120" s="1" t="s">
         <v>179</v>
       </c>
@@ -9760,7 +10125,7 @@
       <c r="E121" s="7">
         <v>7</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="F121" s="10" t="s">
         <v>250</v>
       </c>
       <c r="G121" s="1" t="s">
@@ -9772,7 +10137,7 @@
       <c r="I121" s="7">
         <v>4</v>
       </c>
-      <c r="J121" s="7" t="s">
+      <c r="J121" s="10" t="s">
         <v>330</v>
       </c>
       <c r="K121" s="1" t="s">
@@ -9781,6 +10146,13 @@
       <c r="L121" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N121" s="11"/>
+      <c r="P121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R121" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S121" s="1" t="s">
         <v>179</v>
       </c>
@@ -9807,7 +10179,7 @@
       <c r="E122" s="7">
         <v>18</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F122" s="10" t="s">
         <v>161</v>
       </c>
       <c r="G122" s="1" t="s">
@@ -9816,8 +10188,16 @@
       <c r="H122" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="J122" s="11"/>
       <c r="L122" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="N122" s="11"/>
+      <c r="P122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S122" s="1" t="s">
         <v>36</v>
@@ -9845,7 +10225,7 @@
       <c r="E123" s="7">
         <v>18</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F123" s="10" t="s">
         <v>161</v>
       </c>
       <c r="G123" s="1" t="s">
@@ -9857,7 +10237,7 @@
       <c r="I123" s="8">
         <v>11</v>
       </c>
-      <c r="J123" s="8" t="s">
+      <c r="J123" s="13" t="s">
         <v>335</v>
       </c>
       <c r="K123" s="1" t="s">
@@ -9866,6 +10246,13 @@
       <c r="L123" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N123" s="11"/>
+      <c r="P123" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S123" s="1" t="s">
         <v>36</v>
       </c>
@@ -9892,7 +10279,7 @@
       <c r="E124" s="7">
         <v>18</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="10" t="s">
         <v>161</v>
       </c>
       <c r="G124" s="1" t="s">
@@ -9901,8 +10288,16 @@
       <c r="H124" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="J124" s="11"/>
       <c r="L124" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="N124" s="11"/>
+      <c r="P124" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S124" s="1" t="s">
         <v>36</v>
@@ -9930,7 +10325,7 @@
       <c r="E125" s="7">
         <v>18</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="10" t="s">
         <v>161</v>
       </c>
       <c r="G125" s="1" t="s">
@@ -9942,7 +10337,7 @@
       <c r="I125" s="7">
         <v>1</v>
       </c>
-      <c r="J125" s="7" t="s">
+      <c r="J125" s="10" t="s">
         <v>339</v>
       </c>
       <c r="K125" s="1" t="s">
@@ -9951,6 +10346,13 @@
       <c r="L125" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N125" s="11"/>
+      <c r="P125" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S125" s="1" t="s">
         <v>72</v>
       </c>
@@ -9977,7 +10379,7 @@
       <c r="E126" s="7">
         <v>18</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F126" s="10" t="s">
         <v>161</v>
       </c>
       <c r="G126" s="1" t="s">
@@ -9989,7 +10391,7 @@
       <c r="I126" s="7">
         <v>1</v>
       </c>
-      <c r="J126" s="7" t="s">
+      <c r="J126" s="10" t="s">
         <v>339</v>
       </c>
       <c r="K126" s="1" t="s">
@@ -9998,6 +10400,13 @@
       <c r="L126" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N126" s="11"/>
+      <c r="P126" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R126" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S126" s="1" t="s">
         <v>179</v>
       </c>
@@ -10024,7 +10433,7 @@
       <c r="E127" s="7">
         <v>18</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F127" s="10" t="s">
         <v>161</v>
       </c>
       <c r="G127" s="1" t="s">
@@ -10033,8 +10442,16 @@
       <c r="H127" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="J127" s="11"/>
       <c r="L127" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="N127" s="11"/>
+      <c r="P127" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S127" s="1" t="s">
         <v>72</v>
@@ -10062,7 +10479,7 @@
       <c r="E128" s="7">
         <v>13</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F128" s="10" t="s">
         <v>142</v>
       </c>
       <c r="G128" s="1" t="s">
@@ -10074,7 +10491,7 @@
       <c r="I128" s="7">
         <v>13</v>
       </c>
-      <c r="J128" s="7" t="s">
+      <c r="J128" s="10" t="s">
         <v>343</v>
       </c>
       <c r="K128" s="1" t="s">
@@ -10083,6 +10500,13 @@
       <c r="L128" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N128" s="11"/>
+      <c r="P128" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R128" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S128" s="1" t="s">
         <v>36</v>
       </c>
@@ -10109,7 +10533,7 @@
       <c r="E129" s="7">
         <v>13</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F129" s="10" t="s">
         <v>142</v>
       </c>
       <c r="G129" s="1" t="s">
@@ -10121,7 +10545,7 @@
       <c r="I129" s="7">
         <v>22</v>
       </c>
-      <c r="J129" s="7" t="s">
+      <c r="J129" s="10" t="s">
         <v>346</v>
       </c>
       <c r="K129" s="1" t="s">
@@ -10130,6 +10554,13 @@
       <c r="L129" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N129" s="11"/>
+      <c r="P129" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R129" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S129" s="1" t="s">
         <v>36</v>
       </c>
@@ -10156,7 +10587,7 @@
       <c r="E130" s="7">
         <v>13</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="F130" s="10" t="s">
         <v>142</v>
       </c>
       <c r="G130" s="1" t="s">
@@ -10168,7 +10599,7 @@
       <c r="I130" s="7">
         <v>6</v>
       </c>
-      <c r="J130" s="7" t="s">
+      <c r="J130" s="10" t="s">
         <v>349</v>
       </c>
       <c r="K130" s="1" t="s">
@@ -10177,6 +10608,13 @@
       <c r="L130" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N130" s="11"/>
+      <c r="P130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R130" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S130" s="1" t="s">
         <v>179</v>
       </c>
@@ -10203,7 +10641,7 @@
       <c r="E131" s="7">
         <v>13</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" s="10" t="s">
         <v>142</v>
       </c>
       <c r="G131" s="1" t="s">
@@ -10212,8 +10650,16 @@
       <c r="H131" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="J131" s="11"/>
       <c r="L131" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="N131" s="11"/>
+      <c r="P131" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S131" s="1" t="s">
         <v>36</v>
@@ -10241,7 +10687,7 @@
       <c r="E132" s="7">
         <v>17</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="F132" s="10" t="s">
         <v>276</v>
       </c>
       <c r="G132" s="1" t="s">
@@ -10253,20 +10699,27 @@
       <c r="I132" s="7">
         <v>1</v>
       </c>
-      <c r="J132" s="7" t="s">
+      <c r="J132" s="12">
+        <v>1701</v>
+      </c>
+      <c r="K132" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="K132" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="L132" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="N132" s="11"/>
+      <c r="P132" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S132" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V132" s="2">
         <v>13.530787999999999</v>
@@ -10288,7 +10741,7 @@
       <c r="E133" s="7">
         <v>17</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="F133" s="10" t="s">
         <v>276</v>
       </c>
       <c r="G133" s="1" t="s">
@@ -10300,20 +10753,27 @@
       <c r="I133" s="7">
         <v>1</v>
       </c>
-      <c r="J133" s="7" t="s">
+      <c r="J133" s="12">
+        <v>1701</v>
+      </c>
+      <c r="K133" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="K133" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="L133" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="N133" s="11"/>
+      <c r="P133" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S133" s="1" t="s">
         <v>179</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V133" s="2">
         <v>13.532709000000001</v>
@@ -10335,7 +10795,7 @@
       <c r="E134" s="7">
         <v>17</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F134" s="10" t="s">
         <v>276</v>
       </c>
       <c r="G134" s="1" t="s">
@@ -10347,20 +10807,27 @@
       <c r="I134" s="7">
         <v>7</v>
       </c>
-      <c r="J134" s="7" t="s">
-        <v>356</v>
+      <c r="J134" s="12">
+        <v>1707</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="N134" s="11"/>
+      <c r="P134" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S134" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="V134" s="2">
         <v>13.62003</v>
@@ -10382,7 +10849,7 @@
       <c r="E135" s="7">
         <v>17</v>
       </c>
-      <c r="F135" s="7" t="s">
+      <c r="F135" s="10" t="s">
         <v>276</v>
       </c>
       <c r="G135" s="1" t="s">
@@ -10394,26 +10861,1494 @@
       <c r="I135" s="7">
         <v>6</v>
       </c>
-      <c r="J135" s="7" t="s">
-        <v>359</v>
+      <c r="J135" s="12">
+        <v>1706</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="N135" s="11"/>
+      <c r="P135" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S135" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="V135" s="2">
         <v>13.610545</v>
       </c>
       <c r="W135" s="2">
         <v>-87.752651</v>
+      </c>
+    </row>
+    <row r="136" spans="2:23" ht="15">
+      <c r="B136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D136" s="1">
+        <v>3</v>
+      </c>
+      <c r="E136" s="7">
+        <v>11</v>
+      </c>
+      <c r="F136" s="10">
+        <v>11</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I136" s="1">
+        <v>2</v>
+      </c>
+      <c r="J136" s="12">
+        <v>1102</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M136" s="1">
+        <v>1</v>
+      </c>
+      <c r="N136" s="11">
+        <v>110201</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S136" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V136" s="2">
+        <v>16.439831999999999</v>
+      </c>
+      <c r="W136" s="2">
+        <v>-85.887030999999993</v>
+      </c>
+    </row>
+    <row r="137" spans="2:23">
+      <c r="B137" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" s="1">
+        <v>3</v>
+      </c>
+      <c r="E137" s="7">
+        <v>11</v>
+      </c>
+      <c r="F137" s="10">
+        <v>11</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I137" s="1">
+        <v>2</v>
+      </c>
+      <c r="J137" s="12">
+        <v>1102</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N137" s="11"/>
+      <c r="O137" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R137" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S137" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V137" s="2">
+        <v>16.484898000000001</v>
+      </c>
+      <c r="W137" s="2">
+        <v>-85.844579999999993</v>
+      </c>
+    </row>
+    <row r="138" spans="2:23">
+      <c r="B138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" s="1">
+        <v>3</v>
+      </c>
+      <c r="E138" s="7">
+        <v>11</v>
+      </c>
+      <c r="F138" s="10">
+        <v>11</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I138" s="9">
+        <v>3</v>
+      </c>
+      <c r="J138" s="11">
+        <v>1103</v>
+      </c>
+      <c r="K138" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M138" s="1">
+        <v>3</v>
+      </c>
+      <c r="N138" s="11">
+        <v>110303</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S138" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V138" s="2">
+        <v>16.438224000000002</v>
+      </c>
+      <c r="W138" s="2">
+        <v>-86.146834999999996</v>
+      </c>
+    </row>
+    <row r="139" spans="2:23">
+      <c r="B139" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139" s="1">
+        <v>3</v>
+      </c>
+      <c r="E139" s="7">
+        <v>14</v>
+      </c>
+      <c r="F139" s="10">
+        <v>14</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I139" s="9">
+        <v>10</v>
+      </c>
+      <c r="J139" s="11">
+        <v>1410</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M139" s="1">
+        <v>1</v>
+      </c>
+      <c r="N139" s="11">
+        <v>141001</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q139" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="R139" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S139" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V139" s="2">
+        <v>14.680396999999999</v>
+      </c>
+      <c r="W139" s="2">
+        <v>-89.111785999999995</v>
+      </c>
+    </row>
+    <row r="140" spans="2:23">
+      <c r="B140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" s="1">
+        <v>3</v>
+      </c>
+      <c r="E140" s="7">
+        <v>14</v>
+      </c>
+      <c r="F140" s="10">
+        <v>14</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I140" s="9">
+        <v>6</v>
+      </c>
+      <c r="J140" s="11">
+        <v>1406</v>
+      </c>
+      <c r="K140" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M140" s="1">
+        <v>3</v>
+      </c>
+      <c r="N140" s="11">
+        <v>140603</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q140" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="R140" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S140" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V140" s="2">
+        <v>14.664014</v>
+      </c>
+      <c r="W140" s="2">
+        <v>-89.069692000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="2:23">
+      <c r="B141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="1">
+        <v>3</v>
+      </c>
+      <c r="E141" s="7">
+        <v>14</v>
+      </c>
+      <c r="F141" s="10">
+        <v>14</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I141" s="9">
+        <v>15</v>
+      </c>
+      <c r="J141" s="11">
+        <v>1415</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M141" s="1">
+        <v>2</v>
+      </c>
+      <c r="N141" s="11">
+        <v>141502</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R141" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S141" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V141" s="2">
+        <v>14.487455000000001</v>
+      </c>
+      <c r="W141" s="2">
+        <v>-88.915816000000007</v>
+      </c>
+    </row>
+    <row r="142" spans="2:23">
+      <c r="B142" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" s="1">
+        <v>3</v>
+      </c>
+      <c r="E142" s="7">
+        <v>14</v>
+      </c>
+      <c r="F142" s="10">
+        <v>14</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I142" s="9">
+        <v>7</v>
+      </c>
+      <c r="J142" s="11">
+        <v>1407</v>
+      </c>
+      <c r="K142" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M142" s="1">
+        <v>1</v>
+      </c>
+      <c r="N142" s="11">
+        <v>140701</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="R142" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S142" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V142" s="2">
+        <v>14.484342</v>
+      </c>
+      <c r="W142" s="2">
+        <v>-89.002711000000005</v>
+      </c>
+    </row>
+    <row r="143" spans="2:23">
+      <c r="B143" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" s="1">
+        <v>3</v>
+      </c>
+      <c r="E143" s="7">
+        <v>14</v>
+      </c>
+      <c r="F143" s="10">
+        <v>14</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I143" s="9">
+        <v>2</v>
+      </c>
+      <c r="J143" s="11">
+        <v>1402</v>
+      </c>
+      <c r="K143" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M143" s="1">
+        <v>1</v>
+      </c>
+      <c r="N143" s="11">
+        <v>140201</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R143" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S143" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V143" s="2">
+        <v>14.477974</v>
+      </c>
+      <c r="W143" s="2">
+        <v>-88.790651999999994</v>
+      </c>
+    </row>
+    <row r="144" spans="2:23">
+      <c r="B144" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="1">
+        <v>3</v>
+      </c>
+      <c r="E144" s="7">
+        <v>14</v>
+      </c>
+      <c r="F144" s="10">
+        <v>14</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I144" s="9">
+        <v>1</v>
+      </c>
+      <c r="J144" s="11">
+        <v>1401</v>
+      </c>
+      <c r="K144" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M144" s="1">
+        <v>1</v>
+      </c>
+      <c r="N144" s="11">
+        <v>140101</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S144" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V144" s="2">
+        <v>14.43247</v>
+      </c>
+      <c r="W144" s="2">
+        <v>-89.182400000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="2:23">
+      <c r="B145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" s="1">
+        <v>3</v>
+      </c>
+      <c r="E145" s="7">
+        <v>7</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I145" s="1">
+        <v>15</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M145" s="1">
+        <v>1</v>
+      </c>
+      <c r="N145" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q145" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S145" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V145" s="2">
+        <v>14.225474</v>
+      </c>
+      <c r="W145" s="2">
+        <v>-86.716131000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="2:23">
+      <c r="B146" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" s="1">
+        <v>3</v>
+      </c>
+      <c r="E146" s="7">
+        <v>7</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I146" s="1">
+        <v>8</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M146" s="1">
+        <v>1</v>
+      </c>
+      <c r="N146" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="P146" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S146" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V146" s="2">
+        <v>14.123517</v>
+      </c>
+      <c r="W146" s="2">
+        <v>-86.866437000000005</v>
+      </c>
+    </row>
+    <row r="147" spans="2:23">
+      <c r="B147" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="1">
+        <v>3</v>
+      </c>
+      <c r="E147" s="7">
+        <v>7</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I147" s="1">
+        <v>19</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M147" s="1">
+        <v>1</v>
+      </c>
+      <c r="N147" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="R147" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S147" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V147" s="2">
+        <v>14.081087999999999</v>
+      </c>
+      <c r="W147" s="2">
+        <v>-86.001908</v>
+      </c>
+    </row>
+    <row r="148" spans="2:23">
+      <c r="B148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148" s="1">
+        <v>3</v>
+      </c>
+      <c r="E148" s="7">
+        <v>7</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I148" s="1">
+        <v>5</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M148" s="1">
+        <v>1</v>
+      </c>
+      <c r="N148" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V148" s="2">
+        <v>13.880433</v>
+      </c>
+      <c r="W148" s="2">
+        <v>-86.935871000000006</v>
+      </c>
+    </row>
+    <row r="149" spans="2:23">
+      <c r="B149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" s="1">
+        <v>3</v>
+      </c>
+      <c r="E149" s="7">
+        <v>7</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I149" s="1">
+        <v>16</v>
+      </c>
+      <c r="J149" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M149" s="1">
+        <v>1</v>
+      </c>
+      <c r="N149" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="O149" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q149" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="R149" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S149" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V149" s="2">
+        <v>13.648353999999999</v>
+      </c>
+      <c r="W149" s="2">
+        <v>-87.024221999999995</v>
+      </c>
+    </row>
+    <row r="150" spans="2:23">
+      <c r="B150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" s="1">
+        <v>3</v>
+      </c>
+      <c r="E150" s="7">
+        <v>7</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I150" s="1">
+        <v>14</v>
+      </c>
+      <c r="J150" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M150" s="1">
+        <v>1</v>
+      </c>
+      <c r="N150" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q150" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="R150" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S150" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V150" s="2">
+        <v>13.586309</v>
+      </c>
+      <c r="W150" s="2">
+        <v>-87.119765000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="2:23">
+      <c r="B151" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151" s="1">
+        <v>3</v>
+      </c>
+      <c r="E151" s="7">
+        <v>7</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I151" s="1">
+        <v>7</v>
+      </c>
+      <c r="J151" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M151" s="1">
+        <v>3</v>
+      </c>
+      <c r="N151" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q151" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="R151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S151" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V151" s="2">
+        <v>13.541517000000001</v>
+      </c>
+      <c r="W151" s="2">
+        <v>-87.065835000000007</v>
+      </c>
+    </row>
+    <row r="152" spans="2:23">
+      <c r="B152" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152" s="1">
+        <v>3</v>
+      </c>
+      <c r="E152" s="7">
+        <v>5</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I152" s="1">
+        <v>3</v>
+      </c>
+      <c r="J152" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M152" s="1">
+        <v>1</v>
+      </c>
+      <c r="N152" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V152" s="2">
+        <v>15.774127999999999</v>
+      </c>
+      <c r="W152" s="2">
+        <v>-88.038325999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="2:23">
+      <c r="B153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153" s="1">
+        <v>3</v>
+      </c>
+      <c r="E153" s="7">
+        <v>5</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I153" s="1">
+        <v>3</v>
+      </c>
+      <c r="J153" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M153" s="1">
+        <v>7</v>
+      </c>
+      <c r="N153" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V153" s="2">
+        <v>15.663361</v>
+      </c>
+      <c r="W153" s="2">
+        <v>-88.194593999999995</v>
+      </c>
+    </row>
+    <row r="154" spans="2:23">
+      <c r="B154" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" s="1">
+        <v>3</v>
+      </c>
+      <c r="E154" s="7">
+        <v>5</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I154" s="1">
+        <v>2</v>
+      </c>
+      <c r="J154" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M154" s="1">
+        <v>1</v>
+      </c>
+      <c r="N154" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q154" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="R154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S154" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V154" s="2">
+        <v>15.610602</v>
+      </c>
+      <c r="W154" s="2">
+        <v>-87.951762000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="2:23">
+      <c r="B155" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155" s="1">
+        <v>3</v>
+      </c>
+      <c r="E155" s="7">
+        <v>5</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I155" s="1">
+        <v>12</v>
+      </c>
+      <c r="J155" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M155" s="1">
+        <v>1</v>
+      </c>
+      <c r="N155" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V155" s="2">
+        <v>15.439396</v>
+      </c>
+      <c r="W155" s="2">
+        <v>-87.928895999999995</v>
+      </c>
+    </row>
+    <row r="156" spans="2:23">
+      <c r="B156" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" s="1">
+        <v>3</v>
+      </c>
+      <c r="E156" s="7">
+        <v>5</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J156" s="11"/>
+      <c r="L156" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N156" s="11"/>
+      <c r="P156" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="157" spans="2:23">
+      <c r="B157" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" s="1">
+        <v>3</v>
+      </c>
+      <c r="E157" s="7">
+        <v>5</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J157" s="11"/>
+      <c r="L157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N157" s="11"/>
+      <c r="P157" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="158" spans="2:23">
+      <c r="B158" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158" s="1">
+        <v>3</v>
+      </c>
+      <c r="E158" s="7">
+        <v>5</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J158" s="11"/>
+      <c r="L158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N158" s="11"/>
+      <c r="P158" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S158" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="159" spans="2:23">
+      <c r="B159" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D159" s="1">
+        <v>3</v>
+      </c>
+      <c r="E159" s="7">
+        <v>5</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J159" s="11"/>
+      <c r="L159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N159" s="11"/>
+      <c r="P159" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q159" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S159" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="160" spans="2:23">
+      <c r="B160" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" s="1">
+        <v>3</v>
+      </c>
+      <c r="E160" s="7"/>
+      <c r="F160" s="10"/>
+      <c r="H160" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J160" s="11"/>
+      <c r="L160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N160" s="11"/>
+      <c r="P160" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S160" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="161" spans="2:19">
+      <c r="B161" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D161" s="1">
+        <v>3</v>
+      </c>
+      <c r="E161" s="7"/>
+      <c r="F161" s="10"/>
+      <c r="H161" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J161" s="11"/>
+      <c r="L161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N161" s="11"/>
+      <c r="P161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1145" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B32BF777-5397-479D-8AE0-25A68BA9AC71}"/>
+  <xr:revisionPtr revIDLastSave="1195" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A83A47F-7C1E-4275-9EE0-F26CB5F2BF34}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="443">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -1300,6 +1300,66 @@
   </si>
   <si>
     <t>HND-0512</t>
+  </si>
+  <si>
+    <t>0509</t>
+  </si>
+  <si>
+    <t>San Manuel</t>
+  </si>
+  <si>
+    <t>050901</t>
+  </si>
+  <si>
+    <t>HND-0509</t>
+  </si>
+  <si>
+    <t>0511</t>
+  </si>
+  <si>
+    <t>Villanueva</t>
+  </si>
+  <si>
+    <t>051101</t>
+  </si>
+  <si>
+    <t>HND-0511</t>
+  </si>
+  <si>
+    <t>0505</t>
+  </si>
+  <si>
+    <t>Potrerillos</t>
+  </si>
+  <si>
+    <t>050501</t>
+  </si>
+  <si>
+    <t>HND-0505</t>
+  </si>
+  <si>
+    <t>0507</t>
+  </si>
+  <si>
+    <t>San Antonio de Cortés</t>
+  </si>
+  <si>
+    <t>050701</t>
+  </si>
+  <si>
+    <t>HND-0507</t>
+  </si>
+  <si>
+    <t>0510</t>
+  </si>
+  <si>
+    <t>Santa Cruz de Yojoa</t>
+  </si>
+  <si>
+    <t>051001</t>
+  </si>
+  <si>
+    <t>HND-0510</t>
   </si>
   <si>
     <t>HND-</t>
@@ -2306,8 +2366,8 @@
   <dimension ref="A1:W161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="U149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W156" sqref="W156"/>
+      <pane ySplit="1" topLeftCell="U154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W162" sqref="W162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -12147,16 +12207,32 @@
       <c r="H156" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J156" s="11"/>
+      <c r="I156" s="1">
+        <v>9</v>
+      </c>
+      <c r="J156" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="L156" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N156" s="11"/>
+      <c r="M156" s="1">
+        <v>1</v>
+      </c>
+      <c r="N156" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="P156" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="R156" s="1" t="s">
         <v>35</v>
@@ -12164,6 +12240,12 @@
       <c r="S156" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="V156" s="2">
+        <v>15.329428999999999</v>
+      </c>
+      <c r="W156" s="2">
+        <v>-87.921024000000003</v>
+      </c>
     </row>
     <row r="157" spans="2:23">
       <c r="B157" s="1" t="s">
@@ -12187,16 +12269,32 @@
       <c r="H157" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J157" s="11"/>
+      <c r="I157" s="1">
+        <v>11</v>
+      </c>
+      <c r="J157" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="L157" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N157" s="11"/>
+      <c r="M157" s="1">
+        <v>1</v>
+      </c>
+      <c r="N157" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="P157" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="R157" s="1" t="s">
         <v>35</v>
@@ -12204,6 +12302,12 @@
       <c r="S157" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="V157" s="2">
+        <v>15.312935</v>
+      </c>
+      <c r="W157" s="2">
+        <v>-87.993703999999994</v>
+      </c>
     </row>
     <row r="158" spans="2:23">
       <c r="B158" s="1" t="s">
@@ -12227,16 +12331,32 @@
       <c r="H158" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J158" s="11"/>
+      <c r="I158" s="1">
+        <v>5</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="L158" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N158" s="11"/>
+      <c r="M158" s="1">
+        <v>1</v>
+      </c>
+      <c r="N158" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="P158" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q158" s="1" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="R158" s="1" t="s">
         <v>35</v>
@@ -12244,6 +12364,12 @@
       <c r="S158" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="V158" s="2">
+        <v>15.228071</v>
+      </c>
+      <c r="W158" s="2">
+        <v>-87.964016999999998</v>
+      </c>
     </row>
     <row r="159" spans="2:23">
       <c r="B159" s="1" t="s">
@@ -12267,16 +12393,32 @@
       <c r="H159" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J159" s="11"/>
+      <c r="I159" s="1">
+        <v>7</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="L159" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N159" s="11"/>
+      <c r="M159" s="1">
+        <v>1</v>
+      </c>
+      <c r="N159" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="P159" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="R159" s="1" t="s">
         <v>35</v>
@@ -12284,6 +12426,12 @@
       <c r="S159" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="V159" s="2">
+        <v>15.114108</v>
+      </c>
+      <c r="W159" s="2">
+        <v>-88.040538999999995</v>
+      </c>
     </row>
     <row r="160" spans="2:23">
       <c r="B160" s="1" t="s">
@@ -12295,27 +12443,56 @@
       <c r="D160" s="1">
         <v>3</v>
       </c>
-      <c r="E160" s="7"/>
-      <c r="F160" s="10"/>
+      <c r="E160" s="7">
+        <v>5</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H160" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J160" s="11"/>
+      <c r="I160" s="1">
+        <v>10</v>
+      </c>
+      <c r="J160" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>439</v>
+      </c>
       <c r="L160" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N160" s="11"/>
+      <c r="M160" s="1">
+        <v>1</v>
+      </c>
+      <c r="N160" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>439</v>
+      </c>
       <c r="P160" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="R160" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S160" s="1" t="s">
         <v>361</v>
+      </c>
+      <c r="V160" s="2">
+        <v>14.97907</v>
+      </c>
+      <c r="W160" s="2">
+        <v>-87.890918999999997</v>
       </c>
     </row>
     <row r="161" spans="2:19">
@@ -12342,7 +12519,7 @@
         <v>33</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="R161" s="1" t="s">
         <v>35</v>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1195" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A83A47F-7C1E-4275-9EE0-F26CB5F2BF34}"/>
+  <xr:revisionPtr revIDLastSave="1357" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A188120A-4053-41D4-8566-701DDE9CB935}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="HOSPITALES" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$173</definedName>
     <definedName name="_xlnm.Database">HOSPITALES!$A$1:$U$83</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="490">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -1362,7 +1362,148 @@
     <t>HND-0510</t>
   </si>
   <si>
-    <t>HND-</t>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>Iriona</t>
+  </si>
+  <si>
+    <t>020309</t>
+  </si>
+  <si>
+    <t>Sangrelaya</t>
+  </si>
+  <si>
+    <t>HND-0203</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>Limón</t>
+  </si>
+  <si>
+    <t>020401</t>
+  </si>
+  <si>
+    <t>HND-0204</t>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <t>Bonito Oriental</t>
+  </si>
+  <si>
+    <t>021001</t>
+  </si>
+  <si>
+    <t>HND-0210</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>Sabá</t>
+  </si>
+  <si>
+    <t>020511</t>
+  </si>
+  <si>
+    <t>Elixir</t>
+  </si>
+  <si>
+    <t>HND-0205</t>
+  </si>
+  <si>
+    <t>0320</t>
+  </si>
+  <si>
+    <t>Las Lajas</t>
+  </si>
+  <si>
+    <t>032001</t>
+  </si>
+  <si>
+    <t>HND-0320</t>
+  </si>
+  <si>
+    <t>0321</t>
+  </si>
+  <si>
+    <t>Taulabé</t>
+  </si>
+  <si>
+    <t>032101</t>
+  </si>
+  <si>
+    <t>HND-0321</t>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>El Rosario</t>
+  </si>
+  <si>
+    <t>030301</t>
+  </si>
+  <si>
+    <t>HND-0303</t>
+  </si>
+  <si>
+    <t>0319</t>
+  </si>
+  <si>
+    <t>Villa de San Antonio</t>
+  </si>
+  <si>
+    <t>031901</t>
+  </si>
+  <si>
+    <t>HND-0319</t>
+  </si>
+  <si>
+    <t>Cucuyagua</t>
+  </si>
+  <si>
+    <t>HND-0406</t>
+  </si>
+  <si>
+    <t>Dulce Nombre</t>
+  </si>
+  <si>
+    <t>HND-0408</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>San Nicolas</t>
+  </si>
+  <si>
+    <t>HND-0419</t>
+  </si>
+  <si>
+    <t>Nueva Arcadia</t>
+  </si>
+  <si>
+    <t>041301</t>
+  </si>
+  <si>
+    <t>La Entrada</t>
+  </si>
+  <si>
+    <t>HND-0413</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>041001</t>
+  </si>
+  <si>
+    <t>HND-0410</t>
   </si>
 </sst>
 </file>
@@ -2032,8 +2173,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W161" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:W161" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W173" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:W173" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W83">
     <sortCondition ref="S1:S83"/>
   </sortState>
@@ -2363,11 +2504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W161"/>
+  <dimension ref="A1:W173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="U154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W162" sqref="W162"/>
+      <pane ySplit="1" topLeftCell="U162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W174" sqref="W174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -8653,8 +8794,8 @@
       <c r="E93" s="1">
         <v>4</v>
       </c>
-      <c r="F93" s="11">
-        <v>4</v>
+      <c r="F93" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>78</v>
@@ -12495,7 +12636,7 @@
         <v>-87.890918999999997</v>
       </c>
     </row>
-    <row r="161" spans="2:19">
+    <row r="161" spans="2:23">
       <c r="B161" s="1" t="s">
         <v>23</v>
       </c>
@@ -12505,27 +12646,785 @@
       <c r="D161" s="1">
         <v>3</v>
       </c>
-      <c r="E161" s="7"/>
-      <c r="F161" s="10"/>
+      <c r="E161" s="7">
+        <v>2</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="H161" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J161" s="11"/>
+      <c r="I161" s="1">
+        <v>3</v>
+      </c>
+      <c r="J161" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="L161" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N161" s="11"/>
+      <c r="M161" s="1">
+        <v>9</v>
+      </c>
+      <c r="N161" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="P161" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="R161" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S161" s="1" t="s">
         <v>361</v>
+      </c>
+      <c r="V161" s="2">
+        <v>15.966279</v>
+      </c>
+      <c r="W161" s="2">
+        <v>-85.096109999999996</v>
+      </c>
+    </row>
+    <row r="162" spans="2:23">
+      <c r="B162" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" s="1">
+        <v>3</v>
+      </c>
+      <c r="E162" s="7">
+        <v>2</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I162" s="1">
+        <v>4</v>
+      </c>
+      <c r="J162" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M162" s="1">
+        <v>1</v>
+      </c>
+      <c r="N162" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S162" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V162" s="2">
+        <v>15.864474080000001</v>
+      </c>
+      <c r="W162" s="2">
+        <v>-85.506744999999995</v>
+      </c>
+    </row>
+    <row r="163" spans="2:23">
+      <c r="B163" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163" s="1">
+        <v>3</v>
+      </c>
+      <c r="E163" s="7">
+        <v>2</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I163" s="1">
+        <v>10</v>
+      </c>
+      <c r="J163" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M163" s="1">
+        <v>1</v>
+      </c>
+      <c r="N163" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S163" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V163" s="2">
+        <v>15.748343</v>
+      </c>
+      <c r="W163" s="2">
+        <v>-85.735150000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="2:23">
+      <c r="B164" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" s="1">
+        <v>3</v>
+      </c>
+      <c r="E164" s="7">
+        <v>2</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I164" s="1">
+        <v>5</v>
+      </c>
+      <c r="J164" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M164" s="1">
+        <v>11</v>
+      </c>
+      <c r="N164" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q164" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S164" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V164" s="2">
+        <v>15.534311000000001</v>
+      </c>
+      <c r="W164" s="2">
+        <v>-86.273984999999996</v>
+      </c>
+    </row>
+    <row r="165" spans="2:23">
+      <c r="B165" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D165" s="1">
+        <v>3</v>
+      </c>
+      <c r="E165" s="7">
+        <v>3</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I165" s="1">
+        <v>20</v>
+      </c>
+      <c r="J165" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M165" s="1">
+        <v>1</v>
+      </c>
+      <c r="N165" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S165" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V165" s="2">
+        <v>14.894002</v>
+      </c>
+      <c r="W165" s="2">
+        <v>-87.579126000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="2:23">
+      <c r="B166" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166" s="1">
+        <v>3</v>
+      </c>
+      <c r="E166" s="7">
+        <v>3</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I166" s="1">
+        <v>21</v>
+      </c>
+      <c r="J166" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M166" s="1">
+        <v>1</v>
+      </c>
+      <c r="N166" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V166" s="2">
+        <v>14.690765000000001</v>
+      </c>
+      <c r="W166" s="2">
+        <v>-87.965248000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="2:23">
+      <c r="B167" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167" s="1">
+        <v>3</v>
+      </c>
+      <c r="E167" s="7">
+        <v>3</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I167" s="1">
+        <v>3</v>
+      </c>
+      <c r="J167" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M167" s="1">
+        <v>1</v>
+      </c>
+      <c r="N167" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V167" s="2">
+        <v>14.575887</v>
+      </c>
+      <c r="W167" s="2">
+        <v>-87.728960000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="2:23">
+      <c r="B168" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168" s="1">
+        <v>3</v>
+      </c>
+      <c r="E168" s="7">
+        <v>3</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I168" s="1">
+        <v>19</v>
+      </c>
+      <c r="J168" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M168" s="1">
+        <v>1</v>
+      </c>
+      <c r="N168" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V168" s="2">
+        <v>14.323912999999999</v>
+      </c>
+      <c r="W168" s="2">
+        <v>-87.613690000000005</v>
+      </c>
+    </row>
+    <row r="169" spans="2:23">
+      <c r="B169" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" s="1">
+        <v>3</v>
+      </c>
+      <c r="E169" s="7">
+        <v>4</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I169" s="1">
+        <v>6</v>
+      </c>
+      <c r="J169" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N169" s="11"/>
+      <c r="O169" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V169" s="2">
+        <v>14.645818</v>
+      </c>
+      <c r="W169" s="2">
+        <v>-88.873898999999994</v>
+      </c>
+    </row>
+    <row r="170" spans="2:23">
+      <c r="B170" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" s="1">
+        <v>3</v>
+      </c>
+      <c r="E170" s="7">
+        <v>4</v>
+      </c>
+      <c r="F170" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I170" s="1">
+        <v>8</v>
+      </c>
+      <c r="J170" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N170" s="11"/>
+      <c r="O170" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V170" s="2">
+        <v>14.845943</v>
+      </c>
+      <c r="W170" s="2">
+        <v>-88.831519999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="2:23">
+      <c r="B171" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171" s="1">
+        <v>3</v>
+      </c>
+      <c r="E171" s="7">
+        <v>4</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I171" s="1">
+        <v>19</v>
+      </c>
+      <c r="J171" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N171" s="11"/>
+      <c r="O171" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V171" s="2">
+        <v>15.001557999999999</v>
+      </c>
+      <c r="W171" s="2">
+        <v>-88.751771000000005</v>
+      </c>
+    </row>
+    <row r="172" spans="2:23">
+      <c r="B172" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172" s="1">
+        <v>3</v>
+      </c>
+      <c r="E172" s="7">
+        <v>4</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I172" s="1">
+        <v>13</v>
+      </c>
+      <c r="J172" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M172" s="1">
+        <v>1</v>
+      </c>
+      <c r="N172" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V172" s="2">
+        <v>15.061814</v>
+      </c>
+      <c r="W172" s="2">
+        <v>-88.746099000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="2:23">
+      <c r="B173" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D173" s="1">
+        <v>3</v>
+      </c>
+      <c r="E173" s="7">
+        <v>4</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I173" s="1">
+        <v>10</v>
+      </c>
+      <c r="J173" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M173" s="1">
+        <v>1</v>
+      </c>
+      <c r="N173" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V173" s="2">
+        <v>15.024939</v>
+      </c>
+      <c r="W173" s="2">
+        <v>-88.835689000000002</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1357" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A188120A-4053-41D4-8566-701DDE9CB935}"/>
+  <xr:revisionPtr revIDLastSave="1483" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F05D4608-BCB1-4311-9806-87CC81827CB8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="HOSPITALES" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$185</definedName>
     <definedName name="_xlnm.Database">HOSPITALES!$A$1:$U$83</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="517">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -1464,19 +1464,25 @@
     <t>HND-0319</t>
   </si>
   <si>
+    <t>0406</t>
+  </si>
+  <si>
     <t>Cucuyagua</t>
   </si>
   <si>
     <t>HND-0406</t>
   </si>
   <si>
+    <t>0408</t>
+  </si>
+  <si>
     <t>Dulce Nombre</t>
   </si>
   <si>
     <t>HND-0408</t>
   </si>
   <si>
-    <t>19</t>
+    <t>0419</t>
   </si>
   <si>
     <t>San Nicolas</t>
@@ -1485,6 +1491,9 @@
     <t>HND-0419</t>
   </si>
   <si>
+    <t>0413</t>
+  </si>
+  <si>
     <t>Nueva Arcadia</t>
   </si>
   <si>
@@ -1497,6 +1506,9 @@
     <t>HND-0413</t>
   </si>
   <si>
+    <t>0410</t>
+  </si>
+  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -1504,6 +1516,75 @@
   </si>
   <si>
     <t>HND-0410</t>
+  </si>
+  <si>
+    <t>0612</t>
+  </si>
+  <si>
+    <t>San Antonio de Flores</t>
+  </si>
+  <si>
+    <t>061201</t>
+  </si>
+  <si>
+    <t>HND-0612</t>
+  </si>
+  <si>
+    <t>0608</t>
+  </si>
+  <si>
+    <t>Morolica</t>
+  </si>
+  <si>
+    <t>060801</t>
+  </si>
+  <si>
+    <t>HND-0608</t>
+  </si>
+  <si>
+    <t>0616</t>
+  </si>
+  <si>
+    <t>Santa Ana de Yusguare</t>
+  </si>
+  <si>
+    <t>061601</t>
+  </si>
+  <si>
+    <t>HND-0616</t>
+  </si>
+  <si>
+    <t>0607</t>
+  </si>
+  <si>
+    <t>Marcovia</t>
+  </si>
+  <si>
+    <t>060701</t>
+  </si>
+  <si>
+    <t>HND-0607</t>
+  </si>
+  <si>
+    <t>0609</t>
+  </si>
+  <si>
+    <t>Namasigue</t>
+  </si>
+  <si>
+    <t>060901</t>
+  </si>
+  <si>
+    <t>HND-0609</t>
+  </si>
+  <si>
+    <t>060714</t>
+  </si>
+  <si>
+    <t>Monjaras</t>
+  </si>
+  <si>
+    <t>HND-</t>
   </si>
 </sst>
 </file>
@@ -2173,8 +2254,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W173" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:W173" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W185" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:W185" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W83">
     <sortCondition ref="S1:S83"/>
   </sortState>
@@ -2504,11 +2585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W173"/>
+  <dimension ref="A1:W185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="U162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W174" sqref="W174"/>
+      <pane ySplit="1" topLeftCell="T165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W180" sqref="W180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -13158,23 +13239,23 @@
         <v>6</v>
       </c>
       <c r="J169" s="11" t="s">
-        <v>97</v>
+        <v>476</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L169" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N169" s="11"/>
       <c r="O169" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P169" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q169" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="R169" s="1" t="s">
         <v>35</v>
@@ -13215,23 +13296,23 @@
         <v>8</v>
       </c>
       <c r="J170" s="11" t="s">
-        <v>38</v>
+        <v>479</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L170" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N170" s="11"/>
       <c r="O170" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="P170" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q170" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="R170" s="1" t="s">
         <v>35</v>
@@ -13272,23 +13353,23 @@
         <v>19</v>
       </c>
       <c r="J171" s="11" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L171" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N171" s="11"/>
       <c r="O171" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P171" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q171" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="R171" s="1" t="s">
         <v>35</v>
@@ -13329,10 +13410,10 @@
         <v>13</v>
       </c>
       <c r="J172" s="11" t="s">
-        <v>142</v>
+        <v>485</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="L172" s="1" t="s">
         <v>30</v>
@@ -13341,16 +13422,16 @@
         <v>1</v>
       </c>
       <c r="N172" s="11" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="P172" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q172" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="R172" s="1" t="s">
         <v>35</v>
@@ -13391,10 +13472,10 @@
         <v>10</v>
       </c>
       <c r="J173" s="11" t="s">
-        <v>133</v>
+        <v>490</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="L173" s="1" t="s">
         <v>30</v>
@@ -13403,16 +13484,16 @@
         <v>1</v>
       </c>
       <c r="N173" s="11" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P173" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q173" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="R173" s="1" t="s">
         <v>35</v>
@@ -13425,6 +13506,576 @@
       </c>
       <c r="W173" s="2">
         <v>-88.835689000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="2:23">
+      <c r="B174" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" s="1">
+        <v>3</v>
+      </c>
+      <c r="E174" s="7">
+        <v>6</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I174" s="1">
+        <v>12</v>
+      </c>
+      <c r="J174" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M174" s="1">
+        <v>1</v>
+      </c>
+      <c r="N174" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V174" s="2">
+        <v>13.665829</v>
+      </c>
+      <c r="W174" s="2">
+        <v>-87.362111999999996</v>
+      </c>
+    </row>
+    <row r="175" spans="2:23">
+      <c r="B175" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D175" s="1">
+        <v>3</v>
+      </c>
+      <c r="E175" s="7">
+        <v>6</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I175" s="1">
+        <v>8</v>
+      </c>
+      <c r="J175" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M175" s="1">
+        <v>1</v>
+      </c>
+      <c r="N175" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V175" s="2">
+        <v>13.568472999999999</v>
+      </c>
+      <c r="W175" s="2">
+        <v>-86.907604000000006</v>
+      </c>
+    </row>
+    <row r="176" spans="2:23">
+      <c r="B176" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176" s="1">
+        <v>3</v>
+      </c>
+      <c r="E176" s="7">
+        <v>6</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I176" s="1">
+        <v>16</v>
+      </c>
+      <c r="J176" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M176" s="1">
+        <v>1</v>
+      </c>
+      <c r="N176" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V176" s="2">
+        <v>13.293342000000001</v>
+      </c>
+      <c r="W176" s="2">
+        <v>-87.111866000000006</v>
+      </c>
+    </row>
+    <row r="177" spans="2:23">
+      <c r="B177" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" s="1">
+        <v>3</v>
+      </c>
+      <c r="E177" s="7">
+        <v>6</v>
+      </c>
+      <c r="F177" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I177" s="1">
+        <v>7</v>
+      </c>
+      <c r="J177" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M177" s="1">
+        <v>1</v>
+      </c>
+      <c r="N177" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V177" s="2">
+        <v>13.284371999999999</v>
+      </c>
+      <c r="W177" s="2">
+        <v>-87.312591999999995</v>
+      </c>
+    </row>
+    <row r="178" spans="2:23">
+      <c r="B178" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178" s="1">
+        <v>3</v>
+      </c>
+      <c r="E178" s="7">
+        <v>6</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I178" s="1">
+        <v>9</v>
+      </c>
+      <c r="J178" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M178" s="1">
+        <v>1</v>
+      </c>
+      <c r="N178" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="R178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V178" s="2">
+        <v>13.203086000000001</v>
+      </c>
+      <c r="W178" s="2">
+        <v>-87.138760000000005</v>
+      </c>
+    </row>
+    <row r="179" spans="2:23">
+      <c r="B179" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179" s="1">
+        <v>3</v>
+      </c>
+      <c r="E179" s="7">
+        <v>6</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I179" s="1">
+        <v>7</v>
+      </c>
+      <c r="J179" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M179" s="1">
+        <v>14</v>
+      </c>
+      <c r="N179" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q179" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="R179" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S179" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V179" s="2">
+        <v>13.198708</v>
+      </c>
+      <c r="W179" s="2">
+        <v>-87.375152999999997</v>
+      </c>
+    </row>
+    <row r="180" spans="2:23">
+      <c r="B180" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D180" s="1">
+        <v>3</v>
+      </c>
+      <c r="E180" s="7"/>
+      <c r="F180" s="10"/>
+      <c r="H180" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J180" s="11"/>
+      <c r="L180" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N180" s="11"/>
+      <c r="P180" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="181" spans="2:23">
+      <c r="B181" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181" s="1">
+        <v>3</v>
+      </c>
+      <c r="E181" s="7"/>
+      <c r="F181" s="10"/>
+      <c r="H181" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J181" s="11"/>
+      <c r="L181" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N181" s="11"/>
+      <c r="P181" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="2:23">
+      <c r="B182" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182" s="1">
+        <v>3</v>
+      </c>
+      <c r="E182" s="7"/>
+      <c r="F182" s="10"/>
+      <c r="H182" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J182" s="11"/>
+      <c r="L182" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N182" s="11"/>
+      <c r="P182" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q182" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="R182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S182" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="183" spans="2:23">
+      <c r="B183" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D183" s="1">
+        <v>3</v>
+      </c>
+      <c r="E183" s="7"/>
+      <c r="F183" s="10"/>
+      <c r="H183" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J183" s="11"/>
+      <c r="L183" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N183" s="11"/>
+      <c r="P183" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q183" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="R183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S183" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="184" spans="2:23">
+      <c r="B184" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184" s="1">
+        <v>3</v>
+      </c>
+      <c r="E184" s="7"/>
+      <c r="F184" s="10"/>
+      <c r="H184" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J184" s="11"/>
+      <c r="L184" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N184" s="11"/>
+      <c r="P184" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q184" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="R184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S184" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="185" spans="2:23">
+      <c r="B185" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D185" s="1">
+        <v>3</v>
+      </c>
+      <c r="E185" s="7"/>
+      <c r="F185" s="10"/>
+      <c r="H185" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J185" s="11"/>
+      <c r="L185" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N185" s="11"/>
+      <c r="P185" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S185" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1483" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F05D4608-BCB1-4311-9806-87CC81827CB8}"/>
+  <xr:revisionPtr revIDLastSave="1730" documentId="8_{E1F7758E-E104-448D-A907-EF55592BDEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E665DE87-F202-473E-94AD-F7DEAACB0547}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="HOSPITALES" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOSPITALES!$A$1:$W$192</definedName>
     <definedName name="_xlnm.Database">HOSPITALES!$A$1:$U$83</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="607">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -894,6 +894,9 @@
     <t xml:space="preserve">Puerto Lempira </t>
   </si>
   <si>
+    <t>HND-0901</t>
+  </si>
+  <si>
     <t>Hospital Puerto Lempira</t>
   </si>
   <si>
@@ -903,6 +906,9 @@
     <t>Juticalpa</t>
   </si>
   <si>
+    <t>HND-1501</t>
+  </si>
+  <si>
     <t>Hospital San Francisco</t>
   </si>
   <si>
@@ -915,6 +921,9 @@
     <t>Catacamas</t>
   </si>
   <si>
+    <t>HND-1503</t>
+  </si>
+  <si>
     <t>Hospital y Clínica Campos</t>
   </si>
   <si>
@@ -927,6 +936,9 @@
     <t>Guajiquiro</t>
   </si>
   <si>
+    <t>HND-1206</t>
+  </si>
+  <si>
     <t xml:space="preserve">centro de salud </t>
   </si>
   <si>
@@ -939,6 +951,9 @@
     <t>Marcala</t>
   </si>
   <si>
+    <t>HND-1208</t>
+  </si>
+  <si>
     <t>Centro de Salud Marcala</t>
   </si>
   <si>
@@ -948,9 +963,15 @@
     <t>San José</t>
   </si>
   <si>
+    <t>HND-1212</t>
+  </si>
+  <si>
     <t>1201</t>
   </si>
   <si>
+    <t>HND-1201</t>
+  </si>
+  <si>
     <t>Hospital Montecillos</t>
   </si>
   <si>
@@ -960,9 +981,15 @@
     <t>0301</t>
   </si>
   <si>
+    <t>HND-0301</t>
+  </si>
+  <si>
     <t>Hospital Regional Santa Teresa</t>
   </si>
   <si>
+    <t>HND0301</t>
+  </si>
+  <si>
     <t>Hospital del Valle</t>
   </si>
   <si>
@@ -975,6 +1002,9 @@
     <t>La Esperanza</t>
   </si>
   <si>
+    <t>HND-1001</t>
+  </si>
+  <si>
     <t>Hospital Enrique Aguila Cerrato</t>
   </si>
   <si>
@@ -984,9 +1014,24 @@
     <t>Tela</t>
   </si>
   <si>
+    <t>HND-0107</t>
+  </si>
+  <si>
     <t>Hospital Tela Integrado</t>
   </si>
   <si>
+    <t>0902</t>
+  </si>
+  <si>
+    <t>Brus Laguna</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>HND-0902</t>
+  </si>
+  <si>
     <t>Cesamo de Ibans</t>
   </si>
   <si>
@@ -996,6 +1041,9 @@
     <t>1601</t>
   </si>
   <si>
+    <t>HND-1601</t>
+  </si>
+  <si>
     <t>Hospital Santa Barbará Integrado</t>
   </si>
   <si>
@@ -1005,9 +1053,24 @@
     <t>Trinidad</t>
   </si>
   <si>
+    <t>HND-1626</t>
+  </si>
+  <si>
     <t>Clínica de Emergencia Trinidad</t>
   </si>
   <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>Macuelizo</t>
+  </si>
+  <si>
+    <t>Sula</t>
+  </si>
+  <si>
+    <t>HND-1612</t>
+  </si>
+  <si>
     <t>Hospital Sula Socorro de lo Atlto</t>
   </si>
   <si>
@@ -1017,6 +1080,9 @@
     <t>Petoa</t>
   </si>
   <si>
+    <t>HND-1615</t>
+  </si>
+  <si>
     <t>Hospital Luz de Vida</t>
   </si>
   <si>
@@ -1029,6 +1095,9 @@
     <t>0704</t>
   </si>
   <si>
+    <t>HND-0704</t>
+  </si>
+  <si>
     <t>Centro Médico San Francisco</t>
   </si>
   <si>
@@ -1038,6 +1107,15 @@
     <t xml:space="preserve">Yoro </t>
   </si>
   <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>Sulaco</t>
+  </si>
+  <si>
+    <t>HND-1809</t>
+  </si>
+  <si>
     <t>Centro de Salud San Antonio Sulaco Yoro</t>
   </si>
   <si>
@@ -1047,6 +1125,9 @@
     <t>Yorito</t>
   </si>
   <si>
+    <t>HND-1811</t>
+  </si>
+  <si>
     <t>Centro de Salud Yorito</t>
   </si>
   <si>
@@ -1056,21 +1137,24 @@
     <t>1801</t>
   </si>
   <si>
+    <t>HND-1801</t>
+  </si>
+  <si>
     <t>Clínica Médica Dra. Chávez</t>
   </si>
   <si>
     <t>Hospital Manuel de Jesus Subirana</t>
   </si>
   <si>
-    <t>ACTS Clinic</t>
-  </si>
-  <si>
     <t>1313</t>
   </si>
   <si>
     <t>Lepaera</t>
   </si>
   <si>
+    <t>HND-1313</t>
+  </si>
+  <si>
     <t>Centro de Salud Lepaera</t>
   </si>
   <si>
@@ -1080,6 +1164,9 @@
     <t>Santa Cruz</t>
   </si>
   <si>
+    <t>HND-1322</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cesamo de Santa Cruz </t>
   </si>
   <si>
@@ -1089,12 +1176,18 @@
     <t>Gualcinse</t>
   </si>
   <si>
+    <t>HND-1306</t>
+  </si>
+  <si>
     <t>Hospital del Sur Dr. Lempira</t>
   </si>
   <si>
     <t>Nacaome</t>
   </si>
   <si>
+    <t>HND-1701</t>
+  </si>
+  <si>
     <t>Policlínica Nacaome</t>
   </si>
   <si>
@@ -1104,12 +1197,18 @@
     <t>Langue</t>
   </si>
   <si>
+    <t>HND-1707</t>
+  </si>
+  <si>
     <t>Centro de Salud de Langue</t>
   </si>
   <si>
     <t>Goascorán</t>
   </si>
   <si>
+    <t>HND-1706</t>
+  </si>
+  <si>
     <t>Medicenter</t>
   </si>
   <si>
@@ -1584,7 +1683,178 @@
     <t>Monjaras</t>
   </si>
   <si>
-    <t>HND-</t>
+    <t>0813</t>
+  </si>
+  <si>
+    <t>Ojojona</t>
+  </si>
+  <si>
+    <t>HND-0813</t>
+  </si>
+  <si>
+    <t>0811</t>
+  </si>
+  <si>
+    <t>Marale</t>
+  </si>
+  <si>
+    <t>081102</t>
+  </si>
+  <si>
+    <t>HND-0811</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>El Porvenir</t>
+  </si>
+  <si>
+    <t>080501</t>
+  </si>
+  <si>
+    <t>HND-0805</t>
+  </si>
+  <si>
+    <t>0814</t>
+  </si>
+  <si>
+    <t>Orica</t>
+  </si>
+  <si>
+    <t>081401</t>
+  </si>
+  <si>
+    <t>HND-0814</t>
+  </si>
+  <si>
+    <t>0819</t>
+  </si>
+  <si>
+    <t>San Ignacio</t>
+  </si>
+  <si>
+    <t>081901</t>
+  </si>
+  <si>
+    <t>HND-0819</t>
+  </si>
+  <si>
+    <t>0803</t>
+  </si>
+  <si>
+    <t>Cedros</t>
+  </si>
+  <si>
+    <t>080301</t>
+  </si>
+  <si>
+    <t>HND-0803</t>
+  </si>
+  <si>
+    <t>090204</t>
+  </si>
+  <si>
+    <t>Cocobila</t>
+  </si>
+  <si>
+    <t>090202</t>
+  </si>
+  <si>
+    <t>Barra del Patuca</t>
+  </si>
+  <si>
+    <t>0903</t>
+  </si>
+  <si>
+    <t>Ahuas</t>
+  </si>
+  <si>
+    <t>090332</t>
+  </si>
+  <si>
+    <t>Bank-Raya</t>
+  </si>
+  <si>
+    <t>HND-0903</t>
+  </si>
+  <si>
+    <t>0904</t>
+  </si>
+  <si>
+    <t>Juan Francisco Bulnes</t>
+  </si>
+  <si>
+    <t>090407</t>
+  </si>
+  <si>
+    <t>Kraos-Sirpe</t>
+  </si>
+  <si>
+    <t>HND-0904</t>
+  </si>
+  <si>
+    <t>1517</t>
+  </si>
+  <si>
+    <t>San Esteban</t>
+  </si>
+  <si>
+    <t>151719</t>
+  </si>
+  <si>
+    <t>San Martin</t>
+  </si>
+  <si>
+    <t>HND-1517</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>Guata</t>
+  </si>
+  <si>
+    <t>151001</t>
+  </si>
+  <si>
+    <t>HND-1510</t>
+  </si>
+  <si>
+    <t>1514</t>
+  </si>
+  <si>
+    <t>Manguile</t>
+  </si>
+  <si>
+    <t>151401</t>
+  </si>
+  <si>
+    <t>HND-1514</t>
+  </si>
+  <si>
+    <t>1512</t>
+  </si>
+  <si>
+    <t>Jano</t>
+  </si>
+  <si>
+    <t>151201</t>
+  </si>
+  <si>
+    <t>HND-1512</t>
+  </si>
+  <si>
+    <t>1518</t>
+  </si>
+  <si>
+    <t>San Francisco de Becerra</t>
+  </si>
+  <si>
+    <t>151801</t>
+  </si>
+  <si>
+    <t>HND-1518</t>
   </si>
 </sst>
 </file>
@@ -2108,48 +2378,48 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -2254,8 +2524,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W185" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:W185" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16499EEC-32B0-41A9-AE9A-46E68A93C723}" name="HOSPITALES_HN" displayName="HOSPITALES_HN" ref="A1:W192" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:W192" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W83">
     <sortCondition ref="S1:S83"/>
   </sortState>
@@ -2585,11 +2855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W185"/>
+  <dimension ref="A1:W195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="T165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W180" sqref="W180"/>
+      <pane ySplit="1" topLeftCell="P178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A193:XFD194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -2608,7 +2878,7 @@
     <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.5703125" style="1" customWidth="1"/>
     <col min="16" max="16" width="20.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="15" style="1" customWidth="1"/>
     <col min="18" max="18" width="17.140625" style="1" customWidth="1"/>
@@ -9152,6 +9422,9 @@
       <c r="P97" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q97" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="R97" s="1" t="s">
         <v>35</v>
       </c>
@@ -9159,7 +9432,7 @@
         <v>246</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V97" s="2">
         <v>15.265726000000001</v>
@@ -9194,10 +9467,10 @@
         <v>1</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>30</v>
@@ -9206,6 +9479,9 @@
       <c r="P98" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q98" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="R98" s="1" t="s">
         <v>35</v>
       </c>
@@ -9213,7 +9489,7 @@
         <v>179</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="V98" s="2">
         <v>14.665319</v>
@@ -9248,10 +9524,10 @@
         <v>1</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>30</v>
@@ -9260,6 +9536,9 @@
       <c r="P99" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q99" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="R99" s="1" t="s">
         <v>35</v>
       </c>
@@ -9267,7 +9546,7 @@
         <v>179</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="V99" s="2">
         <v>14.671486</v>
@@ -9302,10 +9581,10 @@
         <v>3</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>30</v>
@@ -9314,6 +9593,9 @@
       <c r="P100" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q100" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="R100" s="1" t="s">
         <v>35</v>
       </c>
@@ -9321,7 +9603,7 @@
         <v>179</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="V100" s="2">
         <v>14.853908000000001</v>
@@ -9356,10 +9638,10 @@
         <v>3</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>30</v>
@@ -9368,6 +9650,9 @@
       <c r="P101" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q101" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="R101" s="1" t="s">
         <v>35</v>
       </c>
@@ -9375,7 +9660,7 @@
         <v>72</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="V101" s="2">
         <v>14.851229</v>
@@ -9410,10 +9695,10 @@
         <v>3</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>30</v>
@@ -9422,6 +9707,9 @@
       <c r="P102" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q102" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="R102" s="1" t="s">
         <v>35</v>
       </c>
@@ -9464,10 +9752,10 @@
         <v>6</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>30</v>
@@ -9476,14 +9764,17 @@
       <c r="P103" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q103" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="R103" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="V103" s="2">
         <v>14.120423000000001</v>
@@ -9518,10 +9809,10 @@
         <v>8</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>30</v>
@@ -9530,14 +9821,17 @@
       <c r="P104" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q104" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="R104" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="V104" s="2">
         <v>14.159074</v>
@@ -9572,10 +9866,10 @@
         <v>12</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>30</v>
@@ -9584,11 +9878,14 @@
       <c r="P105" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q105" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="R105" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="U105" s="1" t="s">
         <v>44</v>
@@ -9626,7 +9923,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>63</v>
@@ -9638,6 +9935,9 @@
       <c r="P106" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q106" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="R106" s="1" t="s">
         <v>35</v>
       </c>
@@ -9645,7 +9945,7 @@
         <v>179</v>
       </c>
       <c r="U106" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="V106" s="2">
         <v>14.319006</v>
@@ -9680,7 +9980,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>63</v>
@@ -9692,6 +9992,9 @@
       <c r="P107" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q107" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="R107" s="1" t="s">
         <v>35</v>
       </c>
@@ -9699,7 +10002,7 @@
         <v>179</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="V107" s="2">
         <v>14.322329999999999</v>
@@ -9734,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>189</v>
@@ -9746,6 +10049,9 @@
       <c r="P108" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q108" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="R108" s="1" t="s">
         <v>35</v>
       </c>
@@ -9753,7 +10059,7 @@
         <v>179</v>
       </c>
       <c r="U108" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="V108" s="2">
         <v>14.453317999999999</v>
@@ -9788,7 +10094,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>189</v>
@@ -9800,6 +10106,9 @@
       <c r="P109" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q109" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="R109" s="1" t="s">
         <v>35</v>
       </c>
@@ -9807,7 +10116,7 @@
         <v>179</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="V109" s="2">
         <v>14.456941</v>
@@ -9842,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>189</v>
@@ -9854,6 +10163,9 @@
       <c r="P110" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q110" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="R110" s="1" t="s">
         <v>35</v>
       </c>
@@ -9861,7 +10173,7 @@
         <v>179</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="V110" s="2">
         <v>14.460008999999999</v>
@@ -9908,6 +10220,9 @@
       <c r="P111" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q111" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="R111" s="1" t="s">
         <v>35</v>
       </c>
@@ -9950,10 +10265,10 @@
         <v>1</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>30</v>
@@ -9962,6 +10277,9 @@
       <c r="P112" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q112" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="R112" s="1" t="s">
         <v>35</v>
       </c>
@@ -9969,7 +10287,7 @@
         <v>179</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="V112" s="2">
         <v>14.314704000000001</v>
@@ -10004,10 +10322,10 @@
         <v>7</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>30</v>
@@ -10016,6 +10334,9 @@
       <c r="P113" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q113" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="R113" s="1" t="s">
         <v>35</v>
       </c>
@@ -10023,7 +10344,7 @@
         <v>179</v>
       </c>
       <c r="U113" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="V113" s="2">
         <v>15.754151999999999</v>
@@ -10054,13 +10375,27 @@
       <c r="H114" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J114" s="11"/>
+      <c r="I114" s="7">
+        <v>2</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="L114" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N114" s="11"/>
+      <c r="O114" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="P114" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="R114" s="1" t="s">
         <v>35</v>
@@ -10069,7 +10404,7 @@
         <v>36</v>
       </c>
       <c r="U114" s="1" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="V114" s="2">
         <v>15.908462</v>
@@ -10095,7 +10430,7 @@
         <v>237</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>27</v>
@@ -10104,10 +10439,10 @@
         <v>1</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>30</v>
@@ -10116,6 +10451,9 @@
       <c r="P115" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q115" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="R115" s="1" t="s">
         <v>35</v>
       </c>
@@ -10123,7 +10461,7 @@
         <v>179</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="V115" s="2">
         <v>14.925007000000001</v>
@@ -10149,7 +10487,7 @@
         <v>237</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>27</v>
@@ -10158,10 +10496,10 @@
         <v>26</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>30</v>
@@ -10170,6 +10508,9 @@
       <c r="P116" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q116" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="R116" s="1" t="s">
         <v>35</v>
       </c>
@@ -10177,7 +10518,7 @@
         <v>72</v>
       </c>
       <c r="U116" s="1" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="V116" s="2">
         <v>15.143121000000001</v>
@@ -10186,7 +10527,7 @@
         <v>-88.237575000000007</v>
       </c>
     </row>
-    <row r="117" spans="2:23">
+    <row r="117" spans="2:23" ht="15">
       <c r="B117" s="1" t="s">
         <v>23</v>
       </c>
@@ -10203,18 +10544,32 @@
         <v>237</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J117" s="11"/>
+      <c r="I117" s="7">
+        <v>12</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="L117" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N117" s="11"/>
+      <c r="O117" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="P117" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="R117" s="1" t="s">
         <v>35</v>
@@ -10223,7 +10578,7 @@
         <v>179</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="V117" s="2">
         <v>15.247275</v>
@@ -10249,7 +10604,7 @@
         <v>237</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>27</v>
@@ -10258,10 +10613,10 @@
         <v>15</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>30</v>
@@ -10270,6 +10625,9 @@
       <c r="P118" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q118" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="R118" s="1" t="s">
         <v>35</v>
       </c>
@@ -10277,7 +10635,7 @@
         <v>179</v>
       </c>
       <c r="U118" s="1" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="V118" s="2">
         <v>15.273072000000001</v>
@@ -10303,7 +10661,7 @@
         <v>237</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>27</v>
@@ -10324,6 +10682,9 @@
       <c r="P119" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q119" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="R119" s="1" t="s">
         <v>35</v>
       </c>
@@ -10331,7 +10692,7 @@
         <v>179</v>
       </c>
       <c r="U119" s="1" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="V119" s="2">
         <v>15.348732999999999</v>
@@ -10357,7 +10718,7 @@
         <v>250</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>27</v>
@@ -10366,10 +10727,10 @@
         <v>4</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>30</v>
@@ -10378,6 +10739,9 @@
       <c r="P120" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q120" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="R120" s="1" t="s">
         <v>35</v>
       </c>
@@ -10385,7 +10749,7 @@
         <v>179</v>
       </c>
       <c r="U120" s="1" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="V120" s="2">
         <v>13.861846</v>
@@ -10411,7 +10775,7 @@
         <v>250</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>27</v>
@@ -10420,10 +10784,10 @@
         <v>4</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>30</v>
@@ -10432,6 +10796,9 @@
       <c r="P121" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q121" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="R121" s="1" t="s">
         <v>35</v>
       </c>
@@ -10439,7 +10806,7 @@
         <v>179</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="V121" s="2">
         <v>13.865371</v>
@@ -10465,12 +10832,20 @@
         <v>161</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J122" s="11"/>
+      <c r="I122" s="7">
+        <v>9</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="L122" s="1" t="s">
         <v>30</v>
       </c>
@@ -10478,6 +10853,9 @@
       <c r="P122" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q122" s="1" t="s">
+        <v>359</v>
+      </c>
       <c r="R122" s="1" t="s">
         <v>35</v>
       </c>
@@ -10485,7 +10863,7 @@
         <v>36</v>
       </c>
       <c r="U122" s="1" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="V122" s="2">
         <v>14.985823</v>
@@ -10520,10 +10898,10 @@
         <v>11</v>
       </c>
       <c r="J123" s="13" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>30</v>
@@ -10532,6 +10910,9 @@
       <c r="P123" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q123" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="R123" s="1" t="s">
         <v>35</v>
       </c>
@@ -10539,7 +10920,7 @@
         <v>36</v>
       </c>
       <c r="U123" s="1" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="V123" s="2">
         <v>15.065429</v>
@@ -10548,7 +10929,7 @@
         <v>-87.277242999999999</v>
       </c>
     </row>
-    <row r="124" spans="2:23">
+    <row r="124" spans="2:23" ht="15">
       <c r="B124" s="1" t="s">
         <v>23</v>
       </c>
@@ -10570,7 +10951,15 @@
       <c r="H124" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J124" s="11"/>
+      <c r="I124" s="8">
+        <v>11</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="L124" s="1" t="s">
         <v>30</v>
       </c>
@@ -10578,6 +10967,9 @@
       <c r="P124" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q124" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="R124" s="1" t="s">
         <v>35</v>
       </c>
@@ -10585,7 +10977,7 @@
         <v>36</v>
       </c>
       <c r="U124" s="1" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="V124" s="2">
         <v>15.108616</v>
@@ -10620,7 +11012,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>162</v>
@@ -10632,6 +11024,9 @@
       <c r="P125" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q125" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="R125" s="1" t="s">
         <v>35</v>
       </c>
@@ -10639,7 +11034,7 @@
         <v>72</v>
       </c>
       <c r="U125" s="1" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="V125" s="2">
         <v>15.137855999999999</v>
@@ -10674,7 +11069,7 @@
         <v>1</v>
       </c>
       <c r="J126" s="10" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>162</v>
@@ -10686,6 +11081,9 @@
       <c r="P126" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q126" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="R126" s="1" t="s">
         <v>35</v>
       </c>
@@ -10693,7 +11091,7 @@
         <v>179</v>
       </c>
       <c r="U126" s="1" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="V126" s="2">
         <v>15.137337</v>
@@ -10702,7 +11100,7 @@
         <v>-87.133142000000007</v>
       </c>
     </row>
-    <row r="127" spans="2:23">
+    <row r="127" spans="2:23" ht="15">
       <c r="B127" s="1" t="s">
         <v>23</v>
       </c>
@@ -10713,18 +11111,26 @@
         <v>3</v>
       </c>
       <c r="E127" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J127" s="11"/>
+      <c r="I127" s="7">
+        <v>13</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="L127" s="1" t="s">
         <v>30</v>
       </c>
@@ -10732,20 +11138,23 @@
       <c r="P127" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q127" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="R127" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S127" s="1" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="U127" s="1" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="V127" s="2">
-        <v>15.276194</v>
+        <v>14.780340000000001</v>
       </c>
       <c r="W127" s="2">
-        <v>-87.324967999999998</v>
+        <v>-88.588606999999996</v>
       </c>
     </row>
     <row r="128" spans="2:23" ht="15">
@@ -10771,13 +11180,13 @@
         <v>27</v>
       </c>
       <c r="I128" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>30</v>
@@ -10786,6 +11195,9 @@
       <c r="P128" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q128" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="R128" s="1" t="s">
         <v>35</v>
       </c>
@@ -10793,13 +11205,13 @@
         <v>36</v>
       </c>
       <c r="U128" s="1" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="V128" s="2">
-        <v>14.780340000000001</v>
+        <v>14.329539</v>
       </c>
       <c r="W128" s="2">
-        <v>-88.588606999999996</v>
+        <v>-88.522634999999994</v>
       </c>
     </row>
     <row r="129" spans="2:23" ht="15">
@@ -10825,13 +11237,13 @@
         <v>27</v>
       </c>
       <c r="I129" s="7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>30</v>
@@ -10840,20 +11252,23 @@
       <c r="P129" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q129" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="R129" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="V129" s="2">
-        <v>14.329539</v>
+        <v>14.126211</v>
       </c>
       <c r="W129" s="2">
-        <v>-88.522634999999994</v>
+        <v>-88.543222999999998</v>
       </c>
     </row>
     <row r="130" spans="2:23" ht="15">
@@ -10867,25 +11282,25 @@
         <v>3</v>
       </c>
       <c r="E130" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>143</v>
+        <v>277</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I130" s="7">
-        <v>6</v>
-      </c>
-      <c r="J130" s="10" t="s">
-        <v>349</v>
+        <v>1</v>
+      </c>
+      <c r="J130" s="12">
+        <v>1701</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>30</v>
@@ -10894,23 +11309,26 @@
       <c r="P130" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q130" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="R130" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="V130" s="2">
-        <v>14.126211</v>
+        <v>13.530787999999999</v>
       </c>
       <c r="W130" s="2">
-        <v>-88.543222999999998</v>
-      </c>
-    </row>
-    <row r="131" spans="2:23">
+        <v>-87.498217999999994</v>
+      </c>
+    </row>
+    <row r="131" spans="2:23" ht="15">
       <c r="B131" s="1" t="s">
         <v>23</v>
       </c>
@@ -10921,18 +11339,26 @@
         <v>3</v>
       </c>
       <c r="E131" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>143</v>
+        <v>277</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J131" s="11"/>
+      <c r="I131" s="7">
+        <v>1</v>
+      </c>
+      <c r="J131" s="12">
+        <v>1701</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="L131" s="1" t="s">
         <v>30</v>
       </c>
@@ -10940,20 +11366,23 @@
       <c r="P131" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q131" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="R131" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="V131" s="2">
-        <v>14.114020999999999</v>
+        <v>13.532709000000001</v>
       </c>
       <c r="W131" s="2">
-        <v>-88.651722000000007</v>
+        <v>-87.492543999999995</v>
       </c>
     </row>
     <row r="132" spans="2:23" ht="15">
@@ -10979,13 +11408,13 @@
         <v>27</v>
       </c>
       <c r="I132" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J132" s="12">
-        <v>1701</v>
+        <v>1707</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>30</v>
@@ -10994,20 +11423,23 @@
       <c r="P132" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q132" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="R132" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="V132" s="2">
-        <v>13.530787999999999</v>
+        <v>13.62003</v>
       </c>
       <c r="W132" s="2">
-        <v>-87.498217999999994</v>
+        <v>-87.657388999999995</v>
       </c>
     </row>
     <row r="133" spans="2:23" ht="15">
@@ -11033,13 +11465,13 @@
         <v>27</v>
       </c>
       <c r="I133" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J133" s="12">
-        <v>1701</v>
+        <v>1706</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>30</v>
@@ -11048,20 +11480,23 @@
       <c r="P133" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q133" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="R133" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="V133" s="2">
-        <v>13.532709000000001</v>
+        <v>13.610545</v>
       </c>
       <c r="W133" s="2">
-        <v>-87.492543999999995</v>
+        <v>-87.752651</v>
       </c>
     </row>
     <row r="134" spans="2:23" ht="15">
@@ -11075,50 +11510,58 @@
         <v>3</v>
       </c>
       <c r="E134" s="7">
-        <v>17</v>
-      </c>
-      <c r="F134" s="10" t="s">
-        <v>276</v>
+        <v>11</v>
+      </c>
+      <c r="F134" s="10">
+        <v>11</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>277</v>
+        <v>56</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I134" s="7">
-        <v>7</v>
+      <c r="I134" s="1">
+        <v>2</v>
       </c>
       <c r="J134" s="12">
-        <v>1707</v>
+        <v>1102</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N134" s="11"/>
+      <c r="M134" s="1">
+        <v>1</v>
+      </c>
+      <c r="N134" s="11">
+        <v>110201</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="P134" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q134" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="R134" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U134" s="1" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="V134" s="2">
-        <v>13.62003</v>
+        <v>16.439831999999999</v>
       </c>
       <c r="W134" s="2">
-        <v>-87.657388999999995</v>
-      </c>
-    </row>
-    <row r="135" spans="2:23" ht="15">
+        <v>-85.887030999999993</v>
+      </c>
+    </row>
+    <row r="135" spans="2:23">
       <c r="B135" s="1" t="s">
         <v>23</v>
       </c>
@@ -11129,50 +11572,53 @@
         <v>3</v>
       </c>
       <c r="E135" s="7">
-        <v>17</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>276</v>
+        <v>11</v>
+      </c>
+      <c r="F135" s="10">
+        <v>11</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>277</v>
+        <v>56</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I135" s="7">
-        <v>6</v>
+      <c r="I135" s="1">
+        <v>2</v>
       </c>
       <c r="J135" s="12">
-        <v>1706</v>
+        <v>1102</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N135" s="11"/>
+      <c r="O135" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="P135" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q135" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="R135" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U135" s="1" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="V135" s="2">
-        <v>13.610545</v>
+        <v>16.484898000000001</v>
       </c>
       <c r="W135" s="2">
-        <v>-87.752651</v>
-      </c>
-    </row>
-    <row r="136" spans="2:23" ht="15">
+        <v>-85.844579999999993</v>
+      </c>
+    </row>
+    <row r="136" spans="2:23">
       <c r="B136" s="1" t="s">
         <v>23</v>
       </c>
@@ -11194,44 +11640,44 @@
       <c r="H136" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I136" s="1">
-        <v>2</v>
-      </c>
-      <c r="J136" s="12">
-        <v>1102</v>
-      </c>
-      <c r="K136" s="1" t="s">
-        <v>359</v>
+      <c r="I136" s="9">
+        <v>3</v>
+      </c>
+      <c r="J136" s="11">
+        <v>1103</v>
+      </c>
+      <c r="K136" s="9" t="s">
+        <v>396</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M136" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N136" s="11">
-        <v>110201</v>
+        <v>110303</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="P136" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="R136" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V136" s="2">
-        <v>16.439831999999999</v>
+        <v>16.438224000000002</v>
       </c>
       <c r="W136" s="2">
-        <v>-85.887030999999993</v>
+        <v>-86.146834999999996</v>
       </c>
     </row>
     <row r="137" spans="2:23">
@@ -11245,50 +11691,55 @@
         <v>3</v>
       </c>
       <c r="E137" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F137" s="10">
-        <v>11</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I137" s="1">
-        <v>2</v>
-      </c>
-      <c r="J137" s="12">
-        <v>1102</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>359</v>
+      <c r="I137" s="9">
+        <v>10</v>
+      </c>
+      <c r="J137" s="11">
+        <v>1410</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>399</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N137" s="11"/>
+      <c r="M137" s="1">
+        <v>1</v>
+      </c>
+      <c r="N137" s="11">
+        <v>141001</v>
+      </c>
       <c r="O137" s="1" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="P137" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="R137" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V137" s="2">
-        <v>16.484898000000001</v>
+        <v>14.680396999999999</v>
       </c>
       <c r="W137" s="2">
-        <v>-85.844579999999993</v>
+        <v>-89.111785999999995</v>
       </c>
     </row>
     <row r="138" spans="2:23">
@@ -11302,25 +11753,25 @@
         <v>3</v>
       </c>
       <c r="E138" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F138" s="10">
-        <v>11</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I138" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J138" s="11">
-        <v>1103</v>
+        <v>1406</v>
       </c>
       <c r="K138" s="9" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>30</v>
@@ -11329,28 +11780,28 @@
         <v>3</v>
       </c>
       <c r="N138" s="11">
-        <v>110303</v>
+        <v>140603</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="P138" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="R138" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V138" s="2">
-        <v>16.438224000000002</v>
+        <v>14.664014</v>
       </c>
       <c r="W138" s="2">
-        <v>-86.146834999999996</v>
+        <v>-89.069692000000003</v>
       </c>
     </row>
     <row r="139" spans="2:23">
@@ -11376,43 +11827,43 @@
         <v>27</v>
       </c>
       <c r="I139" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J139" s="11">
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M139" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N139" s="11">
-        <v>141001</v>
+        <v>141502</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="P139" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="R139" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V139" s="2">
-        <v>14.680396999999999</v>
+        <v>14.487455000000001</v>
       </c>
       <c r="W139" s="2">
-        <v>-89.111785999999995</v>
+        <v>-88.915816000000007</v>
       </c>
     </row>
     <row r="140" spans="2:23">
@@ -11438,43 +11889,43 @@
         <v>27</v>
       </c>
       <c r="I140" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J140" s="11">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M140" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N140" s="11">
-        <v>140603</v>
+        <v>140701</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="P140" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="R140" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V140" s="2">
-        <v>14.664014</v>
+        <v>14.484342</v>
       </c>
       <c r="W140" s="2">
-        <v>-89.069692000000003</v>
+        <v>-89.002711000000005</v>
       </c>
     </row>
     <row r="141" spans="2:23">
@@ -11500,43 +11951,43 @@
         <v>27</v>
       </c>
       <c r="I141" s="9">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J141" s="11">
-        <v>1415</v>
+        <v>1402</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M141" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N141" s="11">
-        <v>141502</v>
+        <v>140201</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="P141" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="R141" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V141" s="2">
-        <v>14.487455000000001</v>
+        <v>14.477974</v>
       </c>
       <c r="W141" s="2">
-        <v>-88.915816000000007</v>
+        <v>-88.790651999999994</v>
       </c>
     </row>
     <row r="142" spans="2:23">
@@ -11562,13 +12013,13 @@
         <v>27</v>
       </c>
       <c r="I142" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J142" s="11">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>30</v>
@@ -11577,28 +12028,28 @@
         <v>1</v>
       </c>
       <c r="N142" s="11">
-        <v>140701</v>
+        <v>140101</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="P142" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="R142" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V142" s="2">
-        <v>14.484342</v>
+        <v>14.43247</v>
       </c>
       <c r="W142" s="2">
-        <v>-89.002711000000005</v>
+        <v>-89.182400000000001</v>
       </c>
     </row>
     <row r="143" spans="2:23">
@@ -11612,25 +12063,25 @@
         <v>3</v>
       </c>
       <c r="E143" s="7">
-        <v>14</v>
-      </c>
-      <c r="F143" s="10">
-        <v>14</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>271</v>
+        <v>7</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I143" s="9">
-        <v>2</v>
-      </c>
-      <c r="J143" s="11">
-        <v>1402</v>
-      </c>
-      <c r="K143" s="9" t="s">
-        <v>374</v>
+      <c r="I143" s="1">
+        <v>15</v>
+      </c>
+      <c r="J143" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>30</v>
@@ -11638,29 +12089,29 @@
       <c r="M143" s="1">
         <v>1</v>
       </c>
-      <c r="N143" s="11">
-        <v>140201</v>
+      <c r="N143" s="11" t="s">
+        <v>414</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="P143" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="R143" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V143" s="2">
-        <v>14.477974</v>
+        <v>14.225474</v>
       </c>
       <c r="W143" s="2">
-        <v>-88.790651999999994</v>
+        <v>-86.716131000000004</v>
       </c>
     </row>
     <row r="144" spans="2:23">
@@ -11674,25 +12125,25 @@
         <v>3</v>
       </c>
       <c r="E144" s="7">
-        <v>14</v>
-      </c>
-      <c r="F144" s="10">
-        <v>14</v>
-      </c>
-      <c r="G144" s="9" t="s">
-        <v>271</v>
+        <v>7</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I144" s="9">
-        <v>1</v>
-      </c>
-      <c r="J144" s="11">
-        <v>1401</v>
-      </c>
-      <c r="K144" s="9" t="s">
-        <v>377</v>
+      <c r="I144" s="1">
+        <v>8</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>30</v>
@@ -11700,29 +12151,29 @@
       <c r="M144" s="1">
         <v>1</v>
       </c>
-      <c r="N144" s="11">
-        <v>140101</v>
+      <c r="N144" s="11" t="s">
+        <v>418</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="P144" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="R144" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V144" s="2">
-        <v>14.43247</v>
+        <v>14.123517</v>
       </c>
       <c r="W144" s="2">
-        <v>-89.182400000000001</v>
+        <v>-86.866437000000005</v>
       </c>
     </row>
     <row r="145" spans="2:23">
@@ -11742,19 +12193,19 @@
         <v>250</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I145" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J145" s="11" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="L145" s="1" t="s">
         <v>30</v>
@@ -11763,28 +12214,28 @@
         <v>1</v>
       </c>
       <c r="N145" s="11" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="P145" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="R145" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V145" s="2">
-        <v>14.225474</v>
+        <v>14.081087999999999</v>
       </c>
       <c r="W145" s="2">
-        <v>-86.716131000000004</v>
+        <v>-86.001908</v>
       </c>
     </row>
     <row r="146" spans="2:23">
@@ -11804,19 +12255,19 @@
         <v>250</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I146" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J146" s="11" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="L146" s="1" t="s">
         <v>30</v>
@@ -11825,28 +12276,28 @@
         <v>1</v>
       </c>
       <c r="N146" s="11" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="P146" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="R146" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V146" s="2">
-        <v>14.123517</v>
+        <v>13.880433</v>
       </c>
       <c r="W146" s="2">
-        <v>-86.866437000000005</v>
+        <v>-86.935871000000006</v>
       </c>
     </row>
     <row r="147" spans="2:23">
@@ -11866,19 +12317,19 @@
         <v>250</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I147" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J147" s="11" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>30</v>
@@ -11887,28 +12338,28 @@
         <v>1</v>
       </c>
       <c r="N147" s="11" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="P147" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="R147" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V147" s="2">
-        <v>14.081087999999999</v>
+        <v>13.648353999999999</v>
       </c>
       <c r="W147" s="2">
-        <v>-86.001908</v>
+        <v>-87.024221999999995</v>
       </c>
     </row>
     <row r="148" spans="2:23">
@@ -11928,19 +12379,19 @@
         <v>250</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I148" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J148" s="11" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>30</v>
@@ -11949,28 +12400,28 @@
         <v>1</v>
       </c>
       <c r="N148" s="11" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="P148" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q148" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S148" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="R148" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S148" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="V148" s="2">
-        <v>13.880433</v>
+        <v>13.586309</v>
       </c>
       <c r="W148" s="2">
-        <v>-86.935871000000006</v>
+        <v>-87.119765000000001</v>
       </c>
     </row>
     <row r="149" spans="2:23">
@@ -11990,49 +12441,49 @@
         <v>250</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I149" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J149" s="11" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M149" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N149" s="11" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="P149" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="R149" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V149" s="2">
-        <v>13.648353999999999</v>
+        <v>13.541517000000001</v>
       </c>
       <c r="W149" s="2">
-        <v>-87.024221999999995</v>
+        <v>-87.065835000000007</v>
       </c>
     </row>
     <row r="150" spans="2:23">
@@ -12046,25 +12497,25 @@
         <v>3</v>
       </c>
       <c r="E150" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>329</v>
+        <v>85</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I150" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J150" s="11" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="L150" s="1" t="s">
         <v>30</v>
@@ -12073,28 +12524,28 @@
         <v>1</v>
       </c>
       <c r="N150" s="11" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="P150" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="R150" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V150" s="2">
-        <v>13.586309</v>
+        <v>15.774127999999999</v>
       </c>
       <c r="W150" s="2">
-        <v>-87.119765000000001</v>
+        <v>-88.038325999999998</v>
       </c>
     </row>
     <row r="151" spans="2:23">
@@ -12108,55 +12559,55 @@
         <v>3</v>
       </c>
       <c r="E151" s="7">
+        <v>5</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I151" s="1">
+        <v>3</v>
+      </c>
+      <c r="J151" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M151" s="1">
         <v>7</v>
       </c>
-      <c r="F151" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I151" s="1">
-        <v>7</v>
-      </c>
-      <c r="J151" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="L151" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M151" s="1">
-        <v>3</v>
-      </c>
       <c r="N151" s="11" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="P151" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q151" s="1" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="R151" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V151" s="2">
-        <v>13.541517000000001</v>
+        <v>15.663361</v>
       </c>
       <c r="W151" s="2">
-        <v>-87.065835000000007</v>
+        <v>-88.194593999999995</v>
       </c>
     </row>
     <row r="152" spans="2:23">
@@ -12182,13 +12633,13 @@
         <v>27</v>
       </c>
       <c r="I152" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J152" s="11" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>30</v>
@@ -12197,28 +12648,28 @@
         <v>1</v>
       </c>
       <c r="N152" s="11" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="P152" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="R152" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V152" s="2">
-        <v>15.774127999999999</v>
+        <v>15.610602</v>
       </c>
       <c r="W152" s="2">
-        <v>-88.038325999999998</v>
+        <v>-87.951762000000002</v>
       </c>
     </row>
     <row r="153" spans="2:23">
@@ -12244,43 +12695,43 @@
         <v>27</v>
       </c>
       <c r="I153" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M153" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N153" s="11" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="P153" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q153" s="1" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="R153" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S153" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V153" s="2">
-        <v>15.663361</v>
+        <v>15.439396</v>
       </c>
       <c r="W153" s="2">
-        <v>-88.194593999999995</v>
+        <v>-87.928895999999995</v>
       </c>
     </row>
     <row r="154" spans="2:23">
@@ -12306,13 +12757,13 @@
         <v>27</v>
       </c>
       <c r="I154" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J154" s="11" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>30</v>
@@ -12321,28 +12772,28 @@
         <v>1</v>
       </c>
       <c r="N154" s="11" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="P154" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q154" s="1" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="R154" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S154" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V154" s="2">
-        <v>15.610602</v>
+        <v>15.329428999999999</v>
       </c>
       <c r="W154" s="2">
-        <v>-87.951762000000002</v>
+        <v>-87.921024000000003</v>
       </c>
     </row>
     <row r="155" spans="2:23">
@@ -12368,13 +12819,13 @@
         <v>27</v>
       </c>
       <c r="I155" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J155" s="11" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="L155" s="1" t="s">
         <v>30</v>
@@ -12383,28 +12834,28 @@
         <v>1</v>
       </c>
       <c r="N155" s="11" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="P155" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="R155" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S155" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V155" s="2">
-        <v>15.439396</v>
+        <v>15.312935</v>
       </c>
       <c r="W155" s="2">
-        <v>-87.928895999999995</v>
+        <v>-87.993703999999994</v>
       </c>
     </row>
     <row r="156" spans="2:23">
@@ -12430,13 +12881,13 @@
         <v>27</v>
       </c>
       <c r="I156" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J156" s="11" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="L156" s="1" t="s">
         <v>30</v>
@@ -12445,28 +12896,28 @@
         <v>1</v>
       </c>
       <c r="N156" s="11" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="P156" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>425</v>
+        <v>466</v>
       </c>
       <c r="R156" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S156" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V156" s="2">
-        <v>15.329428999999999</v>
+        <v>15.228071</v>
       </c>
       <c r="W156" s="2">
-        <v>-87.921024000000003</v>
+        <v>-87.964016999999998</v>
       </c>
     </row>
     <row r="157" spans="2:23">
@@ -12492,13 +12943,13 @@
         <v>27</v>
       </c>
       <c r="I157" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="L157" s="1" t="s">
         <v>30</v>
@@ -12507,28 +12958,28 @@
         <v>1</v>
       </c>
       <c r="N157" s="11" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="P157" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="R157" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S157" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V157" s="2">
-        <v>15.312935</v>
+        <v>15.114108</v>
       </c>
       <c r="W157" s="2">
-        <v>-87.993703999999994</v>
+        <v>-88.040538999999995</v>
       </c>
     </row>
     <row r="158" spans="2:23">
@@ -12554,13 +13005,13 @@
         <v>27</v>
       </c>
       <c r="I158" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="L158" s="1" t="s">
         <v>30</v>
@@ -12569,28 +13020,28 @@
         <v>1</v>
       </c>
       <c r="N158" s="11" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="P158" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q158" s="1" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="R158" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S158" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V158" s="2">
-        <v>15.228071</v>
+        <v>14.97907</v>
       </c>
       <c r="W158" s="2">
-        <v>-87.964016999999998</v>
+        <v>-87.890918999999997</v>
       </c>
     </row>
     <row r="159" spans="2:23">
@@ -12604,55 +13055,55 @@
         <v>3</v>
       </c>
       <c r="E159" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I159" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J159" s="11" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="L159" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M159" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N159" s="11" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="P159" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="R159" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S159" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V159" s="2">
-        <v>15.114108</v>
+        <v>15.966279</v>
       </c>
       <c r="W159" s="2">
-        <v>-88.040538999999995</v>
+        <v>-85.096109999999996</v>
       </c>
     </row>
     <row r="160" spans="2:23">
@@ -12666,25 +13117,25 @@
         <v>3</v>
       </c>
       <c r="E160" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I160" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J160" s="11" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="L160" s="1" t="s">
         <v>30</v>
@@ -12693,28 +13144,28 @@
         <v>1</v>
       </c>
       <c r="N160" s="11" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="P160" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="R160" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S160" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V160" s="2">
-        <v>14.97907</v>
+        <v>15.864474080000001</v>
       </c>
       <c r="W160" s="2">
-        <v>-87.890918999999997</v>
+        <v>-85.506744999999995</v>
       </c>
     </row>
     <row r="161" spans="2:23">
@@ -12740,43 +13191,43 @@
         <v>27</v>
       </c>
       <c r="I161" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J161" s="11" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="L161" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M161" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N161" s="11" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="P161" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="R161" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S161" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V161" s="2">
-        <v>15.966279</v>
+        <v>15.748343</v>
       </c>
       <c r="W161" s="2">
-        <v>-85.096109999999996</v>
+        <v>-85.735150000000004</v>
       </c>
     </row>
     <row r="162" spans="2:23">
@@ -12802,43 +13253,43 @@
         <v>27</v>
       </c>
       <c r="I162" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J162" s="11" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M162" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N162" s="11" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="P162" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q162" s="1" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="R162" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S162" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V162" s="2">
-        <v>15.864474080000001</v>
+        <v>15.534311000000001</v>
       </c>
       <c r="W162" s="2">
-        <v>-85.506744999999995</v>
+        <v>-86.273984999999996</v>
       </c>
     </row>
     <row r="163" spans="2:23">
@@ -12852,25 +13303,25 @@
         <v>3</v>
       </c>
       <c r="E163" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I163" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J163" s="11" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="L163" s="1" t="s">
         <v>30</v>
@@ -12879,28 +13330,28 @@
         <v>1</v>
       </c>
       <c r="N163" s="11" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="P163" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q163" s="1" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="R163" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S163" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V163" s="2">
-        <v>15.748343</v>
+        <v>14.894002</v>
       </c>
       <c r="W163" s="2">
-        <v>-85.735150000000004</v>
+        <v>-87.579126000000002</v>
       </c>
     </row>
     <row r="164" spans="2:23">
@@ -12914,55 +13365,55 @@
         <v>3</v>
       </c>
       <c r="E164" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I164" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J164" s="11" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="L164" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M164" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N164" s="11" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="P164" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q164" s="1" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="R164" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S164" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V164" s="2">
-        <v>15.534311000000001</v>
+        <v>14.690765000000001</v>
       </c>
       <c r="W164" s="2">
-        <v>-86.273984999999996</v>
+        <v>-87.965248000000003</v>
       </c>
     </row>
     <row r="165" spans="2:23">
@@ -12988,13 +13439,13 @@
         <v>27</v>
       </c>
       <c r="I165" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J165" s="11" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="L165" s="1" t="s">
         <v>30</v>
@@ -13003,28 +13454,28 @@
         <v>1</v>
       </c>
       <c r="N165" s="11" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="P165" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q165" s="1" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="R165" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S165" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V165" s="2">
-        <v>14.894002</v>
+        <v>14.575887</v>
       </c>
       <c r="W165" s="2">
-        <v>-87.579126000000002</v>
+        <v>-87.728960000000001</v>
       </c>
     </row>
     <row r="166" spans="2:23">
@@ -13050,13 +13501,13 @@
         <v>27</v>
       </c>
       <c r="I166" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J166" s="11" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="L166" s="1" t="s">
         <v>30</v>
@@ -13065,28 +13516,28 @@
         <v>1</v>
       </c>
       <c r="N166" s="11" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="P166" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q166" s="1" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="R166" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S166" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V166" s="2">
-        <v>14.690765000000001</v>
+        <v>14.323912999999999</v>
       </c>
       <c r="W166" s="2">
-        <v>-87.965248000000003</v>
+        <v>-87.613690000000005</v>
       </c>
     </row>
     <row r="167" spans="2:23">
@@ -13100,55 +13551,50 @@
         <v>3</v>
       </c>
       <c r="E167" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I167" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J167" s="11" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="L167" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M167" s="1">
-        <v>1</v>
-      </c>
-      <c r="N167" s="11" t="s">
-        <v>470</v>
-      </c>
+      <c r="N167" s="11"/>
       <c r="O167" s="1" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="P167" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q167" s="1" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="R167" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V167" s="2">
-        <v>14.575887</v>
+        <v>14.645818</v>
       </c>
       <c r="W167" s="2">
-        <v>-87.728960000000001</v>
+        <v>-88.873898999999994</v>
       </c>
     </row>
     <row r="168" spans="2:23">
@@ -13162,55 +13608,50 @@
         <v>3</v>
       </c>
       <c r="E168" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I168" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J168" s="11" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="L168" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M168" s="1">
-        <v>1</v>
-      </c>
-      <c r="N168" s="11" t="s">
-        <v>474</v>
-      </c>
+      <c r="N168" s="11"/>
       <c r="O168" s="1" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="P168" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q168" s="1" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="R168" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S168" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V168" s="2">
-        <v>14.323912999999999</v>
+        <v>14.845943</v>
       </c>
       <c r="W168" s="2">
-        <v>-87.613690000000005</v>
+        <v>-88.831519999999998</v>
       </c>
     </row>
     <row r="169" spans="2:23">
@@ -13236,38 +13677,38 @@
         <v>27</v>
       </c>
       <c r="I169" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J169" s="11" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="L169" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N169" s="11"/>
       <c r="O169" s="1" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="P169" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q169" s="1" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="R169" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S169" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V169" s="2">
-        <v>14.645818</v>
+        <v>15.001557999999999</v>
       </c>
       <c r="W169" s="2">
-        <v>-88.873898999999994</v>
+        <v>-88.751771000000005</v>
       </c>
     </row>
     <row r="170" spans="2:23">
@@ -13293,38 +13734,43 @@
         <v>27</v>
       </c>
       <c r="I170" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J170" s="11" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="L170" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N170" s="11"/>
+      <c r="M170" s="1">
+        <v>1</v>
+      </c>
+      <c r="N170" s="11" t="s">
+        <v>520</v>
+      </c>
       <c r="O170" s="1" t="s">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="P170" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q170" s="1" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="R170" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S170" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V170" s="2">
-        <v>14.845943</v>
+        <v>15.061814</v>
       </c>
       <c r="W170" s="2">
-        <v>-88.831519999999998</v>
+        <v>-88.746099000000001</v>
       </c>
     </row>
     <row r="171" spans="2:23">
@@ -13350,38 +13796,43 @@
         <v>27</v>
       </c>
       <c r="I171" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J171" s="11" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="L171" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N171" s="11"/>
+      <c r="M171" s="1">
+        <v>1</v>
+      </c>
+      <c r="N171" s="11" t="s">
+        <v>525</v>
+      </c>
       <c r="O171" s="1" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="P171" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q171" s="1" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="R171" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S171" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V171" s="2">
-        <v>15.001557999999999</v>
+        <v>15.024939</v>
       </c>
       <c r="W171" s="2">
-        <v>-88.751771000000005</v>
+        <v>-88.835689000000002</v>
       </c>
     </row>
     <row r="172" spans="2:23">
@@ -13395,25 +13846,25 @@
         <v>3</v>
       </c>
       <c r="E172" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I172" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J172" s="11" t="s">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="L172" s="1" t="s">
         <v>30</v>
@@ -13422,28 +13873,28 @@
         <v>1</v>
       </c>
       <c r="N172" s="11" t="s">
-        <v>487</v>
+        <v>529</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="P172" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q172" s="1" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="R172" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S172" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V172" s="2">
-        <v>15.061814</v>
+        <v>13.665829</v>
       </c>
       <c r="W172" s="2">
-        <v>-88.746099000000001</v>
+        <v>-87.362111999999996</v>
       </c>
     </row>
     <row r="173" spans="2:23">
@@ -13457,25 +13908,25 @@
         <v>3</v>
       </c>
       <c r="E173" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I173" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J173" s="11" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
       <c r="L173" s="1" t="s">
         <v>30</v>
@@ -13484,28 +13935,28 @@
         <v>1</v>
       </c>
       <c r="N173" s="11" t="s">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
       <c r="P173" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q173" s="1" t="s">
-        <v>493</v>
+        <v>534</v>
       </c>
       <c r="R173" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S173" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V173" s="2">
-        <v>15.024939</v>
+        <v>13.568472999999999</v>
       </c>
       <c r="W173" s="2">
-        <v>-88.835689000000002</v>
+        <v>-86.907604000000006</v>
       </c>
     </row>
     <row r="174" spans="2:23">
@@ -13531,13 +13982,13 @@
         <v>27</v>
       </c>
       <c r="I174" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J174" s="11" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>495</v>
+        <v>536</v>
       </c>
       <c r="L174" s="1" t="s">
         <v>30</v>
@@ -13546,28 +13997,28 @@
         <v>1</v>
       </c>
       <c r="N174" s="11" t="s">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>495</v>
+        <v>536</v>
       </c>
       <c r="P174" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>497</v>
+        <v>538</v>
       </c>
       <c r="R174" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S174" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V174" s="2">
-        <v>13.665829</v>
+        <v>13.293342000000001</v>
       </c>
       <c r="W174" s="2">
-        <v>-87.362111999999996</v>
+        <v>-87.111866000000006</v>
       </c>
     </row>
     <row r="175" spans="2:23">
@@ -13593,13 +14044,13 @@
         <v>27</v>
       </c>
       <c r="I175" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J175" s="11" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="L175" s="1" t="s">
         <v>30</v>
@@ -13608,28 +14059,28 @@
         <v>1</v>
       </c>
       <c r="N175" s="11" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="P175" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q175" s="1" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="R175" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S175" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V175" s="2">
-        <v>13.568472999999999</v>
+        <v>13.284371999999999</v>
       </c>
       <c r="W175" s="2">
-        <v>-86.907604000000006</v>
+        <v>-87.312591999999995</v>
       </c>
     </row>
     <row r="176" spans="2:23">
@@ -13655,13 +14106,13 @@
         <v>27</v>
       </c>
       <c r="I176" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J176" s="11" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="L176" s="1" t="s">
         <v>30</v>
@@ -13670,28 +14121,28 @@
         <v>1</v>
       </c>
       <c r="N176" s="11" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="P176" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q176" s="1" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="R176" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S176" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V176" s="2">
-        <v>13.293342000000001</v>
+        <v>13.203086000000001</v>
       </c>
       <c r="W176" s="2">
-        <v>-87.111866000000006</v>
+        <v>-87.138760000000005</v>
       </c>
     </row>
     <row r="177" spans="2:23">
@@ -13720,40 +14171,40 @@
         <v>7</v>
       </c>
       <c r="J177" s="11" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="L177" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M177" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N177" s="11" t="s">
-        <v>508</v>
+        <v>547</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="P177" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q177" s="1" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="R177" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S177" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V177" s="2">
-        <v>13.284371999999999</v>
+        <v>13.198708</v>
       </c>
       <c r="W177" s="2">
-        <v>-87.312591999999995</v>
+        <v>-87.375152999999997</v>
       </c>
     </row>
     <row r="178" spans="2:23">
@@ -13767,55 +14218,50 @@
         <v>3</v>
       </c>
       <c r="E178" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F178" s="10" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I178" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J178" s="11" t="s">
-        <v>510</v>
+        <v>549</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>511</v>
+        <v>550</v>
       </c>
       <c r="L178" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M178" s="1">
-        <v>1</v>
-      </c>
-      <c r="N178" s="11" t="s">
-        <v>512</v>
-      </c>
+      <c r="N178" s="11"/>
       <c r="O178" s="1" t="s">
-        <v>511</v>
+        <v>550</v>
       </c>
       <c r="P178" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q178" s="1" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="R178" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S178" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V178" s="2">
-        <v>13.203086000000001</v>
+        <v>13.932454999999999</v>
       </c>
       <c r="W178" s="2">
-        <v>-87.138760000000005</v>
+        <v>-87.297745000000006</v>
       </c>
     </row>
     <row r="179" spans="2:23">
@@ -13829,55 +14275,55 @@
         <v>3</v>
       </c>
       <c r="E179" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I179" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J179" s="11" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="L179" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M179" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N179" s="11" t="s">
-        <v>514</v>
+        <v>554</v>
       </c>
       <c r="O179" s="1" t="s">
-        <v>515</v>
+        <v>553</v>
       </c>
       <c r="P179" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q179" s="1" t="s">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="R179" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S179" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="V179" s="2">
-        <v>13.198708</v>
+        <v>14.915877999999999</v>
       </c>
       <c r="W179" s="2">
-        <v>-87.375152999999997</v>
+        <v>-87.194401999999997</v>
       </c>
     </row>
     <row r="180" spans="2:23">
@@ -13890,27 +14336,56 @@
       <c r="D180" s="1">
         <v>3</v>
       </c>
-      <c r="E180" s="7"/>
-      <c r="F180" s="10"/>
+      <c r="E180" s="7">
+        <v>8</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H180" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J180" s="11"/>
+      <c r="I180" s="1">
+        <v>5</v>
+      </c>
+      <c r="J180" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="L180" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N180" s="11"/>
+      <c r="M180" s="1">
+        <v>1</v>
+      </c>
+      <c r="N180" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="P180" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q180" s="1" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="R180" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S180" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
+      </c>
+      <c r="V180" s="2">
+        <v>14.754858</v>
+      </c>
+      <c r="W180" s="2">
+        <v>-87.188080999999997</v>
       </c>
     </row>
     <row r="181" spans="2:23">
@@ -13923,27 +14398,56 @@
       <c r="D181" s="1">
         <v>3</v>
       </c>
-      <c r="E181" s="7"/>
-      <c r="F181" s="10"/>
+      <c r="E181" s="7">
+        <v>8</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H181" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J181" s="11"/>
+      <c r="I181" s="1">
+        <v>14</v>
+      </c>
+      <c r="J181" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="L181" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N181" s="11"/>
+      <c r="M181" s="1">
+        <v>1</v>
+      </c>
+      <c r="N181" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="P181" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q181" s="1" t="s">
-        <v>516</v>
+        <v>563</v>
       </c>
       <c r="R181" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S181" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
+      </c>
+      <c r="V181" s="2">
+        <v>14.714986</v>
+      </c>
+      <c r="W181" s="2">
+        <v>-86.942893999999995</v>
       </c>
     </row>
     <row r="182" spans="2:23">
@@ -13956,27 +14460,56 @@
       <c r="D182" s="1">
         <v>3</v>
       </c>
-      <c r="E182" s="7"/>
-      <c r="F182" s="10"/>
+      <c r="E182" s="7">
+        <v>8</v>
+      </c>
+      <c r="F182" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H182" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J182" s="11"/>
+      <c r="I182" s="1">
+        <v>19</v>
+      </c>
+      <c r="J182" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>565</v>
+      </c>
       <c r="L182" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N182" s="11"/>
+      <c r="M182" s="1">
+        <v>1</v>
+      </c>
+      <c r="N182" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>565</v>
+      </c>
       <c r="P182" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q182" s="1" t="s">
-        <v>516</v>
+        <v>567</v>
       </c>
       <c r="R182" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S182" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
+      </c>
+      <c r="V182" s="2">
+        <v>14.654638</v>
+      </c>
+      <c r="W182" s="2">
+        <v>-87.036589000000006</v>
       </c>
     </row>
     <row r="183" spans="2:23">
@@ -13989,27 +14522,56 @@
       <c r="D183" s="1">
         <v>3</v>
       </c>
-      <c r="E183" s="7"/>
-      <c r="F183" s="10"/>
+      <c r="E183" s="7">
+        <v>8</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H183" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J183" s="11"/>
+      <c r="I183" s="1">
+        <v>3</v>
+      </c>
+      <c r="J183" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>569</v>
+      </c>
       <c r="L183" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N183" s="11"/>
+      <c r="M183" s="1">
+        <v>1</v>
+      </c>
+      <c r="N183" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>569</v>
+      </c>
       <c r="P183" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q183" s="1" t="s">
-        <v>516</v>
+        <v>571</v>
       </c>
       <c r="R183" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S183" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
+      </c>
+      <c r="V183" s="2">
+        <v>14.593650999999999</v>
+      </c>
+      <c r="W183" s="2">
+        <v>-87.119091999999995</v>
       </c>
     </row>
     <row r="184" spans="2:23">
@@ -14022,27 +14584,56 @@
       <c r="D184" s="1">
         <v>3</v>
       </c>
-      <c r="E184" s="7"/>
-      <c r="F184" s="10"/>
+      <c r="E184" s="7">
+        <v>9</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="H184" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J184" s="11"/>
+      <c r="I184" s="1">
+        <v>2</v>
+      </c>
+      <c r="J184" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="L184" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N184" s="11"/>
+      <c r="M184" s="1">
+        <v>4</v>
+      </c>
+      <c r="N184" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="P184" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q184" s="1" t="s">
-        <v>516</v>
+        <v>331</v>
       </c>
       <c r="R184" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S184" s="1" t="s">
-        <v>361</v>
+        <v>394</v>
+      </c>
+      <c r="V184" s="2">
+        <v>15.893539000000001</v>
+      </c>
+      <c r="W184" s="2">
+        <v>-84.776458000000005</v>
       </c>
     </row>
     <row r="185" spans="2:23">
@@ -14055,29 +14646,495 @@
       <c r="D185" s="1">
         <v>3</v>
       </c>
-      <c r="E185" s="7"/>
-      <c r="F185" s="10"/>
+      <c r="E185" s="7">
+        <v>9</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="H185" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J185" s="11"/>
+      <c r="I185" s="1">
+        <v>2</v>
+      </c>
+      <c r="J185" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="L185" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N185" s="11"/>
+      <c r="M185" s="1">
+        <v>2</v>
+      </c>
+      <c r="N185" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="P185" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q185" s="1" t="s">
-        <v>516</v>
+        <v>331</v>
       </c>
       <c r="R185" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S185" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
+        <v>394</v>
+      </c>
+      <c r="V185" s="2">
+        <v>15.799147</v>
+      </c>
+      <c r="W185" s="2">
+        <v>-84.294206000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="2:23">
+      <c r="B186" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D186" s="1">
+        <v>3</v>
+      </c>
+      <c r="E186" s="7">
+        <v>9</v>
+      </c>
+      <c r="F186" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I186" s="1">
+        <v>3</v>
+      </c>
+      <c r="J186" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M186" s="1">
+        <v>32</v>
+      </c>
+      <c r="N186" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S186" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="V186" s="2">
+        <v>15.064120000000001</v>
+      </c>
+      <c r="W186" s="2">
+        <v>-83.298761999999996</v>
+      </c>
+    </row>
+    <row r="187" spans="2:23">
+      <c r="B187" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D187" s="1">
+        <v>3</v>
+      </c>
+      <c r="E187" s="7">
+        <v>9</v>
+      </c>
+      <c r="F187" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I187" s="1">
+        <v>4</v>
+      </c>
+      <c r="J187" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M187" s="1">
+        <v>7</v>
+      </c>
+      <c r="N187" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S187" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="V187" s="2">
+        <v>15.043042</v>
+      </c>
+      <c r="W187" s="2">
+        <v>-84.874465000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="2:23">
+      <c r="B188" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D188" s="1">
+        <v>3</v>
+      </c>
+      <c r="E188" s="7">
+        <v>15</v>
+      </c>
+      <c r="F188" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I188" s="1">
+        <v>17</v>
+      </c>
+      <c r="J188" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M188" s="1">
+        <v>19</v>
+      </c>
+      <c r="N188" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="R188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S188" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="V188" s="2">
+        <v>15.079923000000001</v>
+      </c>
+      <c r="W188" s="2">
+        <v>-85.832560000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="2:23">
+      <c r="B189" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D189" s="1">
+        <v>3</v>
+      </c>
+      <c r="E189" s="7">
+        <v>15</v>
+      </c>
+      <c r="F189" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I189" s="1">
+        <v>10</v>
+      </c>
+      <c r="J189" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M189" s="1">
+        <v>1</v>
+      </c>
+      <c r="N189" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q189" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="R189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S189" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="V189" s="2">
+        <v>15.079139</v>
+      </c>
+      <c r="W189" s="2">
+        <v>-86.418364999999994</v>
+      </c>
+    </row>
+    <row r="190" spans="2:23">
+      <c r="B190" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D190" s="1">
+        <v>3</v>
+      </c>
+      <c r="E190" s="7">
+        <v>15</v>
+      </c>
+      <c r="F190" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I190" s="1">
+        <v>14</v>
+      </c>
+      <c r="J190" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M190" s="1">
+        <v>1</v>
+      </c>
+      <c r="N190" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q190" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="R190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S190" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="V190" s="2">
+        <v>15.035551</v>
+      </c>
+      <c r="W190" s="2">
+        <v>-86.819034000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="2:23">
+      <c r="B191" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D191" s="1">
+        <v>3</v>
+      </c>
+      <c r="E191" s="7">
+        <v>15</v>
+      </c>
+      <c r="F191" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I191" s="1">
+        <v>12</v>
+      </c>
+      <c r="J191" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M191" s="1">
+        <v>1</v>
+      </c>
+      <c r="N191" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q191" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="R191" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S191" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="V191" s="2">
+        <v>15.028809000000001</v>
+      </c>
+      <c r="W191" s="2">
+        <v>-86.508201999999997</v>
+      </c>
+    </row>
+    <row r="192" spans="2:23">
+      <c r="B192" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D192" s="1">
+        <v>3</v>
+      </c>
+      <c r="E192" s="7">
+        <v>15</v>
+      </c>
+      <c r="F192" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I192" s="1">
+        <v>18</v>
+      </c>
+      <c r="J192" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M192" s="1">
+        <v>1</v>
+      </c>
+      <c r="N192" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q192" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="R192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S192" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="V192" s="2">
+        <v>14.644175000000001</v>
+      </c>
+      <c r="W192" s="2">
+        <v>-86.105974000000003</v>
+      </c>
+    </row>
+    <row r="193" ht="15"/>
+    <row r="194" ht="15"/>
+    <row r="195" ht="15"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U83">
     <sortCondition ref="R2:R83"/>

--- a/datacovidhn/SALUD_HN.xlsx
+++ b/datacovidhn/SALUD_HN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -2858,8 +2858,8 @@
   <dimension ref="A1:W195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="P178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A194" sqref="A193:XFD194"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
